--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="sport_params1" sheetId="3" r:id="rId2"/>
-    <sheet name="sportReport1" sheetId="2" r:id="rId3"/>
+    <sheet name="sport_params" sheetId="3" r:id="rId2"/>
+    <sheet name="sportReport" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -906,9 +906,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -982,7 +982,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -991,7 +990,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,9 +1010,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,31 +1033,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,7 +1050,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,31 +1081,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,15 +1103,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,13 +1141,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,67 +1195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1219,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,67 +1309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,10 +1331,41 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1361,50 +1386,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,11 +1412,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,10 +1434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1452,19 +1446,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,112 +1467,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34749,7 +34743,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -34804,7 +34798,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="sportMarket" sheetId="14" r:id="rId14"/>
     <sheet name="tournament_params" sheetId="15" r:id="rId15"/>
     <sheet name="tournamentReport" sheetId="16" r:id="rId16"/>
+    <sheet name="match_params" sheetId="17" r:id="rId17"/>
+    <sheet name="matchReport" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="324">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -127,6 +129,12 @@
     <t>f"SELECT tournament_name '联赛名称',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN o_account_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' GROUP BY tournament_name UNION SELECT ('串关') '串关',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN v_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type!=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}'"</t>
   </si>
   <si>
+    <t>比赛报表</t>
+  </si>
+  <si>
+    <t>f"SELECT match_id '赛事ID',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a LEFT JOIN o_account_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' GROUP BY match_id UNION SELECT ('串关') '串关',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN v_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type!=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}'"</t>
+  </si>
+  <si>
     <t>用例编号</t>
   </si>
   <si>
@@ -190,7 +198,7 @@
     <t>{"page":1,"limit":50,"account":"","parentId":0}</t>
   </si>
   <si>
-    <t>f"SELECT CONCAT(a.account,'/',IFNULL(a.login_account,'')) as '账号/登入账号',a.`name` '代理线名称',(case when role_id=0 then '登0' when role_id=1 then '登1' when role_id=2 then '登2' when role_id=3 then '登3' end) '等级',b.currency '货币',COUNT(1) '注单数量',sum(bet_amount) '总投注额',sum(ROUND(bet_amount*level0_actual_percentage,2)) '总代理占成',sum(ROUND(bet_amount*company_actual_percentage,2)) '公司占成' FROM `m_account` a JOIN m_account_credits b ON a.id = b.account_id LEFT JOIN o_account_order c ON a.id = c.proxy0_id WHERE a.role_id= 0 AND c.`status` in (1,2) AND c.award_time is NULL GROUP BY CONCAT(a.account,'/',IFNULL(a.login_account,'')),a.`name`,role_id,b.currency,a.create_time ORDER BY a.create_time DESC"</t>
+    <t>f"SELECT CONCAT(a.account,'/',IFNULL(a.login_account,'')) as '账号/登入账号',a.`name` '代理线名称',(case when role_id=0 then '登0' when role_id=1 then '登1' when role_id=2 then '登2' when role_id=3 then '登3' end) '等级',b.currency '货币',COUNT(1) '注单数量',sum(bet_amount) '总投注额',sum(ROUND(bet_amount*level0_actual_percentage,2)) '总</t>
   </si>
   <si>
     <t>['account','name','orderNo','bettingTime','sportsType','betType','betAmount','betResult','level0Percentage','companyPercentage']</t>
@@ -337,7 +345,7 @@
     <t>{"page":1,"limit":50,"account":"","parentId":0,"startTime":"-30","endTime":"-1"}</t>
   </si>
   <si>
-    <t>f"SELECT CONCAT(a.account,'/',IFNULL(a.login_account,'')) as '账号/登入账号',a.`name` '代理线名称',(case when role_id=0 then '登0' when role_id=1 then '登1' when role_id=2 then '登2' when role_id=3 then '登3' end) '等级',COUNT(1) '注单数量',sum(bet_amount) '总投注额',sum(efficient_amount) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_win_or_lose) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(IFNULL(company_backwater_amount,0)) '公司佣金',sum(company_win_or_lose) '公司总计' FROM `m_account` a JOIN m_account_credits b ON a.id = b.account_id LEFT JOIN o_account_order c ON a.id = c.proxy0_id WHERE a.role_id= 0 AND c.`status`=2 AND c.award_time is not null AND DATE_FORMAT(c.award_time,'%Y-%m-%d') BETWEEN date_sub(DATE_FORMAT(CONVERT_TZ(NOW(),'+00:00','-04:00'),'%Y-%m-%d'), interval 30 day) AND date_sub(DATE_FORMAT(CONVERT_TZ(NOW(),'+00:00','-04:00'),'%Y-%m-%d'), interval 1 day) GROUP BY CONCAT(a.account,'/',IFNULL(a.login_account,'')),a.`name`,role_id,b.currency,a.create_time ORDER BY a.create_time DESC"</t>
+    <t>f"SELECT CONCAT(a.account,'/',IFNULL(a.login_account,'')) as '账号/登入账号',a.`name` '代理线名称',(case when role_id=0 then '登0' when role_id=1 then '登1' when role_id=2 then '登2' when role_id=3 then '登3' end) '等级',COUNT(1) '注单数量',sum(bet_amount) '总投注额',sum(efficient_amount) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_win_or_lose) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代</t>
   </si>
   <si>
     <t>测试通过 
@@ -413,10 +421,10 @@
     <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '账号/登入账号',d.`name` '名称',a.order_no as '注单号',a.create_time as '投注时间',(CASE WHEN a.sport_category_id= 1 then '足球' WHEN a.sport_category_id = 2 THEN '篮球' WHEN a.sport_category_id = 3 THEN '网球' WHEN a.sport_category_id = 4 THEN '排球' WHEN a.sport_category_id = 5 THEN '羽毛球' WHEN a.sport_category_id = 6 THEN '乒乓球' WHEN a.sport_category_id = 7 THEN '棒球' WHEN a.sport_category_id = 100 THEN '冰上曲棍球' END)as '球类',(case when a.bet_type=1 then '单关' when a.bet_type=2 then '串关' when a.bet_type=3 then '复式串关' end ) as '注单类型',tournament_name '联赛名称',CONCAT( home_team_name, ' Vs ', away_team_name ) '赛事名称',IF(is_live=3,'早盘','滚球盘') '赛事类型',market_name  '盘口名称',specifier '亚盘口',outcome_name  '投注项名称',cast(credit_odds as char) '赔率',if(odds_type=1,'欧洲盘','香港盘') '盘口类型',match_time '赛事时间',ifnull(award_time,'--') as '结算时间',(CASE WHEN a.settlement_result=1 then '赢' WHEN a.settlement_result=2 then '输' WHEN a.settlement_result=5 then '平局走水' WHEN a.settlement_result=1 then '注单取消' END) as '注单结果',CONCAT(bet_ip, +' / ',+ ip_address) '下注IP地址',bet_amount as '投注金额',handicap_win_or_lose '注单输赢',efficient_amount '有效金额',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL AND DATE_FORMAT(a.award_time,'%Y-%m-%d') BETWEEN '{startTime}' AND '{endTime}' AND d.account='{account_Str}' ORDER BY a.create_time DESC"</t>
   </si>
   <si>
-    <t>[['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', [['阿根廷全国足球甲级联赛', '科尔多巴竞技 Vs 申察勒斯联合', '早盘', '大/小', 'total=2.25', '大2/2.5', 0.97, '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', 0.86, '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', 0.8, '香港盘', '2022-06-27 14:00:00']], '2022-06-27 21:35:10', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 50.0, -50.0, 50.0, 0.2, 10.0, 0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.1, 5.0, 0.0, 0.0, 5.0, 0.3, 15.0, 0.0, 0.0, 15.0, -50.0, 0.0, 0.0, -50.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', 0.86, '香港盘', '2022-06-27 19:30:00'], '2022-06-27 21:35:10', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 50.0, -50.0, 50.0, 0.2, 10.0, 0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.1, 5.0, 0.0, 0.0, 5.0, 0.3, 15.0, 0.0, 0.0, 15.0, -50.0, 0.0, 0.0, -50.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', 0.8, '香港盘', '2022-06-27 14:00:00'], '2022-06-27 21:35:10', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 50.0, -50.0, 50.0, 0.2, 10.0, 0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.1, 5.0, 0.0, 0.0, 5.0, 0.3, 15.0, 0.0, 0.0, 15.0, -50.0, 0.0, 0.0, -50.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', [['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=2', '大2', 1.11, '香港盘', '2022-06-27 12:45:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', 1.9, '欧洲盘', '2022-06-27 14:00:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', 1.07, '香港盘', '2022-06-27 19:30:00']], '2022-06-27 22:01:27', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 100.0, 293.3, 100.0, 0.2, -58.66, 0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.1, -29.33, 0.0, 0.0, -29.33, 0.3, -87.99, 0.0, 0.0, -87.99, 293.3, 0.0, 0.0, 293.3], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', 1.9, '欧洲盘', '2022-06-27 14:00:00'], '2022-06-27 22:01:27', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 100.0, 293.3, 100.0, 0.2, -58.66, 0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.1, -29.33, 0.0, 0.0, -29.33, 0.3, -87.99, 0.0, 0.0, -87.99, 293.3, 0.0, 0.0, 293.3], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', 1.07, '香港盘', '2022-06-27 19:30:00'], '2022-06-27 22:01:27', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 100.0, 293.3, 100.0, 0.2, -58.66, 0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.1, -29.33, 0.0, 0.0, -29.33, 0.3, -87.99, 0.0, 0.0, -87.99, 293.3, 0.0, 0.0, 293.3], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKZPkyF6AR', '2022-06-24 01:19:51', '乒乓球', '单关', ['国际Ukraine Win Cup', '法舍夫斯基, 伊万 Vs Mukha,taras', '滚球盘', '总分', 'total=95.5', '小95.5', 0.42, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:22:04', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 747.0, 313.74, 313.74, 0.2, -62.77, 0, -0.14, -62.91, 0.2, -62.74, 0.0021, -0.13, -62.87, 0.2, -62.74, 0.0021, -0.08, -62.82, 0.1, -31.37, 0.0019, 0.03, -31.34, 0.3, -94.12, 0.0015, 0.26, -93.86, 313.74, 0.0002, 0.06, 313.8], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKYGQXk5XQ', '2022-06-24 01:19:48', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '独赢', '', 'Dmu', 3.0, '欧洲盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:12', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 576.0, -576.0, 576.0, 0.2, 115.2, 0, 0.0, 115.2, 0.2, 115.2, 0.0, 0.0, 115.2, 0.2, 115.2, 0.0, 0.0, 115.2, 0.1, 57.6, 0.0, 0.0, 57.6, 0.3, 172.8, 0.0, 0.0, 172.8, -576.0, 0.0, 0.0, -576.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKXzQmYgU6', '2022-06-24 01:19:44', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '大/小', 'total=1.5', '小1.5', 1.42, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:53:43', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 319.0, -319.0, 319.0, 0.2, 63.8, 0, -0.14, 63.66, 0.2, 63.8, 0.0021, -0.13, 63.67, 0.2, 63.8, 0.0021, -0.09, 63.71, 0.1, 31.9, 0.0019, 0.03, 31.93, 0.3, 95.7, 0.0015, 0.27, 95.97, -319.0, 0.0002, 0.06, -318.94], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKWsV4C2nx', '2022-06-24 01:19:41', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '上半场 - 大/小', 'total=0.75', '小0.5/1', 0.6, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:48:54', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 538.0, 322.8, 322.8, 0.2, -64.56, 0, -0.14, -64.7, 0.2, -64.56, 0.0021, -0.14, -64.7, 0.2, -64.56, 0.0021, -0.08, -64.64, 0.1, -32.28, 0.0019, 0.03, -32.25, 0.3, -96.84, 0.0015, 0.27, -96.57, 322.8, 0.0002, 0.06, 322.86], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKSUwWcAVX', '2022-06-24 01:19:30', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '大/小', 'total=3.75', '大3.5/4', 0.48, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:52:08', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 746.0, 179.04, 179.04, 0.2, -35.83, 0, -0.08, -35.91, 0.2, -35.8, 0.0021, -0.08, -35.88, 0.2, -35.8, 0.0021, -0.04, -35.84, 0.1, -17.9, 0.0019, 0.02, -17.88, 0.3, -53.71, 0.0015, 0.15, -53.56, 179.04, 0.0002, 0.03, 179.07], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKRGj8UjE9', '2022-06-24 01:19:26', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '长田安利 Vs 尚塔, 昂奇萨', '滚球盘', '让盘', 'hcp=1.5', '尚塔, 昂奇萨 ', 0.16, '香港盘', '2022-06-24 00:30:00'], '2022-06-24 01:42:42', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 299.0, 47.84, 47.84, 0.2, -9.59, 0, -0.03, -9.62, 0.2, -9.56, 0.0021, -0.02, -9.58, 0.2, -9.56, 0.0021, 0.0, -9.56, 0.1, -4.78, 0.0019, 0.0, -4.78, 0.3, -14.35, 0.0015, 0.05, -14.3, 47.84, 0.0002, 0.0, 47.84], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKKWxZyBKv', '2022-06-24 01:19:08', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '让球', 'hcp=1', 'Dalian Professional Srl ', 0.93, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:54:00', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 383.0, 356.19, 356.19, 0.2, -71.27, 0, -0.15, -71.42, 0.2, -71.23, 0.0021, -0.15, -71.38, 0.2, -71.23, 0.0021, -0.1, -71.33, 0.1, -35.61, 0.0019, 0.03, -35.58, 0.3, -106.85, 0.0015, 0.3, -106.55, 356.19, 0.0002, 0.07, 356.26], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKHEyiFBGs', '2022-06-24 01:19:01', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '上半场 - 让球', 'hcp=2.25', 'Changchun Yatai Srl ', 0.57, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:48:32', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 368.0, 209.76, 209.76, 0.2, -41.97, 0, -0.09, -42.06, 0.2, -41.95, 0.0021, -0.09, -42.04, 0.2, -41.95, 0.0021, -0.05, -42.0, 0.1, -20.97, 0.0019, 0.01, -20.96, 0.3, -62.92, 0.0015, 0.18, -62.74, 209.76, 0.0002, 0.04, 209.8], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKGxwVa9Kj', '2022-06-24 01:18:57', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '让球', 'hcp=3.75', 'Guangzhou R&amp;f FC Srl ', 0.65, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:52:08', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 765.0, -382.5, 382.5, 0.2, 76.5, 0, -0.17, 76.33, 0.2, 76.5, 0.0021, -0.16, 76.34, 0.2, 76.5, 0.0021, -0.1, 76.4, 0.1, 38.25, 0.0019, 0.03, 38.28, 0.3, 114.75, 0.0015, 0.33, 115.08, -382.5, 0.0002, 0.07, -382.43], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKEcDba6vx', '2022-06-24 01:18:50', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '乌伊达, 拉姆 Vs 卡瓦古奇, 纳图米', '滚球盘', '总盘数', 'total=2.5', '大2.5', 1.0, '香港盘', '2022-06-24 00:30:00'], '2022-06-24 02:00:00', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 366.0, -366.0, 366.0, 0.2, 73.2, 0, -0.16, 73.04, 0.2, 73.2, 0.0021, -0.15, 73.05, 0.2, 73.2, 0.0021, -0.1, 73.1, 0.1, 36.6, 0.0019, 0.03, 36.63, 0.3, 109.8, 0.0015, 0.31, 110.11, -366.0, 0.0002, 0.07, -365.93], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKAMXYLWc4', '2022-06-24 01:18:39', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '上半场 - 大/小', 'total=2.5', '大2.5', 0.65, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:38:37', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 484.0, 314.6, 314.6, 0.2, -62.92, 0, -0.14, -63.06, 0.2, -62.92, 0.0021, -0.13, -63.05, 0.2, -62.92, 0.0021, -0.08, -63.0, 0.1, -31.46, 0.0019, 0.02, -31.44, 0.3, -94.38, 0.0015, 0.27, -94.11, 314.6, 0.0002, 0.06, 314.66], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKzF5MAhbb', '2022-06-24 01:18:35', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '独赢', '', 'Khovd Western', 1.75, '欧洲盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:12', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 343.0, 257.25, 257.25, 0.2, -51.46, 0, 0.0, -51.46, 0.2, -51.45, 0.0, 0.0, -51.45, 0.2, -51.45, 0.0, 0.0, -51.45, 0.1, -25.72, 0.0, 0.0, -25.72, 0.3, -77.17, 0.0, 0.0, -77.17, 257.25, 0.0, 0.0, 257.25], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKyy3PPe6b', '2022-06-24 01:18:32', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '乌伊达, 拉姆 Vs 卡瓦古奇, 纳图米', '滚球盘', '独赢', '', '乌伊达, 拉姆', 1.75, '欧洲盘', '2022-06-24 00:30:00'], '2022-06-24 02:00:00', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 802.0, 601.5, 601.5, 0.2, -120.3, 0, 0.0, -120.3, 0.2, -120.3, 0.0, 0.0, -120.3, 0.2, -120.3, 0.0, 0.0, -120.3, 0.1, -60.15, 0.0, 0.0, -60.15, 0.3, -180.45, 0.0, 0.0, -180.45, 601.5, 0.0, 0.0, 601.5], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKwhkQwJkn', '2022-06-24 01:18:25', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '大/小', 'total=4.25', '小4/4.5', 0.97, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:12', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 604.0, 585.88, 585.88, 0.2, -117.2, 0, -0.25, -117.45, 0.2, -117.17, 0.0021, -0.25, -117.42, 0.2, -117.17, 0.0021, -0.16, -117.33, 0.1, -58.58, 0.0019, 0.05, -58.53, 0.3, -175.76, 0.0015, 0.5, -175.26, 585.88, 0.0002, 0.11, 585.99], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKv5QqnC8D', '2022-06-24 01:18:21', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '让球', 'hcp=1.25', 'Dalian Professional Srl ', 0.67, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:54:00', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 675.0, 452.25, 452.25, 0.2, -90.46, 0, -0.19, -90.65, 0.2, -90.45, 0.0021, -0.19, -90.64, 0.2, -90.45, 0.0021, -0.13, -90.58, 0.1, -45.22, 0.0019, 0.04, -45.18, 0.3, -135.67, 0.0015, 0.38, -135.29, 452.25, 0.0002, 0.09, 452.34], ['a0b1b2b3a3/a3', '李杨会员03', 'XGQXjR9m2gg7', '2022-06-23 01:17:49', '足球', '串关', [['埃塞俄比亚超级联赛', 'Addis Ababa City FC Vs 瑟伯塔城 FC', '早盘', '总入球', 'variant=sr:goal_range:7+', '2-3', 1.98, '欧洲盘', '2022-06-23 09:00:00'], ['立陶宛乙级联赛', '内维济斯 Vs FA苏里亚 B', '早盘', '波胆', '', '2:2', 13.95, '欧洲盘', '2022-06-23 10:00:00'], ['白俄罗斯白罗斯杯', '格佐維克維迪比斯克 Vs FC特兰斯迈', '早盘', '双重机会&amp;两队都进球', '', '和局/FC特兰斯迈 &amp; 不是', 1.85, '欧洲盘', '2022-06-23 10:30:00'], ['白俄罗斯白</t>
+    <t>[['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', [['阿根廷全国足球甲级联赛', '科尔多巴竞技 Vs 申察勒斯联合', '早盘', '大/小', 'total=2.25', '大2/2.5', 0.97, '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', 0.86, '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', 0.8, '香港盘', '2022-06-27 14:00:00']], '2022-06-27 21:35:10', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 50.0, -50.0, 50.0, 0.2, 10.0, 0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.1, 5.0, 0.0, 0.0, 5.0, 0.3, 15.0, 0.0, 0.0, 15.0, -50.0, 0.0, 0.0, -50.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', 0.86, '香港盘', '2022-06-27 19:30:00'], '2022-06-27 21:35:10', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 50.0, -50.0, 50.0, 0.2, 10.0, 0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.1, 5.0, 0.0, 0.0, 5.0, 0.3, 15.0, 0.0, 0.0, 15.0, -50.0, 0.0, 0.0, -50.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', 0.8, '香港盘', '2022-06-27 14:00:00'], '2022-06-27 21:35:10', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 50.0, -50.0, 50.0, 0.2, 10.0, 0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.2, 10.0, 0.0, 0.0, 10.0, 0.1, 5.0, 0.0, 0.0, 5.0, 0.3, 15.0, 0.0, 0.0, 15.0, -50.0, 0.0, 0.0, -50.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', [['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=2', '大2', 1.11, '香港盘', '2022-06-27 12:45:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', 1.9, '欧洲盘', '2022-06-27 14:00:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', 1.07, '香港盘', '2022-06-27 19:30:00']], '2022-06-27 22:01:27', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 100.0, 293.3, 100.0, 0.2, -58.66, 0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.1, -29.33, 0.0, 0.0, -29.33, 0.3, -87.99, 0.0, 0.0, -87.99, 293.3, 0.0, 0.0, 293.3], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', 1.9, '欧洲盘', '2022-06-27 14:00:00'], '2022-06-27 22:01:27', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 100.0, 293.3, 100.0, 0.2, -58.66, 0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.1, -29.33, 0.0, 0.0, -29.33, 0.3, -87.99, 0.0, 0.0, -87.99, 293.3, 0.0, 0.0, 293.3], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', 1.07, '香港盘', '2022-06-27 19:30:00'], '2022-06-27 22:01:27', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 100.0, 293.3, 100.0, 0.2, -58.66, 0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.2, -58.66, 0.0, 0.0, -58.66, 0.1, -29.33, 0.0, 0.0, -29.33, 0.3, -87.99, 0.0, 0.0, -87.99, 293.3, 0.0, 0.0, 293.3], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKZPkyF6AR', '2022-06-24 01:19:51', '乒乓球', '单关', ['国际Ukraine Win Cup', '法舍夫斯基, 伊万 Vs Mukha,taras', '滚球盘', '总分', 'total=95.5', '小95.5', 0.42, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:22:04', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 747.0, 313.74, 313.74, 0.2, -62.77, 0, -0.14, -62.91, 0.2, -62.74, 0.0021, -0.13, -62.87, 0.2, -62.74, 0.0021, -0.08, -62.82, 0.1, -31.37, 0.0019, 0.03, -31.34, 0.3, -94.12, 0.0015, 0.26, -93.86, 313.74, 0.0002, 0.06, 313.8], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKYGQXk5XQ', '2022-06-24 01:19:48', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '独赢', '', 'Dmu', 3.0, '欧洲盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:12', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 576.0, -576.0, 576.0, 0.2, 115.2, 0, 0.0, 115.2, 0.2, 115.2, 0.0, 0.0, 115.2, 0.2, 115.2, 0.0, 0.0, 115.2, 0.1, 57.6, 0.0, 0.0, 57.6, 0.3, 172.8, 0.0, 0.0, 172.8, -576.0, 0.0, 0.0, -576.0], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKXzQmYgU6', '2022-06-24 01:19:44', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '大/小', 'total=1.5', '小1.5', 1.42, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:53:43', '输', 'mde.betf.io / 台湾省彰化县市谷歌', 319.0, -319.0, 319.0, 0.2, 63.8, 0, -0.14, 63.66, 0.2, 63.8, 0.0021, -0.13, 63.67, 0.2, 63.8, 0.0021, -0.09, 63.71, 0.1, 31.9, 0.0019, 0.03, 31.93, 0.3, 95.7, 0.0015, 0.27, 95.97, -319.0, 0.0002, 0.06, -318.94], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKWsV4C2nx', '2022-06-24 01:19:41', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '上半场 - 大/小', 'total=0.75', '小0.5/1', 0.6, '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:48:54', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', 538.0, 322.8, 322.8, 0.2, -64.56, 0, -0.14, -64.7, 0.2, -64.56, 0.0021, -0.14, -64.7, 0.2, -64.56, 0.0021, -0.08, -64.64, 0.1, -32.28, 0.0019, 0.03, -32.25, 0.3, -96.84, 0.0015, 0.27, -96.57, 322.8, 0.0002, 0.06, 322.86], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKSUwWcAVX', '2022-06-24 01:19:30', '足球', '单</t>
   </si>
   <si>
-    <t>[['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', [['阿根廷全国足球甲级联赛', '科尔多巴竞技 Vs 申察勒斯联合', '早盘', '大/小', 'total=2.25', '大2/2.5', '0.970', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00']], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', [['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=2', '大2', '1.110', '香港盘', '2022-06-27 12:45:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', '1.900', '欧洲盘', '2022-06-27 14:00:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', '1.070', '香港盘', '2022-06-27 19:30:00']], '2022-06-27 22:01:28', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('100.00'), Decimal('293.30'), Decimal('100.00'), Decimal('0.20'), Decimal('-58.66'), 0, Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.10'), Decimal('-29.33'), Decimal('0.0000'), Decimal('0.00'), Decimal('-29.33'), Decimal('0.30'), Decimal('-87.99'), Decimal('0.0000'), Decimal('0.00'), Decimal('-87.99'), Decimal('293.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('293.30')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', '1.900', '欧洲盘', '2022-06-27 14:00:00'], '2022-06-27 22:01:28', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('100.00'), Decimal('293.30'), Decimal('100.00'), Decimal('0.20'), Decimal('-58.66'), 0, Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.10'), Decimal('-29.33'), Decimal('0.0000'), Decimal('0.00'), Decimal('-29.33'), Decimal('0.30'), Decimal('-87.99'), Decimal('0.0000'), Decimal('0.00'), Decimal('-87.99'), Decimal('293.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('293.30')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', '1.070', '香港盘', '2022-06-27 19:30:00'], '2022-06-27 22:01:28', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('100.00'), Decimal('293.30'), Decimal('100.00'), Decimal('0.20'), Decimal('-58.66'), 0, Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.10'), Decimal('-29.33'), Decimal('0.0000'), Decimal('0.00'), Decimal('-29.33'), Decimal('0.30'), Decimal('-87.99'), Decimal('0.0000'), Decimal('0.00'), Decimal('-87.99'), Decimal('293.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('293.30')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKZPkyF6AR', '2022-06-24 01:19:51', '乒乓球', '单关', ['国际Ukraine Win Cup', '法舍夫斯基, 伊万 Vs Mukha,taras', '滚球盘', '总分', 'total=95.5', '小95.5', '0.420', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:22:05', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('747.00'), Decimal('313.74'), Decimal('313.74'), Decimal('0.20'), Decimal('-62.77'), 0, Decimal('-0.14'), Decimal('-62.91'), Decimal('0.20'), Decimal('-62.74'), Decimal('0.0021'), Decimal('-0.13'), Decimal('-62.87'), Decimal('0.20'), Decimal('-62.74'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-62.82'), Decimal('0.10'), Decimal('-31.37'), Decimal('0.0019'), Decimal('0.03'), Decimal('-31.34'), Decimal('0.30'), Decimal('-94.12'), Decimal('0.0015'), Decimal('0.26'), Decimal('-93.86'), Decimal('313.74'), Decimal('0.0002'), Decimal('0.06'), Decimal('313.80')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKYGQXk5XQ', '2022-06-24 01:19:48', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '独赢', '', 'Dmu', '3.000', '欧洲盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:13', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('576.00'), Decimal('-576.00'), Decimal('576.00'), Decimal('0.20'), Decimal('115.20'), 0, Decimal('0.00'), Decimal('115.20'), Decimal('0.20'), Decimal('115.20'), Decimal('0.0000'), Decimal('0.00'), Decimal('115.20'), Decimal('0.20'), Decimal('115.20'), Decimal('0.0000'), Decimal('0.00'), Decimal('115.20'), Decimal('0.10'), Decimal('57.60'), Decimal('0.0000'), Decimal('0.00'), Decimal('57.60'), Decimal('0.30'), Decimal('172.80'), Decimal('0.0000'), Decimal('0.00'), Decimal('172.80'), Decimal('-576.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-576.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKXzQmYgU6', '2022-06-24 01:19:44', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '大/小', 'total=1.5', '小1.5', '1.420', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:53:44', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('319.00'), Decimal('-319.00'), Decimal('319.00'), Decimal('0.20'), Decimal('63.80'), 0, Decimal('-0.14'), Decimal('63.66'), Decimal('0.20'), Decimal('63.80'), Decimal('0.0021'), Decimal('-0.13'), Decimal('63.67'), Decimal('0.20'), Decimal('63.80'), Decimal('0.0021'), Decimal('-0.09'), Decimal('63.71'), Decimal('0.10'), Decimal('31.90'), Decimal('0.0019'), Decimal('0.03'), Decimal('31.93'), Decimal('0.30'), Decimal('95.70'), Decimal('0.0015'), Decimal('0.27'), Decimal('95.97'), Decimal('-319.00'), Decimal('0.0002'), Decimal('0.06'), Decimal('-318.94')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKWsV4C2nx', '2022-06-24 01:19:41', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '上半场 - 大/小', 'total=0.75', '小0.5/1', '0.600', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:48:55', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('538.00'), Decimal('322.80'), Decimal('322.80'), Decimal('0.20'), Decimal('-64.56'), 0, Decimal('-0.14'), Decimal('-64.70'), Decimal('0.20'), Decimal('-64.56'), Decimal('0.0021'), Decimal('-0.14'), Decimal('-64.70'), Decimal('0.20'), Decimal('-64.56'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-64.64'), Decimal('0.10'), Decimal('-32.28'), Decimal('0.0019'), Decimal('0.03'), Decimal('-32.25'), Decimal('0.30'), Decimal('-96.84'), Decimal('0.0015'), Decimal('0.27'), Decimal('-96.57'), Decimal('322.80'), Decimal('0.0002'), Decimal('0.06'), Decimal('322.86')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKSUwWcAVX', '2022-06-24 01:19:30', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '大/小', 'total=3.75', '大3.5/4', '0.480', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:52:09', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('746.00'), Decimal('179.04'), Decimal('179.04'), Decimal('0.20'), Decimal('-35.83'), 0, Decimal('-0.08'), Decimal('-35.91'), Decimal('0.20'), Decimal('-35.80'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-35.88'), Decimal('0.20'), Decimal('-35.80'), Decimal('0.0021'), Decimal('-0.04'), Decimal('-35.84'), Decimal('0.10'), Decimal('-17.90'), Decimal('0.0019'), Decimal('0.02'), Decimal('-17.88'), Decimal('0.30'), Decimal('-53.71'), Decimal('0.0015'), Decimal('0.15'), Decimal('-53.56'), Decimal('179.04'), Decimal('0.0002'), Decimal('0.03'), Decimal('179.07')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKRGj8UjE9', '2022-06-24 01:19:26', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '长田安利 Vs 尚塔, 昂奇萨', '滚球盘', '让盘', 'hcp=1.5', '尚塔, 昂奇萨 ', '0.160', '香港盘', '2022-06-24 00:30:00'], '2022-06-24 01:42:43', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('299.00'), Decimal('47.84'), Decimal('47.84'), Decimal('0.20'), Decimal('-9.59'), 0, Decimal('-0.03'), Decimal('-9.62'), Decimal('0.20'), Decimal('-9.56'), Decimal('0.0021'), Decimal('-0.02'), Decimal('-9.58'), Decimal('0.20'), Decimal('-9.56'), Decimal('0.0021'), Decimal('0.00'), Decimal('-9.56'), Decimal('0.10'), Decimal('-4.78'), Decimal('0.0019'), Decimal('0.00'), Decimal('-4.78'), Decimal('0.30'), Decimal('-14.35'), Decimal('0.0015'), Decimal('0.05'), Decimal('-14.30'), Decimal('47.84'), Decimal('0.0002'), Decimal('0.00'), Decimal('47.84')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKKWxZyBKv', '2022-06-24 01:19:08', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '让球', 'hcp=1', 'Dalian Professional Srl ', '0.930', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:54:01', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('383.00'), Decimal('356.19'), Decimal('356.19'), Decimal('0.20'), Decimal('-71.27'), 0, Decimal('-0.15'), Decimal('-71.42'), Decimal('0.20'), Decimal('-71.23'), Decimal('0.0021'), Decimal('-0.15'), Decimal('-71.38'), Decimal('0.20'), Decimal('-71.23'), Decimal('0.0021'), Decimal('-0.10'), Decimal('-71.33'), Decimal('0.10'), Decimal('-35.61'), Decimal('0.0019'), Decimal('0.03'), Decimal('-35.58'), Decimal('0.30'), Decimal('-106.85'), Decimal('0.0015'), Decimal('0.30'), Decimal('-106.55'), Decimal('356.19'), Decimal('0.0002'), Decimal('0.07'), Decimal('356.26')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKHEyiFBGs', '2022-06-24 01:19:01', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '上半场 - 让球', 'hcp=2.25', 'Changchun Yatai Srl ', '0.570', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:48:33', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('368.00'), Decimal('209.76'), Decimal('209.76'), Decimal('0.20'), Decimal('-41.97'), 0, Decimal('-0.09'), Decimal('-42.06'), Decimal('0.20'), Decimal('-41.95'), Decimal('0.0021'), Decimal('-0.09'), Decimal('-42.04'), Decimal('0.20'), Decimal('-41.95'), Decimal('0.0021'), Decimal('-0.05'), Decimal('-42.00'), Decimal('0.10'), Decimal('-20.97'), Decimal('0.0019'), Decimal('0.01'), Decimal('-20.96'), Decimal('0.30'), Decimal('-62.92'), Decimal('0.0015'), Decimal('0.18'), Decimal('-62.74'), Decimal('209.76'), Decimal('0.0002'), Decimal('0.04'), Decimal('209.80')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKGxwVa9Kj', '2022-06-24 01:18:57', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '让球', 'hcp=3.75', 'Guangzhou R&amp;f FC Srl ', '0.650', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:52:09', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('765.00'), Decimal('-382.50'), Decimal('382.50'), Decimal('0.20'), Decimal('76.50'), 0, Decimal('-0.17'), Decimal('76.33'), Decimal('0.20'), Decimal('76.50'), Decimal('0.0021'), Decimal('-0.16'), Decimal('76.34'), Decimal('0.20'), Decimal('76.50'), Decimal('0.0021'), Decimal('-0.10'), Decimal('76.40'), Decimal('0.10'), Decimal('38.25'), Decimal('0.0019'), Decimal('0.03'), Decimal('38.28'), Decimal('0.30'), Decimal('114.75'), Decimal('0.0015'), Decimal('0.33'), Decimal('115.08'), Decimal('-382.50'), Decimal('0.0002'), Decimal('0.07'), Decimal('-382.43')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKEcDba6vx', '2022-06-24 01:18:50', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '乌伊达, 拉姆 Vs 卡瓦古奇, 纳图米', '滚球盘', '总盘数', 'total=2.5', '大2.5', '1.000', '香港盘', '2022-06-24 00:30:00'], '2022-06-24 02:00:07', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('366.00'), Decimal('-366.00'), Decimal('366.00'), Decimal('0.20'), Decimal('73.20'), 0, Decimal('-0.16'), Decimal('73.04'), Decimal('0.20'), Decimal('73.20'), Decimal('0.0021'), Decimal('-0.15'), Decimal('73.05'), Decimal('0.20'), Decimal('73.20'), Decimal('0.0021'), Decimal('-0.10'), Decimal('73.10'), Decimal('0.10'), Decimal('36.60'), Decimal('0.0019'), Decimal('0.03'), Decimal('36.63'), Decimal('0.30'), Decimal('109.80'), Decimal('0.0015'), Decimal('0.31'), Decimal('110.11'), Decimal('-366.00'), Decimal('0.0002'), Decimal('0.07'), Decimal('-365.93')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKAMXYLWc4', '2022-06-24 01:18:39', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '上半场 - 大/小', 'total=2.5', '大2.5', '0.650', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:38:38', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('484.00'), Decimal('314.60'), Decimal('314.60'), Decimal('0.20'), Decimal('-62.92'), 0, Decimal('-0.14'), Decimal('-63.06'), Decimal('0.20'), Decimal('-62.92'), Decimal('0.0021'), Decimal('-0.13'), Decimal('-63.05'), Decimal('0.20'), Decimal('-62.92'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-63.00'), Decimal('0.10'), Decimal('-31.46'), Decimal('0.0019'), Decimal('0.02'), Decimal('-31.44'), Decimal('0.30'), Decimal('-94.38'), Decimal('0.0015'), Decimal('0.27'), Decimal('-94.11'), Decimal('314.60'), Decimal('0.0002'), Decimal('0.06'), Decimal('314.66')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKzF5MAhbb', '2022-06-24 01:18:35', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '独赢', '', 'Khovd Western', '1.750', '欧洲盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:13', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('343.00'), Decimal('257.25'), Decimal('257.25'), Decimal('0.20'), Decimal('-51.46'), 0, Decimal('0.00'), Decimal('-51.46'), Decimal('0.20'), Decimal('-51.45'), Decimal('0.0000'), Decimal('0.00'), Decimal('-51.45'), Decimal('0.20'), Decimal('-51.45'), Decimal('0.0000'), Decimal('0.00'), Decimal('-51.45'), Decimal('0.10'), Decimal('-25.72'), Decimal('0.0000'), Decimal('0.00'), Decimal('-25.72'), Decimal('0.30'), Decimal('-77.17'), Decimal('0.0000'), Decimal('0.00'), Decimal('-77.17'), Decimal('257.25'), Decimal('0.0000'), Decimal('0.00'), Decimal('257.25')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKyy3PPe6b', '2022-06-24 01:18:32', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '乌伊达, 拉姆 Vs 卡瓦古奇, 纳图米', '滚球盘', '独赢', '', '乌伊达, 拉姆', '1.750', '欧洲盘', '2022-06-24 00:30:00'], '2022-06-24 02:00:01', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('802.00'), Decimal('601.50'), Decimal('601.50'), Decimal('0.20'), Decimal('-120.30'), 0, Decimal('0.00'), Decimal('-120.30'), Decimal('0.20'), Decimal('-120.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('-120.30'), Decimal('0.20'), Decimal('-120.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('-120.30'), Decimal('0.10'), Decimal('-60.15'), Decimal('0.0000'), Decimal('0.00'), Decimal('-60.15'), Decimal('0.30'), Decimal('-180.45'), Decimal('0.0000'), Decimal('0.00'), Decimal('-180.45'), Decimal('601.50'), Decimal('0.0000'), Decimal('0.00'), Decimal('601.50')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKwhkQwJkn', '2022-06-24 01:18:25', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '大/小', 'total=4.25', '小4/4.5', '0.970', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:13', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('604.00'), Decimal('585.88'), Decimal('585.88'), Decimal('0.20'), Decimal('-117.20'), 0, Decimal('-0.25'), Decimal('-117.45'), Decimal('0.20'), Decimal('-117.17'), Decimal('0.0021'), Decimal('-0.25'), Decimal('-117.42'), Decimal('0.20'), Decimal('-117.17'), Decimal('0.0021'), Decimal('-0.16'), Decimal('-117.33'), Decimal('0.10'), Decimal('-58.58'), Decimal('0.0019'), Decimal('0.05'), Decimal('-58.53'), Decimal('0.30'), Decimal('-175.76'), Decimal('0.0015'), Decimal('0.50'), Decimal('-175.26'), Decimal('585.88'), Decimal('0.0002'), Decimal('0.11'), Decimal('585.99')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKv5QqnC8D', '2022-06-24 01:18:21', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '让球', 'hcp=1.25', 'Dalian Professional Srl ', '0.670', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:54:01', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('675.00'), Decimal('452.25'), Decimal('452.25'), Decimal('0.20'), Decimal('-90.46'), 0, Decimal('-0.19'), Decimal('-90.65'), Decimal('0.20'), Decimal('-90.45'), Decimal('0.0021'), Decimal('-0.19'), Decimal('-90.64'), Decimal('0.20'), Decimal('-90.45'), Decimal('0.0021'), Decimal('-0.13'), Decimal('-90.58'), Decimal('0.10'), Decimal('-45.22'), Decimal('0.0019'), Decimal('0.04'), Decimal('-45.18'), Decimal('0.30'), Decimal('-135.67'), Decimal('0.0015'), Decimal('0.38'), Decimal('-135.29'), Decimal('452.25'), Decimal('0.0002'), Decimal('0.09'), Decimal('452.34')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGQXjR9m2gg7', '2022-06-23 01:17:49', '足球', '串关', [['埃塞俄比亚超级联赛', 'Addis Ababa City FC Vs 瑟伯塔城 FC', '早盘', '总入球', 'variant=sr:goal_range:7+', '2-3', '1.980', '欧洲盘', '2022-06-23 09:00:00'], ['立陶宛乙级联赛', '内维济斯 Vs FA苏里亚 B', '早盘', '波胆', '', '2:2', '13.950', '欧洲盘', '2022-06-23 10:00:00'], ['白俄罗斯白罗斯杯', '格佐維克維迪比斯克 Vs FC特兰斯迈', '早盘', '双重机会&amp;两队都进球', '', '和局/FC特兰斯迈 &amp; 不是', '1.850', '欧洲盘', '2022-06-23 10:30:00'], ['白俄罗斯白罗斯杯', 'FC里达 Vs 贾尔任斯基区阿森纳', '早盘', 'FC里达 进球数', 'variant=sr:exact_goals:3+', '2', '8.550', '欧洲盘', '2022-06-23 11:00:00']], '2022-06-23 12:53:06', '输', '192.168.10.120 / 局域网', Decimal('23.00'), Decimal('-23.00'), Decimal('23.00'), Decimal('0.20'), Decimal('4.60'), 0, Decimal('0.00'), Decimal('4.60'), Decimal('0.20'), Decimal('4.60'), Decimal('0.0000'), Decimal('0.00'), Decimal('4.60'), Decimal('0.20'), Decimal('4.60'), Decimal('0.0000'), Decimal('0.00'), Decimal('4.60'), Decimal('0.10'), Decimal('2.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('2.30'), Decimal('0.30'), Decimal('6.90'), Decimal('0.0000'), Decimal('0.00'), Decimal('6.90'), Decimal('-23.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-23.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGQXjR9m2gg7', '2022-06-23 01:17:49', '足球', '串关', ['立陶宛乙级联赛', '内维济斯 Vs FA苏里亚 B', '早</t>
+    <t>[['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', [['阿根廷全国足球甲级联赛', '科尔多巴竞技 Vs 申察勒斯联合', '早盘', '大/小', 'total=2.25', '大2/2.5', '0.970', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00']], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', [['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=2', '大2', '1.110', '香港盘', '2022-06-27 12:45:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单</t>
   </si>
   <si>
     <t>测试通过 
@@ -505,7 +513,7 @@
     <t xml:space="preserve"> 总台-总代盈亏(简易)</t>
   </si>
   <si>
-    <t>[['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', [['阿根廷全国足球甲级联赛', '科尔多巴竞技 Vs 申察勒斯联合', '早盘', '大/小', 'total=2.25', '大2/2.5', '0.970', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00']], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', [['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=2', '大2', '1.110', '香港盘', '2022-06-27 12:45:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', '1.900', '欧洲盘', '2022-06-27 14:00:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', '1.070', '香港盘', '2022-06-27 19:30:00']], '2022-06-27 22:01:28', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('100.00'), Decimal('293.30'), Decimal('100.00'), Decimal('0.20'), Decimal('-58.66'), 0, Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.10'), Decimal('-29.33'), Decimal('0.0000'), Decimal('0.00'), Decimal('-29.33'), Decimal('0.30'), Decimal('-87.99'), Decimal('0.0000'), Decimal('0.00'), Decimal('-87.99'), Decimal('293.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('293.30')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '单/双', '', '单', '1.900', '欧洲盘', '2022-06-27 14:00:00'], '2022-06-27 22:01:28', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('100.00'), Decimal('293.30'), Decimal('100.00'), Decimal('0.20'), Decimal('-58.66'), 0, Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.10'), Decimal('-29.33'), Decimal('0.0000'), Decimal('0.00'), Decimal('-29.33'), Decimal('0.30'), Decimal('-87.99'), Decimal('0.0000'), Decimal('0.00'), Decimal('-87.99'), Decimal('293.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('293.30')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '让球', 'hcp=-0.25', '贝尔格拉诺体育 ', '1.070', '香港盘', '2022-06-27 19:30:00'], '2022-06-27 22:01:28', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('100.00'), Decimal('293.30'), Decimal('100.00'), Decimal('0.20'), Decimal('-58.66'), 0, Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.20'), Decimal('-58.66'), Decimal('0.0000'), Decimal('0.00'), Decimal('-58.66'), Decimal('0.10'), Decimal('-29.33'), Decimal('0.0000'), Decimal('0.00'), Decimal('-29.33'), Decimal('0.30'), Decimal('-87.99'), Decimal('0.0000'), Decimal('0.00'), Decimal('-87.99'), Decimal('293.30'), Decimal('0.0000'), Decimal('0.00'), Decimal('293.30')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKZPkyF6AR', '2022-06-24 01:19:51', '乒乓球', '单关', ['国际Ukraine Win Cup', '法舍夫斯基, 伊万 Vs Mukha,taras', '滚球盘', '总分', 'total=95.5', '小95.5', '0.420', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:22:05', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('747.00'), Decimal('313.74'), Decimal('313.74'), Decimal('0.20'), Decimal('-62.77'), 0, Decimal('-0.14'), Decimal('-62.91'), Decimal('0.20'), Decimal('-62.74'), Decimal('0.0021'), Decimal('-0.13'), Decimal('-62.87'), Decimal('0.20'), Decimal('-62.74'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-62.82'), Decimal('0.10'), Decimal('-31.37'), Decimal('0.0019'), Decimal('0.03'), Decimal('-31.34'), Decimal('0.30'), Decimal('-94.12'), Decimal('0.0015'), Decimal('0.26'), Decimal('-93.86'), Decimal('313.74'), Decimal('0.0002'), Decimal('0.06'), Decimal('313.80')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKYGQXk5XQ', '2022-06-24 01:19:48', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '独赢', '', 'Dmu', '3.000', '欧洲盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:13', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('576.00'), Decimal('-576.00'), Decimal('576.00'), Decimal('0.20'), Decimal('115.20'), 0, Decimal('0.00'), Decimal('115.20'), Decimal('0.20'), Decimal('115.20'), Decimal('0.0000'), Decimal('0.00'), Decimal('115.20'), Decimal('0.20'), Decimal('115.20'), Decimal('0.0000'), Decimal('0.00'), Decimal('115.20'), Decimal('0.10'), Decimal('57.60'), Decimal('0.0000'), Decimal('0.00'), Decimal('57.60'), Decimal('0.30'), Decimal('172.80'), Decimal('0.0000'), Decimal('0.00'), Decimal('172.80'), Decimal('-576.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-576.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKXzQmYgU6', '2022-06-24 01:19:44', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '大/小', 'total=1.5', '小1.5', '1.420', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:53:44', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('319.00'), Decimal('-319.00'), Decimal('319.00'), Decimal('0.20'), Decimal('63.80'), 0, Decimal('-0.14'), Decimal('63.66'), Decimal('0.20'), Decimal('63.80'), Decimal('0.0021'), Decimal('-0.13'), Decimal('63.67'), Decimal('0.20'), Decimal('63.80'), Decimal('0.0021'), Decimal('-0.09'), Decimal('63.71'), Decimal('0.10'), Decimal('31.90'), Decimal('0.0019'), Decimal('0.03'), Decimal('31.93'), Decimal('0.30'), Decimal('95.70'), Decimal('0.0015'), Decimal('0.27'), Decimal('95.97'), Decimal('-319.00'), Decimal('0.0002'), Decimal('0.06'), Decimal('-318.94')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKWsV4C2nx', '2022-06-24 01:19:41', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '上半场 - 大/小', 'total=0.75', '小0.5/1', '0.600', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:48:55', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('538.00'), Decimal('322.80'), Decimal('322.80'), Decimal('0.20'), Decimal('-64.56'), 0, Decimal('-0.14'), Decimal('-64.70'), Decimal('0.20'), Decimal('-64.56'), Decimal('0.0021'), Decimal('-0.14'), Decimal('-64.70'), Decimal('0.20'), Decimal('-64.56'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-64.64'), Decimal('0.10'), Decimal('-32.28'), Decimal('0.0019'), Decimal('0.03'), Decimal('-32.25'), Decimal('0.30'), Decimal('-96.84'), Decimal('0.0015'), Decimal('0.27'), Decimal('-96.57'), Decimal('322.80'), Decimal('0.0002'), Decimal('0.06'), Decimal('322.86')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKSUwWcAVX', '2022-06-24 01:19:30', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '大/小', 'total=3.75', '大3.5/4', '0.480', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:52:09', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('746.00'), Decimal('179.04'), Decimal('179.04'), Decimal('0.20'), Decimal('-35.83'), 0, Decimal('-0.08'), Decimal('-35.91'), Decimal('0.20'), Decimal('-35.80'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-35.88'), Decimal('0.20'), Decimal('-35.80'), Decimal('0.0021'), Decimal('-0.04'), Decimal('-35.84'), Decimal('0.10'), Decimal('-17.90'), Decimal('0.0019'), Decimal('0.02'), Decimal('-17.88'), Decimal('0.30'), Decimal('-53.71'), Decimal('0.0015'), Decimal('0.15'), Decimal('-53.56'), Decimal('179.04'), Decimal('0.0002'), Decimal('0.03'), Decimal('179.07')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKRGj8UjE9', '2022-06-24 01:19:26', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '长田安利 Vs 尚塔, 昂奇萨', '滚球盘', '让盘', 'hcp=1.5', '尚塔, 昂奇萨 ', '0.160', '香港盘', '2022-06-24 00:30:00'], '2022-06-24 01:42:43', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('299.00'), Decimal('47.84'), Decimal('47.84'), Decimal('0.20'), Decimal('-9.59'), 0, Decimal('-0.03'), Decimal('-9.62'), Decimal('0.20'), Decimal('-9.56'), Decimal('0.0021'), Decimal('-0.02'), Decimal('-9.58'), Decimal('0.20'), Decimal('-9.56'), Decimal('0.0021'), Decimal('0.00'), Decimal('-9.56'), Decimal('0.10'), Decimal('-4.78'), Decimal('0.0019'), Decimal('0.00'), Decimal('-4.78'), Decimal('0.30'), Decimal('-14.35'), Decimal('0.0015'), Decimal('0.05'), Decimal('-14.30'), Decimal('47.84'), Decimal('0.0002'), Decimal('0.00'), Decimal('47.84')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKKWxZyBKv', '2022-06-24 01:19:08', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Dalian Professional Srl Vs Henan Jianye Srl', '滚球盘', '让球', 'hcp=1', 'Dalian Professional Srl ', '0.930', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:54:01', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('383.00'), Decimal('356.19'), Decimal('356.19'), Decimal('0.20'), Decimal('-71.27'), 0, Decimal('-0.15'), Decimal('-71.42'), Decimal('0.20'), Decimal('-71.23'), Decimal('0.0021'), Decimal('-0.15'), Decimal('-71.38'), Decimal('0.20'), Decimal('-71.23'), Decimal('0.0021'), Decimal('-0.10'), Decimal('-71.33'), Decimal('0.10'), Decimal('-35.61'), Decimal('0.0019'), Decimal('0.03'), Decimal('-35.58'), Decimal('0.30'), Decimal('-106.85'), Decimal('0.0015'), Decimal('0.30'), Decimal('-106.55'), Decimal('356.19'), Decimal('0.0002'), Decimal('0.07'), Decimal('356.26')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKHEyiFBGs', '2022-06-24 01:19:01', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '上半场 - 让球', 'hcp=2.25', 'Changchun Yatai Srl ', '0.570', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:48:33', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('368.00'), Decimal('209.76'), Decimal('209.76'), Decimal('0.20'), Decimal('-41.97'), 0, Decimal('-0.09'), Decimal('-42.06'), Decimal('0.20'), Decimal('-41.95'), Decimal('0.0021'), Decimal('-0.09'), Decimal('-42.04'), Decimal('0.20'), Decimal('-41.95'), Decimal('0.0021'), Decimal('-0.05'), Decimal('-42.00'), Decimal('0.10'), Decimal('-20.97'), Decimal('0.0019'), Decimal('0.01'), Decimal('-20.96'), Decimal('0.30'), Decimal('-62.92'), Decimal('0.0015'), Decimal('0.18'), Decimal('-62.74'), Decimal('209.76'), Decimal('0.0002'), Decimal('0.04'), Decimal('209.80')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKGxwVa9Kj', '2022-06-24 01:18:57', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '让球', 'hcp=3.75', 'Guangzhou R&amp;f FC Srl ', '0.650', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 02:52:09', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('765.00'), Decimal('-382.50'), Decimal('382.50'), Decimal('0.20'), Decimal('76.50'), 0, Decimal('-0.17'), Decimal('76.33'), Decimal('0.20'), Decimal('76.50'), Decimal('0.0021'), Decimal('-0.16'), Decimal('76.34'), Decimal('0.20'), Decimal('76.50'), Decimal('0.0021'), Decimal('-0.10'), Decimal('76.40'), Decimal('0.10'), Decimal('38.25'), Decimal('0.0019'), Decimal('0.03'), Decimal('38.28'), Decimal('0.30'), Decimal('114.75'), Decimal('0.0015'), Decimal('0.33'), Decimal('115.08'), Decimal('-382.50'), Decimal('0.0002'), Decimal('0.07'), Decimal('-382.43')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKEcDba6vx', '2022-06-24 01:18:50', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '乌伊达, 拉姆 Vs 卡瓦古奇, 纳图米', '滚球盘', '总盘数', 'total=2.5', '大2.5', '1.000', '香港盘', '2022-06-24 00:30:00'], '2022-06-24 02:00:07', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('366.00'), Decimal('-366.00'), Decimal('366.00'), Decimal('0.20'), Decimal('73.20'), 0, Decimal('-0.16'), Decimal('73.04'), Decimal('0.20'), Decimal('73.20'), Decimal('0.0021'), Decimal('-0.15'), Decimal('73.05'), Decimal('0.20'), Decimal('73.20'), Decimal('0.0021'), Decimal('-0.10'), Decimal('73.10'), Decimal('0.10'), Decimal('36.60'), Decimal('0.0019'), Decimal('0.03'), Decimal('36.63'), Decimal('0.30'), Decimal('109.80'), Decimal('0.0015'), Decimal('0.31'), Decimal('110.11'), Decimal('-366.00'), Decimal('0.0002'), Decimal('0.07'), Decimal('-365.93')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKAMXYLWc4', '2022-06-24 01:18:39', '足球', '单关', ['模拟现实联盟China Super League SRL', 'Guangzhou R&amp;f FC Srl Vs Changchun Yatai Srl', '滚球盘', '上半场 - 大/小', 'total=2.5', '大2.5', '0.650', '香港盘', '2022-06-24 01:00:00'], '2022-06-24 01:38:38', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('484.00'), Decimal('314.60'), Decimal('314.60'), Decimal('0.20'), Decimal('-62.92'), 0, Decimal('-0.14'), Decimal('-63.06'), Decimal('0.20'), Decimal('-62.92'), Decimal('0.0021'), Decimal('-0.13'), Decimal('-63.05'), Decimal('0.20'), Decimal('-62.92'), Decimal('0.0021'), Decimal('-0.08'), Decimal('-63.00'), Decimal('0.10'), Decimal('-31.46'), Decimal('0.0019'), Decimal('0.02'), Decimal('-31.44'), Decimal('0.30'), Decimal('-94.38'), Decimal('0.0015'), Decimal('0.27'), Decimal('-94.11'), Decimal('314.60'), Decimal('0.0002'), Decimal('0.06'), Decimal('314.66')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKzF5MAhbb', '2022-06-24 01:18:35', '足球', '单关', ['蒙古First League', 'Dmu Vs Khovd Western', '滚球盘', '独赢', '', 'Khovd Western', '1.750', '欧洲盘', '2022-06-24 01:00:00'], '2022-06-24 02:56:13', '赢', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('343.00'), Decimal('257.25'), Decimal('257.25'), Decimal('0.20'), Decimal('-51.46'), 0, Decimal('0.00'), Decimal('-51.46'), Decimal('0.20'), Decimal('-51.45'), Decimal('0.0000'), Decimal('0.00'), Decimal('-51.45'), Decimal('0.20'), Decimal('-51.45'), Decimal('0.0000'), Decimal('0.00'), Decimal('-51.45'), Decimal('0.10'), Decimal('-25.72'), Decimal('0.0000'), Decimal('0.00'), Decimal('-25.72'), Decimal('0.30'), Decimal('-77.17'), Decimal('0.0000'), Decimal('0.00'), Decimal('-77.17'), Decimal('257.25'), Decimal('0.0000'), Decimal('0.00'), Decimal('257.25')], ['a0b1b2b3a3/a3', '李杨会员03', 'XGZKyy3PPe6b', '2022-06-24 01:18:32', '网球', '单关', ['ITF女子ITF Thailand 12A, Women Singles', '乌伊达, 拉姆 Vs 卡瓦古奇, 纳图米', '滚球盘', '独赢', '', '乌伊达, 拉姆', '1.750', '欧洲盘', '2022-06-24 00:30:00'], '2022-06-24 02:00:01', '赢', 'mde.betf.io / 台湾省彰</t>
+    <t>[['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', [['阿根廷全国足球甲级联赛', '科尔多巴竞技 Vs 申察勒斯联合', '早盘', '大/小', 'total=2.25', '大2/2.5', '0.970', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00']], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2', '小2', '0.860', '香港盘', '2022-06-27 19:30:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuMRRJbqtq', '2022-06-26 23:36:56', '足球', '串关', ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '让球', 'hcp=-0.5', '圣马丁福尔摩萨 ', '0.800', '香港盘', '2022-06-27 14:00:00'], '2022-06-27 21:35:11', '输', 'mde.betf.io / 台湾省彰化县市谷歌', Decimal('50.00'), Decimal('-50.00'), Decimal('50.00'), Decimal('0.20'), Decimal('10.00'), 0, Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.20'), Decimal('10.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('10.00'), Decimal('0.10'), Decimal('5.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('5.00'), Decimal('0.30'), Decimal('15.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('15.00'), Decimal('-50.00'), Decimal('0.0000'), Decimal('0.00'), Decimal('-50.00')], ['a0b1b2b3a3/a3', '李杨会员03', 'XHtuKbCrM8jR', '2022-06-26 23:36:48', '足球', '串关', [['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=2', '大2', '1.110', '香港盘', '2022-06-27 12:45:00'], ['阿根廷全国足</t>
   </si>
   <si>
     <t>测试通过 
@@ -603,7 +611,7 @@
     <t>sr:sport:2</t>
   </si>
   <si>
-    <t>根据球类"篮球"按照赛事时间查询近7天球类报表-盘口详情数据</t>
+    <t>根据球类"篮球"按照赛事时间查询近7天球类报表-盘口详</t>
   </si>
   <si>
     <t>根据球类"篮球"按照投注时间查询近7天球类报表-盘口详情数据</t>
@@ -834,7 +842,13 @@
     <t>默认按照投注时间查询"冰球"近30天联赛报表数据</t>
   </si>
   <si>
-    <t>[['哥斯达黎加甲级联赛，秋季赛', 2986.0, 2208.04, 0.0, 1780.04, 11.25, 1791.29, -489.87, -2.74, -492.61, -398.64, -2.74, -401.38, -356.0, -2.32, -358.32, -282.45, -1.83, -284.28, -253.08, -1.62, -254.7], ['国际青年U20中北美及加勒比海锦标赛', 2698.0, 1519.78, 0.0, -114.22, 1.15, -113.07, 52.16, 0.99, 53.15, 16.94, -0.08, 16.86, 12.86, -0.47, 12.39, 14.11, -0.72, 13.39, 18.15, -0.87, 17.28], ['模拟现实联盟K-League 1 SRL', 500.0, 337.5, 0.0, -262.5, 2.07, -260.43, 103.08, -0.43, 102.65, 57.15, -0.46, 56.69, 35.55, -0.23, 35.32, 30.9, -0.32, 30.58, 35.82, -0.63, 35.19], ['美国公开杯', 200.0, 192.0, 0.0, -8.0, 1.72, -6.28, 3.68, -0.36, 3.32, 1.6, -0.38, 1.22, 0.8, -0.19, 0.61, 0.8, -0.27, 0.53, 1.12, -0.52, 0.6], ['串关', 178570.0, 125321.65, 0.0, -77966.63, 0.0, -77966.63, 21976.95, 0.0, 21976.95, 18598.56, 0.0, 18598.56, 15273.74, 0.0, 15273.74, 11835.28, 0.0, 11835.28, 10282.1, 0.0, 10282.1], ['阿根廷全国足球甲级联赛', 4488.0, 4102.76, 0.0, 1443.81, 0.02, 1443.83, -306.21, 1.9, -304.31, -288.56, 9.0, -279.56, -288.56, -0.96, -289.52, -288.56, -4.62, -293.18, -271.92, -5.34, -277.26], ['澳大利亚South Coast Division 1', 100.0, 18.0, 0.0, 18.0, 0.0, 18.0, -8.28, 0.0, -8.28, -3.6, 0.0, -3.6, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -2.52, 0.0, -2.52], ['国际俱乐部俱乐部友谊赛', 2120.0, 1555.0, 0.0, -485.0, 0.0, -485.0, 217.9, 0.0, 217.9, 97.0, 0.0, 97.0, 50.5, 0.0, 50.5, 50.5, 0.0, 50.5, 69.1, 0.0, 69.1], ['蒙古超级联赛', 3400.0, 2929.0, 0.0, -1341.0, 9.33, -1331.67, 616.86, -1.97, 614.89, 268.2, -2.07, 266.13, 134.1, -1.03, 133.07, 134.1, -1.46, 132.64, 187.74, -2.8, 184.94], ['日本天皇杯', 10900.0, 9962.0, 0.0, -3402.0, 38.73, -3363.27, 918.54, -10.36, 908.18, 850.5, -9.62, 840.88, 680.4, -7.74, 672.66, 510.3, -5.9, 504.4, 442.26, -5.11, 437.15], ['中国足球甲级联赛', 8900.0, 7582.0, 0.0, -2807.0, 25.94, -2781.06, 817.17, -6.91, 810.26, 686.15, -6.39, 679.76, 530.2, -5.1, 525.1, 405.45, -3.96, 401.49, 368.03, -3.58, 364.45], ['马来西亚超级联赛', 4261.0, 3838.91, 0.0, -820.02, 0.0, -820.02, 256.74, 1.56, 258.3, 164.28, 7.41, 171.69, 164.28, -1.24, 163.04, 164.28, -4.4, 159.88, 70.44, -3.33, 67.11], ['瑞典丙级联赛-西哥特兰地区', 3717.0, 3372.59, 0.0, 496.78, 0.0, 496.78, -94.04, 1.66, -92.38, -99.15, 7.6, -91.55, -99.15, -0.35, -99.5, -99.15, -2.82, -101.97, -105.29, -6.09, -111.38], ['坦桑尼亚超级联赛', 2338.0, 2088.79, 0.0, -970.79, 0.0, -970.79, 175.4, 1.22, 176.62, 194.27, 5.24, 199.51, 194.27, -0.27, 194.0, 194.27, -1.88, 192.39, 212.58, -4.31, 208.27], ['阿根廷杯', 4364.0, 3685.58, 0.0, -1335.88, 0.02, -1335.86, 405.39, 1.14, 406.53, 272.84, 5.48, 278.32, 267.39, -0.74, 266.65, 261.94, -3.49, 258.45, 128.32, -2.41, 125.91], ['美国美足联乙级联赛', 1314.0, 1144.65, 0.0, -739.81, 0.0, -739.81, 105.49, 0.72, 106.21, 148.04, 3.47, 151.51, 148.04, -0.07, 147.97, 148.04, -1.0, 147.04, 190.2, -3.12, 187.08], ['加拿大足球锦标赛', 1421.0, 1057.14, 0.0, 1328.5, 0.2, 1328.7, -398.54, 0.9, -397.64, -132.84, 0.09, -132.75, -265.69, -0.29, -265.98, -265.69, -0.45, -266.14, -265.74, -0.45, -266.19], ['美国NISA', 698.0, 698.0, 0.0, 856.88, 0.13, 857.01, -257.06, 0.59, -256.47, -85.68, 0.06, -85.62, -171.37, -0.2, -171.57, -171.37, -0.29, -171.66, -171.4, -0.29, -171.69], ['埃塞俄比亚超级联赛', 1110.0, 991.0, 0.0, 201.0, 8.22, 209.22, -10.0, -2.17, -12.17, -61.9, -2.07, -63.97, -63.5, -1.64, -65.14, -41.8, -1.24, -43.04, -23.8, -1.1, -24.9], ['俄罗斯Moscow Championship', 500.0, 500.0, 0.0, 565.0, 0.1, 565.1, -124.3, 0.71, -123.59, -113.0, 2.96, -110.04, -113.0, -0.54, -113.54, -113.0, -1.25, -114.25, -101.7, -1.98, -103.68], ['白俄罗斯白罗斯杯', 5400.0, 4352.0, 0.0, -2442.0, 4.77, -2437.23, 659.34, -1.26, 658.08, 610.5, -1.18, 609.32, 488.4, -0.96, 487.44, 366.3, -0.73, 365.57, 317.46, -0.64, 316.82], ['巴西杯', 3133.0, 2877.5, 0.0, -408.55, 0.0, -408.55, 41.04, 1.32, 42.36, 81.86, 6.3, 88.16, 81.86, -0.04, 81.82, 81.86, -1.58, 80.28, 121.93, -6.0, 115.93], ['模拟现实联盟China Super League SRL', 4298.0, 2556.14, 0.0, 1113.14, 0.48, 1113.62, -335.92, 2.15, -333.77, -109.29, 0.21, -109.08, -222.61, -0.67, -223.28, -222.61, -1.07, -223.68, -222.71, -1.1, -223.81], ['蒙古First League', 1523.0, 1419.13, 0.0, 267.13, 0.11, 267.24, -80.13, 0.5, -79.63, -26.7, 0.05, -26.65, -53.42, -0.16, -53.58, -53.42, -0.25, -53.67, -53.46, -0.25, -53.71], ['阿根廷足球甲级联赛', 148.0, 130.5, 0.0, -105.5, 0.01, -105.49, 16.83, 0.01, 16.84, 21.1, 0.05, 21.15, 21.1, -0.01, 21.09, 21.1, -0.02, 21.08, 25.37, -0.04, 25.33], ['澳大利亚全国超级联赛,新南威尔士州北部', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['澳大利亚全国超级联赛,塔斯马尼亚', 30.0, 20.3, 0.0, -19.7, 0.0, -19.7, 3.94, 0.01, 3.95, 3.94, 0.0, 3.94, 3.94, 0.0, 3.94, 3.94, 0.0, 3.94, 3.94, -0.01, 3.93], ['澳大利亚全国超级联赛, 首都足球', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['澳大利亚全国超级联赛,西澳大利亚', 70.0, 65.5, 0.0, 55.0, 0.0, 55.0, -11.0, 0.02, -10.98, -11.0, 0.0, -11.0, -11.0, 0.0, -11.0, -11.0, 0.0, -11.0, -11.0, -0.02, -11.02], ['澳大利亚全国超级联赛,南澳大利亚', 709.0, 247.37, 0.0, 228.37, 0.04, 228.41, -68.41, 0.2, -68.21, -22.93, 0.02, -22.91, -45.67, -0.05, -45.72, -45.67, -0.1, -45.77, -45.69, -0.11, -45.8], ['澳大利亚全国超级联赛，昆士兰州', 20.0, 18.8, 0.0, -1.2, 0.0, -1.2, 0.24, 0.02, 0.26, 0.24, 0.0, 0.24, 0.24, 0.0, 0.24, 0.24, 0.0, 0.24, 0.24, -0.02, 0.22], ['日本J联赛', 20.0, 20.0, 0.0, 3.4, 0.01, 3.41, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, -0.01, -0.69], ['澳大利亚全国超级联赛,新南威尔士', 925.0, 919.7, 0.0, -861.8, 0.0, -861.8, 257.86, 0.04, 257.9, 86.86, 0.0, 86.86, 172.36, 0.0, 172.36, 172.36, 0.0, 172.36, 172.36, -0.04, 172.32], ['澳大利亚全国超级联赛,维多利亚', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.01, 4.01, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.01, 3.99], ['韩国职业足球乙级联赛', 839.0, 839.0, 0.0, 1134.79, 0.0, 1134.79, -342.43, 0.0, -342.43, -111.47, 0.0, -111.47, -226.95, 0.0, -226.95, -226.95, 0.0, -226.95, -226.99, 0.0, -226.99], ['新加坡足球超级联赛', 10.0, 10.0, 0.0, -10.0, 0.01, -9.99, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['韩国全国联赛', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['越南职业足球乙级联赛', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['日本乙级联赛', 449.0, 417.05, 0.0, 397.05, 0.07, 397.12, -115.41, 0.32, -115.09, -43.4, 0.04, -43.36, -79.41, -0.1, -79.51, -79.41, -0.15, -79.56, -79.42, -0.18, -79.6], ['挪威丙级联赛第1组', 50.0, 45.1, 0.0, -34.9, 0.0, -34.9, 6.98, 0.01, 6.99, 6.98, 0.0, 6.98, 6.98, 0.0, 6.98, 6.98, 0.0, 6.98, 6.98, -0.01, 6.97], ['日本丙级联赛', 40.0, 27.9, 0.0, 15.4, 0.0, 15.4, -3.08, 0.02, -3.06, -3.08, 0.0, -3.08, -3.08, 0.0, -3.08, -3.08, 0.0, -3.08, -3.08, -0.02, -3.1], ['挪威丙级联赛第3组', 30.0, 23.9, 0.0, -16.1, 0.0, -16.1, 3.22, 0.0, 3.22, 3.22, 0.0, 3.22, 3.22, 0.0, 3.22, 3.22, 0.0, 3.22, 3.22, 0.0, 3.22], ['白俄罗斯足球超级联赛', 30.0, 30.0, 0.0, -8.5, 0.01, -8.49, 1.7, 0.0, 1.7, 1.7, 0.0, 1.7, 1.7, 0.0, 1.7, 1.7, 0.0, 1.7, 1.7, -0.01, 1.69], ['爱沙尼亚乙级联赛', 900.0, 839.0, 0.0, -331.0, 3.05, -327.95, 152.26, -0.64, 151.62, 66.2, -0.67, 65.53, 33.1, -0.34, 32.76, 33.1, -0.48, 32.62, 46.34, -0.92, 45.42], ['哈萨克斯坦甲级联赛', 30.0, 20.7, 0.0, 65.6, 0.0, 65.6, -13.12, 0.01, -13.11, -13.12, 0.0, -13.12, -13.12, 0.0, -13.12, -13.12, 0.0, -13.12, -13.12, -0.01, -13.13], ['挪威丙级联赛第2组', 20.0, 14.8, 0.0, 14.8, 0.0, 14.8, -2.96, 0.01, -2.95, -2.96, 0.0, -2.96, -2.96, 0.0, -2.96, -2.96, 0.0, -2.96, -2.96, -0.01, -2.97], ['挪威超级联赛', 324.0, 320.8, 0.0, -274.7, 0.0, -274.7, 81.34, 0.01, 81.35, 28.54, 0.0, 28.54, 54.94, 0.0, 54.94, 54.94, 0.0, 54.94, 54.94, -0.01, 54.93], ['挪威丙级联赛第4组', 2151.0, 2052.62, 0.0, 823.95, 0.0, 823.95, -156.36, 1.13, -155.23, -164.75, 5.25, -159.5, -164.75, -0.17, -164.92, -164.75, -1.97, -166.72, -173.34, -4.24, -177.58], ['挪威丙级联赛第6组', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['马来西亚足球超级联赛', 10.0, 3.4, 0.0, 3.4, 0.0, 3.4, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68], ['挪威足球乙级联赛第2组', 20.0, 20.0, 0.0, -20.0, 0.01, -19.99, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.01, 3.99], ['巴西乙级联赛', 30.0, 28.2, 0.0, -11.8, 0.0, -11.8, 2.36, 0.01, 2.37, 2.36, 0.0, 2.36, 2.36, 0.0, 2.36, 2.36, 0.0, 2.36, 2.36, -0.01, 2.35], ['约旦足球联赛', 40.0, 40.0, 0.0, -17.4, 0.0, -17.4, 3.48, 0.01, 3.49, 3.48, 0.0, 3.48, 3.48, 0.0, 3.48, 3.48, 0.0, 3.48, 3.48, -0.01, 3.47], ['冰岛甲级联赛', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['立陶宛甲级联赛', 10.0, 10.0, 0.0, -10.0, 0.01, -9.99, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['法罗群岛足球超级联赛', 30.0, 23.7, 0.0, 3.7, 0.0, 3.7, -0.74, 0.01, -0.73, -0.74, 0.0, -0.74, -0.74, 0.0, -0.74, -0.74, 0.0, -0.74, -0.74, -0.01, -0.75], ['阿根廷乙级联赛', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 3.5, 0.0, 3.5, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.5, 0.0, 4.5], ['摩洛哥足球甲级联赛', 40.0, 34.05, 0.0, -25.95, 0.0, -25.95, 5.19, 0.02, 5.21, 5.19, 0.0, 5.19, 5.19, 0.0, 5.19, 5.19, 0.0, 5.19, 5.19, -0.02, 5.17], ['挪威丙级联赛第5组', 10.0, 1.5, 0.0, 1.5, 0.0, 1.5, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3], ['国际青年U19欧洲锦标赛', 30.0, 27.0, 0.0, 7.0, 0.01, 7.01, -1.4, 0.0, -1.4, -1.4, 0.0, -1.4, -1.4, 0.0, -1.4, -1.4, 0.0, -1.4, -1.4, -0.01, -1.41], ['巴西丁级联赛', 120.0, 120.0, 0.0, -49.6, 0.0, -49.6, 9.92, 0.02, 9.94, 9.92, 0.0, 9.92, 9.92, 0.0, 9.92, 9.92, 0.0, 9.92, 9.92, -0.02, 9.9], ['智利杯', 80.0, 66.0, 0.0, -14.0, 0.0, -14.0, 2.8, 0.01, 2.81, 2.8, 0.0, 2.8, 2.8, 0.0, 2.8, 2.8, 0.0, 2.8, 2.8, -0.01, 2.79], ['巴西甲级联赛', 1671.0, 1308.4, 0.0, -689.2, 0.24, -688.96, 209.9, 1.08, 210.98, 65.78, 0.1, 65.88, 137.84, -0.35, 137.49, 137.84, -0.52, 137.32, 137.84, -0.55, 137.29], ['阿根廷足球丁级联赛 19/20', 86.0, 86.0, 0.0, -86.0, 0.01, -85.99, 13.9, 0.0, 13.9, 17.2, 0.05, 17.25, 17.2, -0.01, 17.19, 17.2, -0.02, 17.18, 20.5, -0.03, 20.47], ['加拿大足球超级联赛', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['美国职业足球大联盟', 644.0, 45.6, 0.0, -34.4, 0.0, -34.4, 6.88, 0.01, 6.89, 6.88, 0.0, 6.88, 6.88, 0.0, 6.88, 6.88, 0.0, 6.88, 6.88, -0.01, 6.87], ['巴西丙级联赛', 40.0, 40.0, 0.0, -40.0, 0.01, -39.99, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, -0.01, 7.99], ['巴拉圭甲级联赛，春季赛', 40.0, 39.2, 0.0, 4.7, 0.01, 4.71, -0.94, 0.01, -0.93, -0.94, 0.0, -0.94, -0.94, 0.0, -0.94, -0.94, 0.0, -0.94, -0.94, -0.02, -0.96], ['美国足球全国超级联赛', 30.0, 26.6, 0.0, 27.9, 0.0, 27.9, -5.58, 0.02, -5.56, -5.58, 0.0, -5.58, -5.58, 0.0, -5.58, -5.58, 0.0, -5.58, -5.58, -0.02, -5.6], ['美国足球联赛冠军杯', 10.0, 7.2, 0.0, 7.2, 0.0, 7.2, -1.44, 0.01, -1.43, -1.44, 0.0, -1.44, -1.44, 0.0, -1.44, -1.44, 0.0, -1.44, -1.44, -0.01, -1.45], ['乌拉圭乙级联赛', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['墨西哥乙级联赛，秋季赛', 40.0, 39.8, 0.0, -20.2, 0.0, -20.2, 4.04, 0.03, 4.07, 4.04, 0.0, 4.04, 4.04, 0.0, 4.04, 4.04, 0.0, 4.04, 4.04, -0.03, 4.01], ['中国超级联赛', 1446.0, 1385.04, 0.0, 1674.62, 0.26, 1674.88, -501.19, 1.18, -500.01, -168.64, 0.12, -168.52, -334.91, -0.39, -335.3, -334.91, -0.58, -335.49, -334.97, -0.59, -335.56], ['韩国K1联赛', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['瑞典足球乙级联赛-北部', 30.0, 30.0, 0.0, -30.0, 0.0, -30.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0], ['瑞典超甲级联赛', 40.0, 38.1, 0.0, -21.9, 0.0, -21.9, 4.38, 0.02, 4.4, 4.38, 0.0, 4.38, 4.38, 0.0, 4.38, 4.38, 0.0, 4.38, 4.38, -0.02, 4.36], ['瑞典超级联赛', 783.0, 527.81, 0.0, 467.81, 0.0, 467.81, -143.34, 0.0, -143.34, -43.78, 0.0, -43.78, -93.56, 0.0, -93.56, -93.56, 0.0, -93.56, -93.57, 0.0, -93.57], ['瑞典丙级联赛-北哥特兰地区', 10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['哥伦比亚甲级联赛春季赛', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['法国甲级联赛', 476.0, 307.02, 0.0, 307.02, 0.06, 307.08, -92.1, 0.26, -91.84, -30.7, 0.03, -30.67, -61.4, -0.09, -61.49, -61.4, -0.13, -61.53, -61.42, -0.13, -61.55], ['爱尔兰足球超级联赛', 682.0, 296.67, 0.0, 296.67, 0.05, 296.72, -89.0, 0.26, -88.74, -29.66, 0.02, -29.64, -59.33, -0.08, -59.41, -59.33, -0.12, -59.45, -59.35, -0.13, -59.48], ['智利甲级联赛', 486.0, 315.9, 0.0, 315.9, 0.0, 315.9, -94.77, 0.0, -94.77, -31.59, 0.0, -31.59, -63.18, 0.0, -63.18, -63.18, 0.0, -63.18, -63.18, 0.0, -63.18], ['墨西哥甲级联赛，春季赛', 409.0, 204.5, 0.0, -204.5, 0.04, -204.46, 61.35, 0.17, 61.52, 20.45, 0.02, 20.47, 40.9, -0.05, 40.85, 40.9, -0.09, 40.81, 40.9, -0.09, 40.81], ['德国足球甲级联赛', 940.0, 385.4, 0.0, 385.4, 0.0, 385.4, -115.62, 0.0, -115.62, -38.54, 0.0, -38.54, -77.08, 0.0, -77.08, -77.08, 0.0, -77.08, -77.08, 0.0, -77.08], ['芬兰乙级联赛，B组', 799.0, 799.0, 0.0, -799.0, 0.15, -798.85, 239.7, 0.68, 240.38, 79.9, 0.08, 79.98, 159.8, -0.23, 159.57, 159.8, -0.34, 159.46, 159.8, -0.34, 159.46], ['冰岛足球超级联赛', 1355.0, 284.5, 0.0, -284.5, 0.05, -284.45, 85.35, 0.24, 85.59, 28.45, 0.03, 28.48, 56.9, -0.08, 56.82, 56.9, -0.12, 56.78, 56.9, -0.12, 56.78], ['德国乙级联赛', 626.0, 93.54, 0.0, 93.54, 0.01, 93.55, -28.06, 0.08, -27.98, -9.35, 0.01, -9.34, -18.7, -0.02, -18.72, -18.7, -0.04, -18.74, -18.73, -0.04, -18.77], ['国际世界杯', 379.0, 199.95, 0.0, 199.95, 0.03, 199.98, -59.98, 0.17, -59.81, -19.99, 0.02, -19.97, -39.99, -0.05, -40.04, -39.99, -0.08, -40.07, -40.0, -0.09, -40.09], ['国际欧洲锦标赛，女子', 930.0, 465.0, 0.0, -465.0, 0.09, -464.91, 139.5, 0.39, 139.89, 46.5, 0.05, 46.55, 93.0, -0.13, 92.87, 93.0, -0.2, 92.8, 93.0, -0.2, 92.8], ['韩国足协杯', 73.0, 73.0, 0.0, 405.15, 0.0, 405.15, -121.54, 0.0, -121.54, -40.51, 0.0, -40.51, -81.03, 0.0, -81.03, -81.03, 0.0, -81.03, -81.04, 0.0, -81.04], ['沙特阿拉伯职业联赛', 596.0, 238.4, 0.0, 238.4, 0.04, 238.44, -71.52, 0.21, -71.31, -23.84, 0.02, -23.82, -47.68, -0.06, -47.74, -47.68, -0.1, -47.78, -47.68, -0.11, -47.79], ['国际俱乐部亚足联杯', 3950.0, 3163.86, 0.0, -1021.44, 0.0, -1021.44, 102.38, 1.63, 104.01, 204.46, 7.69, 212.15, 204.46, -0.05, 204.41, 204.46, -1.82, 202.64, 305.68, -7.45, 298.23], ['国际青年U19欧洲女足锦标赛', 300.0, 300.0, 0.0, -300.0, 5.7, -294.3, 81.0, -1.53, 79.47, 75.0, -1.41, 73.59, 60.0, -1.14, 58.86, 45.0, -0.87, 44.13, 39.0, -0.75, 38.25], ['模拟现实联盟SRL Club Friendlies', 100.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['挪威甲级联赛', 30.0, 30.0, 0.0, -6.8, 0.0, -6.8, 1.36, 0.0, 1.36, 1.36, 0.0, 1.36, 1.36, 0.0, 1.36, 1.36, 0.0, 1.36, 1.36, 0.0, 1.36], ['瑞典足球乙级联赛-南部', 20.0, 18.6, 0.0, -1.4, 0.0, -1.4, 0.28, 0.01, 0.29, 0.28, 0.0, 0.28, 0.28, 0.0, 0.28, 0.28, 0.0, 0.28, 0.28, -0.01, 0.27], ['爱尔兰甲级联赛', 10.0, 8.2, 0.0, 8.2, 0.0, 8.2, -1.64, 0.01, -1.63, -1.64, 0.0, -1.64, -1.64, 0.0, -1.64, -1.64, 0.0, -1.64, -1.64, -0.01, -1.65], ['印尼Piala Presiden', 100.0, 60.0, 0.0, 60.0, 1.14, 61.14, -16.2, -0.3, -16.5, -15.0, -0.29, -15.29, -12.0, -0.23, -12.23, -9.0, -0.17, -9.17, -7.8, -0.15, -7.95], ['澳大利亚Northern Nsw Npl, Reserves', 100.0, 92.0, 0.0, 92.0, 1.74, 93.74, -24.84, -0.46, -25.3, -23.0, -0.44, -23.44, -18.4, -0.35, -18.75, -13.8, -0.26, -14.06, -11.96, -0.23, -12.19], ['埃及足球甲级联赛', 20.0, 13.9, 0.0, -6.1, 0.01, -6.09, 1.22, 0.0, 1.22, 1.22, 0.0, 1.22, 1.22, 0.0, 1.22, 1.22, 0.0, 1.22, 1.22, -0.01, 1.21], ['国际俱乐部解放者杯', 20.0, 15.6, 0.0, -4.4, 0.0, -4.4, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88]]</t>
+    <t>查询联赛报表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 总台-联赛报表</t>
+  </si>
+  <si>
+    <t>[['哥斯达黎加甲级联赛，秋季赛', 2986.0, 2208.04, 0.0, 1780.04, 11.25, 1791.29, -489.87, -2.74, -492.61, -398.64, -2.74, -401.38, -356.0, -2.32, -358.32, -282.45, -1.83, -284.28, -253.08, -1.62, -254.7], ['国际青年U20中北美及加勒比海锦标赛', 2698.0, 1519.78, 0.0, -114.22, 1.15, -113.07, 52.16, 0.99, 53.15, 16.94, -0.08, 16.86, 12.86, -0.47, 12.39, 14.11, -0.72, 13.39, 18.15, -0.87, 17.28], ['模拟现实联盟K-League 1 SRL', 500.0, 337.5, 0.0, -262.5, 2.07, -260.43, 103.08, -0.43, 102.65, 57.15, -0.46, 56.69, 35.55, -0.23, 35.32, 30.9, -0.32, 30.58, 35.82, -0.63, 35.19], ['美国公开杯', 200.0, 192.0, 0.0, -8.0, 1.72, -6.28, 3.68, -0.36, 3.32, 1.6, -0.38, 1.22, 0.8, -0.19, 0.61, 0.8, -0.27, 0.53, 1.12, -0.52, 0.6], ['串关', 178570.0, 125321.65, 0.0, -77966.63, 0.0, -77966.63, 21976.95, 0.0, 21976.95, 18598.56, 0.0, 18598.56, 15273.74, 0.0, 15273.74, 11835.28, 0.0, 11835.28, 10282.1, 0.0, 10282.1], ['阿根廷全国足球甲级联赛', 4488.0, 4102.76, 0.0, 1443.81, 0.02, 1443.83, -306.21, 1.9, -304.31, -288.56, 9.0, -279.56, -288.56, -0.96, -289.52, -288.56, -4.62, -293.18, -271.92, -5.34, -277.26], ['澳大利亚South Coast Division 1', 100.0, 18.0, 0.0, 18.0, 0.0, 18.0, -8.28, 0.0, -8.28, -3.6, 0.0, -3.6, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -2.52, 0.0, -2.52], ['国际俱乐部俱乐部友谊赛', 2120.0, 1555.0, 0.0, -485.0, 0.0, -485.0, 217.9, 0.0, 217.9, 97.0, 0.0, 97.0, 50.5, 0.0, 50.5, 50.5, 0.0, 50.5, 69.1, 0.0, 69.1], ['蒙古超级联赛', 3400.0, 2929.0, 0.0, -1341.0, 9.33, -1331.67, 616.86, -1.97, 614.89, 268.2, -2.07, 266.13, 134.1, -1.03, 133.07, 134.1, -1.46, 132.64, 187.74, -2.8, 184.94], ['日本天皇杯', 10900.0, 9962.0, 0.0, -3402.0, 38.73, -3363.27, 918.54, -10.36, 908.18, 850.5, -9.62, 840.88, 680.4, -7.74, 672.66, 510.3, -5.9, 504.4, 442.26, -5.11, 437.15], ['中国足球甲级联赛', 8900.0, 7582.0, 0.0, -2807.0, 25.94, -2781.06, 817.17, -6.91, 810.26, 686.15, -6.39, 679.76, 530.2, -5.1, 525.1, 405.45, -3.96, 401.49, 368.03, -3.58, 364.45], ['马来西亚超级联赛', 4261.0, 3838.91, 0.0, -820.02, 0.0, -820.02, 256.74, 1.56, 258.3, 164.28, 7.41, 171.69, 164.28, -1.24, 163.04, 164.28, -4.4, 159.88, 70.44, -3.33, 67.11], ['瑞典丙级联赛-西哥特兰地区', 3717.0, 3372.59, 0.0, 496.78, 0.0, 496.78, -94.04, 1.66, -92.38, -99.15, 7.6, -91.55, -99.15, -0.35, -99.5, -99.15, -2.82, -101.97, -105.29, -6.09, -111.38], ['坦桑尼亚超级联赛', 2338.0, 2088.79, 0.0, -970.79, 0.0, -970.79, 175.4, 1.22, 176.62, 194.27, 5.24, 199.51, 194.27, -0.27, 194.0, 194.27, -1.88, 192.39, 212.58, -4.31, 208.27], ['阿根廷杯', 4364.0, 3685.58, 0.0, -1335.88, 0.02, -1335.86, 405.39, 1.14, 406.53, 272.84, 5.48, 278.32, 267.39, -0.74, 266.65, 261.94, -3.49, 258.45, 128.32, -2.41, 125.91], ['美国美足联乙级联赛', 1314.0, 1144.65, 0.0, -739.81, 0.0, -739.81, 105.49, 0.72, 106.21, 148.04, 3.47, 151.51, 148.04, -0.07, 147.97, 148.04, -1.0, 147.04, 190.2, -3.12, 187.08], ['加拿大足球锦标赛', 1421.0, 1057.14, 0.0, 1328.5, 0.2, 1328.7, -398.54, 0.9, -397.64, -132.84, 0.09, -132.75, -265.69, -0.29, -265.98, -265.69, -0.45, -266.14, -265.74, -0.45, -266.19], ['美国NISA', 698.0, 698.0, 0.0, 856.88, 0.13, 857.01, -257.06, 0.59, -256.47, -85.68, 0.06, -85.62, -171.37, -0.2, -171.57, -171.37, -0.29, -171.66, -171.4, -0.29, -171.69], ['埃塞俄比亚超级联赛', 1110.0, 991.0, 0.0, 201.0, 8.22, 209.22, -10.0, -2.17, -12.17, -61.9, -2.07, -63.97, -63.5, -1.64, -65.14, -41.8, -1.24, -43.04, -23.8, -1.1, -24.9], ['俄罗斯Moscow Championship', 500.0, 500.0, 0.0, 565.0, 0.1, 565.1, -124.3, 0.71, -123.59, -113.0, 2.96, -110.04, -113.0, -0.54, -113.54, -113.0, -1.25, -114.25, -101.7, -1.98, -103.68], ['白俄罗斯白罗斯杯', 5400.0, 4352.0, 0.0, -2442.0, 4.77, -2437.23, 659.34, -1.26, 658.08, 610.5, -1.18, 609.32, 488.4, -0.96, 487.44, 366.3, -0.73, 365.57, 317.46, -0.64, 316.82], ['巴西杯', 3133.0, 2877.5, 0.0, -408.55, 0.0, -408.55, 41.04, 1.32, 42.36, 81.86, 6.3, 88.16, 81.86, -0.04, 81.82, 81.86, -1.58, 80.28, 121.93, -6.0, 115.93], ['模拟现实联盟China Super League SRL', 4298.0, 2556.14, 0.0, 1113.14, 0.48, 1113.62, -335.92, 2.15, -333.77, -109.29, 0.21, -109.08, -222.61, -0.67, -223.28, -222.61, -1.07, -223.68, -222.71, -1.1, -223.81], ['蒙古First League', 1523.0, 1419.13, 0.0, 267.13, 0.11, 267.24, -80.13, 0.5, -79.63, -26.7, 0.05, -26.65, -53.42, -0.16, -53.58, -53.42, -0.25, -53.67, -53.46, -0.25, -53.71], ['阿根廷足球甲级联赛', 148.0, 130.5, 0.0, -105.5, 0.01, -105.49, 16.83, 0.01, 16.84, 21.1, 0.05, 21.15, 21.1, -0.01, 21.09, 21.1, -0.02, 21.08, 25.37, -0.04, 25.33], ['澳大利亚全国超级联赛,新南威尔士州北部', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['澳大利亚全国超级联赛,塔斯马尼亚', 30.0, 20.3, 0.0, -19.7, 0.0, -19.7, 3.94, 0.01, 3.95, 3.94, 0.0, 3.94, 3.94, 0.0, 3.94, 3.94, 0.0, 3.94, 3.94, -0.01, 3.93], ['澳大利亚全国超级联赛, 首都足球', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['澳大利亚全国超级联赛,西澳大利亚', 70.0, 65.5, 0.0, 55.0, 0.0, 55.0, -11.0, 0.02, -10.98, -11.0, 0.0, -11.0, -11.0, 0.0, -11.0, -11.0, 0.0, -11.0, -11.0, -0.02, -11.02], ['澳大利亚全国超级联赛,南澳</t>
   </si>
   <si>
     <t>[('瑞典超级联赛', Decimal('783.00'), Decimal('527.81'), Decimal('0.00'), Decimal('467.81'), Decimal('0.00'), Decimal('467.81'), Decimal('-143.34'), Decimal('0.00'), Decimal('-143.34'), Decimal('-43.78'), Decimal('0.00'), Decimal('-43.78'), Decimal('-93.56'), Decimal('0.00'), Decimal('-93.56'), Decimal('-93.56'), Decimal('0.00'), Decimal('-93.56'), Decimal('-93.57'), Decimal('0.00'), Decimal('-93.57')), ('挪威超级联赛', Decimal('324.00'), Decimal('320.80'), Decimal('0.00'), Decimal('-274.70'), Decimal('0.00'), Decimal('-274.70'), Decimal('81.34'), Decimal('0.01'), Decimal('81.35'), Decimal('28.54'), Decimal('0.00'), Decimal('28.54'), Decimal('54.94'), Decimal('0.00'), Decimal('54.94'), Decimal('54.94'), Decimal('0.00'), Decimal('54.94'), Decimal('54.94'), Decimal('-0.01'), Decimal('54.93')), ('阿根廷全国足球甲级联赛', Decimal('4488.00'), Decimal('4102.76'), Decimal('0.00'), Decimal('1443.81'), Decimal('0.02'), Decimal('1443.83'), Decimal('-306.21'), Decimal('1.90'), Decimal('-304.31'), Decimal('-288.56'), Decimal('9.00'), Decimal('-279.56'), Decimal('-288.56'), Decimal('-0.96'), Decimal('-289.52'), Decimal('-288.56'), Decimal('-4.62'), Decimal('-293.18'), Decimal('-271.92'), Decimal('-5.34'), Decimal('-277.26')), ('国际青年U20中北美及加勒比海锦标赛', Decimal('2698.00'), Decimal('1519.78'), Decimal('0.00'), Decimal('-114.22'), Decimal('1.15'), Decimal('-113.07'), Decimal('52.16'), Decimal('0.99'), Decimal('53.15'), Decimal('16.94'), Decimal('-0.08'), Decimal('16.86'), Decimal('12.86'), Decimal('-0.47'), Decimal('12.39'), Decimal('14.11'), Decimal('-0.72'), Decimal('13.39'), Decimal('18.15'), Decimal('-0.87'), Decimal('17.28')), ('美国公开杯', Decimal('200.00'), Decimal('192.00'), Decimal('0.00'), Decimal('-8.00'), Decimal('1.72'), Decimal('-6.28'), Decimal('3.68'), Decimal('-0.36'), Decimal('3.32'), Decimal('1.60'), Decimal('-0.38'), Decimal('1.22'), Decimal('0.80'), Decimal('-0.19'), Decimal('0.61'), Decimal('0.80'), Decimal('-0.27'), Decimal('0.53'), Decimal('1.12'), Decimal('-0.52'), Decimal('0.60')), ('哥斯达黎加甲级联赛，秋季赛', Decimal('2986.00'), Decimal('2208.04'), Decimal('0.00'), Decimal('1780.04'), Decimal('11.25'), Decimal('1791.29'), Decimal('-489.87'), Decimal('-2.74'), Decimal('-492.61'), Decimal('-398.64'), Decimal('-2.74'), Decimal('-401.38'), Decimal('-356.00'), Decimal('-2.32'), Decimal('-358.32'), Decimal('-282.45'), Decimal('-1.83'), Decimal('-284.28'), Decimal('-253.08'), Decimal('-1.62'), Decimal('-254.70')), ('模拟现实联盟K-League 1 SRL', Decimal('500.00'), Decimal('337.50'), Decimal('0.00'), Decimal('-262.50'), Decimal('2.07'), Decimal('-260.43'), Decimal('103.08'), Decimal('-0.43'), Decimal('102.65'), Decimal('57.15'), Decimal('-0.46'), Decimal('56.69'), Decimal('35.55'), Decimal('-0.23'), Decimal('35.32'), Decimal('30.90'), Decimal('-0.32'), Decimal('30.58'), Decimal('35.82'), Decimal('-0.63'), Decimal('35.19')), ('中国足球甲级联赛', Decimal('8900.00'), Decimal('7582.00'), Decimal('0.00'), Decimal('-2807.00'), Decimal('25.94'), Decimal('-2781.06'), Decimal('817.17'), Decimal('-6.91'), Decimal('810.26'), Decimal('686.15'), Decimal('-6.39'), Decimal('679.76'), Decimal('530.20'), Decimal('-5.10'), Decimal('525.10'), Decimal('405.45'), Decimal('-3.96'), Decimal('401.49'), Decimal('368.03'), Decimal('-3.58'), Decimal('364.45')), ('日本天皇杯', Decimal('10900.00'), Decimal('9962.00'), Decimal('0.00'), Decimal('-3402.00'), Decimal('38.73'), Decimal('-3363.27'), Decimal('918.54'), Decimal('-10.36'), Decimal('908.18'), Decimal('850.50'), Decimal('-9.62'), Decimal('840.88'), Decimal('680.40'), Decimal('-7.74'), Decimal('672.66'), Decimal('510.30'), Decimal('-5.90'), Decimal('504.40'), Decimal('442.26'), Decimal('-5.11'), Decimal('437.15')), ('阿根廷杯', Decimal('4364.00'), Decimal('3685.58'), Decimal('0.00'), Decimal('-1335.88'), Decimal('0.02'), Decimal('-1335.86'), Decimal('405.39'), Decimal('1.14'), Decimal('406.53'), Decimal('272.84'), Decimal('5.48'), Decimal('278.32'), Decimal('267.39'), Decimal('-0.74'), Decimal('266.65'), Decimal('261.94'), Decimal('-3.49'), Decimal('258.45'), Decimal('128.32'), Decimal('-2.41'), Decimal('125.91')), ('美国美足联乙级联赛', Decimal('1314.00'), Decimal('1144.65'), Decimal('0.00'), Decimal('-739.81'), Decimal('0.00'), Decimal('-739.81'), Decimal('105.49'), Decimal('0.72'), Decimal('106.21'), Decimal('148.04'), Decimal('3.47'), Decimal('151.51'), Decimal('148.04'), Decimal('-0.07'), Decimal('147.97'), Decimal('148.04'), Decimal('-1.00'), Decimal('147.04'), Decimal('190.20'), Decimal('-3.12'), Decimal('187.08')), ('坦桑尼亚超级联赛', Decimal('2338.00'), Decimal('2088.79'), Decimal('0.00'), Decimal('-970.79'), Decimal('0.00'), Decimal('-970.79'), Decimal('175.40'), Decimal('1.22'), Decimal('176.62'), Decimal('194.27'), Decimal('5.24'), Decimal('199.51'), Decimal('194.27'), Decimal('-0.27'), Decimal('194.00'), Decimal('194.27'), Decimal('-1.88'), Decimal('192.39'), Decimal('212.58'), Decimal('-4.31'), Decimal('208.27')), ('马来西亚超级联赛', Decimal('4261.00'), Decimal('3838.91'), Decimal('0.00'), Decimal('-820.02'), Decimal('0.00'), Decimal('-820.02'), Decimal('256.74'), Decimal('1.56'), Decimal('258.30'), Decimal('164.28'), Decimal('7.41'), Decimal('171.69'), Decimal('164.28'), Decimal('-1.24'), Decimal('163.04'), Decimal('164.28'), Decimal('-4.40'), Decimal('159.88'), Decimal('70.44'), Decimal('-3.33'), Decimal('67.11')), ('瑞典丙级联赛-西哥特兰地区', Decimal('3717.00'), Decimal('3372.59'), Decimal('0.00'), Decimal('496.78'), Decimal('0.00'), Decimal('496.78'), Decimal('-94.04'), Decimal('1.66'), Decimal('-92.38'), Decimal('-99.15'), Decimal('7.60'), Decimal('-91.55'), Decimal('-99.15'), Decimal('-0.35'), Decimal('-99.50'), Decimal('-99.15'), Decimal('-2.82'), Decimal('-101.97'), Decimal('-105.29'), Decimal('-6.09'), Decimal('-111.38')), ('澳大利亚South Coast Division 1', Decimal('100.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('-8.28'), Decimal('0.00'), Decimal('-8.28'), Decimal('-3.60'), Decimal('0.00'), Decimal('-3.60'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-2.52'), Decimal('0.00'), Decimal('-2.52')), ('国际俱乐部俱乐部友谊赛', Decimal('2120.00'), Decimal('1555.00'), Decimal('0.00'), Decimal('-485.00'), Decimal('0.00'), Decimal('-485.00'), Decimal('217.90'), Decimal('0.00'), Decimal('217.90'), Decimal('97.00'), Decimal('0.00'), Decimal('97.00'), Decimal('50.50'), Decimal('0.00'), Decimal('50.50'), Decimal('50.50'), Decimal('0.00'), Decimal('50.50'), Decimal('69.10'), Decimal('0.00'), Decimal('69.10')), ('蒙古超级联赛', Decimal('3400.00'), Decimal('2929.00'), Decimal('0.00'), Decimal('-1341.00'), Decimal('9.33'), Decimal('-1331.67'), Decimal('616.86'), Decimal('-1.97'), Decimal('614.89'), Decimal('268.20'), Decimal('-2.07'), Decimal('266.13'), Decimal('134.10'), Decimal('-1.03'), Decimal('133.07'), Decimal('134.10'), Decimal('-1.46'), Decimal('132.64'), Decimal('187.74'), Decimal('-2.80'), Decimal('184.94')), ('美国NISA', Decimal('698.00'), Decimal('698.00'), Decimal('0.00'), Decimal('856.88'), Decimal('0.13'), Decimal('857.01'), Decimal('-257.06'), Decimal('0.59'), Decimal('-256.47'), Decimal('-85.68'), Decimal('0.06'), Decimal('-85.62'), Decimal('-171.37'), Decimal('-0.20'), Decimal('-171.57'), Decimal('-171.37'), Decimal('-0.29'), Decimal('-171.66'), Decimal('-171.40'), Decimal('-0.29'), Decimal('-171.69')), ('加拿大足球锦标赛', Decimal('1421.00'), Decimal('1057.14'), Decimal('0.00'), Decimal('1328.50'), Decimal('0.20'), Decimal('1328.70'), Decimal('-398.54'), Decimal('0.90'), Decimal('-397.64'), Decimal('-132.84'), Decimal('0.09'), Decimal('-132.75'), Decimal('-265.69'), Decimal('-0.29'), Decimal('-265.98'), Decimal('-265.69'), Decimal('-0.45'), Decimal('-266.14'), Decimal('-265.74'), Decimal('-0.45'), Decimal('-266.19')), ('埃塞俄比亚超级联赛', Decimal('1110.00'), Decimal('991.00'), Decimal('0.00'), Decimal('201.00'), Decimal('8.22'), Decimal('209.22'), Decimal('-10.00'), Decimal('-2.17'), Decimal('-12.17'), Decimal('-61.90'), Decimal('-2.07'), Decimal('-63.97'), Decimal('-63.50'), Decimal('-1.64'), Decimal('-65.14'), Decimal('-41.80'), Decimal('-1.24'), Decimal('-43.04'), Decimal('-23.80'), Decimal('-1.10'), Decimal('-24.90')), ('巴西杯', Decimal('3133.00'), Decimal('2877.50'), Decimal('0.00'), Decimal('-408.55'), Decimal('0.00'), Decimal('-408.55'), Decimal('41.04'), Decimal('1.32'), Decimal('42.36'), Decimal('81.86'), Decimal('6.30'), Decimal('88.16'), Decimal('81.86'), Decimal('-0.04'), Decimal('81.82'), Decimal('81.86'), Decimal('-1.58'), Decimal('80.28'), Decimal('121.93'), Decimal('-6.00'), Decimal('115.93')), ('白俄罗斯白罗斯杯', Decimal('5400.00'), Decimal('4352.00'), Decimal('0.00'), Decimal('-2442.00'), Decimal('4.77'), Decimal('-2437.23'), Decimal('659.34'), Decimal('-1.26'), Decimal('658.08'), Decimal('610.50'), Decimal('-1.18'), Decimal('609.32'), Decimal('488.40'), Decimal('-0.96'), Decimal('487.44'), Decimal('366.30'), Decimal('-0.73'), Decimal('365.57'), Decimal('317.46'), Decimal('-0.64'), Decimal('316.82')), ('俄罗斯Moscow Championship', Decimal('500.00'), Decimal('500.00'), Decimal('0.00'), Decimal('565.00'), Decimal('0.10'), Decimal('565.10'), Decimal('-124.30'), Decimal('0.71'), Decimal('-123.59'), Decimal('-113.00'), Decimal('2.96'), Decimal('-110.04'), Decimal('-113.00'), Decimal('-0.54'), Decimal('-113.54'), Decimal('-113.00'), Decimal('-1.25'), Decimal('-114.25'), Decimal('-101.70'), Decimal('-1.98'), Decimal('-103.68')), ('阿根廷足球甲级联赛', Decimal('148.00'), Decimal('130.50'), Decimal('0.00'), Decimal('-105.50'), Decimal('0.01'), Decimal('-105.49'), Decimal('16.83'), Decimal('0.01'), Decimal('16.84'), Decimal('21.10'), Decimal('0.05'), Decimal('21.15'), Decimal('21.10'), Decimal('-0.01'), Decimal('21.09'), Decimal('21.10'), Decimal('-0.02'), Decimal('21.08'), Decimal('25.37'), Decimal('-0.04'), Decimal('25.33')), ('模拟现实联盟China Super League SRL', Decimal('4298.00'), Decimal('2556.14'), Decimal('0.00'), Decimal('1113.14'), Decimal('0.48'), Decimal('1113.62'), Decimal('-335.92'), Decimal('2.15'), Decimal('-333.77'), Decimal('-109.29'), Decimal('0.21'), Decimal('-109.08'), Decimal('-222.61'), Decimal('-0.67'), Decimal('-223.28'), Decimal('-222.61'), Decimal('-1.07'), Decimal('-223.68'), Decimal('-222.71'), Decimal('-1.10'), Decimal('-223.81')), ('蒙古First League', Decimal('1523.00'), Decimal('1419.13'), Decimal('0.00'), Decimal('267.13'), Decimal('0.11'), Decimal('267.24'), Decimal('-80.13'), Decimal('0.50'), Decimal('-79.63'), Decimal('-26.70'), Decimal('0.05'), Decimal('-26.65'), Decimal('-53.42'), Decimal('-0.16'), Decimal('-53.58'), Decimal('-53.42'), Decimal('-0.25'), Decimal('-53.67'), Decimal('-53.46'), Decimal('-0.25'), Decimal('-53.71')), ('阿根廷乙级联赛', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('3.50'), Decimal('0.00'), Decimal('3.50'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.50'), Decimal('0.00'), Decimal('4.50')), ('摩洛哥足球甲级联赛', Decimal('40.00'), Decimal('34.05'), Decimal('0.00'), Decimal('-25.95'), Decimal('0.00'), Decimal('-25.95'), Decimal('5.19'), Decimal('0.02'), Decimal('5.21'), Decimal('5.19'), Decimal('0.00'), Decimal('5.19'), Decimal('5.19'), Decimal('0.00'), Decimal('5.19'), Decimal('5.19'), Decimal('0.00'), Decimal('5.19'), Decimal('5.19'), Decimal('-0.02'), Decimal('5.17')), ('澳大利亚全国超级联赛,新南威尔士', Decimal('925.00'), Decimal('919.70'), Decimal('0.00'), Decimal('-861.80'), Decimal('0.00'), Decimal('-861.80'), Decimal('257.86'), Decimal('0.04'), Decimal('257.90'), Decimal('86.86'), Decimal('0.00'), Decimal('86.86'), Decimal('172.36'), Decimal('0.00'), Decimal('172.36'), Decimal('172.36'), Decimal('0.00'), Decimal('172.36'), Decimal('172.36'), Decimal('-0.04'), Decimal('172.32')), ('哥伦比亚甲级联赛春季赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('法罗群岛足球超级联赛', Decimal('30.00'), Decimal('23.70'), Decimal('0.00'), Decimal('3.70'), Decimal('0.00'), Decimal('3.70'), Decimal('-0.74'), Decimal('0.01'), Decimal('-0.73'), Decimal('-0.74'), Decimal('0.00'), Decimal('-0.74'), Decimal('-0.74'), Decimal('0.00'), Decimal('-0.74'), Decimal('-0.74'), Decimal('0.00'), Decimal('-0.74'), Decimal('-0.74'), Decimal('-0.01'), Decimal('-0.75')), ('澳大利亚全国超级联赛，昆士兰州', Decimal('20.00'), Decimal('18.80'), Decimal('0.00'), Decimal('-1.20'), Decimal('0.00'), Decimal('-1.20'), Decimal('0.24'), Decimal('0.02'), Decimal('0.26'), Decimal('0.24'), Decimal('0.00'), Decimal('0.24'), Decimal('0.24'), Decimal('0.00'), Decimal('0.24'), Decimal('0.24'), Decimal('0.00'), Decimal('0.24'), Decimal('0.24'), Decimal('-0.02'), Decimal('0.22')), ('约旦足球联赛', Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('-17.40'), Decimal('0.00'), Decimal('-17.40'), Decimal('3.48'), Decimal('0.01'), Decimal('3.49'), Decimal('3.48'), Decimal('0.00'), Decimal('3.48'), Decimal('3.48'), Decimal('0.00'), Decimal('3.48'), Decimal('3.48'), Decimal('0.00'), Decimal('3.48'), Decimal('3.48'), Decimal('-0.01'), Decimal('3.47')), ('挪威丙级联赛第2组', Decimal('20.00'), Decimal('14.80'), Decimal('0.00'), Decimal('14.80'), Decimal('0.00'), Decimal('14.80'), Decimal('-2.96'), Decimal('0.01'), Decimal('-2.95'), Decimal('-2.96'), Decimal('0.00'), Decimal('-2.96'), Decimal('-2.96'), Decimal('0.00'), Decimal('-2.96'), Decimal('-2.96'), Decimal('0.00'), Decimal('-2.96'), Decimal('-2.96'), Decimal('-0.01'), Decimal('-2.97')), ('美国职业足球大联盟', Decimal('644.00'), Decimal('45.60'), Decimal('0.00'), Decimal('-34.40'), Decimal('0.00'), Decimal('-34.40'), Decimal('6.88'), Decimal('0.01'), Decimal('6.89'), Decimal('6.88'), Decimal('0.00'), Decimal('6.88'), Decimal('6.88'), Decimal('0.00'), Decimal('6.88'), Decimal('6.88'), Decimal('0.00'), Decimal('6.88'), Decimal('6.88'), Decimal('-0.01'), Decimal('6.87')), ('日本乙级联赛', Decimal('449.00'), Decimal('417.05'), Decimal('0.00'), Decimal('397.05'), Decimal('0.07'), Decimal('397.12'), Decimal('-115.41'), Decimal('0.32'), Decimal('-115.09'), Decimal('-43.40'), Decimal('0.04'), Decimal('-43.36'), Decimal('-79.41'), Decimal('-0.10'), Decimal('-79.51'), Decimal('-79.41'), Decimal('-0.15'), Decimal('-79.56'), Decimal('-79.42'), Decimal('-0.18'), Decimal('-79.60')), ('墨西哥乙级联赛，秋季赛', Decimal('40.00'), Decimal('39.80'), Decimal('0.00'), Decimal('-20.20'), Decimal('0.00'), Decimal('-20.20'), Decimal('4.04'), Decimal('0.03'), Decimal('4.07'), Decimal('4.04'), Decimal('0.00'), Decimal('4.04'), Decimal('4.04'), Decimal('0.00'), Decimal('4.04'), Decimal('4.04'), Decimal('0.00'), Decimal('4.04'), Decimal('4.04'), Decimal('-0.03'), Decimal('4.01')), ('智利杯', Decimal('80.00'), Decimal('66.00'), Decimal('0.00'), Decimal('-14.00'), Decimal('0.00'), Decimal('-14.00'), Decimal('2.80'), Decimal('0.01'), Decimal('2.81'), Decimal('2.80'), Decimal('0.00'), Decimal('2.80'), Decimal('2.80'), Decimal('0.00'), Decimal('2.80'), Decimal('2.80'), Decimal('0.00'), Decimal('2.80'), Decimal('2.80'), Decimal('-0.01'), Decimal('2.79')), ('哈萨克斯坦甲级联赛', Decimal('30.00'), Decimal('20.70'), Decimal('0.00'), Decimal('65.60'), Decimal('0.00'), Decimal('65.60'), Decimal('-13.12'), Decimal('0.01'), Decimal('-13.11'), Decimal('-13.12'), Decimal('0.00'), Decimal('-13.12'), Decimal('-13.12'), Decimal('0.00'), Decimal('-13.12'), Decimal('-13.12'), Decimal('0.00'), Decimal('-13.12'), Decimal('-13.12'), Decimal('-0.01'), Decimal('-13.13')), ('日本丙级联赛', Decimal('40.00'), Decimal('27.90'), Decimal('0.00'), Decimal('15.40'), Decimal('0.00'), Decimal('15.40'), Decimal('-3.08'), Decimal('0.02'), Decimal('-3.06'), Decimal('-3.08'), Decimal('0.00'), Decimal('-3.08'), Decimal('-3.08'), Decimal('0.00'), Decimal('-3.08'), Decimal('-3.08'), Decimal('0.00'), Decimal('-3.08'), Decimal('-3.08'), Decimal('-0.02'), Decimal('-3.10')), ('巴拉圭甲级联赛，春季赛', Decimal('40.00'), Decimal('39.20'), Decimal('0.00'), Decimal('4.70'), Decimal('0.01'), Decimal('4.71'), Decimal('-0.94'), Decimal('0.01'), Decimal('-0.93'), Decimal('-0.94'), Decimal('0.00'), Decimal('-0.94'), Decimal('-0.94'), Decimal('0.00'), Decimal('-0.94'), Decimal('-0.94'), Decimal('0.00'), Decimal('-0.94'), Decimal('-0.94'), Decimal('-0.02'), Decimal('-0.96')), ('挪威丙级联赛第5组', Decimal('10.00'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30')), ('美国足球联赛冠军杯', Decimal('10.00'), Decimal('7.20'), Decimal('0.00'), Decimal('7.20'), Decimal('0.00'), Decimal('7.20'), Decimal('-1.44'), Decimal('0.01'), Decimal('-1.43'), Decimal('-1.44'), Decimal('0.00'), Decimal('-1.44'), Decimal('-1.44'), Decimal('0.00'), Decimal('-1.44'), Decimal('-1.44'), Decimal('0.00'), Decimal('-1.44'), Decimal('-1.44'), Decimal('-0.01'), Decimal('-1.45')), ('国际青年U19欧洲锦标赛', Decimal('30.00'), Decimal('27.00'), Decimal('0.00'), Decimal('7.00'), Decimal('0.01'), Decimal('7.01'), Decimal('-1.40'), Decimal('0.00'), Decimal('-1.40'), Decimal('-1.40'), Decimal('0.00'), Decimal('-1.40'), Decimal('-1.40'), Decimal('0.00'), Decimal('-1.40'), Decimal('-1.40'), Decimal('0.00'), Decimal('-1.40'), Decimal('-1.40'), Decimal('-0.01'), Decimal('-1.41')), ('瑞典超甲级联赛', Decimal('40.00'), Decimal('38.10'), Decimal('0.00'), Decimal('-21.90'), Decimal('0.00'), Decimal('-21.90'), Decimal('4.38'), Decimal('0.02'), Decimal('4.40'), Decimal('4.38'), Decimal('0.00'), Decimal('4.38'), Decimal('4.38'), Decimal('0.00'), Decimal('4.38'), Decimal('4.38'), Decimal('0.00'), Decimal('4.38'), Decimal('4.38'), Decimal('-0.02'), Decimal('4.36')), ('新加坡足球超级联赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.01'), Decimal('-9.99'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('日本J联赛', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('3.40'), Decimal('0.01'), Decimal('3.41'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('-0.01'), Decimal('-0.69')), ('巴西丁级联赛', Decimal('120.00'), Decimal('120.00'), Decimal('0.00'), Decimal('-49.60'), Decimal('0.00'), Decimal('-49.60'), Decimal('9.92'), Decimal('0.02'), Decimal('9.94'), Decimal('9.92'), Decimal('0.00'), Decimal('9.92'), Decimal('9.92'), Decimal('0.00'), Decimal('9.92'), Decimal('9.92'), Decimal('0.00'), Decimal('9.92'), Decimal('9.92'), Decimal('-0.02'), Decimal('9.90')), ('挪威甲级联赛', Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('-6.80'), Decimal('0.00'), Decimal('-6.80'), Decimal('1.36'), Decimal('0.00'), Decimal('1.36'), Decimal('1.36'), Decimal('0.00'), Decimal('1.36'), Decimal('1.36'), Decimal('0.00'), Decimal('1.36'), Decimal('1.36'), Decimal('0.00'), Decimal('1.36'), Decimal('1.36'), Decimal('0.00'), Decimal('1.36')), ('白俄罗斯足球超级联赛', Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('-8.50'), Decimal('0.01'), Decimal('-8.49'), Decimal('1.70'), Decimal('0.00'), Decimal('1.70'), Decimal('1.70'), Decimal('0.00'), Decimal('1.70'), Decimal('1.70'), Decimal('0.00'), Decimal('1.70'), Decimal('1.70'), Decimal('0.00'), Decimal('1.70'), Decimal('1.70'), Decimal('-0.01'), Decimal('1.69')), ('加拿大足球超级联赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.01'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('巴西丙级联赛', Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('0.01'), Decimal('-39.99'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('-0.01'), Decimal('7.99')), ('挪威丙级联赛第6组', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('韩国职业足球乙级联赛', Decimal('839.00'), Decimal('839.00'), Decimal('0.00'), Decimal('1134.79'), Decimal('0.00'), Decimal('1134.79'), Decimal('-342.43'), Decimal('0.00'), Decimal('-342.43'), Decimal('-111.47'), Decimal('0.00'), Decimal('-111.47'), Decimal('-226.95'), Decimal('0.00'), Decimal('-226.95'), Decimal('-226.95'), Decimal('0.00'), Decimal('-226.95'), Decimal('-226.99'), Decimal('0.00'), Decimal('-226.99')), ('澳大利亚全国超级联赛,南澳大利亚', Decimal('709.00'), Decimal('247.37'), Decimal('0.00'), Decimal('228.37'), Decimal('0.04'), Decimal('228.41'), Decimal('-68.41'), Decimal('0.20'), Decimal('-68.21'), Decimal('-22.93'), Decimal('0.02'), Decimal('-22.91'), Decimal('-45.67'), Decimal('-0.05'), Decimal('-45.72'), Decimal('-45.67'), Decimal('-0.10'), Decimal('-45.77'), Decimal('-45.69'), Decimal('-0.11'), Decimal('-45.80')), ('瑞典足球乙级联赛-北部', Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('-30.00'), Decimal('0.00'), Decimal('-30.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00')), ('越南职业足球乙级联赛', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('瑞典丙级联赛-北哥特兰地区', Decimal('10.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')), ('挪威足球乙级联赛第2组', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.01'), Decimal('-19.99'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('-0.01'), Decimal('3.99')), ('巴西甲级联赛', Decimal('1671.00'), Decimal('1308.40'), Decimal('0.00'), Decimal('-689.20'), Decimal('0.24'), Decimal('-688.96'), Decimal('209.90'), Decimal('1.08'), Decimal('210.98'), Decimal('65.78'), Decimal('0.10'), Decimal('65.88'), Decimal('137.84'), Decimal('-0.35'), Decimal('137.49'), Decimal('137.84'), Decimal('-0.52'), Decimal('137.32'), Decimal('137.84'), Decimal('-0.55'), Decimal('137.29')), ('韩国全国联赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('澳大利亚全国超级联赛,西澳大利亚', Decimal('70.00'), Decimal('65.50'), Decimal('0.00'), Decimal('55.00'), Decimal('0.00'), Decimal('55.00'), Decimal('-11.00'), Decimal('0.02'), Decimal('-10.98'), Decimal('-11.00'), Decimal('0.00'), Decimal('-11.00'), Decimal('-11.00'), Decimal('0.00'), Decimal('-11.00'), Decimal('-11.00'), Decimal('0.00'), Decimal('-11.00'), Decimal('-11.00'), Decimal('-0.02'), Decimal('-11.02')), ('埃及足球甲级联赛', Decimal('20.00'), Decimal('13.90'), Decimal('0.00'), Decimal('-6.10'), Decimal('0.01'), Decimal('-6.09'), Decimal('1.22'), Decimal('0.00'), Decimal('1.22'), Decimal('1.22'), Decimal('0.00'), Decimal('1.22'), Decimal('1.22'), Decimal('0.00'), Decimal('1.22'), Decimal('1.22'), Decimal('0.00'), Decimal('1.22'), Decimal('1.22'), Decimal('-0.01'), Decimal('1.21')), ('挪威丙级联赛第3组', Decimal('30.00'), Decimal('23.90'), Decimal('0.00'), Decimal('-16.10'), Decimal('0.00'), Decimal('-16.10'), Decimal('3.22'), Decimal('0.00'), Decimal('3.22'), Decimal('3.22'), Decimal('0.00'), Decimal('3.22'), Decimal('3.22'), Decimal('0.00'), Decimal('3.22'), Decimal('3.22'), Decimal('0.00'), Decimal('3.22'), Decimal('3.22'), Decimal('0.00'), Decimal('3.22')), ('挪威丙级联赛第1组', Decimal('50.00'), Decimal('45.10'), Decimal('0.00'), Decimal('-34.90'), Decimal('0.00'), Decimal('-34.90'), Decimal('6.98'), Decimal('0.01'), Decimal('6.99'), Decimal('6.98'), Decimal('0.00'), Decimal('6.98'), Decimal('6.98'), Decimal('0.00'), Decimal('6.98'), Decimal('6.98'), Decimal('0.00'), Decimal('6.98'), Decimal('6.98'), Decimal('-0.01'), Decimal('6.97')), ('阿根廷足球丁级联赛 19/20', Decimal('86.00'), Decimal('86.00'), Decimal('0.00'), Decimal('-86.00'), Decimal('0.01'), Decimal('-85.99'), Decimal('13.90'), Decimal('0.00'), Decimal('13.90'), Decimal('17.20'), Decimal('0.05'), Decimal('17.25'), Decimal('17.20'), Decimal('-0.01'), Decimal('17.19'), Decimal('17.20'), Decimal('-0.02'), Decimal('17.18'), Decimal('20.50'), Decimal('-0.03'), Decimal('20.47')), ('国际俱乐部解放者杯', Decimal('20.00'), Decimal('15.60'), Decimal('0.00'), Decimal('-4.40'), Decimal('0.00'), Decimal('-4.40'), Decimal('0.88'), Decimal('0.00'), Decimal('0.88'), Decimal('0.88'), Decimal('0.00'), Decimal('0.88'), Decimal('0.88'), Decimal('0.00'), Decimal('0.88'), Decimal('0.88'), Decimal('0.00'), Decimal('0.88'), Decimal('0.88'), Decimal('0.00'), Decimal('0.88')), ('瑞典足球乙级联赛-南部', Decimal('20.00'), Decimal('18.60'), Decimal('0.00'), Decimal('-1.40'), Decimal('0.00'), Decimal('-1.40'), Decimal('0.28'), Decimal('0.01'), Decimal('0.29'), Decimal('0.28'), Decimal('0.00'), Decimal('0.28'), Decimal('0.28'), Decimal('0.00'), Decimal('0.28'), Decimal('0.28'), Decimal('0.00'), Decimal('0.28'), Decimal('0.28'), Decimal('-0.01'), Decimal('0.27')), ('澳大利亚全国超级联赛,新南威尔士州北部', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('澳大利亚全国超级联赛, 首都足球', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.01'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('爱尔兰甲级联赛', Decimal('10.00'), Decimal('8.20'), Decimal('0.00'), Decimal('8.20'), Decimal('0.00'), Decimal('8.20'), Decimal('-1.64'), Decimal('0.01'), Decimal('-1.63'), Decimal('-1.64'), Decimal('0.00'), Decimal('-1.64'), Decimal('-1.64'), Decimal('0.00'), Decimal('-1.64'), Decimal('-1.64'), Decimal('0.00'), Decimal('-1.64'), Decimal('-1.64'), Decimal('-0.01'), Decimal('-1.65')), ('乌拉圭乙级联赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('挪威丙级联赛第4组', Decimal('2151.00'), Decimal('2052.62'), Decimal('0.00'), Decimal('823.95'), Decimal('0.00'), Decimal('823.95'), Decimal('-156.36'), Decimal('1.13'), Decimal('-155.23'), Decimal('-164.75'), Decimal('5.25'), Decimal('-159.50'), Decimal('-164.75'), Decimal('-0.17'), Decimal('-164.92'), Decimal('-164.75'), Decimal('-1.97'), Decimal('-166.72'), Decimal('-173.34'), Decimal('-4.24'), Decimal('-177.58')), ('澳大利亚全国超级联赛,塔斯马尼亚', Decimal('30.00'), Decimal('20.30'), Decimal('0.00'), Decimal('-19.70'), Decimal('0.00'), Decimal('-19.70'), Decimal('3.94'), Decimal('0.01'), Decimal('3.95'), Decimal('3.94'), Decimal('0.00'), Decimal('3.94'), Decimal('3.94'), Decimal('0.00'), Decimal('3.94'), Decimal('3.94'), Decimal('0.00'), Decimal('3.94'), Decimal('3.94'), Decimal('-0.01'), Decimal('3.93')), ('美国足球全国超级联赛', Decimal('30.00'), Decimal('26.60'), Decimal('0.00'), Decimal('27.90'), Decimal('0.00'), Decimal('27.90'), Decimal('-5.58'), Decimal('0.02'), Decimal('-5.56'), Decimal('-5.58'), Decimal('0.00'), Decimal('-5.58'), Decimal('-5.58'), Decimal('0.00'), Decimal('-5.58'), Decimal('-5.58'), Decimal('0.00'), Decimal('-5.58'), Decimal('-5.58'), Decimal('-0.02'), Decimal('-5.60')), ('马来西亚足球超级联赛', Decimal('10.00'), Decimal('3.40'), Decimal('0.00'), Decimal('3.40'), Decimal('0.00'), Decimal('3.40'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68'), Decimal('-0.68'), Decimal('0.00'), Decimal('-0.68')), ('澳大利亚全国超级联赛,维多利亚', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.01'), Decimal('4.01'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('-0.01'), Decimal('3.99')), ('中国超级联赛', Decimal('1446.00'), Decimal('1385.04'), Decimal('0.00'), Decimal('1674.62'), Decimal('0.26'), Decimal('1674.88'), Decimal('-501.19'), Decimal('1.18'), Decimal('-500.01'), Decimal('-168.64'), Decimal('0.12'), Decimal('-168.52'), Decimal('-334.91'), Decimal('-0.39'), Decimal('-335.30'), Decimal('-334.91'), Decimal('-0.58'), Decimal('-335.49'), Decimal('-334.97'), Decimal('-0.59'), Decimal('-335.56')), ('冰岛甲级联赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('巴西乙级联赛', Decimal('30.00'), Decimal('28.20'), Decimal('0.00'), Decimal('-11.80'), Decimal('0.00'), Decimal('-11.80'), Decimal('2.36'), Decimal('0.01'), Decimal('2.37'), Decimal('2.36'), Decimal('0.00'), Decimal('2.36'), Decimal('2.36'), Decimal('0.00'), Decimal('2.36'), Decimal('2.36'), Decimal('0.00'), Decimal('2.36'), Decimal('2.36'), Decimal('-0.01'), Decimal('2.35')), ('立陶宛甲级联赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.01'), Decimal('-9.99'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('韩国K1联赛', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.01'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('爱沙尼亚乙级联赛', Decimal('900.00'), Decimal('839.00'), Decimal('0.00'), Decimal('-331.00'), Decimal('3.05'), Decimal('-327.95'), Decimal('152.26'), Decimal('-0.64'), Decimal('151.62'), Decimal('66.20'), Decimal('-0.67'), Decimal('65.53'), Decimal('33.10'), Decimal('-0.34'), Decimal('32.76'), Decimal('33.10'), Decimal('-0.48'), Decimal('32.62'), Decimal('46.34'), Decimal('-0.92'), Decimal('45.42')), ('墨西哥甲级联赛，春季赛', Decimal('409.00'), Decimal('204.50'), Decimal('0.00'), Decimal('-204.50'), Decimal('0.04'), Decimal('-204.46'), Decimal('61.35'), Decimal('0.17'), Decimal('61.52'), Decimal('20.45'), Decimal('0.02'), Decimal('20.47'</t>
@@ -843,6 +857,166 @@
     <t>测试通过 
 2022-06-29 10:08:01</t>
   </si>
+  <si>
+    <t>默认按照结算时间查询"足球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"足球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"足球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"足球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"足球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"足球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"篮球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"篮球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"篮球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"篮球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"篮球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"篮球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"网球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"网球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"网球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"网球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"网球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"网球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"排球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"排球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"排球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"排球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"排球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"排球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"羽毛球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"羽毛球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"羽毛球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"羽毛球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"羽毛球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"羽毛球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"乒乓球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"乒乓球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"乒乓球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"乒乓球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"乒乓球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"乒乓球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"棒球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"棒球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"棒球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"棒球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"棒球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"棒球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"冰球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"冰球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"冰球"近7天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询"冰球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询"冰球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询"冰球"近30天赛事盈亏数据</t>
+  </si>
+  <si>
+    <t>查询赛事盈亏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 总台-赛事盈亏报表</t>
+  </si>
+  <si>
+    <t>[['sr:match:33725431', 2000.0, 1899.0, 0.0, 1471.0, 11.2, 1482.2, -397.17, -3.0, -400.17, -367.75, -2.78, -370.53, -294.2, -2.24, -296.44, -220.65, -1.7, -222.35, -191.23, -1.48, -192.71], ['sr:match:33061713', 200.0, 125.0, 0.0, -75.0, 0.9, -74.1, 39.25, -0.19, 39.06, 13.75, -0.2, 13.55, 5.0, -0.1, 4.9, 6.25, -0.14, 6.11, 10.75, -0.27, 10.48], ['sr:match:34216515', 300.0, 207.0, 0.0, -193.0, 0.9, -192.1, 71.11, -0.19, 70.92, 43.25, -0.2, 43.05, 28.6, -0.1, 28.5, 23.95, -0.14, 23.81, 26.09, -0.27, 25.82], ['sr:match:34216513', 100.0, 30.5, 0.0, 30.5, 0.27, 30.77, -14.03, -0.05, -14.08, -6.1, -0.06, -6.16, -3.05, -0.03, -3.08, -3.05, -0.04, -3.09, -4.27, -0.09, -4.36], ['sr:match:34216521', 100.0, 100.0, 0.0, -100.0, 0.9, -99.1, 46.0, -0.19, 45.81, 20.0, -0.2, 19.8, 10.0, -0.1, 9.9, 10.0, -0.14, 9.86, 14.0, -0.27, 13.73], ['sr:match:33822861', 200.0, 192.0, 0.0, -8.0, 1.72, -6.28, 3.68, -0.36, 3.32, 1.6, -0.38, 1.22, 0.8, -0.19, 0.61, 0.8, -0.27, 0.53, 1.12, -0.52, 0.6], ['串关', 178570.0, 125321.65, 0.0, -77966.63, 0.0, -77966.63, 21976.95, 0.0, 21976.95, 18598.56, 0.0, 18598.56, 15273.74, 0.0, 15273.74, 11835.28, 0.0, 11835.28, 10282.1, 0.0, 10282.1], ['sr:match:32577737', 10.0, 10.0, 0.0, 15.5, 0.0, 15.5, -2.32, 0.0, -2.32, -3.1, 0.0, -3.1, -3.1, 0.0, -3.1, -3.1, 0.0, -3.1, -3.88, 0.0, -3.88], ['sr:match:34211945', 100.0, 18.0, 0.0, 18.0, 0.0, 18.0, -8.28, 0.0, -8.28, -3.6, 0.0, -3.6, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -2.52, 0.0, -2.52], ['sr:match:34015181', 2000.0, 1535.0, 0.0, -465.0, 0.0, -465.0, 213.9, 0.0, 213.9, 93.0, 0.0, 93.0, 46.5, 0.0, 46.5, 46.5, 0.0, 46.5, 65.1, 0.0, 65.1], ['sr:match:34198795', 2500.0, 2402.0, 0.0, -1068.0, 9.33, -1058.67, 491.28, -1.97, 489.31, 213.6, -2.07, 211.53, 106.8, -1.03, 105.77, 106.8, -1.46, 105.34, 149.52, -2.8, 146.72], ['sr:match:34035185', 10900.0, 9962.0, 0.0, -3402.0, 38.73, -3363.27, 918.54, -10.36, 908.18, 850.5, -9.62, 840.88, 680.4, -7.74, 672.66, 510.3, -5.9, 504.4, 442.26, -5.11, 437.15], ['sr:match:33999135', 8900.0, 7582.0, 0.0, -2807.0, 25.94, -2781.06, 817.17, -6.91, 810.26, 686.15, -6.39, 679.76, 530.2, -5.1, 525.1, 405.45, -3.96, 401.49, 368.03, -3.58, 364.45], ['sr:match:32274029', 3732.0, 3360.01, 0.0, -714.71, 0.0, -714.71, 221.91, 1.17, 223.08, 143.18, 5.58, 148.76, 143.18, -0.92, 142.26, 143.18, -3.24, 139.94, 63.26, -2.59, 60.67], ['sr:match:31865771', 3717.0, 3372.59, 0.0, 496.78, 0.0, 496.78, -94.04, 1.66, -92.38, -99.15, 7.6, -91.55, -99.15, -0.35, -99.5, -99.15, -2.82, -101.97, -105.29, -6.09, -111.38], ['sr:match:31140233', 2248.0, 2003.49, 0.0, -947.09, 0.0, -947.09, 170.66, 1.18, 171.84, 189.53, 5.24, 194.77, 189.53, -0.27, 189.26, 189.53, -1.88, 187.65, 207.84, -4.27, 203.57], ['sr:match:33890937', 200.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:32619475', 2198.0, 1970.1, 0.0, -816.73, 0.0, -816.73, 245.16, 0.87, 246.03, 163.46, 4.13, 167.59, 163.46, -0.54, 162.92, 163.46, -2.34, 161.12, 81.19, -2.12, 79.07], ['sr:match:31926167', 1284.0, 1114.65, 0.0, -709.81, 0.0, -709.81, 99.49, 0.71, 100.2, 142.04, 3.47, 145.51, 142.04, -0.07, 141.97, 142.04, -1.0, 141.04, 184.2, -3.11, 181.09], ['sr:match:33725429', 986.0, 309.04, 0.0, 309.04, 0.05, 309.09, -92.7, 0.26, -92.44, -30.89, 0.04, -30.85, -61.8, -0.08, -61.88, -61.8, -0.13, -61.93, -61.85, -0.14, -61.99], ['sr:match:33822809', 1421.0, 1057.14, 0.0, 1328.5, 0.2, 1328.7, -398.54, 0.9, -397.64, -132.84, 0.09, -132.75, -265.69, -0.29, -265.98, -265.69, -0.45, -266.14, -265.74, -0.45, -266.19], ['sr:match:32830419', 698.0, 698.0, 0.0, 856.88, 0.13, 857.01, -257.06, 0.59, -256.47, -85.68, 0.06, -85.62, -171.37, -0.2, -171.57, -171.37, -0.29, -171.66, -171.4, -0.29, -171.69], ['sr:match:34198749', 900.0, 527.0, 0.0, -273.0, 0.0, -273.0, 125.58, 0.0, 125.58, 54.6, 0.0, 54.6, 27.3, 0.0, 27.3, 27.3, 0.0, 27.3, 38.22, 0.0, 38.22], ['sr:match:32601047', 600.0, 557.0, 0.0, -233.0, 0.0, -233.0, 107.18, 0.0, 107.18, 46.6, 0.0, 46.6, 23.3, 0.0, 23.3, 23.3, 0.0, 23.3, 32.62, 0.0, 32.62], ['sr:match:34203499', 500.0, 500.0, 0.0, 565.0, 0.1, 565.1, -124.3, 0.71, -123.59, -113.0, 2.96, -110.04, -113.0, -0.54, -113.54, -113.0, -1.25, -114.25, -101.7, -1.98, -103.68], ['sr:match:33893941', 5400.0, 4352.0, 0.0, -2442.0, 4.77, -2437.23, 659.34, -1.26, 658.08, 610.5, -1.18, 609.32, 488.4, -0.96, 487.44, 366.3, -0.73, 365.57, 317.46, -0.64, 316.82], ['sr:match:34022821', 3133.0, 2877.5, 0.0, -408.55, 0.0, -408.55, 41.04, 1.32, 42.36, 81.86, 6.3, 88.16, 81.86, -0.04, 81.82, 81.86, -1.58, 80.28, 121.93, -6.0, 115.93], ['sr:match:33890931', 4164.0, 3685.58, 0.0, -1335.88, 0.02, -1335.86, 405.39, 1.14, 406.53, 272.84, 5.48, 278.32, 267.39, -0.74, 266.65, 261.94, -3.49, 258.45, 128.32, -2.41, 125.91], ['sr:match:33061685', 50.0, 7.5, 0.0, 7.5, 0.0, 7.5, -1.12, 0.0, -1.12, -1.5, 0.0, -1.5, -1.5, 0.0, -1.5, -1.5, 0.0, -1.5, -1.88, 0.0, -1.88], ['sr:match:32619487', 60.0, 60.0, 0.0, -60.0, 0.01, -59.99, 9.0, 0.0, 9.0, 12.0, 0.05, 12.05, 12.0, -0.01, 11.99, 12.0, -0.02, 11.98, 15.0, -0.03, 14.97], ['sr:match:34215573', 2363.0, 1085.9, 0.0, 320.9, 0.2, 321.1, -96.26, 0.93, -95.33, -32.08, 0.08, -32.0, -64.17, -0.27, -64.44, -64.17, -0.46, -64.63, -64.22, -0.48, -64.7], ['sr:match:34215575', 1915.0, 1450.24, 0.0, 812.24, 0.28, 812.52, -243.66, 1.22, -242.44, -81.21, 0.13, -81.08, -162.44, -0.4, -162.84, -162.44, -0.61, -163.05, -162.49, -0.62, -163.11], ['sr:match:34198799', 1523.0, 1419.13, 0.0, 267.13, 0.11, 267.24, -80.13, 0.5, -79.63, -26.7, 0.05, -26.65, -53.42, -0.16, -53.58, -53.42, -0.25, -53.67, -53.46, -0.25, -53.71], ['sr:match:32601055', 10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:32274069', 529.0, 478.9, 0.0, -105.31, 0.0, -105.31, 34.83, 0.39, 35.22, 21.1, 1.83, 22.93, 21.1, -0.32, 20.78, 21.1, -1.16, 19.94, 7.18, -0.74, 6.44], ['sr:match:33839259', 40.0, 37.2, 0.0, -22.8, 0.0, -22.8, 3.42, 0.0, 3.42, 4.56, 0.0, 4.56, 4.56, 0.0, 4.56, 4.56, 0.0, 4.56, 5.7, 0.0, 5.7], ['sr:match:32002059', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:34215647', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32411173', 10.0, 0.3, 0.0, 0.3, 0.0, 0.3, -0.06, 0.0, -0.06, -0.06, 0.0, -0.06, -0.06, 0.0, -0.06, -0.06, 0.0, -0.06, -0.06, 0.0, -0.06], ['sr:match:34215577', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32014001', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:32055869', 20.0, 15.5, 0.0, -4.5, 0.0, -4.5, 0.9, 0.0, 0.9, 0.9, 0.0, 0.9, 0.9, 0.0, 0.9, 0.9, 0.0, 0.9, 0.9, 0.0, 0.9], ['sr:match:31801903', 10.0, 10.0, 0.0, 11.0, 0.0, 11.0, -2.2, 0.0, -2.2, -2.2, 0.0, -2.2, -2.2, 0.0, -2.2, -2.2, 0.0, -2.2, -2.2, 0.0, -2.2], ['sr:match:32013733', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31767809', 10.0, 10.0, 0.0, 13.4, 0.01, 13.41, -2.68, 0.0, -2.68, -2.68, 0.0, -2.68, -2.68, 0.0, -2.68, -2.68, 0.0, -2.68, -2.68, -0.01, -2.69], ['sr:match:32411175', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.01, 4.01, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.01, 3.99], ['sr:match:32055873', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.01, 4.01, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.01, 3.99], ['sr:match:32055875', 10.0, 10.0, 0.0, 99.5, 0.0, 99.5, -19.9, 0.01, -19.89, -19.9, 0.0, -19.9, -19.9, 0.0, -19.9, -19.9, 0.0, -19.9, -19.9, -0.01, -19.91], ['sr:match:32011257', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31801913', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:32013409', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:32013411', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32011261', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:32011259', 20.0, 18.3, 0.0, -1.7, 0.0, -1.7, 0.34, 0.01, 0.35, 0.34, 0.0, 0.34, 0.34, 0.0, 0.34, 0.34, 0.0, 0.34, 0.34, -0.01, 0.33], ['sr:match:32055877', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:31803223', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31806029', 10.0, 10.0, 0.0, -10.0, 0.01, -9.99, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:33267907', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32141959', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:31769221', 20.0, 16.7, 0.0, 42.2, 0.0, 42.2, -8.44, 0.01, -8.43, -8.44, 0.0, -8.44, -8.44, 0.0, -8.44, -8.44, 0.0, -8.44, -8.44, -0.01, -8.45], ['sr:match:31885369', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31769887', 10.0, 1.3, 0.0, 1.3, 0.0, 1.3, -0.26, 0.0, -0.26, -0.26, 0.0, -0.26, -0.26, 0.0, -0.26, -0.26, 0.0, -0.26, -0.26, 0.0, -0.26], ['sr:match:31140237', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31140247', 20.0, 19.2, 0.0, -0.8, 0.0, -0.8, 0.16, 0.01, 0.17, 0.16, 0.0, 0.16, 0.16, 0.0, 0.16, 0.16, 0.0, 0.16, 0.16, -0.01, 0.15], ['sr:match:31803225', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31885371', 30.0, 25.1, 0.0, -14.9, 0.0, -14.9, 2.98, 0.0, 2.98, 2.98, 0.0, 2.98, 2.98, 0.0, 2.98, 2.98, 0.0, 2.98, 2.98, 0.0, 2.98], ['sr:match:31886097', 10.0, 3.9, 0.0, 3.9, 0.0, 3.9, -0.78, 0.0, -0.78, -0.78, 0.0, -0.78, -0.78, 0.0, -0.78, -0.78, 0.0, -0.78, -0.78, 0.0, -0.78], ['sr:match:32225919', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:34081505', 900.0, 839.0, 0.0, -331.0, 3.05, -327.95, 152.26, -0.64, 151.62, 66.2, -0.67, 65.53, 33.1, -0.34, 32.76, 33.1, -0.48, 32.62, 46.34, -0.92, 45.42], ['sr:match:32970661', 10.0, 0.7, 0.0, 0.7, 0.0, 0.7, -0.14, 0.0, -0.14, -0.14, 0.0, -0.14, -0.14, 0.0, -0.14, -0.14, 0.0, -0.14, -0.14, 0.0, -0.14], ['sr:match:34053731', 100.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:31885733', 10.0, 8.1, 0.0, 8.1, 0.0, 8.1, -1.62, 0.01, -1.61, -1.62, 0.0, -1.62, -1.62, 0.0, -1.62, -1.62, 0.0, -1.62, -1.62, -0.01, -1.63], ['sr:match:31140241', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31602069', 10.0, 6.8, 0.0, 6.8, 0.0, 6.8, -1.36, 0.01, -1.35, -1.36, 0.0, -1.36, -1.36, 0.0, -1.36, -1.36, 0.0, -1.36, -1.36, -0.01, -1.37], ['sr:match:31140243', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:31140235', 10.0, 10.0, 0.0, 21.0, 0.0, 21.0, -4.2, 0.01, -4.19, -4.2, 0.0, -4.2, -4.2, 0.0, -4.2, -4.2, 0.0, -4.2, -4.2, -0.01, -4.21], ['sr:match:31886469', 10.0, 3.6, 0.0, 3.6, 0.0, 3.6, -0.72, 0.0, -0.72, -0.72, 0.0, -0.72, -0.72, 0.0, -0.72, -0.72, 0.0, -0.72, -0.72, 0.0, -0.72], ['sr:match:31887199', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32970665', 10.0, 10.0, 0.0, 13.4, 0.0, 13.4, -2.68, 0.0, -2.68, -2.68, 0.0, -2.68, -2.68, 0.0, -2.68, -2.68, 0.0, -2.68, -2.68, 0.0, -2.68], ['sr:match:31885735', 10.0, 6.7, 0.0, 6.7, 0.0, 6.7, -1.34, 0.0, -1.34, -1.34, 0.0, -1.34, -1.34, 0.0, -1.34, -1.34, 0.0, -1.34, -1.34, 0.0, -1.34], ['sr:match:31886099', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32341047', 10.0, 3.4, 0.0, 3.4, 0.0, 3.4, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68, -0.68, 0.0, -0.68], ['sr:match:31886103', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31672937', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32970667', 10.0, 10.0, 0.0, 51.5, 0.0, 51.5, -10.3, 0.01, -10.29, -10.3, 0.0, -10.3, -10.3, 0.0, -10.3, -10.3, 0.0, -10.3, -10.3, -0.01, -10.31], ['sr:match:31672939', 10.0, 10.0, 0.0, -10.0, 0.01, -9.99, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31885375', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31933227', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:34053781', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:31887197', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33750735', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31435323', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31140239', 20.0, 16.1, 0.0, -3.9, 0.0, -3.9, 0.78, 0.02, 0.8, 0.78, 0.0, 0.78, 0.78, 0.0, 0.78, 0.78, 0.0, 0.78, 0.78, -0.02, 0.76], ['sr:match:32269529', 10.0, 10.0, 0.0, -10.0, 0.01, -9.99, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31935825', 20.0, 15.6, 0.0, -4.4, 0.0, -4.4, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88, 0.88, 0.0, 0.88], ['sr:match:31935827', 10.0, 8.1, 0.0, 8.1, 0.0, 8.1, -1.62, 0.01, -1.61, -1.62, 0.0, -1.62, -1.62, 0.0, -1.62, -1.62, 0.0, -1.62, -1.62, -0.01, -1.63], ['sr:match:34029347', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 3.5, 0.0, 3.5, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.5, 0.0, 4.5], ['sr:match:34251887', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31886833', 10.0, 1.5, 0.0, 1.5, 0.0, 1.5, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3, -0.3, 0.0, -0.3], ['sr:match:33750737', 20.0, 20.0, 0.0, 2.6, 0.0, 2.6, -0.52, 0.01, -0.51, -0.52, 0.0, -0.52, -0.52, 0.0, -0.52, -0.52, 0.0, -0.52, -0.52, -0.01, -0.53], ['sr:match:33750729', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33892599', 20.0, 19.4, 0.0, -0.6, 0.01, -0.59, 0.12, 0.0, 0.12, 0.12, 0.0, 0.12, 0.12, 0.0, 0.12, 0.12, 0.0, 0.12, 0.12, -0.01, 0.11], ['sr:match:34013433', 10.0, 7.6, 0.0, 7.6, 0.0, 7.6, -1.52, 0.0, -1.52, -1.52, 0.0, -1.52, -1.52, 0.0, -1.52, -1.52, 0.0, -1.52, -1.52, 0.0, -1.52], ['sr:match:32268693', 20.0, 20.0, 0.0, 5.0, 0.0, 5.0, -1.0, 0.0, -1.0, -1.0, 0.0, -1.0, -1.0, 0.0, -1.0, -1.0, 0.0, -1.0, -1.0, 0.0, -1.0], ['sr:match:32268803', 20.0, 20.0, 0.0, 3.2, 0.0, 3.2, -0.64, 0.0, -0.64, -0.64, 0.0, -0.64, -0.64, 0.0, -0.64, -0.64, 0.0, -0.64, -0.64, 0.0, -0.64], ['sr:match:32268581', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33839277', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.01, 4.01, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.01, 3.99], ['sr:match:33839263', 20.0, 5.3, 0.0, 5.3, 0.0, 5.3, -0.79, 0.0, -0.79, -1.06, 0.0, -1.06, -1.06, 0.0, -1.06, -1.06, 0.0, -1.06, -1.33, 0.0, -1.33], ['sr:match:32268135', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32268577', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33848343', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31932437', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:34251893', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:32268801', 10.0, 10.0, 0.0, 12.2, 0.0, 12.2, -2.44, 0.01, -2.43, -2.44, 0.0, -2.44, -2.44, 0.0, -2.44, -2.44, 0.0, -2.44, -2.44, -0.01, -2.45], ['sr:match:34251891', 20.0, 14.05, 0.0, -5.95, 0.0, -5.95, 1.19, 0.01, 1.2, 1.19, 0.0, 1.19, 1.19, 0.0, 1.19, 1.19, 0.0, 1.19, 1.19, -0.01, 1.18], ['sr:match:33848341', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33617763', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:32268353', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.01, 4.01, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.01, 3.99], ['sr:match:31934219', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:32268017', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:31099817', 10.0, 2.2, 0.0, 2.2, 0.0, 2.2, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44], ['sr:match:33848299', 10.0, 8.7, 0.0, 8.7, 0.0, 8.7, -1.74, 0.01, -1.73, -1.74, 0.0, -1.74, -1.74, 0.0, -1.74, -1.74, 0.0, -1.74, -1.74, -0.01, -1.75], ['sr:match:32023149', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31932425', 10.0, 8.9, 0.0, 8.9, 0.0, 8.9, -1.78, 0.01, -1.77, -1.78, 0.0, -1.78, -1.78, 0.0, -1.78, -1.78, 0.0, -1.78, -1.78, -0.01, -1.79], ['sr:match:31932421', 10.0, 9.6, 0.0, 9.6, 0.0, 9.6, -1.92, 0.0, -1.92, -1.92, 0.0, -1.92, -1.92, 0.0, -1.92, -1.92, 0.0, -1.92, -1.92, 0.0, -1.92], ['sr:match:32038773', 10.0, 10.0, 0.0, -10.0, 0.01, -9.99, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:33422811', 10.0, 10.0, 0.0, 11.3, 0.0, 11.3, -2.26, 0.0, -2.26, -2.26, 0.0, -2.26, -2.26, 0.0, -2.26, -2.26, 0.0, -2.26, -2.26, 0.0, -2.26], ['sr:match:33848303', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31999649', 10.0, 7.2, 0.0, 7.2, 0.0, 7.2, -1.44, 0.01, -1.43, -1.44, 0.0, -1.44, -1.44, 0.0, -1.44, -1.44, 0.0, -1.44, -1.44, -0.01, -1.45], ['sr:match:34284713', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31930561', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:31099821', 10.0, 0.9, 0.0, 0.9, 0.0, 0.9, -0.18, 0.0, -0.18, -0.18, 0.0, -0.18, -0.18, 0.0, -0.18, -0.18, 0.0, -0.18, -0.18, 0.0, -0.18], ['sr:match:31930549', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31099829', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.01, 4.01, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.01, 3.99], ['sr:match:31099827', 10.0, 2.2, 0.0, 2.2, 0.0, 2.2, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44, -0.44, 0.0, -0.44], ['sr:match:34212691', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31099833', 20.0, 10.3, 0.0, -9.7, 0.0, -9.7, 1.94, 0.0, 1.94, 1.94, 0.0, 1.94, 1.94, 0.0, 1.94, 1.94, 0.0, 1.94, 1.94, 0.0, 1.94], ['sr:match:33422813', 20.0, 16.6, 0.0, 16.6, 0.0, 16.6, -3.32, 0.02, -3.3, -3.32, 0.0, -3.32, -3.32, 0.0, -3.32, -3.32, 0.0, -3.32, -3.32, -0.02, -3.34], ['sr:match:32011265', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33677881', 10.0, 8.8, 0.0, 8.8, 0.0, 8.8, -1.76, 0.01, -1.75, -1.76, 0.0, -1.76, -1.76, 0.0, -1.76, -1.76, 0.0, -1.76, -1.76, -0.01, -1.77], ['sr:match:31769223', 20.0, 10.3, 0.0, 24.8, 0.0, 24.8, -4.96, 0.0, -4.96, -4.96, 0.0, -4.96, -4.96, 0.0, -4.96, -4.96, 0.0, -4.96, -4.96, 0.0, -4.96], ['sr:match:32011263', 10.0, 6.4, 0.0, 6.4, 0.0, 6.4, -1.28, 0.01, -1.27, -1.28, 0.0, -1.28, -1.28, 0.0, -1.28, -1.28, 0.0, -1.28, -1.28, -0.01, -1.29], ['sr:match:32011267', 10.0, 10.0, 0.0, 18.5, 0.0, 18.5, -3.7, 0.01, -3.69, -3.7, 0.0, -3.7, -3.7, 0.0, -3.7, -3.7, 0.0, -3.7, -3.7, -0.01, -3.71], ['sr:match:33849053', 10.0, 10.0, 0.0, 11.9, 0.0, 11.9, -2.38, 0.01, -2.37, -2.38, 0.0, -2.38, -2.38, 0.0, -2.38, -2.38, 0.0, -2.38, -2.38, -0.01, -2.39], ['sr:match:31769897', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31769229', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31767817', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31769899', 10.0, 6.6, 0.0, 6.6, 0.0, 6.6, -1.32, 0.01, -1.31, -1.32, 0.0, -1.32, -1.32, 0.0, -1.32, -1.32, 0.0, -1.32, -1.32, -0.01, -1.33], ['sr:match:31769901', 10.0, 10.0, 0.0, 17.5, 0.0, 17.5, -3.5, 0.01, -3.49, -3.5, 0.0, -3.5, -3.5, 0.0, -3.5, -3.5, 0.0, -3.5, -3.5, -0.01, -3.51], ['sr:match:31769225', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31769233', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31561617', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.01, 2.01, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31753695', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31605871', 10.0, 8.1, 0.0, 8.1, 0.0, 8.1, -1.62, 0.01, -1.61, -1.62, 0.0, -1.62, -1.62, 0.0, -1.62, -1.62, 0.0, -1.62, -1.62, -0.01, -1.63], ['sr:match:31603003', 10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:31603005', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33779439', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['sr:match:31603017', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31753701', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31865409', 10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:32225913', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31753699', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31602077', 274.0, 274.0, 0.0, -274.0, 0.0, -274.0, 81.2, 0.0, 81.2, 28.4, 0.0, 28.4, 54.8, 0.0, 54.8, 54.8, 0.0, 54.8, 54.8, 0.0, 54.8], ['sr:match:31602083', 40.0, 40.0, 0.0, -7.5, 0.0, -7.5, 1.5, 0.0, 1.5, 1.5, 0.0, 1.5, 1.5, 0.0, 1.5, 1.5, 0.0, 1.5, 1.5, 0.0, 1.5], ['sr:match:32023143', 10.0, 10.0, 0.0, -10.0, 0.01, -9.99, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, -0.01, 1.99], ['sr:match:31932435', 20.0, 18.5, 0.0, -1.5, 0.0, -1.5, 0.3, 0.0, 0.3, 0.3, 0.0, 0.3, 0.3, 0.0, 0.3, 0.3, 0.0, 0.3, 0.3, 0.0, 0.3], ['sr:match:33848301', 20.0, 14.0, 0.0, 14.0, 0.0, 14.0, -2.8, 0.0, -2.8, -2.8, 0.0, -2.8, -2.8, 0.0, -2.8, -2.8, 0.0, -2.8, -2.8, 0.0, -2.8], ['sr:match:31932431', 10.0, 10.0, 0.0, 13.0, 0.0, 13.0, -2.6, 0.0, -2.6, -2.6, 0.0, -2.6, -2.6, 0.0, -2.6, -2.6, 0.0, -2.6, -2.6, 0.0, -2.6], ['sr:match:31932433', 10.0, 10.0, 0.0, 11.4, 0.0, 11.4, -2.28, 0.01, -2.27, -2.28, 0.0, -2.28, -2.28, 0.0, -2.28, -2.28, 0.0, -2.28, -2.28, -0.01, -2.29], ['sr:match:33848295', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:33848317', 10.0, 3.3, 0.0, 3.3, 0.0, 3.3, -0.66, 0.0, -0.66, -0.66, 0.0, -0.66, -0.66, 0.0, -0.66, -0.66, 0.0, -0.66, -0.66, 0.0, -0.66], ['sr:match:34212693', 10.0, 9.8, 0.0, 9.8, 0.0, 9.8, -1.96, 0.0, -1.96, -1.96, 0.0, -1.96, -1.96, 0.0, -1.96, -1.96, 0.0, -1.96, -1.96, 0.0, -1.96], ['sr:match:32038775', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31099837', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:34212695', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.02, 4.02, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, -0.02, 3.98], ['sr:match:34182251', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:34172005', 476.0, 307.02, 0.0, 307.02, 0.06, 307.08, -92.1, 0.26, -91.84, -30.7, 0.03, -30.67, -61.4, -0.09, -61.49, -61.4, -0.13, -61.53, -61.42, -0.13, -61.55], ['sr:match:33849063', 508.0, 447.04, 0.0, 447.04, 0.08, 447.12, -134.11, 0.38, -133.73, -44.7, 0.04, -44.66, -89.4, -0.12, -89.52, -89.4, -0.19, -89.59, -89.43, -0.19, -89.62], ['sr:match:31603013', 743.0, 497.81, 0.0, 497.81, 0.0, 497.81, -149.34, 0.0, -149.34, -49.78, 0.0, -49.78, -99.56, 0.0, -99.56, -99.56, 0.0, -99.56, -99.57, 0.0, -99.57], ['sr:match:31932449', 620.0, 260.4, 0.0, 260.4, 0.05, 260.45, -78.12, 0.22, -77.9, -26.04, 0.02, -26.02, -52.08, -0.07, -52.15, -52.08, -0.11, -52.19, -52.08, -0.11, -52.19], ['sr:match:34006409', 682.0, 296.67, 0.0, 296.67, 0.05, 296.72, -89.0, 0.26, -88.74, -29.66, 0.02, -29.64, -59.33, -0.08, -59.41, -59.33, -0.12, -59.45, -59.35, -0.13, -59.48], ['sr:match:31802525', 486.0, 315.9, 0.0, 315.9, 0.0, 315.9, -94.77, 0.0, -94.77, -31.59, 0.0, -31.59, -63.18, 0.0, -63.18, -63.18, 0.0, -63.18, -63.18, 0.0, -63.18], ['sr:match:33947045', 409.0, 204.5, 0.0, -204.5, 0.04, -204.46, 61.35, 0.17, 61.52, 20.45, 0.02, 20.47, 40.9, -0.05, 40.85, 40.9, -0.09, 40.81, 40.9, -0.09, 40.81], ['sr:match:31801917', 689.0, 227.37, 0.0, 227.37, 0.04, 227.41, -68.21, 0.19, -68.02, -22.73, 0.02, -22.71, -45.47, -0.05, -45.52, -45.47, -0.1, -45.57, -45.49, -0.1, -45.59], ['sr:match:33849075', 928.0, 928.0, 0.0, 1215.68, 0.18, 1215.86, -364.7, 0.79, -363.91, -121.56, 0.08, -121.48, -243.13, -0.27, -243.4, -243.13, -0.39, -243.52, -243.16, -0.39, -243.55], ['sr:match:31099857', 564.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:31932453', 981.0, 981.0, 0.0, -981.0, 0.19, -980.81, 294.3, 0.84, 295.14, 98.1, 0.08, 98.18, 196.2, -0.28, 195.92, 196.2, -0.41, 195.79, 196.2, -0.42, 195.78], ['sr:match:34168949', 940.0, 385.4, 0.0, 385.4, 0.0, 385.4, -115.62, 0.0, -115.62, -38.54, 0.0, -38.54, -77.08, 0.0, -77.08, -77.08, 0.0, -77.08, -77.08, 0.0, -77.08], ['sr:match:32454973', 799.0, 799.0, 0.0, -799.0, 0.15, -798.85, 239.7, 0.68, 240.38, 79.9, 0.08, 79.98, 159.8, -0.23, 159.57, 159.8, -0.34, 159.46, 159.8, -0.34, 159.46], ['sr:match:31769249', 379.0, 360.05, 0.0, 360.05, 0.07, 360.12, -108.01, 0.3, -107.71, -36.0, 0.04, -35.96, -72.01, -0.1, -72.11, -72.01, -0.15, -72.16, -72.02, -0.16, -72.18], ['sr:match:31421219', 569.0, 284.5, 0.0, -284.5, 0.05, -284.45, 85.35, 0.24, 85.59, 28.45, 0.03, 28.48, 56.9, -0.08, 56.82, 56.9, -0.12, 56.78, 56.9, -0.12, 56.78], ['sr:match:34169595', 273.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:32011273', 855.0, 855.0, 0.0, -855.0, 0.0, -855.0, 256.5, 0.0, 256.5, 85.5, 0.0, 85.5, 171.0, 0.0, 171.0, 171.0, 0.0, 171.0, 171.0, 0.0, 171.0], ['sr:match:31421209', 786.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:32986737', 69.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:30123609', 930.0, 465.0, 0.0, -465.0, 0.09, -464.91, 139.5, 0.39, 139.89, 46.5, 0.05, 46.55, 93.0, -0.13, 92.87, 93.0, -0.2, 92.8, 93.0, -0.2, 92.8], ['sr:match:31803235', 819.0, 819.0, 0.0, 1154.79, 0.0, 1154.79, -346.43, 0.0, -346.43, -115.47, 0.0, -115.47, -230.95, 0.0, -230.95, -230.95, 0.0, -230.95, -230.99, 0.0, -230.99], ['sr:match:33836393', 73.0, 73.0, 0.0, 405.15, 0.0, 405.15, -121.54, 0.0, -121.54, -40.51, 0.0, -40.51, -81.03, 0.0, -81.03, -81.03, 0.0, -81.03, -81.04, 0.0, -81.04], ['sr:match:32901103', 596.0, 238.4, 0.0, 238.4, 0.04, 238.44, -71.52, 0.21, -71.31, -23.84, 0.02, -23.82, -47.68, -0.06, -47.74, -47.68, -0.1, -47.78, -47.68, -0.11, -47.79], ['sr:match:32986771', 310.0, 199.95, 0.0, 199.95, 0.03, 199.98, -59.98, 0.17, -59.81, -19.99, 0.02, -19.97, -39.99, -0.05, -40.04, -39.99, -0.08, -40.07, -40.0, -0.09, -40.09], ['sr:match:34169589', 353.0, 93.54, 0.0, 93.54, 0.01, 93.55, -28.06, 0.08, -27.98, -9.35, 0.01, -9.34, -18.7, -0.02, -18.72, -18.7, -0.04, -18.74, -18.73, -0.04, -18.77], ['sr:match:32512067', 256.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:34291175', 2448.0, 1387.28, 0.0, -46.72, 0.25, -46.47, 14.03, 1.18, 15.21, 4.69, 0.12, 4.81, 9.36, -0.37, 8.99, 9.36, -0.58, 8.78, 9.28, -0.6, 8.68], ['sr:match:32601067', 100.0, 90.0, 0.0, 90.0, 1.71, 91.71, -24.3, -0.46, -24.76, -22.5, -0.42, -22.92, -18.0, -0.35, -18.35, -13.5, -0.25, -13.75, -11.7, -0.23, -11.93], ['sr:match:33893415', 300.0, 300.0, 0.0, -300.0, 5.7, -294.3, 81.0, -1.53, 79.47, 75.0, -1.41, 73.59, 60.0, -1.14, 58.86, 45.0, -0.87, 44.13, 39.0, -0.75, 38.25], ['sr:match:32601073', 400.0, 344.0, 0.0, 344.0, 6.51, 350.51, -92.88, -1.71, -94.59, -86.0, -1.65, -87.65, -68.8, -1.29, -70.09, -51.6, -0.99, -52.59, -44.72, -0.87, -45.59], ['sr:match:34111729', 100.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['sr:match:32512089', 3694.0, 3163.86, 0.0, -1021.44, 0.0, -1021.44, 102.38, 1.63, 104.01, 204.46, 7.69, 212.15, 204.46, -0.05, 204.41, 204.46, -1.82, 202.64, 305.68, -7.45, 298.23], ['sr:match:31604373', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32645351', 10.0, 10.0, 0.0, 11.5, 0.01, 11.51, -2.3, 0.0, -2.3, -2.3, 0.0, -2.3, -2.3, 0.0, -2.3, -2.3, 0.0, -2.3, -2.3, -0.01, -2.31], ['sr:match:31604369', 10.0, 10.0, 0.0, 13.2, 0.0, 13.2, -2.64, 0.0, -2.64, -2.64, 0.0, -2.64, -2.64, 0.0, -2.64, -2.64, 0.0, -2.64, -2.64, 0.0, -2.64], ['sr:match:31604365', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:32619491', 20.0, 9.0, 0.0, 9.0, 0.0, 9.0, -1.35, 0.0, -1.35, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -2.25, 0.0, -2.25], ['sr:match:31754193', 20.0, 18.6, 0.0, -1.4, 0.0, -1.4, 0.28, 0.01, 0.29, 0.28, 0.0, 0.28, 0.28, 0.0, 0.28, 0.28, 0.0, 0.28, 0.28, -0.01, 0.27], ['sr:match:31605873', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31603009', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['sr:match:31886473', 2141.0, 2049.02, 0.0, 820.35, 0.0, 820.35, -155.64, 1.13, -154.51, -164.03, 5.25, -158.78, -164.03, -0.17, -164.2, -164.03, -1.97, -166.0, -172.62, -4.24, -176.86], ['sr:match:33839269', 68.0, 68.0, 0.0, -68.0, 0.01, -67.99, 10.2, 0.0, 10.2, 13.6, 0.05, 13.65, 13.6, -0.01, 13.59, 13.6, -0.02, 13.58, 17.0, -0.03, 16.97], ['sr:match:33617771', 66.0, 66.0, 0.0, -66.0, 0.01, -65.99, 9.9, 0.0, 9.9, 13.2, 0.05, 13.25, 13.2, -0.01, 13.19, 13.2, -0.02, 13.18, 16.5, -0.03, 16.47], ['sr:match:31185991', 10.0, 8.2, 0.0, 8.2, 0.0, 8.2, -1.64, 0.01, -1.63, -1.64, 0.0, -1.64, -1.64, 0.0, -1.64, -1.64, 0.0, -1.64, -1.64, -0.01, -1.65], ['sr:match</t>
+  </si>
+  <si>
+    <t>[('sr:match:31603013', Decimal('743.00'), Decimal('497.81'), Decimal('0.00'), Decimal('497.81'), Decimal('0.00'), Decimal('497.81'), Decimal('-149.34'), Decimal('0.00'), Decimal('-149.34'), Decimal('-49.78'), Decimal('0.00'), Decimal('-49.78'), Decimal('-99.56'), Decimal('0.00'), Decimal('-99.56'), Decimal('-99.56'), Decimal('0.00'), Decimal('-99.56'), Decimal('-99.57'), Decimal('0.00'), Decimal('-99.57')), ('sr:match:31602077', Decimal('274.00'), Decimal('274.00'), Decimal('0.00'), Decimal('-274.00'), Decimal('0.00'), Decimal('-274.00'), Decimal('81.20'), Decimal('0.00'), Decimal('81.20'), Decimal('28.40'), Decimal('0.00'), Decimal('28.40'), Decimal('54.80'), Decimal('0.00'), Decimal('54.80'), Decimal('54.80'), Decimal('0.00'), Decimal('54.80'), Decimal('54.80'), Decimal('0.00'), Decimal('54.80')), ('sr:match:32577737', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('15.50'), Decimal('0.00'), Decimal('15.50'), Decimal('-2.32'), Decimal('0.00'), Decimal('-2.32'), Decimal('-3.10'), Decimal('0.00'), Decimal('-3.10'), Decimal('-3.10'), Decimal('0.00'), Decimal('-3.10'), Decimal('-3.10'), Decimal('0.00'), Decimal('-3.10'), Decimal('-3.88'), Decimal('0.00'), Decimal('-3.88')), ('sr:match:33061713', Decimal('200.00'), Decimal('125.00'), Decimal('0.00'), Decimal('-75.00'), Decimal('0.90'), Decimal('-74.10'), Decimal('39.25'), Decimal('-0.19'), Decimal('39.06'), Decimal('13.75'), Decimal('-0.20'), Decimal('13.55'), Decimal('5.00'), Decimal('-0.10'), Decimal('4.90'), Decimal('6.25'), Decimal('-0.14'), Decimal('6.11'), Decimal('10.75'), Decimal('-0.27'), Decimal('10.48')), ('sr:match:33822861', Decimal('200.00'), Decimal('192.00'), Decimal('0.00'), Decimal('-8.00'), Decimal('1.72'), Decimal('-6.28'), Decimal('3.68'), Decimal('-0.36'), Decimal('3.32'), Decimal('1.60'), Decimal('-0.38'), Decimal('1.22'), Decimal('0.80'), Decimal('-0.19'), Decimal('0.61'), Decimal('0.80'), Decimal('-0.27'), Decimal('0.53'), Decimal('1.12'), Decimal('-0.52'), Decimal('0.60')), ('sr:match:33725431', Decimal('2000.00'), Decimal('1899.00'), Decimal('0.00'), Decimal('1471.00'), Decimal('11.20'), Decimal('1482.20'), Decimal('-397.17'), Decimal('-3.00'), Decimal('-400.17'), Decimal('-367.75'), Decimal('-2.78'), Decimal('-370.53'), Decimal('-294.20'), Decimal('-2.24'), Decimal('-296.44'), Decimal('-220.65'), Decimal('-1.70'), Decimal('-222.35'), Decimal('-191.23'), Decimal('-1.48'), Decimal('-192.71')), ('sr:match:34216515', Decimal('300.00'), Decimal('207.00'), Decimal('0.00'), Decimal('-193.00'), Decimal('0.90'), Decimal('-192.10'), Decimal('71.11'), Decimal('-0.19'), Decimal('70.92'), Decimal('43.25'), Decimal('-0.20'), Decimal('43.05'), Decimal('28.60'), Decimal('-0.10'), Decimal('28.50'), Decimal('23.95'), Decimal('-0.14'), Decimal('23.81'), Decimal('26.09'), Decimal('-0.27'), Decimal('25.82')), ('sr:match:33999135', Decimal('8900.00'), Decimal('7582.00'), Decimal('0.00'), Decimal('-2807.00'), Decimal('25.94'), Decimal('-2781.06'), Decimal('817.17'), Decimal('-6.91'), Decimal('810.26'), Decimal('686.15'), Decimal('-6.39'), Decimal('679.76'), Decimal('530.20'), Decimal('-5.10'), Decimal('525.10'), Decimal('405.45'), Decimal('-3.96'), Decimal('401.49'), Decimal('368.03'), Decimal('-3.58'), Decimal('364.45')), ('sr:match:34216521', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('0.90'), Decimal('-99.10'), Decimal('46.00'), Decimal('-0.19'), Decimal('45.81'), Decimal('20.00'), Decimal('-0.20'), Decimal('19.80'), Decimal('10.00'), Decimal('-0.10'), Decimal('9.90'), Decimal('10.00'), Decimal('-0.14'), Decimal('9.86'), Decimal('14.00'), Decimal('-0.27'), Decimal('13.73')), ('sr:match:34216513', Decimal('100.00'), Decimal('30.50'), Decimal('0.00'), Decimal('30.50'), Decimal('0.27'), Decimal('30.77'), Decimal('-14.03'), Decimal('-0.05'), Decimal('-14.08'), Decimal('-6.10'), Decimal('-0.06'), Decimal('-6.16'), Decimal('-3.05'), Decimal('-0.03'), Decimal('-3.08'), Decimal('-3.05'), Decimal('-0.04'), Decimal('-3.09'), Decimal('-4.27'), Decimal('-0.09'), Decimal('-4.36')), ('sr:match:34035185', Decimal('10900.00'), Decimal('9962.00'), Decimal('0.00'), Decimal('-3402.00'), Decimal('38.73'), Decimal('-3363.27'), Decimal('918.54'), Decimal('-10.36'), Decimal('908.18'), Decimal('850.50'), Decimal('-9.62'), Decimal('840.88'), Decimal('680.40'), Decimal('-7.74'), Decimal('672.66'), Decimal('510.30'), Decimal('-5.90'), Decimal('504.40'), Decimal('442.26'), Decimal('-5.11'), Decimal('437.15')), ('sr:match:33890937', Decimal('200.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')), ('sr:match:31926167', Decimal('1284.00'), Decimal('1114.65'), Decimal('0.00'), Decimal('-709.81'), Decimal('0.00'), Decimal('-709.81'), Decimal('99.49'), Decimal('0.71'), Decimal('100.20'), Decimal('142.04'), Decimal('3.47'), Decimal('145.51'), Decimal('142.04'), Decimal('-0.07'), Decimal('141.97'), Decimal('142.04'), Decimal('-1.00'), Decimal('141.04'), Decimal('184.20'), Decimal('-3.11'), Decimal('181.09')), ('sr:match:32619475', Decimal('2198.00'), Decimal('1970.10'), Decimal('0.00'), Decimal('-816.73'), Decimal('0.00'), Decimal('-816.73'), Decimal('245.16'), Decimal('0.87'), Decimal('246.03'), Decimal('163.46'), Decimal('4.13'), Decimal('167.59'), Decimal('163.46'), Decimal('-0.54'), Decimal('162.92'), Decimal('163.46'), Decimal('-2.34'), Decimal('161.12'), Decimal('81.19'), Decimal('-2.12'), Decimal('79.07')), ('sr:match:31140233', Decimal('2248.00'), Decimal('2003.49'), Decimal('0.00'), Decimal('-947.09'), Decimal('0.00'), Decimal('-947.09'), Decimal('170.66'), Decimal('1.18'), Decimal('171.84'), Decimal('189.53'), Decimal('5.24'), Decimal('194.77'), Decimal('189.53'), Decimal('-0.27'), Decimal('189.26'), Decimal('189.53'), Decimal('-1.88'), Decimal('187.65'), Decimal('207.84'), Decimal('-4.27'), Decimal('203.57')), ('sr:match:32274029', Decimal('3732.00'), Decimal('3360.01'), Decimal('0.00'), Decimal('-714.71'), Decimal('0.00'), Decimal('-714.71'), Decimal('221.91'), Decimal('1.17'), Decimal('223.08'), Decimal('143.18'), Decimal('5.58'), Decimal('148.76'), Decimal('143.18'), Decimal('-0.92'), Decimal('142.26'), Decimal('143.18'), Decimal('-3.24'), Decimal('139.94'), Decimal('63.26'), Decimal('-2.59'), Decimal('60.67')), ('sr:match:31865771', Decimal('3717.00'), Decimal('3372.59'), Decimal('0.00'), Decimal('496.78'), Decimal('0.00'), Decimal('496.78'), Decimal('-94.04'), Decimal('1.66'), Decimal('-92.38'), Decimal('-99.15'), Decimal('7.60'), Decimal('-91.55'), Decimal('-99.15'), Decimal('-0.35'), Decimal('-99.50'), Decimal('-99.15'), Decimal('-2.82'), Decimal('-101.97'), Decimal('-105.29'), Decimal('-6.09'), Decimal('-111.38')), ('sr:match:34211945', Decimal('100.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('-8.28'), Decimal('0.00'), Decimal('-8.28'), Decimal('-3.60'), Decimal('0.00'), Decimal('-3.60'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-2.52'), Decimal('0.00'), Decimal('-2.52')), ('sr:match:34015181', Decimal('2000.00'), Decimal('1535.00'), Decimal('0.00'), Decimal('-465.00'), Decimal('0.00'), Decimal('-465.00'), Decimal('213.90'), Decimal('0.00'), Decimal('213.90'), Decimal('93.00'), Decimal('0.00'), Decimal('93.00'), Decimal('46.50'), Decimal('0.00'), Decimal('46.50'), Decimal('46.50'), Decimal('0.00'), Decimal('46.50'), Decimal('65.10'), Decimal('0.00'), Decimal('65.10')), ('sr:match:34198795', Decimal('2500.00'), Decimal('2402.00'), Decimal('0.00'), Decimal('-1068.00'), Decimal('9.33'), Decimal('-1058.67'), Decimal('491.28'), Decimal('-1.97'), Decimal('489.31'), Decimal('213.60'), Decimal('-2.07'), Decimal('211.53'), Decimal('106.80'), Decimal('-1.03'), Decimal('105.77'), Decimal('106.80'), Decimal('-1.46'), Decimal('105.34'), Decimal('149.52'), Decimal('-2.80'), Decimal('146.72')), ('sr:match:33890931', Decimal('4164.00'), Decimal('3685.58'), Decimal('0.00'), Decimal('-1335.88'), Decimal('0.02'), Decimal('-1335.86'), Decimal('405.39'), Decimal('1.14'), Decimal('406.53'), Decimal('272.84'), Decimal('5.48'), Decimal('278.32'), Decimal('267.39'), Decimal('-0.74'), Decimal('266.65'), Decimal('261.94'), Decimal('-3.49'), Decimal('258.45'), Decimal('128.32'), Decimal('-2.41'), Decimal('125.91')), ('sr:match:32830419', Decimal('698.00'), Decimal('698.00'), Decimal('0.00'), Decimal('856.88'), Decimal('0.13'), Decimal('857.01'), Decimal('-257.06'), Decimal('0.59'), Decimal('-256.47'), Decimal('-85.68'), Decimal('0.06'), Decimal('-85.62'), Decimal('-171.37'), Decimal('-0.20'), Decimal('-171.57'), Decimal('-171.37'), Decimal('-0.29'), Decimal('-171.66'), Decimal('-171.40'), Decimal('-0.29'), Decimal('-171.69')), ('sr:match:33725429', Decimal('986.00'), Decimal('309.04'), Decimal('0.00'), Decimal('309.04'), Decimal('0.05'), Decimal('309.09'), Decimal('-92.70'), Decimal('0.26'), Decimal('-92.44'), Decimal('-30.89'), Decimal('0.04'), Decimal('-30.85'), Decimal('-61.80'), Decimal('-0.08'), Decimal('-61.88'), Decimal('-61.80'), Decimal('-0.13'), Decimal('-61.93'), Decimal('-61.85'), Decimal('-0.14'), Decimal('-61.99')), ('sr:match:33822809', Decimal('1421.00'), Decimal('1057.14'), Decimal('0.00'), Decimal('1328.50'), Decimal('0.20'), Decimal('1328.70'), Decimal('-398.54'), Decimal('0.90'), Decimal('-397.64'), Decimal('-132.84'), Decimal('0.09'), Decimal('-132.75'), Decimal('-265.69'), Decimal('-0.29'), Decimal('-265.98'), Decimal('-265.69'), Decimal('-0.45'), Decimal('-266.14'), Decimal('-265.74'), Decimal('-0.45'), Decimal('-266.19')), ('sr:match:34198749', Decimal('900.00'), Decimal('527.00'), Decimal('0.00'), Decimal('-273.00'), Decimal('0.00'), Decimal('-273.00'), Decimal('125.58'), Decimal('0.00'), Decimal('125.58'), Decimal('54.60'), Decimal('0.00'), Decimal('54.60'), Decimal('27.30'), Decimal('0.00'), Decimal('27.30'), Decimal('27.30'), Decimal('0.00'), Decimal('27.30'), Decimal('38.22'), Decimal('0.00'), Decimal('38.22')), ('sr:match:32601047', Decimal('600.00'), Decimal('557.00'), Decimal('0.00'), Decimal('-233.00'), Decimal('0.00'), Decimal('-233.00'), Decimal('107.18'), Decimal('0.00'), Decimal('107.18'), Decimal('46.60'), Decimal('0.00'), Decimal('46.60'), Decimal('23.30'), Decimal('0.00'), Decimal('23.30'), Decimal('23.30'), Decimal('0.00'), Decimal('23.30'), Decimal('32.62'), Decimal('0.00'), Decimal('32.62')), ('sr:match:34022821', Decimal('3133.00'), Decimal('2877.50'), Decimal('0.00'), Decimal('-408.55'), Decimal('0.00'), Decimal('-408.55'), Decimal('41.04'), Decimal('1.32'), Decimal('42.36'), Decimal('81.86'), Decimal('6.30'), Decimal('88.16'), Decimal('81.86'), Decimal('-0.04'), Decimal('81.82'), Decimal('81.86'), Decimal('-1.58'), Decimal('80.28'), Decimal('121.93'), Decimal('-6.00'), Decimal('115.93')), ('sr:match:33893941', Decimal('5400.00'), Decimal('4352.00'), Decimal('0.00'), Decimal('-2442.00'), Decimal('4.77'), Decimal('-2437.23'), Decimal('659.34'), Decimal('-1.26'), Decimal('658.08'), Decimal('610.50'), Decimal('-1.18'), Decimal('609.32'), Decimal('488.40'), Decimal('-0.96'), Decimal('487.44'), Decimal('366.30'), Decimal('-0.73'), Decimal('365.57'), Decimal('317.46'), Decimal('-0.64'), Decimal('316.82')), ('sr:match:34203499', Decimal('500.00'), Decimal('500.00'), Decimal('0.00'), Decimal('565.00'), Decimal('0.10'), Decimal('565.10'), Decimal('-124.30'), Decimal('0.71'), Decimal('-123.59'), Decimal('-113.00'), Decimal('2.96'), Decimal('-110.04'), Decimal('-113.00'), Decimal('-0.54'), Decimal('-113.54'), Decimal('-113.00'), Decimal('-1.25'), Decimal('-114.25'), Decimal('-101.70'), Decimal('-1.98'), Decimal('-103.68')), ('sr:match:33061685', Decimal('50.00'), Decimal('7.50'), Decimal('0.00'), Decimal('7.50'), Decimal('0.00'), Decimal('7.50'), Decimal('-1.12'), Decimal('0.00'), Decimal('-1.12'), Decimal('-1.50'), Decimal('0.00'), Decimal('-1.50'), Decimal('-1.50'), Decimal('0.00'), Decimal('-1.50'), Decimal('-1.50'), Decimal('0.00'), Decimal('-1.50'), Decimal('-1.88'), Decimal('0.00'), Decimal('-1.88')), ('sr:match:32619487', Decimal('60.00'), Decimal('60.00'), Decimal('0.00'), Decimal('-60.00'), Decimal('0.01'), Decimal('-59.99'), Decimal('9.00'), Decimal('0.00'), Decimal('9.00'), Decimal('12.00'), Decimal('0.05'), Decimal('12.05'), Decimal('12.00'), Decimal('-0.01'), Decimal('11.99'), Decimal('12.00'), Decimal('-0.02'), Decimal('11.98'), Decimal('15.00'), Decimal('-0.03'), Decimal('14.97')), ('sr:match:33839259', Decimal('40.00'), Decimal('37.20'), Decimal('0.00'), Decimal('-22.80'), Decimal('0.00'), Decimal('-22.80'), Decimal('3.42'), Decimal('0.00'), Decimal('3.42'), Decimal('4.56'), Decimal('0.00'), Decimal('4.56'), Decimal('4.56'), Decimal('0.00'), Decimal('4.56'), Decimal('4.56'), Decimal('0.00'), Decimal('4.56'), Decimal('5.70'), Decimal('0.00'), Decimal('5.70')), ('sr:match:33839263', Decimal('20.00'), Decimal('5.30'), Decimal('0.00'), Decimal('5.30'), Decimal('0.00'), Decimal('5.30'), Decimal('-0.79'), Decimal('0.00'), Decimal('-0.79'), Decimal('-1.06'), Decimal('0.00'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('-1.06'), Decimal('-1.33'), Decimal('0.00'), Decimal('-1.33')), ('sr:match:34215575', Decimal('1915.00'), Decimal('1450.24'), Decimal('0.00'), Decimal('812.24'), Decimal('0.28'), Decimal('812.52'), Decimal('-243.66'), Decimal('1.22'), Decimal('-242.44'), Decimal('-81.21'), Decimal('0.13'), Decimal('-81.08'), Decimal('-162.44'), Decimal('-0.40'), Decimal('-162.84'), Decimal('-162.44'), Decimal('-0.61'), Decimal('-163.05'), Decimal('-162.49'), Decimal('-0.62'), Decimal('-163.11')), ('sr:match:34198799', Decimal('1523.00'), Decimal('1419.13'), Decimal('0.00'), Decimal('267.13'), Decimal('0.11'), Decimal('267.24'), Decimal('-80.13'), Decimal('0.50'), Decimal('-79.63'), Decimal('-26.70'), Decimal('0.05'), Decimal('-26.65'), Decimal('-53.42'), Decimal('-0.16'), Decimal('-53.58'), Decimal('-53.42'), Decimal('-0.25'), Decimal('-53.67'), Decimal('-53.46'), Decimal('-0.25'), Decimal('-53.71')), ('sr:match:34215573', Decimal('2363.00'), Decimal('1085.90'), Decimal('0.00'), Decimal('320.90'), Decimal('0.20'), Decimal('321.10'), Decimal('-96.26'), Decimal('0.93'), Decimal('-95.33'), Decimal('-32.08'), Decimal('0.08'), Decimal('-32.00'), Decimal('-64.17'), Decimal('-0.27'), Decimal('-64.44'), Decimal('-64.17'), Decimal('-0.46'), Decimal('-64.63'), Decimal('-64.22'), Decimal('-0.48'), Decimal('-64.70')), ('sr:match:32601055', Decimal('10.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')), ('sr:match:34029347', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('3.50'), Decimal('0.00'), Decimal('3.50'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.50'), Decimal('0.00'), Decimal('4.50')), ('sr:match:32274069', Decimal('529.00'), Decimal('478.90'), Decimal('0.00'), Decimal('-105.31'), Decimal('0.00'), Decimal('-105.31'), Decimal('34.83'), Decimal('0.39'), Decimal('35.22'), Decimal('21.10'), Decimal('1.83'), Decimal('22.93'), Decimal('21.10'), Decimal('-0.32'), Decimal('20.78'), Decimal('21.10'), Decimal('-1.16'), Decimal('19.94'), Decimal('7.18'), Decimal('-0.74'), Decimal('6.44')), ('sr:match:34053781', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('sr:match:31603009', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:34251891', Decimal('20.00'), Decimal('14.05'), Decimal('0.00'), Decimal('-5.95'), Decimal('0.00'), Decimal('-5.95'), Decimal('1.19'), Decimal('0.01'), Decimal('1.20'), Decimal('1.19'), Decimal('0.00'), Decimal('1.19'), Decimal('1.19'), Decimal('0.00'), Decimal('1.19'), Decimal('1.19'), Decimal('0.00'), Decimal('1.19'), Decimal('1.19'), Decimal('-0.01'), Decimal('1.18')), ('sr:match:32011265', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:34182251', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:31935827', Decimal('10.00'), Decimal('8.10'), Decimal('0.00'), Decimal('8.10'), Decimal('0.00'), Decimal('8.10'), Decimal('-1.62'), Decimal('0.01'), Decimal('-1.61'), Decimal('-1.62'), Decimal('0.00'), Decimal('-1.62'), Decimal('-1.62'), Decimal('0.00'), Decimal('-1.62'), Decimal('-1.62'), Decimal('0.00'), Decimal('-1.62'), Decimal('-1.62'), Decimal('-0.01'), Decimal('-1.63')), ('sr:match:33677881', Decimal('10.00'), Decimal('8.80'), Decimal('0.00'), Decimal('8.80'), Decimal('0.00'), Decimal('8.80'), Decimal('-1.76'), Decimal('0.01'), Decimal('-1.75'), Decimal('-1.76'), Decimal('0.00'), Decimal('-1.76'), Decimal('-1.76'), Decimal('0.00'), Decimal('-1.76'), Decimal('-1.76'), Decimal('0.00'), Decimal('-1.76'), Decimal('-1.76'), Decimal('-0.01'), Decimal('-1.77')), ('sr:match:33750737', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('2.60'), Decimal('0.00'), Decimal('2.60'), Decimal('-0.52'), Decimal('0.01'), Decimal('-0.51'), Decimal('-0.52'), Decimal('0.00'), Decimal('-0.52'), Decimal('-0.52'), Decimal('0.00'), Decimal('-0.52'), Decimal('-0.52'), Decimal('0.00'), Decimal('-0.52'), Decimal('-0.52'), Decimal('-0.01'), Decimal('-0.53')), ('sr:match:34215647', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:31885733', Decimal('10.00'), Decimal('8.10'), Decimal('0.00'), Decimal('8.10'), Decimal('0.00'), Decimal('8.10'), Decimal('-1.62'), Decimal('0.01'), Decimal('-1.61'), Decimal('-1.62'), Decimal('0.00'), Decimal('-1.62'), Decimal('-1.62'), Decimal('0.00'), Decimal('-1.62'), Decimal('-1.62'), Decimal('0.00'), Decimal('-1.62'), Decimal('-1.62'), Decimal('-0.01'), Decimal('-1.63')), ('sr:match:32011267', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('18.50'), Decimal('0.00'), Decimal('18.50'), Decimal('-3.70'), Decimal('0.01'), Decimal('-3.69'), Decimal('-3.70'), Decimal('0.00'), Decimal('-3.70'), Decimal('-3.70'), Decimal('0.00'), Decimal('-3.70'), Decimal('-3.70'), Decimal('0.00'), Decimal('-3.70'), Decimal('-3.70'), Decimal('-0.01'), Decimal('-3.71')), ('sr:match:31099833', Decimal('20.00'), Decimal('10.30'), Decimal('0.00'), Decimal('-9.70'), Decimal('0.00'), Decimal('-9.70'), Decimal('1.94'), Decimal('0.00'), Decimal('1.94'), Decimal('1.94'), Decimal('0.00'), Decimal('1.94'), Decimal('1.94'), Decimal('0.00'), Decimal('1.94'), Decimal('1.94'), Decimal('0.00'), Decimal('1.94'), Decimal('1.94'), Decimal('0.00'), Decimal('1.94')), ('sr:match:31140239', Decimal('20.00'), Decimal('16.10'), Decimal('0.00'), Decimal('-3.90'), Decimal('0.00'), Decimal('-3.90'), Decimal('0.78'), Decimal('0.02'), Decimal('0.80'), Decimal('0.78'), Decimal('0.00'), Decimal('0.78'), Decimal('0.78'), Decimal('0.00'), Decimal('0.78'), Decimal('0.78'), Decimal('0.00'), Decimal('0.78'), Decimal('0.78'), Decimal('-0.02'), Decimal('0.76')), ('sr:match:32011259', Decimal('20.00'), Decimal('18.30'), Decimal('0.00'), Decimal('-1.70'), Decimal('0.00'), Decimal('-1.70'), Decimal('0.34'), Decimal('0.01'), Decimal('0.35'), Decimal('0.34'), Decimal('0.00'), Decimal('0.34'), Decimal('0.34'), Decimal('0.00'), Decimal('0.34'), Decimal('0.34'), Decimal('0.00'), Decimal('0.34'), Decimal('0.34'), Decimal('-0.01'), Decimal('0.33')), ('sr:match:31930561', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('sr:match:31769225', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:34212695', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.02'), Decimal('4.02'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('-0.02'), Decimal('3.98')), ('sr:match:33848295', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:31099829', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.01'), Decimal('4.01'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('-0.01'), Decimal('3.99')), ('sr:match:32970667', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('51.50'), Decimal('0.00'), Decimal('51.50'), Decimal('-10.30'), Decimal('0.01'), Decimal('-10.29'), Decimal('-10.30'), Decimal('0.00'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('-10.30'), Decimal('-10.30'), Decimal('-0.01'), Decimal('-10.31')), ('sr:match:34212693', Decimal('10.00'), Decimal('9.80'), Decimal('0.00'), Decimal('9.80'), Decimal('0.00'), Decimal('9.80'), Decimal('-1.96'), Decimal('0.00'), Decimal('-1.96'), Decimal('-1.96'), Decimal('0.00'), Decimal('-1.96'), Decimal('-1.96'), Decimal('0.00'), Decimal('-1.96'), Decimal('-1.96'), Decimal('0.00'), Decimal('-1.96'), Decimal('-1.96'), Decimal('0.00'), Decimal('-1.96')), ('sr:match:31769887', Decimal('10.00'), Decimal('1.30'), Decimal('0.00'), Decimal('1.30'), Decimal('0.00'), Decimal('1.30'), Decimal('-0.26'), Decimal('0.00'), Decimal('-0.26'), Decimal('-0.26'), Decimal('0.00'), Decimal('-0.26'), Decimal('-0.26'), Decimal('0.00'), Decimal('-0.26'), Decimal('-0.26'), Decimal('0.00'), Decimal('-0.26'), Decimal('-0.26'), Decimal('0.00'), Decimal('-0.26')), ('sr:match:33848301', Decimal('20.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('-2.80'), Decimal('0.00'), Decimal('-2.80'), Decimal('-2.80'), Decimal('0.00'), Decimal('-2.80'), Decimal('-2.80'), Decimal('0.00'), Decimal('-2.80'), Decimal('-2.80'), Decimal('0.00'), Decimal('-2.80'), Decimal('-2.80'), Decimal('0.00'), Decimal('-2.80')), ('sr:match:32038773', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.01'), Decimal('-9.99'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('sr:match:33848299', Decimal('10.00'), Decimal('8.70'), Decimal('0.00'), Decimal('8.70'), Decimal('0.00'), Decimal('8.70'), Decimal('-1.74'), Decimal('0.01'), Decimal('-1.73'), Decimal('-1.74'), Decimal('0.00'), Decimal('-1.74'), Decimal('-1.74'), Decimal('0.00'), Decimal('-1.74'), Decimal('-1.74'), Decimal('0.00'), Decimal('-1.74'), Decimal('-1.74'), Decimal('-0.01'), Decimal('-1.75')), ('sr:match:31886833', Decimal('10.00'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30'), Decimal('-0.30'), Decimal('0.00'), Decimal('-0.30')), ('sr:match:31999649', Decimal('10.00'), Decimal('7.20'), Decimal('0.00'), Decimal('7.20'), Decimal('0.00'), Decimal('7.20'), Decimal('-1.44'), Decimal('0.01'), Decimal('-1.43'), Decimal('-1.44'), Decimal('0.00'), Decimal('-1.44'), Decimal('-1.44'), Decimal('0.00'), Decimal('-1.44'), Decimal('-1.44'), Decimal('0.00'), Decimal('-1.44'), Decimal('-1.44'), Decimal('-0.01'), Decimal('-1.45')), ('sr:match:34251893', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.01'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('sr:match:34013433', Decimal('10.00'), Decimal('7.60'), Decimal('0.00'), Decimal('7.60'), Decimal('0.00'), Decimal('7.60'), Decimal('-1.52'), Decimal('0.00'), Decimal('-1.52'), Decimal('-1.52'), Decimal('0.00'), Decimal('-1.52'), Decimal('-1.52'), Decimal('0.00'), Decimal('-1.52'), Decimal('-1.52'), Decimal('0.00'), Decimal('-1.52'), Decimal('-1.52'), Decimal('0.00'), Decimal('-1.52')), ('sr:match:31605875', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.01'), Decimal('4.01'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('-0.01'), Decimal('3.99')), ('sr:match:31806029', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.01'), Decimal('-9.99'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('sr:match:31767817', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:33750735', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:32011257', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:31603017', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:32268353', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.01'), Decimal('4.01'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('-0.01'), Decimal('3.99')), ('sr:match:31604373', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:32225913', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('sr:match:31934219', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.01'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('sr:match:32023143', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.01'), Decimal('-9.99'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('-0.01'), Decimal('1.99')), ('sr:match:32268693', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('5.00'), Decimal('0.00'), Decimal('5.00'), Decimal('-1.00'), Decimal('0.00'), Decimal('-1.00'), Decimal('-1.00'), Decimal('0.00'), Decimal('-1.00'), Decimal('-1.00'), Decimal('0.00'), Decimal('-1.00'), Decimal('-1.00'), Decimal('0.00'), Decimal('-1.00'), Decimal('-1.00'), Decimal('0.00'), Decimal('-1.00')), ('sr:match:31140247', Decimal('20.00'), Decimal('19.20'), Decimal('0.00'), Decimal('-0.80'), Decimal('0.00'), Decimal('-0.80'), Decimal('0.16'), Decimal('0.01'), Decimal('0.17'), Decimal('0.16'), Decimal('0.00'), Decimal('0.16'), Decimal('0.16'), Decimal('0.00'), Decimal('0.16'), Decimal('0.16'), Decimal('0.00'), Decimal('0.16'), Decimal('0.16'), Decimal('-0.01'), Decimal('0.15')), ('sr:match:31602083', Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('-7.50'), Decimal('0.00'), Decimal('-7.50'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50'), Decimal('1.50'), Decimal('0.00'), Decimal('1.50')), ('sr:match:31887197', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('</t>
+  </si>
+  <si>
+    <t>测试通过 
+2022-06-29 10:26:40</t>
+  </si>
 </sst>
 </file>
 
@@ -850,9 +1024,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -916,7 +1090,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -928,12 +1102,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -948,9 +1123,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,14 +1163,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1004,10 +1193,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1021,28 +1217,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1051,14 +1225,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,25 +1253,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1295,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,19 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,73 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,6 +1403,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1247,13 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,6 +1447,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1284,6 +1469,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,7 +1501,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,8 +1509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,75 +1544,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1427,94 +1595,100 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1867,8 +2041,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -34806,6 +34980,16 @@
         <v>31</v>
       </c>
     </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="41" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
@@ -34842,49 +35026,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -34894,40 +35078,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -34954,19 +35138,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34980,10 +35164,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -34997,10 +35181,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -35014,10 +35198,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
         <v>164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -35031,10 +35215,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -35048,10 +35232,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -35065,10 +35249,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
         <v>168</v>
-      </c>
-      <c r="E7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -35082,10 +35266,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -35099,10 +35283,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -35116,10 +35300,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
         <v>172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -35154,49 +35338,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -35206,40 +35390,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -35268,25 +35452,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -35300,13 +35484,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -35323,13 +35507,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -35346,13 +35530,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
         <v>184</v>
       </c>
-      <c r="E4" t="s">
-        <v>182</v>
-      </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -35369,13 +35553,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -35392,13 +35576,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -35415,13 +35599,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
         <v>188</v>
       </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -35438,13 +35622,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -35461,13 +35645,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -35484,13 +35668,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" t="s">
         <v>192</v>
       </c>
-      <c r="E10" t="s">
-        <v>190</v>
-      </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -35507,13 +35691,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -35530,13 +35714,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -35553,13 +35737,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s">
         <v>196</v>
       </c>
-      <c r="E13" t="s">
-        <v>194</v>
-      </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -35576,13 +35760,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -35599,13 +35783,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -35622,13 +35806,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
         <v>200</v>
       </c>
-      <c r="E16" t="s">
-        <v>198</v>
-      </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -35645,13 +35829,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -35668,13 +35852,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -35691,13 +35875,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
         <v>204</v>
       </c>
-      <c r="E19" t="s">
-        <v>202</v>
-      </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -35714,13 +35898,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -35737,13 +35921,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -35760,13 +35944,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" t="s">
         <v>208</v>
       </c>
-      <c r="E22" t="s">
-        <v>206</v>
-      </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -35783,13 +35967,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -35806,13 +35990,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -35829,13 +36013,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" t="s">
         <v>212</v>
       </c>
-      <c r="E25" t="s">
-        <v>210</v>
-      </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -35873,49 +36057,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -35925,34 +36109,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -35966,8 +36150,8 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -35981,25 +36165,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -36013,13 +36197,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -36036,13 +36220,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -36059,13 +36243,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -36082,13 +36266,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -36105,13 +36289,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -36128,13 +36312,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -36151,13 +36335,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -36174,13 +36358,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -36197,13 +36381,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -36220,13 +36404,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -36243,13 +36427,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -36266,13 +36450,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -36289,13 +36473,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -36312,13 +36496,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -36335,13 +36519,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -36358,13 +36542,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -36381,13 +36565,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -36404,13 +36588,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -36427,13 +36611,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -36450,13 +36634,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -36473,13 +36657,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -36496,13 +36680,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -36519,13 +36703,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -36542,13 +36726,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -36565,13 +36749,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -36588,13 +36772,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -36611,13 +36795,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -36634,13 +36818,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -36657,13 +36841,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -36680,13 +36864,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -36703,13 +36887,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -36726,13 +36910,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -36749,13 +36933,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -36772,13 +36956,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -36795,13 +36979,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -36818,13 +37002,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -36841,13 +37025,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -36864,13 +37048,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -36887,13 +37071,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -36910,13 +37094,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -36933,13 +37117,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -36956,13 +37140,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -36979,13 +37163,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -37002,13 +37186,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -37025,13 +37209,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -37048,13 +37232,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -37071,13 +37255,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -37094,13 +37278,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -37118,7 +37302,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -37138,49 +37322,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -37190,40 +37374,1311 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>-30</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>-30</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>-30</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>-7</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>-30</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>-30</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>-30</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>-7</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>-7</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>-7</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>-30</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>-30</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>-30</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>-7</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>-7</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>-7</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>-30</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>-30</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>-30</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>-7</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>-7</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>-7</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>-30</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>-30</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>-30</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>-7</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>-7</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>-7</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>-30</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>-30</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>-30</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>-7</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>-7</v>
+      </c>
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>-7</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>-30</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>-30</v>
+      </c>
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>-30</v>
+      </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>312</v>
+      </c>
+      <c r="E43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>-7</v>
+      </c>
+      <c r="B44">
+        <v>-1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>-7</v>
+      </c>
+      <c r="B45">
+        <v>-1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>-7</v>
+      </c>
+      <c r="B46">
+        <v>-1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>-30</v>
+      </c>
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E47" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>-30</v>
+      </c>
+      <c r="B48">
+        <v>-1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>-30</v>
+      </c>
+      <c r="B49">
+        <v>-1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -37258,49 +38713,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -37310,40 +38765,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37351,34 +38806,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
       <c r="M3" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37386,34 +38841,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37421,34 +38876,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37456,34 +38911,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37491,34 +38946,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -37545,27 +39000,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -37600,49 +39055,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -37652,34 +39107,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -37714,49 +39169,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -37766,40 +39221,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37807,40 +39262,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37848,40 +39303,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37889,34 +39344,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37924,34 +39379,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37959,34 +39414,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -37994,34 +39449,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38029,34 +39484,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -38083,33 +39538,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>-7</v>
@@ -38120,13 +39575,13 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>-15</v>
@@ -38137,13 +39592,13 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>-30</v>
@@ -38184,49 +39639,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -38236,40 +39691,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -38304,49 +39759,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -38356,40 +39811,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38397,40 +39852,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38438,40 +39893,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38479,40 +39934,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38520,34 +39975,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38555,34 +40010,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38590,34 +40045,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38625,34 +40080,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -38679,33 +40134,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>-7</v>
@@ -38716,13 +40171,13 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>-15</v>
@@ -38733,13 +40188,13 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>-30</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
     <sheet name="tournamentReport" sheetId="16" r:id="rId16"/>
     <sheet name="match_params" sheetId="17" r:id="rId17"/>
     <sheet name="matchReport" sheetId="18" r:id="rId18"/>
+    <sheet name="match_params_m" sheetId="19" r:id="rId19"/>
+    <sheet name="matchMarket" sheetId="20" r:id="rId20"/>
+    <sheet name="multiterm_params" sheetId="21" r:id="rId21"/>
+    <sheet name="multitermReport" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="358">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -129,10 +133,13 @@
     <t>f"SELECT tournament_name '联赛名称',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN o_account_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' GROUP BY tournament_name UNION SELECT ('串关') '串关',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN v_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type!=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}'"</t>
   </si>
   <si>
-    <t>比赛报表</t>
+    <t>f"SELECT match_id '赛事ID',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a LEFT JOIN o_account_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' GROUP BY match_id UNION SELECT ('串关') '串关',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN v_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type!=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}'"</t>
   </si>
   <si>
-    <t>f"SELECT match_id '赛事ID',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a LEFT JOIN o_account_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' GROUP BY match_id UNION SELECT ('串关') '串关',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN v_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type!=1 {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}'"</t>
+    <t>f"SELECT mark_name,`总投注金额`,`总有效金额`,`总佣金`,`会员输赢`,`会员佣金`,`会员总计`,`三级代理输赢`,`三级代理佣金`,`三级代理总计`,`二级代理输赢`,`二级代理佣金`,`二级代理总计`,`一级代理输赢`,`一级代理佣金`,`一级代理总计`,`总代理输赢`,`总代理佣金`,`总代理总计`,`公司输赢`,`公司佣金`,`公司总计` FROM (SELECT market_id,a.sport_id,b.match_id,sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣</t>
+  </si>
+  <si>
+    <t>f"SELECT CONCAT(a.user_name,' / ',login_account) '账号 / 登入账号',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN v_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type&gt;1 AND DATE_FORMAT(a.award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' {sportId_Str} {account_Str} GROUP BY a.user_name,login_account"</t>
   </si>
   <si>
     <t>用例编号</t>
@@ -1017,6 +1024,107 @@
     <t>测试通过 
 2022-06-29 10:26:40</t>
   </si>
+  <si>
+    <t>matchId</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询赛事"sr:match:33725431"近7天赛事盈亏-盘口详情</t>
+  </si>
+  <si>
+    <t>sr:match:33725431</t>
+  </si>
+  <si>
+    <t>按照赛事时间查询赛事"sr:match:33725431"近7天赛事盈亏-盘口详情</t>
+  </si>
+  <si>
+    <t>按照投注时间查询赛事"sr:match:33725431"近7天赛事盈亏-盘口详情</t>
+  </si>
+  <si>
+    <t>按照结算时间查询赛事"sr:match:33725431"近30天赛事盈亏-盘口详情</t>
+  </si>
+  <si>
+    <t>按照赛事时间查询赛事"sr:match:33725431"近30天赛事盈亏-盘口详情</t>
+  </si>
+  <si>
+    <t>按照投注时间查询赛事"sr:match:33725431"近30天赛事盈亏-盘口详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 总台-赛事盈亏-盘口详情</t>
+  </si>
+  <si>
+    <t>{"matchId":"sr:match:33725431","queryDateType":3,"begin":"2022-06-22","end":"2022-06-28"}</t>
+  </si>
+  <si>
+    <t>[['上半场 - 让球', 100.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], ['客队 大/小', 100.0, 100.0, 0.0, 265.0, 1.9, 266.9, -71.55, -0.51, -72.06, -66.25, -0.47, -66.72, -53.0, -0.38, -53.38, -39.75, -0.29, -40.04, -34.45, -0.25, -34.7], ['让球', 200.0, 200.0, 0.0, 2.0, 3.8, 5.8, -0.54, -1.02, -1.56, -0.5, -0.94, -1.44, -0.4, -0.76, -1.16, -0.3, -0.58, -0.88, -0.26, -0.5, -0.76], ['主队 大/小', 100.0, 100.0, 0.0, 175.0, 1.9, 176.9, -47.25, -0.51, -47.76, -43.75, -0.47, -44.22, -35.0, -0.38, -35.38, -26.25, -0.29, -26.54, -22.75, -0.25, -23.0], ['客队 胜利退款', 100.0, 100.0, 0.0, 670.0, 0.0, 670.0, -180.9, 0.0, -180.9, -167.5, 0.0, -167.5, -134.0, 0.0, -134.0, -100.5, 0.0, -100.5, -87.1, 0.0, -87.1], ['主队 胜利退款', 100.0, 9.0, 0.0, 9.0, 0.0, 9.0, -2.43, 0.0, -2.43, -2.25, 0.0, -2.25, -1.8, 0.0, -1.8, -1.35, 0.0, -1.35, -1.17, 0.0, -1.17], ['双重机会&amp;大/小', 100.0, 100.0, 0.0, -100.0, 1.9, -98.1, 27.0, -0.51, 26.49, 25.0, -0.47, 24.53, 20.0, -0.38, 19.62, 15.0, -0.29, 14.71, 13.0, -0.25, 12.75], ['客队 进球数', 100.0, 100.0, 0.0, -100.0, 0.0, -100.0, 27.0, 0.0, 27.0, 25.0, 0.0, 25.0, 20.0, 0.0, 20.0, 15.0, 0.0, 15.0, 13.0, 0.0, 13.0], ['单/双', 200.0, 190.0, 0.0, 190.0, 3.6, 193.6, -51.3, -0.96, -52.26, -47.5, -0.9, -48.4, -38.0, -0.72, -38.72, -28.5, -0.54, -29.04, -24.7, -0.48, -25.18], ['获胜方法', 600.0, 600.0, 0.0, 440.0, 0.0, 440.0, -118.8, 0.0, -118.8, -110.0, 0.0, -110.0, -88.0, 0.0, -88.0, -66.0, 0.0, -66.0, -57.2, 0.0, -57.2], ['哪队晋级', 500.0, 500.0, 0.0, 185.0, 0.0, 185.0, -49.95, 0.0, -49.95, -46.25, 0.0, -46.25, -37.0, 0.0, -37.0, -27.75, 0.0, -27.75, -24.05, 0.0, -24.05]]</t>
+  </si>
+  <si>
+    <t>[('主队 胜利退款', Decimal('100.00'), Decimal('9.00'), Decimal('0.00'), Decimal('9.00'), Decimal('0.00'), Decimal('9.00'), Decimal('-2.43'), Decimal('0.00'), Decimal('-2.43'), Decimal('-2.25'), Decimal('0.00'), Decimal('-2.25'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-1.35'), Decimal('0.00'), Decimal('-1.35'), Decimal('-1.17'), Decimal('0.00'), Decimal('-1.17')), ('客队 胜利退款', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('670.00'), Decimal('0.00'), Decimal('670.00'), Decimal('-180.90'), Decimal('0.00'), Decimal('-180.90'), Decimal('-167.50'), Decimal('0.00'), Decimal('-167.50'), Decimal('-134.00'), Decimal('0.00'), Decimal('-134.00'), Decimal('-100.50'), Decimal('0.00'), Decimal('-100.50'), Decimal('-87.10'), Decimal('0.00'), Decimal('-87.10')), ('让球', Decimal('200.00'), Decimal('200.00'), Decimal('0.00'), Decimal('2.00'), Decimal('3.80'), Decimal('5.80'), Decimal('-0.54'), Decimal('-1.02'), Decimal('-1.56'), Decimal('-0.50'), Decimal('-0.94'), Decimal('-1.44'), Decimal('-0.40'), Decimal('-0.76'), Decimal('-1.16'), Decimal('-0.30'), Decimal('-0.58'), Decimal('-0.88'), Decimal('-0.26'), Decimal('-0.50'), Decimal('-0.76')), ('主队 大/小', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('175.00'), Decimal('1.90'), Decimal('176.90'), Decimal('-47.25'), Decimal('-0.51'), Decimal('-47.76'), Decimal('-43.75'), Decimal('-0.47'), Decimal('-44.22'), Decimal('-35.00'), Decimal('-0.38'), Decimal('-35.38'), Decimal('-26.25'), Decimal('-0.29'), Decimal('-26.54'), Decimal('-22.75'), Decimal('-0.25'), Decimal('-23.00')), ('哪队晋级', Decimal('500.00'), Decimal('500.00'), Decimal('0.00'), Decimal('185.00'), Decimal('0.00'), Decimal('185.00'), Decimal('-49.95'), Decimal('0.00'), Decimal('-49.95'), Decimal('-46.25'), Decimal('0.00'), Decimal('-46.25'), Decimal('-37.00'), Decimal('0.00'), Decimal('-37.00'), Decimal('-27.75'), Decimal('0.00'), Decimal('-27.75'), Decimal('-24.05'), Decimal('0.00'), Decimal('-24.05')), ('客队 大/小', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('265.00'), Decimal('1.90'), Decimal('266.90'), Decimal('-71.55'), Decimal('-0.51'), Decimal('-72.06'), Decimal('-66.25'), Decimal('-0.47'), Decimal('-66.72'), Decimal('-53.00'), Decimal('-0.38'), Decimal('-53.38'), Decimal('-39.75'), Decimal('-0.29'), Decimal('-40.04'), Decimal('-34.45'), Decimal('-0.25'), Decimal('-34.70')), ('客队 进球数', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('27.00'), Decimal('0.00'), Decimal('27.00'), Decimal('25.00'), Decimal('0.00'), Decimal('25.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('15.00'), Decimal('0.00'), Decimal('15.00'), Decimal('13.00'), Decimal('0.00'), Decimal('13.00')), ('单/双', Decimal('200.00'), Decimal('190.00'), Decimal('0.00'), Decimal('190.00'), Decimal('3.60'), Decimal('193.60'), Decimal('-51.30'), Decimal('-0.96'), Decimal('-52.26'), Decimal('-47.50'), Decimal('-0.90'), Decimal('-48.40'), Decimal('-38.00'), Decimal('-0.72'), Decimal('-38.72'), Decimal('-28.50'), Decimal('-0.54'), Decimal('-29.04'), Decimal('-24.70'), Decimal('-0.48'), Decimal('-25.18')), ('获胜方法', Decimal('600.00'), Decimal('600.00'), Decimal('0.00'), Decimal('440.00'), Decimal('0.00'), Decimal('440.00'), Decimal('-118.80'), Decimal('0.00'), Decimal('-118.80'), Decimal('-110.00'), Decimal('0.00'), Decimal('-110.00'), Decimal('-88.00'), Decimal('0.00'), Decimal('-88.00'), Decimal('-66.00'), Decimal('0.00'), Decimal('-66.00'), Decimal('-57.20'), Decimal('0.00'), Decimal('-57.20')), ('双重机会&amp;大/小', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('1.90'), Decimal('-98.10'), Decimal('27.00'), Decimal('-0.51'), Decimal('26.49'), Decimal('25.00'), Decimal('-0.47'), Decimal('24.53'), Decimal('20.00'), Decimal('-0.38'), Decimal('19.62'), Decimal('15.00'), Decimal('-0.29'), Decimal('14.71'), Decimal('13.00'), Decimal('-0.25'), Decimal('12.75')), ('上半场 - 让球', Decimal('100.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'))]</t>
+  </si>
+  <si>
+    <t>测试通过 
+2022-06-29 12:27:06</t>
+  </si>
+  <si>
+    <t>searchAccount</t>
+  </si>
+  <si>
+    <t>sportId_Str</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>默认按照赛事时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>默认按照投注时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>根据会员账号"a0b1b2b3a3"按照结算时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>AND a.user_name='a0b1b2b3a3'</t>
+  </si>
+  <si>
+    <t>根据会员账号"a0b1b2b3a3"按照赛事时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>根据会员账号"a0b1b2b3a3"按照投注时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>根据球类"足球"按照结算时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>AND a.sport_id='sr:sport:1'</t>
+  </si>
+  <si>
+    <t>根据球类"足球"按照赛事时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>根据球类"足球"按照投注时间查询近7天混合串关数据</t>
+  </si>
+  <si>
+    <t>查询混合串关</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 总台-混合串关</t>
+  </si>
+  <si>
+    <t>{"matchId":"","sportId":"","queryDateType":3,"begin":"2022-06-23","end":"2022-06-29","searchAccount":"","page":1,"limit":50}</t>
+  </si>
+  <si>
+    <t>[['t0t1t2t3t4 / t4', 600.0, 492.5, 0.0, -492.5, 0.0, -492.5, 73.87, 0.0, 73.87, 98.5, 0.0, 98.5, 98.5, 0.0, 98.5, 98.5, 0.0, 98.5, 123.13, 0.0, 123.13], ['shs1s2s340 / shan040', 47.0, 47.0, 0.0, -47.0, 0.0, -47.0, 10.34, 0.0, 10.34, 9.4, 0.0, 9.4, 9.4, 0.0, 9.4, 9.4, 0.0, 9.4, 8.46, 0.0, 8.46], ['shs1s2s338 / shan038', 62.0, 62.0, 0.0, 135.45, 0.0, 135.45, -37.91, 0.0, -37.91, -27.08, 0.0, -27.08, -27.08, 0.0, -27.08, -27.08, 0.0, -27.08, -16.3, 0.0, -16.3], ['d0d1d2d30j / fceshi09', 50.0, 50.0, 0.0, 1158.5, 0.0, 1158.5, -231.7, 0.0, -231.7, -231.7, 0.0, -231.7, -231.7, 0.0, -231.7, -231.7, 0.0, -231.7, -231.7, 0.0, -231.7], ['shs1s2s347 / shan047', 1471.0, 1471.0, 0.0, -1471.0, 0.0, -1471.0, 308.91, 0.0, 308.91, 294.2, 0.0, 294.2, 294.2, 0.0, 294.2, 294.2, 0.0, 294.2, 279.49, 0.0, 279.49], ['a0b1b2b3a3 / a3', 6800.0, 4922.31, 0.0, -3143.68, 0.0, -3143.68, 943.08, 0.0, 943.08, 314.33, 0.0, 314.33, 628.7, 0.0, 628.7, 628.7, 0.0, 628.7, 628.87, 0.0, 628.87], ['shs1s2s323 / shan023', 902.0, 696.13, 0.0, 624.38, 0.0, 624.38, -112.34, 0.0, -112.34, -124.86, 0.0, -124.86, -124.86, 0.0, -124.86, -124.86, 0.0, -124.86, -137.46, 0.0, -137.46], ['shs1s2s315 / shan015', 2622.0, 1549.8, 0.0, -1402.06, 0.0, -1402.06, 420.61, 0.0, 420.61, 280.42, 0.0, 280.42, 280.42, 0.0, 280.42, 280.42, 0.0, 280.42, 140.19, 0.0, 140.19], ['shs1s2s321 / shan021', 4280.0, 4004.14, 0.0, 3628.5, 0.0, 3628.5, -1088.53, 0.0, -1088.53, -725.68, 0.0, -725.68, -725.68, 0.0, -725.68, -725.68, 0.0, -725.68, -362.93, 0.0, -362.93], ['shs1s2s302 / shan002', 3851.0, 2950.97, 0.0, -2945.39, 0.0, -2945.39, 1119.23, 0.0, 1119.23, 589.05, 0.0, 589.05, 589.05, 0.0, 589.05, 589.05, 0.0, 589.05, 59.01, 0.0, 59.01], ['shs1s2s348 / shan048', 2269.0, 2269.0, 0.0, -2269.0, 0.0, -2269.0, 680.7, 0.0, 680.7, 453.8, 0.0, 453.8, 453.8, 0.0, 453.8, 453.8, 0.0, 453.8, 226.9, 0.0, 226.9], ['shs1s2s341 / shan041', 6247.0, 4854.72, 0.0, -4854.72, 0.0, -4854.72, 485.42, 0.0, 485.42, 970.9, 0.0, 970.9, 970.9, 0.0, 970.9, 970.9, 0.0, 970.9, 1456.6, 0.0, 1456.6], ['d0d1d2d32f / fceshi049', 80.0, 80.0, 0.0, -80.0, 0.0, -80.0, 16.0, 0.0, 16.0, 16.0, 0.0, 16.0, 16.0, 0.0, 16.0, 16.0, 0.0, 16.0, 16.0, 0.0, 16.0], ['shs1s2s317 / shan017', 51.0, 51.0, 0.0, -51.0, 0.0, -51.0, 10.2, 0.0, 10.2, 10.2, 0.0, 10.2, 10.2, 0.0, 10.2, 10.2, 0.0, 10.2, 10.2, 0.0, 10.2], ['shs1s2s334 / shan034', 396.0, 396.0, 0.0, -396.0, 0.0, -396.0, 126.72, 0.0, 126.72, 79.2, 0.0, 79.2, 79.2, 0.0, 79.2, 79.2, 0.0, 79.2, 31.68, 0.0, 31.68], ['shs1s2s316 / shan016', 1094.0, 605.16, 0.0, 75.08, 0.0, 75.08, -27.77, 0.0, -27.77, -15.01, 0.0, -15.01, -15.01, 0.0, -15.01, -15.01, 0.0, -15.01, -2.28, 0.0, -2.28], ['shs1s2s336 / shan036', 3614.0, 2743.61, 0.0, 460.15, 0.0, 460.15, -110.44, 0.0, -110.44, -92.04, 0.0, -92.04, -92.04, 0.0, -92.04, -92.04, 0.0, -92.04, -73.59, 0.0, -73.59], ['d0d1d2d31c / fceshi028', 210.0, 190.6, 0.0, -190.6, 0.0, -190.6, 38.12, 0.0, 38.12, 38.12, 0.0, 38.12, 38.12, 0.0, 38.12, 38.12, 0.0, 38.12, 38.12, 0.0, 38.12], ['shs1s2s319 / shan019', 1378.0, 1287.74, 0.0, -1287.74, 0.0, -1287.74, 360.55, 0.0, 360.55, 257.53, 0.0, 257.53, 257.53, 0.0, 257.53, 257.53, 0.0, 257.53, 154.6, 0.0, 154.6], ['shs1s2s320 / shan020', 293.0, 293.0, 0.0, -293.0, 0.0, -293.0, 43.95, 0.0, 43.95, 58.6, 0.0, 58.6, 58.6, 0.0, 58.6, 58.6, 0.0, 58.6, 73.25, 0.0, 73.25], ['d0d1d2d32m / fceshi056', 60.0, 41.5, 0.0, -41.5, 0.0, -41.5, 8.3, 0.0, 8.3, 8.3, 0.0, 8.3, 8.3, 0.0, 8.3, 8.3, 0.0, 8.3, 8.3, 0.0, 8.3], ['d0d1d2d30k / fceshi010', 40.0, 40.0, 0.0, -40.0, 0.0, -40.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0], ['d0d1d2d31e / fceshi030', 40.0, 40.0, 0.0, -40.0, 0.0, -40.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0], ['d0d1d2d32k / fceshi054', 60.0, 60.0, 0.0, -60.0, 0.0, -60.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0], ['d0d1d2d30x / fceshi023', 60.0, 23.91, 0.0, -23.91, 0.0, -23.91, 4.78, 0.0, 4.78, 4.78, 0.0, 4.78, 4.78, 0.0, 4.78, 4.78, 0.0, 4.78, 4.79, 0.0, 4.79], ['d0d1d2d30y / fceshi024', 460.0, 228.49, 0.0, -217.41, 0.0, -217.41, 43.49, 0.0, 43.49, 43.49, 0.0, 43.49, 43.49, 0.0, 43.49, 43.49, 0.0, 43.49, 43.45, 0.0, 43.45], ['d0d1d2d32b / fceshi045', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['shs1s2s303 / shan003', 790.0, 790.0, 0.0, -790.0, 0.0, -790.0, 94.8, 0.0, 94.8, 158.0, 0.0, 158.0, 158.0, 0.0, 158.0, 158.0, 0.0, 158.0, 221.2, 0.0, 221.2], ['shs1s2s342 / shan042', 2708.0, 2624.55, 0.0, -2624.55, 0.0, -2624.55, 446.15, 0.0, 446.15, 524.89, 0.0, 524.89, 524.89, 0.0, 524.89, 524.89, 0.0, 524.89, 603.73, 0.0, 603.73], ['shs1s2s343 / shan043', 608.0, 608.0, 0.0, -608.0, 0.0, -608.0, 127.68, 0.0, 127.68, 121.6, 0.0, 121.6, 121.6, 0.0, 121.6, 121.6, 0.0, 121.6, 115.52, 0.0, 115.52], ['shs1s2s313 / shan013', 2133.0, 2069.99, 0.0, -2069.99, 0.0, -2069.99, 641.68, 0.0, 641.68, 413.99, 0.0, 413.99, 413.99, 0.0, 413.99, 413.99, 0.0, 413.99, 186.34, 0.0, 186.34], ['shs1s2s310 / shan010', 1625.0, 1514.31, 0.0, -1514.31, 0.0, -1514.31, 439.13, 0.0, 439.13, 302.86, 0.0, 302.86, 302.86, 0.0, 302.86, 302.86, 0.0, 302.86, 166.6, 0.0, 166.6], ['d0d1d2d32w / fceshi066', 110.0, 110.0, 0.0, -110.0, 0.0, -110.0, 22.0, 0.0, 22.0, 22.0, 0.0, 22.0, 22.0, 0.0, 22.0, 22.0, 0.0, 22.0, 22.0, 0.0, 22.0], ['shs1s2s335 / shan035', 1345.0, 1261.54, 0.0, -1261.54, 0.0, -1261.54, 201.83, 0.0, 201.83, 252.29, 0.0, 252.29, 252.29, 0.0, 252.29, 252.29, 0.0, 252.29, 302.84, 0.0, 302.84], ['d0d1d2d32a / fceshi044', 10.0, 5.9, 0.0, 5.9, 0.0, 5.9, -1.18, 0.0, -1.18, -1.18, 0.0, -1.18, -1.18, 0.0, -1.18, -1.18, 0.0, -1.18, -1.18, 0.0, -1.18], ['d0d1d2d31a / fceshi026', 20.0, 20.0, 0.0, 9.0, 0.0, 9.0, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8, -1.8, 0.0, -1.8], ['jnj1j2j3j1 / jnj1j2j3j2', 619120.0, 438682.36, 0.0, -19342.86, 0.0, -19342.86, 5222.42, 0.0, 5222.42, 4835.65, 0.0, 4835.65, 3868.5, 0.0, 3868.5, 2901.31, 0.0, 2901.31, 2514.98, 0.0, 2514.98], ['jmj1j2j3j1 / jmj1j2j3j2', 6320.0, 6220.5, 0.0, -3196.52, 0.0, -3196.52, 1470.41, 0.0, 1470.41, 639.32, 0.0, 639.32, 319.66, 0.0, 319.66, 319.66, 0.0, 319.66, 447.47, 0.0, 447.47], ['d0d1d2d31r / fceshi043', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['d0d1d2d31b / fceshi027', 580.0, 580.0, 0.0, -580.0, 0.0, -580.0, 116.0, 0.0, 116.0, 116.0, 0.0, 116.0, 116.0, 0.0, 116.0, 116.0, 0.0, 116.0, 116.0, 0.0, 116.0], ['d0d1d2d32o / fceshi058', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['a0b1b2b3a4 / y0', 5200.0, 4724.0, 0.0, -4724.0, 0.0, -4724.0, 1417.2, 0.0, 1417.2, 472.4, 0.0, 472.4, 944.8, 0.0, 944.8, 944.8, 0.0, 944.8, 944.8, 0.0, 944.8], ['d0d1d2d3vc / fceshi0800', 200.0, 200.0, 0.0, -200.0, 0.0, -200.0, 40.0, 0.0, 40.0, 40.0, 0.0, 40.0, 40.0, 0.0, 40.0, 40.0, 0.0, 40.0, 40.0, 0.0, 40.0], ['d0d1d2d30t / fceshi019', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30u / fceshi020', 230.0, 167.68, 0.0, -92.32, 0.0, -92.32, 18.47, 0.0, 18.47, 18.47, 0.0, 18.47, 18.47, 0.0, 18.47, 18.47, 0.0, 18.47, 18.44, 0.0, 18.44], ['d0d1d2d31p / fceshi041', 120.0, 120.0, 0.0, 211.68, 0.0, 211.68, -42.33, 0.0, -42.33, -42.33, 0.0, -42.33, -42.33, 0.0, -42.33, -42.33, 0.0, -42.33, -42.36, 0.0, -42.36], ['d0d1d2d32v / fceshi065', 100.0, 100.0, 0.0, -100.0, 0.0, -100.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0], ['d0d1d2d32r / fceshi061', 100.0, 70.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30f / fceshi05', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30i / fceshi08', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30v / fceshi021', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30q / fceshi016', 30.0, 30.0, 0.0, -30.0, 0.0, -30.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0], ['d0d1d2d30g / fceshi06', 60.0, 60.0, 0.0, -60.0, 0.0, -60.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0], ['d0d1d2d30l / fceshi011', 50.0, 50.0, 0.0, -50.0, 0.0, -50.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0], ['d0d1d2d32n / fceshi057', 260.0, 87.02, 0.0, -87.02, 0.0, -87.02, 17.4, 0.0, 17.4, 17.4, 0.0, 17.4, 17.4, 0.0, 17.4, 17.4, 0.0, 17.4, 17.42, 0.0, 17.42], ['d0d1d2d32i / fceshi052', 280.0, 277.5, 0.0, 600.85, 0.0, 600.85, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17], ['d0d1d2d30z / fceshi025', 50.0, 50.0, 0.0, 68.4, 0.0, 68.4, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68], ['d0d1d2d30o / fceshi014', 60.0, 60.0, 0.0, 126.24, 0.0, 126.24, -25.24, 0.0, -25.24, -25.24, 0.0, -25.24, -25.24, 0.0, -25.24, -25.24, 0.0, -25.24, -25.28, 0.0, -25.28], ['d0d1d2d32h / fceshi051', 150.0, 150.0, 0.0, 694.9, 0.0, 694.9, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98], ['d0d1d2d31d / fceshi029', 50.0, 50.0, 0.0, -50.0, 0.0, -50.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0], ['d0d1d2d32d / fceshi047', 260.0, 250.0, 0.0, -250.0, 0.0, -250.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0], ['d0d1d2d30d / fceshi03', 100.0, 90.0, 0.0, -90.0, 0.0, -90.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0]]</t>
+  </si>
+  <si>
+    <t>[('d0d1d2d30v / fceshi021', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30j / fceshi09', Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('1158.50'), Decimal('0.00'), Decimal('1158.50'), Decimal('-231.70'), Decimal('0.00'), Decimal('-231.70'), Decimal('-231.70'), Decimal('0.00'), Decimal('-231.70'), Decimal('-231.70'), Decimal('0.00'), Decimal('-231.70'), Decimal('-231.70'), Decimal('0.00'), Decimal('-231.70'), Decimal('-231.70'), Decimal('0.00'), Decimal('-231.70')), ('d0d1d2d32f / fceshi049', Decimal('80.00'), Decimal('80.00'), Decimal('0.00'), Decimal('-80.00'), Decimal('0.00'), Decimal('-80.00'), Decimal('16.00'), Decimal('0.00'), Decimal('16.00'), Decimal('16.00'), Decimal('0.00'), Decimal('16.00'), Decimal('16.00'), Decimal('0.00'), Decimal('16.00'), Decimal('16.00'), Decimal('0.00'), Decimal('16.00'), Decimal('16.00'), Decimal('0.00'), Decimal('16.00')), ('d0d1d2d30i / fceshi08', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d31b / fceshi027', Decimal('580.00'), Decimal('580.00'), Decimal('0.00'), Decimal('-580.00'), Decimal('0.00'), Decimal('-580.00'), Decimal('116.00'), Decimal('0.00'), Decimal('116.00'), Decimal('116.00'), Decimal('0.00'), Decimal('116.00'), Decimal('116.00'), Decimal('0.00'), Decimal('116.00'), Decimal('116.00'), Decimal('0.00'), Decimal('116.00'), Decimal('116.00'), Decimal('0.00'), Decimal('116.00')), ('d0d1d2d30f / fceshi05', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d31r / fceshi043', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('d0d1d2d30l / fceshi011', Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('-50.00'), Decimal('0.00'), Decimal('-50.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00')), ('t0t1t2t3t4 / t4', Decimal('600.00'), Decimal('492.50'), Decimal('0.00'), Decimal('-492.50'), Decimal('0.00'), Decimal('-492.50'), Decimal('73.87'), Decimal('0.00'), Decimal('73.87'), Decimal('98.50'), Decimal('0.00'), Decimal('98.50'), Decimal('98.50'), Decimal('0.00'), Decimal('98.50'), Decimal('98.50'), Decimal('0.00'), Decimal('98.50'), Decimal('123.13'), Decimal('0.00'), Decimal('123.13')), ('shs1s2s338 / shan038', Decimal('62.00'), Decimal('62.00'), Decimal('0.00'), Decimal('135.45'), Decimal('0.00'), Decimal('135.45'), Decimal('-37.91'), Decimal('0.00'), Decimal('-37.91'), Decimal('-27.08'), Decimal('0.00'), Decimal('-27.08'), Decimal('-27.08'), Decimal('0.00'), Decimal('-27.08'), Decimal('-27.08'), Decimal('0.00'), Decimal('-27.08'), Decimal('-16.30'), Decimal('0.00'), Decimal('-16.30')), ('shs1s2s340 / shan040', Decimal('47.00'), Decimal('47.00'), Decimal('0.00'), Decimal('-47.00'), Decimal('0.00'), Decimal('-47.00'), Decimal('10.34'), Decimal('0.00'), Decimal('10.34'), Decimal('9.40'), Decimal('0.00'), Decimal('9.40'), Decimal('9.40'), Decimal('0.00'), Decimal('9.40'), Decimal('9.40'), Decimal('0.00'), Decimal('9.40'), Decimal('8.46'), Decimal('0.00'), Decimal('8.46')), ('shs1s2s347 / shan047', Decimal('1471.00'), Decimal('1471.00'), Decimal('0.00'), Decimal('-1471.00'), Decimal('0.00'), Decimal('-1471.00'), Decimal('308.91'), Decimal('0.00'), Decimal('308.91'), Decimal('294.20'), Decimal('0.00'), Decimal('294.20'), Decimal('294.20'), Decimal('0.00'), Decimal('294.20'), Decimal('294.20'), Decimal('0.00'), Decimal('294.20'), Decimal('279.49'), Decimal('0.00'), Decimal('279.49')), ('a0b1b2b3a3 / a3', Decimal('6800.00'), Decimal('4922.31'), Decimal('0.00'), Decimal('-3143.68'), Decimal('0.00'), Decimal('-3143.68'), Decimal('943.08'), Decimal('0.00'), Decimal('943.08'), Decimal('314.33'), Decimal('0.00'), Decimal('314.33'), Decimal('628.70'), Decimal('0.00'), Decimal('628.70'), Decimal('628.70'), Decimal('0.00'), Decimal('628.70'), Decimal('628.87'), Decimal('0.00'), Decimal('628.87')), ('shs1s2s302 / shan002', Decimal('3851.00'), Decimal('2950.97'), Decimal('0.00'), Decimal('-2945.39'), Decimal('0.00'), Decimal('-2945.39'), Decimal('1119.23'), Decimal('0.00'), Decimal('1119.23'), Decimal('589.05'), Decimal('0.00'), Decimal('589.05'), Decimal('589.05'), Decimal('0.00'), Decimal('589.05'), Decimal('589.05'), Decimal('0.00'), Decimal('589.05'), Decimal('59.01'), Decimal('0.00'), Decimal('59.01')), ('shs1s2s321 / shan021', Decimal('4280.00'), Decimal('4004.14'), Decimal('0.00'), Decimal('3628.50'), Decimal('0.00'), Decimal('3628.50'), Decimal('-1088.53'), Decimal('0.00'), Decimal('-1088.53'), Decimal('-725.68'), Decimal('0.00'), Decimal('-725.68'), Decimal('-725.68'), Decimal('0.00'), Decimal('-725.68'), Decimal('-725.68'), Decimal('0.00'), Decimal('-725.68'), Decimal('-362.93'), Decimal('0.00'), Decimal('-362.93')), ('shs1s2s341 / shan041', Decimal('6247.00'), Decimal('4854.72'), Decimal('0.00'), Decimal('-4854.72'), Decimal('0.00'), Decimal('-4854.72'), Decimal('485.42'), Decimal('0.00'), Decimal('485.42'), Decimal('970.90'), Decimal('0.00'), Decimal('970.90'), Decimal('970.90'), Decimal('0.00'), Decimal('970.90'), Decimal('970.90'), Decimal('0.00'), Decimal('970.90'), Decimal('1456.60'), Decimal('0.00'), Decimal('1456.60')), ('shs1s2s348 / shan048', Decimal('2269.00'), Decimal('2269.00'), Decimal('0.00'), Decimal('-2269.00'), Decimal('0.00'), Decimal('-2269.00'), Decimal('680.70'), Decimal('0.00'), Decimal('680.70'), Decimal('453.80'), Decimal('0.00'), Decimal('453.80'), Decimal('453.80'), Decimal('0.00'), Decimal('453.80'), Decimal('453.80'), Decimal('0.00'), Decimal('453.80'), Decimal('226.90'), Decimal('0.00'), Decimal('226.90')), ('shs1s2s323 / shan023', Decimal('902.00'), Decimal('696.13'), Decimal('0.00'), Decimal('624.38'), Decimal('0.00'), Decimal('624.38'), Decimal('-112.34'), Decimal('0.00'), Decimal('-112.34'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-137.46'), Decimal('0.00'), Decimal('-137.46')), ('shs1s2s315 / shan015', Decimal('2622.00'), Decimal('1549.80'), Decimal('0.00'), Decimal('-1402.06'), Decimal('0.00'), Decimal('-1402.06'), Decimal('420.61'), Decimal('0.00'), Decimal('420.61'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('140.19'), Decimal('0.00'), Decimal('140.19')), ('shs1s2s316 / shan016', Decimal('1094.00'), Decimal('605.16'), Decimal('0.00'), Decimal('75.08'), Decimal('0.00'), Decimal('75.08'), Decimal('-27.77'), Decimal('0.00'), Decimal('-27.77'), Decimal('-15.01'), Decimal('0.00'), Decimal('-15.01'), Decimal('-15.01'), Decimal('0.00'), Decimal('-15.01'), Decimal('-15.01'), Decimal('0.00'), Decimal('-15.01'), Decimal('-2.28'), Decimal('0.00'), Decimal('-2.28')), ('shs1s2s317 / shan017', Decimal('51.00'), Decimal('51.00'), Decimal('0.00'), Decimal('-51.00'), Decimal('0.00'), Decimal('-51.00'), Decimal('10.20'), Decimal('0.00'), Decimal('10.20'), Decimal('10.20'), Decimal('0.00'), Decimal('10.20'), Decimal('10.20'), Decimal('0.00'), Decimal('10.20'), Decimal('10.20'), Decimal('0.00'), Decimal('10.20'), Decimal('10.20'), Decimal('0.00'), Decimal('10.20')), ('shs1s2s336 / shan036', Decimal('3614.00'), Decimal('2743.61'), Decimal('0.00'), Decimal('460.15'), Decimal('0.00'), Decimal('460.15'), Decimal('-110.44'), Decimal('0.00'), Decimal('-110.44'), Decimal('-92.04'), Decimal('0.00'), Decimal('-92.04'), Decimal('-92.04'), Decimal('0.00'), Decimal('-92.04'), Decimal('-92.04'), Decimal('0.00'), Decimal('-92.04'), Decimal('-73.59'), Decimal('0.00'), Decimal('-73.59')), ('shs1s2s334 / shan034', Decimal('396.00'), Decimal('396.00'), Decimal('0.00'), Decimal('-396.00'), Decimal('0.00'), Decimal('-396.00'), Decimal('126.72'), Decimal('0.00'), Decimal('126.72'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('31.68'), Decimal('0.00'), Decimal('31.68')), ('d0d1d2d32m / fceshi056', Decimal('60.00'), Decimal('41.50'), Decimal('0.00'), Decimal('-41.50'), Decimal('0.00'), Decimal('-41.50'), Decimal('8.30'), Decimal('0.00'), Decimal('8.30'), Decimal('8.30'), Decimal('0.00'), Decimal('8.30'), Decimal('8.30'), Decimal('0.00'), Decimal('8.30'), Decimal('8.30'), Decimal('0.00'), Decimal('8.30'), Decimal('8.30'), Decimal('0.00'), Decimal('8.30')), ('d0d1d2d32o / fceshi058', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30q / fceshi016', Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('-30.00'), Decimal('0.00'), Decimal('-30.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00')), ('d0d1d2d32r / fceshi061', Decimal('100.00'), Decimal('70.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30u / fceshi020', Decimal('230.00'), Decimal('167.68'), Decimal('0.00'), Decimal('-92.32'), Decimal('0.00'), Decimal('-92.32'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.44'), Decimal('0.00'), Decimal('18.44')), ('d0d1d2d31p / fceshi041', Decimal('120.00'), Decimal('120.00'), Decimal('0.00'), Decimal('211.68'), Decimal('0.00'), Decimal('211.68'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.36'), Decimal('0.00'), Decimal('-42.36')), ('d0d1d2d32v / fceshi065', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00')), ('d0d1d2d30g / fceshi06', Decimal('60.00'), Decimal('60.00'), Decimal('0.00'), Decimal('-60.00'), Decimal('0.00'), Decimal('-60.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00')), ('d0d1d2d32n / fceshi057', Decimal('260.00'), Decimal('87.02'), Decimal('0.00'), Decimal('-87.02'), Decimal('0.00'), Decimal('-87.02'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.42'), Decimal('0.00'), Decimal('17.42')), ('d0d1d2d30t / fceshi019', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d32i / fceshi052', Decimal('280.00'), Decimal('277.50'), Decimal('0.00'), Decimal('600.85'), Decimal('0.00'), Decimal('600.85'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17')), ('d0d1d2d30y / fceshi024', Decimal('460.00'), Decimal('228.49'), Decimal('0.00'), Decimal('-217.41'), Decimal('0.00'), Decimal('-217.41'), Decimal('43.49'), Decimal('0.00'), Decimal('43.49'), Decimal('43.49'), Decimal('0.00'), Decimal('43.49'), Decimal('43.49'), Decimal('0.00'), Decimal('43.49'), Decimal('43.49'), Decimal('0.00'), Decimal('43.49'), Decimal('43.45'), Decimal('0.00'), Decimal('43.45')), ('d0d1d2d32h / fceshi051', Decimal('150.00'), Decimal('150.00'), Decimal('0.00'), Decimal('694.90'), Decimal('0.00'), Decimal('694.90'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98')), ('d0d1d2d30o / fceshi014', Decimal('60.00'), Decimal('60.00'), Decimal('0.00'), Decimal('126.24'), Decimal('0.00'), Decimal('126.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.28'), Decimal('0.00'), Decimal('-25.28')), ('d0d1d2d31e / fceshi030', Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00')), ('d0d1d2d32a / fceshi044', Decimal('10.00'), Decimal('5.90'), Decimal('0.00'), Decimal('5.90'), Decimal('0.00'), Decimal('5.90'), Decimal('-1.18'), Decimal('0.00'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('-1.18')), ('d0d1d2d32b / fceshi045', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d31a / fceshi026', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('9.00'), Decimal('0.00'), Decimal('9.00'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80'), Decimal('-1.80'), Decimal('0.00'), Decimal('-1.80')), ('d0d1d2d30x / fceshi023', Decimal('60.00'), Decimal('23.91'), Decimal('0.00'), Decimal('-23.91'), Decimal('0.00'), Decimal('-23.91'), Decimal('4.78'), Decimal('0.00'), Decimal('4.78'), Decimal('4.78'), Decimal('0.00'), Decimal('4.78'), Decimal('4.78'), Decimal('0.00'), Decimal('4.78'), Decimal('4.78'), Decimal('0.00'), Decimal('4.78'), Decimal('4.79'), Decimal('0.00'), Decimal('4.79')), ('d0d1d2d30k / fceshi010', Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00')), ('d0d1d2d32w / fceshi066', Decimal('110.00'), Decimal('110.00'), Decimal('0.00'), Decimal('-110.00'), Decimal('0.00'), Decimal('-110.00'), Decimal('22.00'), Decimal('0.00'), Decimal('22.00'), Decimal('22.00'), Decimal('0.00'), Decimal('22.00'), Decimal('22.00'), Decimal('0.00'), Decimal('22.00'), Decimal('22.00'), Decimal('0.00'), Decimal('22.00'), Decimal('22.00'), Decimal('0.00'), Decimal('22.00')), ('d0d1d2d31c / fceshi028', Decimal('210.00'), Decimal('190.60'), Decimal('0.00'), Decimal('-190.60'), Decimal('0.00'), Decimal('-190.60'), Decimal('38.12'), Decimal('0.00'), Decimal('38.12'), Decimal('38.12'), Decimal('0.00'), Decimal('38.12'), Decimal('38.12'), Decimal('0.00'), Decimal('38.12'), Decimal('38.12'), Decimal('0.00'), Decimal('38.12'), Decimal('38.12'), Decimal('0.00'), Decimal('38.12')), ('d0d1d2d32k / fceshi054', Decimal('60.00'), Decimal('60.00'), Decimal('0.00'), Decimal('-60.00'), Decimal('0.00'), Decimal('-60.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00')), ('shs1s2s319 / shan019', Decimal('1378.00'), Decimal('1287.74'), Decimal('0.00'), Decimal('-1287.74'), Decimal('0.00'), Decimal('-1287.74'), Decimal('360.55'), Decimal('0.00'), Decimal('360.55'), Decimal('257.53'), Decimal('0.00'), Decimal('257.53'), Decimal('257.53'), Decimal('0.00'), Decimal('257.53'), Decimal('257.53'), Decimal('0.00'), Decimal('257.53'), Decimal('154.60'), Decimal('0.00'), Decimal('154.60')), ('shs1s2s343 / shan043', Decimal('608.00'), Decimal('608.00'), Decimal('0.00'), Decimal('-608.00'), Decimal('0.00'), Decimal('-608.00'), Decimal('127.68'), Decimal('0.00'), Decimal('127.68'), Decimal('121.60'), Decimal('0.00'), Decimal('121.60'), Decimal('121.60'), Decimal('0.00'), Decimal('121.60'), Decimal('121.60'), Decimal('0.00'), Decimal('121.60'), Decimal('115.52'), Decimal('0.00'), Decimal('115.52')), ('shs1s2s303 / shan003', Decimal('790.00'), Decimal('790.00'), Decimal('0.00'), Decimal('-790.00'), Decimal('0.00'), Decimal('-790.00'), Decimal('94.80'), Decimal('0.00'), Decimal('94.80'), Decimal('158.00'), Decimal('0.00'), Decimal('158.00'), Decimal('158.00'), Decimal('0.00'), Decimal('158.00'), Decimal('158.00'), Decimal('0.00'), Decimal('158.00'), Decimal('221.20'), Decimal('0.00'), Decimal('221.20')), ('shs1s2s310 / shan010', Decimal('1625.00'), Decimal('1514.31'), Decimal('0.00'), Decimal('-1514.31'), Decimal('0.00'), Decimal('-1514.31'), Decimal('439.13'), Decimal('0.00'), Decimal('439.13'), Decimal('302.86'), Decimal('0.00'), Decimal('302.86'), Decimal('302.86'), Decimal('0.00'), Decimal('302.86'), Decimal('302.86'), Decimal('0.00'), Decimal('302.86'), Decimal('166.60'), Decimal('0.00'), Decimal('166.60')), ('shs1s2s320 / shan020', Decimal('293.00'), Decimal('293.00'), Decimal('0.00'), Decimal('-293.00'), Decimal('0.00'), Decimal('-293.00'), Decimal('43.95'), Decimal('0.00'), Decimal('43.95'), Decimal('58.60'), Decimal('0.00'), Decimal('58.60'), Decimal('58.60'), Decimal('0.00'), Decimal('58.60'), Decimal('58.60'), Decimal('0.00'), Decimal('58.60'), Decimal('73.25'), Decimal('0.00'), Decimal('73.25')), ('shs1s2s313 / shan013', Decimal('2133.00'), Decimal('2069.99'), Decimal('0.00'), Decimal('-2069.99'), Decimal('0.00'), Decimal('-2069.99'), Decimal('641.68'), Decimal('0.00'), Decimal('641.68'), Decimal('413.99'), Decimal('0.00'), Decimal('413.99'), Decimal('413.99'), Decimal('0.00'), Decimal('413.99'), Decimal('413.99'), Decimal('0.00'), Decimal('413.99'), Decimal('186.34'), Decimal('0.00'), Decimal('186.34')), ('shs1s2s335 / shan035', Decimal('1345.00'), Decimal('1261.54'), Decimal('0.00'), Decimal('-1261.54'), Decimal('0.00'), Decimal('-1261.54'), Decimal('201.83'), Decimal('0.00'), Decimal('201.83'), Decimal('252.29'), Decimal('0.00'), Decimal('252.29'), Decimal('252.29'), Decimal('0.00'), Decimal('252.29'), Decimal('252.29'), Decimal('0.00'), Decimal('252.29'), Decimal('302.84'), Decimal('0.00'), Decimal('302.84')), ('shs1s2s342 / shan042', Decimal('2708.00'), Decimal('2624.55'), Decimal('0.00'), Decimal('-2624.55'), Decimal('0.00'), Decimal('-2624.55'), Decimal('446.15'), Decimal('0.00'), Decimal('446.15'), Decimal('524.89'), Decimal('0.00'), Decimal('524.89'), Decimal('524.89'), Decimal('0.00'), Decimal('524.89'), Decimal('524.89'), Decimal('0.00'), Decimal('524.89'), Decimal('603.73'), Decimal('0.00'), Decimal('603.73')), ('jmj1j2j3j1 / jmj1j2j3j2', Decimal('6320.00'), Decimal('6220.50'), Decimal('0.00'), Decimal('-3196.52'), Decimal('0.00'), Decimal('-3196.52'), Decimal('1470.41'), Decimal('0.00'), Decimal('1470.41'), Decimal('639.32'), Decimal('0.00'), Decimal('639.32'), Decimal('319.66'), Decimal('0.00'), Decimal('319.66'), Decimal('319.66'), Decimal('0.00'), Decimal('319.66'), Decimal('447.47'), Decimal('0.00'), Decimal('447.47')), ('jnj1j2j3j1 / jnj1j2j3j2', Decimal('619120.00'), Decimal('438682.36'), Decimal('0.00'), Decimal('-19342.86'), Decimal('0.00'), Decimal('-19342.86'), Decimal('5222.42'), Decimal('0.00'), Decimal('5222.42'), Decimal('4835.65'), Decimal('0.00'), Decimal('4835.65'), Decimal('3868.50'), Decimal('0.00'), Decimal('3868.50'), Decimal('2901.31'), Decimal('0.00'), Decimal('2901.31'), Decimal('2514.98'), Decimal('0.00'), Decimal('2514.98')), ('a0b1b2b3a4 / y0', Decimal('5200.00'), Decimal('4724.00'), Decimal('0.00'), Decimal('-4724.00'), Decimal('0.00'), Decimal('-4724.00'), Decimal('1417.20'), Decimal('0.00'), Decimal('1417.20'), Decimal('472.40'), Decimal('0.00'), Decimal('472.40'), Decimal('944.80'), Decimal('0.00'), Decimal('944.80'), Decimal('944.80'), Decimal('0.00'), Decimal('944.80'), Decimal('944.80'), Decimal('0.00'), Decimal('944.80')), ('d0d1d2d30z / fceshi025', Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('68.40'), Decimal('0.00'), Decimal('68.40'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68')), ('d0d1d2d30d / fceshi03', Decimal('100.00'), Decimal('90.00'), Decimal('0.00'), Decimal('-90.00'), Decimal('0.00'), Decimal('-90.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00')), ('d0d1d2d31d / fceshi029', Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('-50.00'), Decimal('0.00'), Decimal('-50.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00')), ('d0d1d2d32d / fceshi047', Decimal('260.00'), Decimal('250.00'), Decimal('0.00'), Decimal('-250.00'), Decimal('0.00'), Decimal('-250.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00')), ('d0d1d2d3vc / fceshi0800', Decimal('200.00'), Decimal('200.00'), Decimal('0.00'), Decimal('-200.00'), Decimal('0.00'), Decimal('-200.00'), Decimal('40.00'), Decimal('0.00'), Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('40.00'))]</t>
+  </si>
+  <si>
+    <t>测试通过 
+2022-06-29 12:49:23</t>
+  </si>
 </sst>
 </file>
 
@@ -1090,6 +1198,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1102,15 +1225,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,14 +1255,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1146,18 +1284,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1169,13 +1315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1184,40 +1323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,8 +1338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,7 +1361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,13 +1373,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,37 +1463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,7 +1475,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,85 +1529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,8 +1608,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,8 +1617,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,166 +1652,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2042,7 +2150,7 @@
   <dimension ref="A1:XFD41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -34982,15 +35090,34 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" spans="1:1">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -35026,49 +35153,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -35078,40 +35205,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -35138,19 +35265,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -35164,10 +35291,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -35181,10 +35308,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
         <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -35198,10 +35325,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -35215,10 +35342,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -35232,10 +35359,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
         <v>169</v>
-      </c>
-      <c r="E6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -35249,10 +35376,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -35266,10 +35393,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -35283,10 +35410,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
         <v>173</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -35300,10 +35427,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -35338,49 +35465,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -35390,40 +35517,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -35452,25 +35579,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -35484,13 +35611,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -35507,13 +35634,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
         <v>185</v>
       </c>
-      <c r="E3" t="s">
-        <v>184</v>
-      </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -35530,13 +35657,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -35553,13 +35680,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -35576,13 +35703,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
         <v>189</v>
       </c>
-      <c r="E6" t="s">
-        <v>188</v>
-      </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -35599,13 +35726,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -35622,13 +35749,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -35645,13 +35772,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" t="s">
-        <v>192</v>
-      </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -35668,13 +35795,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -35691,13 +35818,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -35714,13 +35841,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" t="s">
         <v>197</v>
       </c>
-      <c r="E12" t="s">
-        <v>196</v>
-      </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -35737,13 +35864,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -35760,13 +35887,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -35783,13 +35910,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
         <v>201</v>
       </c>
-      <c r="E15" t="s">
-        <v>200</v>
-      </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -35806,13 +35933,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -35829,13 +35956,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -35852,13 +35979,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" t="s">
         <v>205</v>
       </c>
-      <c r="E18" t="s">
-        <v>204</v>
-      </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -35875,13 +36002,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -35898,13 +36025,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -35921,13 +36048,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="s">
         <v>209</v>
       </c>
-      <c r="E21" t="s">
-        <v>208</v>
-      </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -35944,13 +36071,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -35967,13 +36094,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -35990,13 +36117,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
         <v>213</v>
       </c>
-      <c r="E24" t="s">
-        <v>212</v>
-      </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -36013,13 +36140,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -36057,49 +36184,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -36109,34 +36236,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -36165,25 +36292,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -36197,13 +36324,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -36220,13 +36347,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -36243,13 +36370,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -36266,13 +36393,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -36289,13 +36416,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -36312,13 +36439,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -36335,13 +36462,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -36358,13 +36485,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -36381,13 +36508,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -36404,13 +36531,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -36427,13 +36554,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -36450,13 +36577,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -36473,13 +36600,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -36496,13 +36623,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -36519,13 +36646,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -36542,13 +36669,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -36565,13 +36692,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -36588,13 +36715,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -36611,13 +36738,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -36634,13 +36761,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -36657,13 +36784,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -36680,13 +36807,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -36703,13 +36830,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -36726,13 +36853,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -36749,13 +36876,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -36772,13 +36899,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -36795,13 +36922,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -36818,13 +36945,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -36841,13 +36968,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -36864,13 +36991,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -36887,13 +37014,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -36910,13 +37037,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -36933,13 +37060,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -36956,13 +37083,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -36979,13 +37106,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -37002,13 +37129,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -37025,13 +37152,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -37048,13 +37175,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -37071,13 +37198,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -37094,13 +37221,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -37117,13 +37244,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -37140,13 +37267,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -37163,13 +37290,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -37186,13 +37313,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -37209,13 +37336,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -37232,13 +37359,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -37255,13 +37382,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -37278,13 +37405,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -37322,49 +37449,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -37374,40 +37501,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -37421,8 +37548,8 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -37436,25 +37563,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -37468,13 +37595,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -37491,13 +37618,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -37514,13 +37641,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -37537,13 +37664,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -37560,13 +37687,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -37583,13 +37710,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -37606,13 +37733,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -37629,13 +37756,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -37652,13 +37779,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -37675,13 +37802,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -37698,13 +37825,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -37721,13 +37848,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -37744,13 +37871,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -37767,13 +37894,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -37790,13 +37917,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -37813,13 +37940,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -37836,13 +37963,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -37859,13 +37986,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -37882,13 +38009,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -37905,13 +38032,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -37928,13 +38055,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -37951,13 +38078,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -37974,13 +38101,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -37997,13 +38124,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -38020,13 +38147,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -38043,13 +38170,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -38066,13 +38193,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -38089,13 +38216,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -38112,13 +38239,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -38135,13 +38262,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -38158,13 +38285,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -38181,13 +38308,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -38204,13 +38331,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -38227,13 +38354,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -38250,13 +38377,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -38273,13 +38400,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -38296,13 +38423,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -38319,13 +38446,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -38342,13 +38469,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -38365,13 +38492,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -38388,13 +38515,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -38411,13 +38538,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -38434,13 +38561,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -38457,13 +38584,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -38480,13 +38607,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -38503,13 +38630,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -38526,13 +38653,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -38549,13 +38676,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -38573,7 +38700,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -38593,49 +38720,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -38645,40 +38772,225 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>-30</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>-30</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>-30</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -38713,49 +39025,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -38765,40 +39077,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38806,34 +39118,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
       <c r="M3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38841,34 +39153,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38876,34 +39188,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38911,34 +39223,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -38946,34 +39258,582 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="56.875" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>-7</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>-7</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>-7</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>-7</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -39000,27 +39860,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -39055,49 +39915,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -39107,34 +39967,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -39169,49 +40029,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -39221,40 +40081,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39262,40 +40122,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39303,40 +40163,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39344,34 +40204,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39379,34 +40239,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39414,34 +40274,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39449,34 +40309,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39484,34 +40344,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -39538,33 +40398,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>-7</v>
@@ -39575,13 +40435,13 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>-15</v>
@@ -39592,13 +40452,13 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>-30</v>
@@ -39639,49 +40499,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -39691,40 +40551,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -39759,49 +40619,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -39811,40 +40671,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39852,40 +40712,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39893,40 +40753,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39934,40 +40794,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39975,34 +40835,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -40010,34 +40870,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -40045,34 +40905,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -40080,34 +40940,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -40134,33 +40994,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>-7</v>
@@ -40171,13 +41031,13 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>-15</v>
@@ -40188,13 +41048,13 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>-30</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="20"/>
+    <s:workbookView activeTab="23"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <s:sheet name="matchMarket" sheetId="20" r:id="rId20"/>
     <s:sheet name="multiterm_params" sheetId="21" r:id="rId21"/>
     <s:sheet name="multitermReport" sheetId="22" r:id="rId22"/>
+    <s:sheet name="cancelled_params" sheetId="23" r:id="rId23"/>
+    <s:sheet name="cancelledOrder" sheetId="24" r:id="rId24"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -140,6 +142,9 @@
   </si>
   <si>
     <t>f"SELECT CONCAT(a.user_name,' / ',login_account) '账号 / 登入账号',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN v_order_match b ON a.order_no=b.order_no WHERE `status`=2 AND a.award_time is not NULL AND bet_type&gt;1 {DateType} BETWEEN '{begin}' AND '{end}' {sportId_Str} {account_Str} GROUP BY a.user_name,login_account"</t>
+  </si>
+  <si>
+    <t>f"SELECT CONCAT(d.account,'/',d.login_account) '账号/登入账号',a.order_no '注单号',a.create_time '投注时间',tournament_name '联赛名称',CONCAT( home_team_name, ' Vs ', away_team_name ) '赛事名称',IF(is_live=3,'早盘','滚球盘') '赛事类型',market_name  '盘口名称',specifier '亚盘口',outcome_name  '投注项名称',cast(credit_odds as char) '赔率',match_time '赛事时间',if(odds_type=1,'欧洲盘','香港盘') '盘口类型',bet_amount '投注金额',CONCAT(bet_ip,' / ',ip_address) 'IP地址' FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id) JOIN u_user d ON a.user_id=d.id WHERE a.`status`=3 AND DATE_FORMAT(award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' {account_Str} ORDER BY a.create_time DESC"</t>
   </si>
   <si>
     <t>用例编号</t>
@@ -339,7 +344,7 @@
     <t>[['a0/y0', '李扬总代', '登0', 105, 48609.0, 34729.72, 0.0, 394.68, 4.07, 398.75, -118.29, 18.49, -99.8, -39.33, 1.92, -37.41, -78.83, -5.95, -84.78, -78.83, -9.14, -87.97, -79.4, -9.39, -88.79], ['d0/d0', '杜鑫总代', '登0', 209, 4050.0, 2975.21, 0.0, -1242.61, 0.34, -1242.27, 248.52, 0.64, 249.16, 248.52, -0.09, 248.43, 248.52, -0.1, 248.42, 248.52, -0.1, 248.42, 248.53, -0.69, 247.84], ['je/jerry000', '杰瑞总代', '登0', 5, 902.0, 902.0, 0.0, -405.2, 0.04, -405.16, 182.34, 0.72, 183.06, 81.04, 0.0, 81.04, 60.78, -0.24, 60.54, 40.52, -0.16, 40.36, 40.52, -0.36, 40.16], ['jo/jo', 'Jo总代', '登0', 5, 500.0, 450.0, 0.0, 245.0, 2.25, 247.25, -112.7, -0.47, -113.17, -49.0, -0.5, -49.5, -24.5, -0.25, -24.75, -24.5, -0.35, -24.85, -34.3, -0.68, -34.98], ['sh/sh', '海总代', '登0', 4485, 105662.0, 90376.28, 0.0, -27916.8, 0.11, -27916.69, 6383.47, 31.28, 6414.75, 5586.86, 146.83, 5733.69, 5586.86, -12.18, 5574.68, 5586.86, -65.48, 5521.38, 4772.75, -100.56, 4672.19], ['t0/t0', 'aw总代', '登0', 41, 1929.0, 1545.12, 0.0, -992.68, 0.1, -992.58, 148.46, 0.04, 148.5, 198.55, 0.52, 199.07, 198.55, -0.12, 198.43, 198.55, -0.2, 198.35, 248.57, -0.34, 248.23], ['ja/ja', 'JA总代', '登0', 52, 5200.0, 4460.0, 0.0, -1606.0, 13.87, -1592.13, 738.76, -2.92, 735.84, 321.2, -3.08, 318.12, 160.6, -1.53, 159.07, 160.6, -2.18, 158.42, 224.84, -4.16, 220.68], ['jb/jb', 'JB总代', '登0', 6, 600.0, 496.0, 0.0, 96.0, 4.45, 100.45, -44.16, -0.93, -45.09, -19.2, -0.98, -20.18, -9.6, -0.49, -10.09, -9.6, -0.71, -10.31, -13.44, -1.34, -14.78], ['jc/jc', 'JC总代', '登0', 11, 1100.0, 995.0, 0.0, -95.0, 8.04, -86.96, 43.7, -1.68, 42.02, 19.0, -1.77, 17.23, 9.5, -0.91, 8.59, 9.5, -1.25, 8.25, 13.3, -2.43, 10.87], ['jd/jd', 'JD总代', '登0', 13, 1300.0, 1087.0, 0.0, -83.0, 8.86, -74.14, 38.18, -1.86, 36.32, 16.6, -1.95, 14.65, 8.3, -0.99, 7.31, 8.3, -1.38, 6.92, 11.62, -2.68, 8.94], ['jf/jf', 'JF总代', '登0', 15, 1500.0, 1240.0, 0.0, -40.0, 11.13, -28.87, 18.4, -2.33, 16.07, 8.0, -2.44, 5.56, 4.0, -1.25, 2.75, 4.0, -1.74, 2.26, 5.6, -3.37, 2.23], ['jg/jg', 'JG总代', '登0', 10, 1000.0, 893.0, 0.0, -707.0, 7.13, -699.87, 325.22, -1.5, 323.72, 141.4, -1.58, 139.82, 70.7, -0.8, 69.9, 70.7, -1.11, 69.59, 98.98, -2.14, 96.84], ['jh/jh', 'JH总代', '登0', 16, 1600.0, 1500.0, 0.0, -495.0, 10.79, -484.21, 227.7, -2.27, 225.43, 99.0, -2.39, 96.61, 49.5, -1.2, 48.3, 49.5, -1.68, 47.82, 69.3, -3.25, 66.05], ['ji/ji', 'JI总代', '登0', 26, 2600.0, 2229.0, 0.0, -956.0, 11.28, -944.72, 439.76, -2.36, 437.4, 191.2, -2.49, 188.71, 95.6, -1.27, 94.33, 95.6, -1.76, 93.84, 133.84, -3.4, 130.44], ['jj/jj', 'JJ总代', '登0', 24, 2400.0, 2061.5, 0.0, 87.5, 17.61, 105.11, -40.25, -3.7, -43.95, -17.5, -3.85, -21.35, -8.75, -2.0, -10.75, -8.75, -2.74, -11.49, -12.25, -5.32, -17.57], ['jk/jk', 'JK总代', '登0', 28, 2800.0, 2048.0, 0.0, -842.0, 8.65, -833.35, 387.32, -1.79, 385.53, 168.4, -1.9, 166.5, 84.2, -0.97, 83.23, 84.2, -1.35, 82.85, 117.88, -2.64, 115.24], ['jl/jl', 'JL总代', '登0', 17, 1700.0, 1344.0, 0.0, -251.0, 11.74, -239.26, 115.46, -2.46, 113.0, 50.2, -2.59, 47.61, 25.1, -1.32, 23.78, 25.1, -1.82, 23.28, 35.14, -3.55, 31.59], ['jm/jm', 'JM总代', '登0', 63, 12420.0, 11216.5, 0.0, -5170.52, 35.94, -5134.58, 2378.45, -7.52, 2370.93, 1034.12, -7.92, 1026.2, 517.06, -4.03, 513.03, 517.06, -5.61, 511.45, 723.83, -10.86, 712.97], ['jn/jn', 'JN总代', '登0', 366, 123500.0, 97391.11, 0.0, -18961.16, 193.26, -18767.9, 5119.5, -51.69, 5067.81, 4740.28, -47.97, 4692.31, 3792.22, -38.65, 3753.57, 2844.16, -29.41, 2814.75, 2465.0, -25.54, 2439.46]]</t>
   </si>
   <si>
-    <t>[('jn/jn', 'JN总代', '登0', 366, Decimal('123500.00'), Decimal('97391.11'), Decimal('0.00'), Decimal('-18961.16'), Decimal('193.26'), Decimal('-18767.90'), Decimal('5119.50'), Decimal('-51.69'), Decimal('5067.81'), Decimal('4740.28'), Decimal('-47.97'), Decimal('4692.31'), Decimal('3792.22'), Decimal('-38.65'), Decimal('3753.57'), Decimal('2844.16'), Decimal('-29.41'), Decimal('2814.75'), Decimal('2465.00'), Decimal('-25.54'), Decimal('2439.46')), ('jm/jm', 'JM总代', '登0', 63, Decimal('12420.00'), Decimal('11216.50'), Decimal('0.00'), Decimal('-5170.52'), Decimal('35.94'), Decimal('-5134.58'), Decimal('2378.45'), Decimal('-7.52'), Decimal('2370.93'), Decimal('1034.12'), Decimal('-7.92'), Decimal('1026.20'), Decimal('517.06'), Decimal('-4.03'), Decimal('513.03'), Decimal('517.06'), Decimal('-5.61'), Decimal('511.45'), Decimal('723.83'), Decimal('-10.86'), Decimal('712.97')), ('jl/jl', 'JL总代', '登0', 17, Decimal('1700.00'), Decimal('1344.00'), Decimal('0.00'), Decimal('-251.00'), Decimal('11.74'), Decimal('-239.26'), Decimal('115.46'), Decimal('-2.46'), Decimal('113.00'), Decimal('50.20'), Decimal('-2.59'), Decimal('47.61'), Decimal('25.10'), Decimal('-1.32'), Decimal('23.78'), Decimal('25.10'), Decimal('-1.82'), Decimal('23.28'), Decimal('35.14'), Decimal('-3.55'), Decimal('31.59')), ('jk/jk', 'JK总代', '登0', 28, Decimal('2800.00'), Decimal('2048.00'), Decimal('0.00'), Decimal('-842.00'), Decimal('8.65'), Decimal('-833.35'), Decimal('387.32'), Decimal('-1.79'), Decimal('385.53'), Decimal('168.40'), Decimal('-1.90'), Decimal('166.50'), Decimal('84.20'), Decimal('-0.97'), Decimal('83.23'), Decimal('84.20'), Decimal('-1.35'), Decimal('82.85'), Decimal('117.88'), Decimal('-2.64'), Decimal('115.24')), ('jj/jj', 'JJ总代', '登0', 24, Decimal('2400.00'), Decimal('2061.50'), Decimal('0.00'), Decimal('87.50'), Decimal('17.61'), Decimal('105.11'), Decimal('-40.25'), Decimal('-3.70'), Decimal('-43.95'), Decimal('-17.50'), Decimal('-3.85'), Decimal('-21.35'), Decimal('-8.75'), Decimal('-2.00'), Decimal('-10.75'), Decimal('-8.75'), Decimal('-2.74'), Decimal('-11.49'), Decimal('-12.25'), Decimal('-5.32'), Decimal('-17.57')), ('ji/ji', 'JI总代', '登0', 26, Decimal('2600.00'), Decimal('2229.00'), Decimal('0.00'), Decimal('-956.00'), Decimal('11.28'), Decimal('-944.72'), Decimal('439.76'), Decimal('-2.36'), Decimal('437.40'), Decimal('191.20'), Decimal('-2.49'), Decimal('188.71'), Decimal('95.60'), Decimal('-1.27'), Decimal('94.33'), Decimal('95.60'), Decimal('-1.76'), Decimal('93.84'), Decimal('133.84'), Decimal('-3.40'), Decimal('130.44')), ('jh/jh', 'JH总代', '登0', 16, Decimal('1600.00'), Decimal('1500.00'), Decimal('0.00'), Decimal('-495.00'), Decimal('10.79'), Decimal('-484.21'), Decimal('227.70'), Decimal('-2.27'), Decimal('225.43'), Decimal('99.00'), Decimal('-2.39'), Decimal('96.61'), Decimal('49.50'), Decimal('-1.20'), Decimal('48.30'), Decimal('49.50'), Decimal('-1.68'), Decimal('47.82'), Decimal('69.30'), Decimal('-3.25'), Decimal('66.05')), ('jg/jg', 'JG总代', '登0', 10, Decimal('1000.00'), Decimal('893.00'), Decimal('0.00'), Decimal('-707.00'), Decimal('7.13'), Decimal('-699.87'), Decimal('325.22'), Decimal('-1.50'), Decimal('323.72'), Decimal('141.40'), Decimal('-1.58'), Decimal('139.82'), Decimal('70.70'), Decimal('-0.80'), Decimal('69.90'), Decimal('70.70'), Decimal('-1.11'), Decimal('69.59'), Decimal('98.98'), Decimal('-2.14'), Decimal('96.84')), ('jf/jf', 'JF总代', '登0', 15, Decimal('1500.00'), Decimal('1240.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('11.13'), Decimal('-28.87'), Decimal('18.40'), Decimal('-2.33'), Decimal('16.07'), Decimal('8.00'), Decimal('-2.44'), Decimal('5.56'), Decimal('4.00'), Decimal('-1.25'), Decimal('2.75'), Decimal('4.00'), Decimal('-1.74'), Decimal('2.26'), Decimal('5.60'), Decimal('-3.37'), Decimal('2.23')), ('jd/jd', 'JD总代', '登0', 13, Decimal('1300.00'), Decimal('1087.00'), Decimal('0.00'), Decimal('-83.00'), Decimal('8.86'), Decimal('-74.14'), Decimal('38.18'), Decimal('-1.86'), Decimal('36.32'), Decimal('16.60'), Decimal('-1.95'), Decimal('14.65'), Decimal('8.30'), Decimal('-0.99'), Decimal('7.31'), Decimal('8.30'), Decimal('-1.38'), Decimal('6.92'), Decimal('11.62'), Decimal('-2.68'), Decimal('8.94')), ('jc/jc', 'JC总代', '登0', 11, Decimal('1100.00'), Decimal('995.00'), Decimal('0.00'), Decimal('-95.00'), Decimal('8.04'), Decimal('-86.96'), Decimal('43.70'), Decimal('-1.68'), Decimal('42.02'), Decimal('19.00'), Decimal('-1.77'), Decimal('17.23'), Decimal('9.50'), Decimal('-0.91'), Decimal('8.59'), Decimal('9.50'), Decimal('-1.25'), Decimal('8.25'), Decimal('13.30'), Decimal('-2.43'), Decimal('10.87')), ('jb/jb', 'JB总代', '登0', 6, Decimal('600.00'), Decimal('496.00'), Decimal('0.00'), Decimal('96.00'), Decimal('4.45'), Decimal('100.45'), Decimal('-44.16'), Decimal('-0.93'), Decimal('-45.09'), Decimal('-19.20'), Decimal('-0.98'), Decimal('-20.18'), Decimal('-9.60'), Decimal('-0.49'), Decimal('-10.09'), Decimal('-9.60'), Decimal('-0.71'), Decimal('-10.31'), Decimal('-13.44'), Decimal('-1.34'), Decimal('-14.78')), ('ja/ja', 'JA总代', '登0', 52, Decimal('5200.00'), Decimal('4460.00'), Decimal('0.00'), Decimal('-1606.00'), Decimal('13.87'), Decimal('-1592.13'), Decimal('738.76'), Decimal('-2.92'), Decimal('735.84'), Decimal('321.20'), Decimal('-3.08'), Decimal('318.12'), Decimal('160.60'), Decimal('-1.53'), Decimal('159.07'), Decimal('160.60'), Decimal('-2.18'), Decimal('158.42'), Decimal('224.84'), Decimal('-4.16'), Decimal('220.68')), ('jo/jo', 'Jo总代', '登0', 27, Decimal('2900.00'), Decimal('2517.00'), Decimal('0.00'), Decimal('164.50'), Decimal('18.13'), Decimal('182.63'), Decimal('-75.67'), Decimal('-3.82'), Decimal('-79.49'), Decimal('-32.90'), Decimal('-3.98'), Decimal('-36.88'), Decimal('-16.45'), Decimal('-2.01'), Decimal('-18.46'), Decimal('-16.45'), Decimal('-2.84'), Decimal('-19.29'), Decimal('-23.03'), Decimal('-5.48'), Decimal('-28.51')), ('je/jerry000', '杰瑞总代', '登0', 62, Decimal('6902.00'), Decimal('5706.00'), Decimal('0.00'), Decimal('-2286.20'), Decimal('0.76'), Decimal('-2285.44'), Decimal('1028.79'), Decimal('14.80'), Decimal('1043.59'), Decimal('457.24'), Decimal('0.00'), Decimal('457.24'), Decimal('342.93'), Decimal('-4.87'), Decimal('338.06'), Decimal('228.62'), Decimal('-3.46'), Decimal('225.16'), Decimal('228.62'), Decimal('-7.23'), Decimal('221.39')), ('a0/y0', '李扬总代', '登0', 158, Decimal('71094.00'), Decimal('53642.46'), Decimal('0.00'), Decimal('-3481.07'), Decimal('5.46'), Decimal('-3475.61'), Decimal('1044.48'), Decimal('24.73'), Decimal('1069.21'), Decimal('348.30'), Decimal('2.59'), Decimal('350.89'), Decimal('696.35'), Decimal('-8.01'), Decimal('688.34'), Decimal('696.35'), Decimal('-12.21'), Decimal('684.14'), Decimal('695.59'), Decimal('-12.56'), Decimal('683.03')), ('t0/t0', 'aw总代', '登0', 244, Decimal('6835.00'), Decimal('5831.89'), Decimal('0.00'), Decimal('-2449.96'), Decimal('0.19'), Decimal('-2449.77'), Decimal('402.92'), Decimal('0.52'), Decimal('403.44'), Decimal('490.19'), Decimal('0.52'), Decimal('490.71'), Decimal('490.19'), Decimal('-0.14'), Decimal('490.05'), Decimal('490.19'), Decimal('-0.22'), Decimal('489.97'), Decimal('576.47'), Decimal('-0.87'), Decimal('575.60')), ('d0/d0', '杜鑫总代', '登0', 277, Decimal('8840.00'), Decimal('6846.90'), Decimal('0.00'), Decimal('3137.03'), Decimal('0.35'), Decimal('3137.38'), Decimal('-627.39'), Decimal('0.70'), Decimal('-626.69'), Decimal('-627.39'), Decimal('-0.09'), Decimal('-627.48'), Decimal('-627.39'), Decimal('-0.10'), Decimal('-627.49'), Decimal('-627.39'), Decimal('-0.10'), Decimal('-627.49'), Decimal('-627.47'), Decimal('-0.76'), Decimal('-628.23')), ('sh/sh', '海总代', '登0', 5807, Decimal('139620.00'), Decimal('112970.37'), Decimal('0.00'), Decimal('-31063.86'), Decimal('0.12'), Decimal('-31063.74'), Decimal('7236.33'), Decimal('40.72'), Decimal('7277.05'), Decimal('6217.40'), Decimal('192.02'), Decimal('6409.42'), Decimal('6217.40'), Decimal('-16.49'), Decimal('6200.91'), Decimal('6217.40'), Decimal('-86.72'), Decimal('6130.68'), Decimal('5175.33'), Decimal('-129.65'), Decimal('5045.68'))]</t>
+    <t>[('jn/jn', 'JN总代', '登0', 366, Decimal('123500.00'), Decimal('97391.11'), Decimal('0.00'), Decimal('-18961.16'), Decimal('193.26'), Decimal('-18767.90'), Decimal('5119.50'), Decimal('-51.69'), Decimal('5067.81'), Decimal('4740.28'), Decimal('-47.97'), Decimal('4692.31'), Decimal('3792.22'), Decimal('-38.65'), Decimal('3753.57'), Decimal('2844.16'), Decimal('-29.41'), Decimal('2814.75'), Decimal('2465.00'), Decimal('-25.54'), Decimal('2439.46')), ('jm/jm', 'JM总代', '登0', 63, Decimal('12420.00'), Decimal('11216.50'), Decimal('0.00'), Decimal('-5170.52'), Decimal('35.94'), Decimal('-5134.58'), Decimal('2378.45'), Decimal('-7.52'), Decimal('2370.93'), Decimal('1034.12'), Decimal('-7.92'), Decimal('1026.20'), Decimal('517.06'), Decimal('-4.03'), Decimal('513.03'), Decimal('517.06'), Decimal('-5.61'), Decimal('511.45'), Decimal('723.83'), Decimal('-10.86'), Decimal('712.97')), ('jl/jl', 'JL总代', '登0', 17, Decimal('1700.00'), Decimal('1344.00'), Decimal('0.00'), Decimal('-251.00'), Decimal('11.74'), Decimal('-239.26'), Decimal('115.46'), Decimal('-2.46'), Decimal('113.00'), Decimal('50.20'), Decimal('-2.59'), Decimal('47.61'), Decimal('25.10'), Decimal('-1.32'), Decimal('23.78'), Decimal('25.10'), Decimal('-1.82'), Decimal('23.28'), Decimal('35.14'), Decimal('-3.55'), Decimal('31.59')), ('jk/jk', 'JK总代', '登0', 28, Decimal('2800.00'), Decimal('2048.00'), Decimal('0.00'), Decimal('-842.00'), Decimal('8.65'), Decimal('-833.35'), Decimal('387.32'), Decimal('-1.79'), Decimal('385.53'), Decimal('168.40'), Decimal('-1.90'), Decimal('166.50'), Decimal('84.20'), Decimal('-0.97'), Decimal('83.23'), Decimal('84.20'), Decimal('-1.35'), Decimal('82.85'), Decimal('117.88'), Decimal('-2.64'), Decimal('115.24')), ('jj/jj', 'JJ总代', '登0', 24, Decimal('2400.00'), Decimal('2061.50'), Decimal('0.00'), Decimal('87.50'), Decimal('17.61'), Decimal('105.11'), Decimal('-40.25'), Decimal('-3.70'), Decimal('-43.95'), Decimal('-17.50'), Decimal('-3.85'), Decimal('-21.35'), Decimal('-8.75'), Decimal('-2.00'), Decimal('-10.75'), Decimal('-8.75'), Decimal('-2.74'), Decimal('-11.49'), Decimal('-12.25'), Decimal('-5.32'), Decimal('-17.57')), ('ji/ji', 'JI总代', '登0', 26, Decimal('2600.00'), Decimal('2229.00'), Decimal('0.00'), Decimal('-956.00'), Decimal('11.28'), Decimal('-944.72'), Decimal('439.76'), Decimal('-2.36'), Decimal('437.40'), Decimal('191.20'), Decimal('-2.49'), Decimal('188.71'), Decimal('95.60'), Decimal('-1.27'), Decimal('94.33'), Decimal('95.60'), Decimal('-1.76'), Decimal('93.84'), Decimal('133.84'), Decimal('-3.40'), Decimal('130.44')), ('jh/jh', 'JH总</t>
   </si>
   <si>
     <t>测试通过 
@@ -1116,14 +1121,36 @@
     <t>{"matchId":"","sportId":"","queryDateType":3,"begin":"2022-06-23","end":"2022-06-29","searchAccount":"","page":1,"limit":50}</t>
   </si>
   <si>
-    <t>[['d0d1d2d30j / fceshi09', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['t0t1t2t3t4 / t4', 480.0, 412.5, 0.0, -412.5, 0.0, -412.5, 61.87, 0.0, 61.87, 82.5, 0.0, 82.5, 82.5, 0.0, 82.5, 82.5, 0.0, 82.5, 103.13, 0.0, 103.13], ['a0b1b2b3a3 / a3', 302.0, 302.0, 0.0, 91.3, 0.0, 91.3, -27.39, 0.0, -27.39, -9.13, 0.0, -9.13, -18.26, 0.0, -18.26, -18.26, 0.0, -18.26, -18.26, 0.0, -18.26], ['shs1s2s323 / shan023', 902.0, 696.13, 0.0, 624.38, 0.0, 624.38, -112.34, 0.0, -112.34, -124.86, 0.0, -124.86, -124.86, 0.0, -124.86, -124.86, 0.0, -124.86, -137.46, 0.0, -137.46], ['shs1s2s315 / shan015', 2622.0, 1549.8, 0.0, -1402.06, 0.0, -1402.06, 420.61, 0.0, 420.61, 280.42, 0.0, 280.42, 280.42, 0.0, 280.42, 280.42, 0.0, 280.42, 140.19, 0.0, 140.19], ['shs1s2s348 / shan048', 1298.0, 1298.0, 0.0, -1298.0, 0.0, -1298.0, 389.4, 0.0, 389.4, 259.6, 0.0, 259.6, 259.6, 0.0, 259.6, 259.6, 0.0, 259.6, 129.8, 0.0, 129.8], ['d0d1d2d32f / fceshi049', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['shs1s2s334 / shan034', 396.0, 396.0, 0.0, -396.0, 0.0, -396.0, 126.72, 0.0, 126.72, 79.2, 0.0, 79.2, 79.2, 0.0, 79.2, 79.2, 0.0, 79.2, 31.68, 0.0, 31.68], ['d0d1d2d31c / fceshi028', 150.0, 150.0, 0.0, -150.0, 0.0, -150.0, 30.0, 0.0, 30.0, 30.0, 0.0, 30.0, 30.0, 0.0, 30.0, 30.0, 0.0, 30.0, 30.0, 0.0, 30.0], ['d0d1d2d30i / fceshi08', 110.0, 70.0, 0.0, -70.0, 0.0, -70.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0], ['d0d1d2d32k / fceshi054', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['d0d1d2d31q / fceshi042', 70.0, 44.5, 0.0, -35.5, 0.0, -35.5, 7.1, 0.0, 7.1, 7.1, 0.0, 7.1, 7.1, 0.0, 7.1, 7.1, 0.0, 7.1, 7.1, 0.0, 7.1], ['d0d1d2d31a / fceshi026', 110.0, 110.0, 0.0, 698.71, 0.0, 698.71, -139.74, 0.0, -139.74, -139.74, 0.0, -139.74, -139.74, 0.0, -139.74, -139.74, 0.0, -139.74, -139.75, 0.0, -139.75], ['jmj1j2j3j1 / jmj1j2j3j2', 6320.0, 6220.5, 0.0, -3196.52, 0.0, -3196.52, 1470.41, 0.0, 1470.41, 639.32, 0.0, 639.32, 319.66, 0.0, 319.66, 319.66, 0.0, 319.66, 447.47, 0.0, 447.47], ['jnj1j2j3j1 / jnj1j2j3j2', 158400.0, 107494.98, 0.0, -68769.0, 0.0, -68769.0, 18567.6, 0.0, 18567.6, 17192.24, 0.0, 17192.24, 13753.81, 0.0, 13753.81, 10315.35, 0.0, 10315.35, 8940.0, 0.0, 8940.0], ['d0d1d2d31r / fceshi043', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d31b / fceshi027', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d32o / fceshi058', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30m / fceshi012', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30t / fceshi019', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d32a / fceshi044', 570.0, 570.0, 0.0, 3238.12, 0.0, 3238.12, -647.62, 0.0, -647.62, -647.62, 0.0, -647.62, -647.62, 0.0, -647.62, -647.62, 0.0, -647.62, -647.64, 0.0, -647.64], ['d0d1d2d30v / fceshi021', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['a0b1b2b3a4 / y0', 4800.0, 4424.0, 0.0, -4424.0, 0.0, -4424.0, 1327.2, 0.0, 1327.2, 442.4, 0.0, 442.4, 884.8, 0.0, 884.8, 884.8, 0.0, 884.8, 884.8, 0.0, 884.8]]</t>
+    <t>[['t0t1t2t3t4 / t4', 400.0, 360.0, 0.0, -360.0, 0.0, -360.0, 54.0, 0.0, 54.0, 72.0, 0.0, 72.0, 72.0, 0.0, 72.0, 72.0, 0.0, 72.0, 90.0, 0.0, 90.0], ['a0b1b2b3a3 / a3', 302.0, 302.0, 0.0, 91.3, 0.0, 91.3, -27.39, 0.0, -27.39, -9.13, 0.0, -9.13, -18.26, 0.0, -18.26, -18.26, 0.0, -18.26, -18.26, 0.0, -18.26], ['shs1s2s323 / shan023', 902.0, 696.13, 0.0, 624.38, 0.0, 624.38, -112.34, 0.0, -112.34, -124.86, 0.0, -124.86, -124.86, 0.0, -124.86, -124.86, 0.0, -124.86, -137.46, 0.0, -137.46], ['shs1s2s315 / shan015', 2622.0, 1549.8, 0.0, -1402.06, 0.0, -1402.06, 420.61, 0.0, 420.61, 280.42, 0.0, 280.42, 280.42, 0.0, 280.42, 280.42, 0.0, 280.42, 140.19, 0.0, 140.19], ['shs1s2s348 / shan048', 1298.0, 1298.0, 0.0, -1298.0, 0.0, -1298.0, 389.4, 0.0, 389.4, 259.6, 0.0, 259.6, 259.6, 0.0, 259.6, 259.6, 0.0, 259.6, 129.8, 0.0, 129.8], ['shs1s2s334 / shan034', 396.0, 396.0, 0.0, -396.0, 0.0, -396.0, 126.72, 0.0, 126.72, 79.2, 0.0, 79.2, 79.2, 0.0, 79.2, 79.2, 0.0, 79.2, 31.68, 0.0, 31.68], ['jmj1j2j3j1 / jmj1j2j3j2', 6320.0, 6220.5, 0.0, -3196.52, 0.0, -3196.52, 1470.41, 0.0, 1470.41, 639.32, 0.0, 639.32, 319.66, 0.0, 319.66, 319.66, 0.0, 319.66, 447.47, 0.0, 447.47], ['jnj1j2j3j1 / jnj1j2j3j2', 158400.0, 107494.98, 0.0, -68769.0, 0.0, -68769.0, 18567.6, 0.0, 18567.6, 17192.24, 0.0, 17192.24, 13753.81, 0.0, 13753.81, 10315.35, 0.0, 10315.35, 8940.0, 0.0, 8940.0], ['d0d1d2d32o / fceshi058', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30t / fceshi019', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d32m / fceshi056', 20.0, 20.0, 0.0, -20.0, 0.0, -20.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0, 4.0, 0.0, 4.0], ['d0d1d2d32f / fceshi049', 70.0, 70.0, 0.0, -70.0, 0.0, -70.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0, 14.0, 0.0, 14.0], ['d0d1d2d30l / fceshi011', 40.0, 40.0, 0.0, -40.0, 0.0, -40.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0, 8.0, 0.0, 8.0], ['d0d1d2d30u / fceshi020', 230.0, 167.68, 0.0, -92.32, 0.0, -92.32, 18.47, 0.0, 18.47, 18.47, 0.0, 18.47, 18.47, 0.0, 18.47, 18.47, 0.0, 18.47, 18.44, 0.0, 18.44], ['d0d1d2d31p / fceshi041', 120.0, 120.0, 0.0, 211.68, 0.0, 211.68, -42.33, 0.0, -42.33, -42.33, 0.0, -42.33, -42.33, 0.0, -42.33, -42.33, 0.0, -42.33, -42.36, 0.0, -42.36], ['d0d1d2d30g / fceshi06', 60.0, 60.0, 0.0, -60.0, 0.0, -60.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0, 12.0, 0.0, 12.0], ['d0d1d2d30q / fceshi016', 30.0, 30.0, 0.0, -30.0, 0.0, -30.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0, 6.0, 0.0, 6.0], ['d0d1d2d32v / fceshi065', 100.0, 100.0, 0.0, -100.0, 0.0, -100.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0, 20.0, 0.0, 20.0], ['d0d1d2d32r / fceshi061', 100.0, 70.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30z / fceshi025', 50.0, 50.0, 0.0, 68.4, 0.0, 68.4, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68, -13.68, 0.0, -13.68], ['d0d1d2d31a / fceshi026', 10.0, 10.0, 0.0, 19.0, 0.0, 19.0, -3.8, 0.0, -3.8, -3.8, 0.0, -3.8, -3.8, 0.0, -3.8, -3.8, 0.0, -3.8, -3.8, 0.0, -3.8], ['d0d1d2d31e / fceshi030', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30o / fceshi014', 60.0, 60.0, 0.0, 126.24, 0.0, 126.24, -25.24, 0.0, -25.24, -25.24, 0.0, -25.24, -25.24, 0.0, -25.24, -25.24, 0.0, -25.24, -25.28, 0.0, -25.28], ['d0d1d2d32i / fceshi052', 280.0, 277.5, 0.0, 600.85, 0.0, 600.85, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17, -120.17, 0.0, -120.17], ['d0d1d2d32h / fceshi051', 150.0, 150.0, 0.0, 694.9, 0.0, 694.9, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98, -138.98, 0.0, -138.98], ['d0d1d2d31b / fceshi027', 570.0, 570.0, 0.0, -570.0, 0.0, -570.0, 114.0, 0.0, 114.0, 114.0, 0.0, 114.0, 114.0, 0.0, 114.0, 114.0, 0.0, 114.0, 114.0, 0.0, 114.0], ['d0d1d2d32n / fceshi057', 260.0, 87.02, 0.0, -87.02, 0.0, -87.02, 17.4, 0.0, 17.4, 17.4, 0.0, 17.4, 17.4, 0.0, 17.4, 17.4, 0.0, 17.4, 17.42, 0.0, 17.42], ['d0d1d2d30y / fceshi024', 200.0, 5.54, 0.0, 5.54, 0.0, 5.54, -1.1, 0.0, -1.1, -1.1, 0.0, -1.1, -1.1, 0.0, -1.1, -1.1, 0.0, -1.1, -1.14, 0.0, -1.14], ['d0d1d2d32k / fceshi054', 10.0, 10.0, 0.0, -10.0, 0.0, -10.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0, 2.0, 0.0, 2.0], ['d0d1d2d30j / fceshi09', 40.0, 40.0, 0.0, 1168.5, 0.0, 1168.5, -233.7, 0.0, -233.7, -233.7, 0.0, -233.7, -233.7, 0.0, -233.7, -233.7, 0.0, -233.7, -233.7, 0.0, -233.7], ['d0d1d2d32d / fceshi047', 260.0, 250.0, 0.0, -250.0, 0.0, -250.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0, 50.0, 0.0, 50.0], ['d0d1d2d30d / fceshi03', 100.0, 90.0, 0.0, -90.0, 0.0, -90.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0, 18.0, 0.0, 18.0], ['d0d1d2d31d / fceshi029', 50.0, 50.0, 0.0, -50.0, 0.0, -50.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0, 10.0, 0.0, 10.0], ['a0b1b2b3a4 / y0', 4800.0, 4424.0, 0.0, -4424.0, 0.0, -4424.0, 1327.2, 0.0, 1327.2, 442.4, 0.0, 442.4, 884.8, 0.0, 884.8, 884.8, 0.0, 884.8, 884.8, 0.0, 884.8]]</t>
   </si>
   <si>
-    <t>[('d0d1d2d32k / fceshi054', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('d0d1d2d30m / fceshi012', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d31a / fceshi026', Decimal('110.00'), Decimal('110.00'), Decimal('0.00'), Decimal('698.71'), Decimal('0.00'), Decimal('698.71'), Decimal('-139.74'), Decimal('0.00'), Decimal('-139.74'), Decimal('-139.74'), Decimal('0.00'), Decimal('-139.74'), Decimal('-139.74'), Decimal('0.00'), Decimal('-139.74'), Decimal('-139.74'), Decimal('0.00'), Decimal('-139.74'), Decimal('-139.75'), Decimal('0.00'), Decimal('-139.75')), ('d0d1d2d31c / fceshi028', Decimal('150.00'), Decimal('150.00'), Decimal('0.00'), Decimal('-150.00'), Decimal('0.00'), Decimal('-150.00'), Decimal('30.00'), Decimal('0.00'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('30.00')), ('d0d1d2d30v / fceshi021', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30i / fceshi08', Decimal('110.00'), Decimal('70.00'), Decimal('0.00'), Decimal('-70.00'), Decimal('0.00'), Decimal('-70.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00')), ('d0d1d2d30j / fceshi09', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d31q / fceshi042', Decimal('70.00'), Decimal('44.50'), Decimal('0.00'), Decimal('-35.50'), Decimal('0.00'), Decimal('-35.50'), Decimal('7.10'), Decimal('0.00'), Decimal('7.10'), Decimal('7.10'), Decimal('0.00'), Decimal('7.10'), Decimal('7.10'), Decimal('0.00'), Decimal('7.10'), Decimal('7.10'), Decimal('0.00'), Decimal('7.10'), Decimal('7.10'), Decimal('0.00'), Decimal('7.10')), ('d0d1d2d32f / fceshi049', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d31b / fceshi027', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d32a / fceshi044', Decimal('570.00'), Decimal('570.00'), Decimal('0.00'), Decimal('3238.12'), Decimal('0.00'), Decimal('3238.12'), Decimal('-647.62'), Decimal('0.00'), Decimal('-647.62'), Decimal('-647.62'), Decimal('0.00'), Decimal('-647.62'), Decimal('-647.62'), Decimal('0.00'), Decimal('-647.62'), Decimal('-647.62'), Decimal('0.00'), Decimal('-647.62'), Decimal('-647.64'), Decimal('0.00'), Decimal('-647.64')), ('d0d1d2d31r / fceshi043', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('t0t1t2t3t4 / t4', Decimal('480.00'), Decimal('412.50'), Decimal('0.00'), Decimal('-412.50'), Decimal('0.00'), Decimal('-412.50'), Decimal('61.87'), Decimal('0.00'), Decimal('61.87'), Decimal('82.50'), Decimal('0.00'), Decimal('82.50'), Decimal('82.50'), Decimal('0.00'), Decimal('82.50'), Decimal('82.50'), Decimal('0.00'), Decimal('82.50'), Decimal('103.13'), Decimal('0.00'), Decimal('103.13')), ('a0b1b2b3a3 / a3', Decimal('302.00'), Decimal('302.00'), Decimal('0.00'), Decimal('91.30'), Decimal('0.00'), Decimal('91.30'), Decimal('-27.39'), Decimal('0.00'), Decimal('-27.39'), Decimal('-9.13'), Decimal('0.00'), Decimal('-9.13'), Decimal('-18.26'), Decimal('0.00'), Decimal('-18.26'), Decimal('-18.26'), Decimal('0.00'), Decimal('-18.26'), Decimal('-18.26'), Decimal('0.00'), Decimal('-18.26')), ('shs1s2s348 / shan048', Decimal('1298.00'), Decimal('1298.00'), Decimal('0.00'), Decimal('-1298.00'), Decimal('0.00'), Decimal('-1298.00'), Decimal('389.40'), Decimal('0.00'), Decimal('389.40'), Decimal('259.60'), Decimal('0.00'), Decimal('259.60'), Decimal('259.60'), Decimal('0.00'), Decimal('259.60'), Decimal('259.60'), Decimal('0.00'), Decimal('259.60'), Decimal('129.80'), Decimal('0.00'), Decimal('129.80')), ('shs1s2s323 / shan023', Decimal('902.00'), Decimal('696.13'), Decimal('0.00'), Decimal('624.38'), Decimal('0.00'), Decimal('624.38'), Decimal('-112.34'), Decimal('0.00'), Decimal('-112.34'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-137.46'), Decimal('0.00'), Decimal('-137.46')), ('shs1s2s315 / shan015', Decimal('2622.00'), Decimal('1549.80'), Decimal('0.00'), Decimal('-1402.06'), Decimal('0.00'), Decimal('-1402.06'), Decimal('420.61'), Decimal('0.00'), Decimal('420.61'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('140.19'), Decimal('0.00'), Decimal('140.19')), ('shs1s2s334 / shan034', Decimal('396.00'), Decimal('396.00'), Decimal('0.00'), Decimal('-396.00'), Decimal('0.00'), Decimal('-396.00'), Decimal('126.72'), Decimal('0.00'), Decimal('126.72'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('31.68'), Decimal('0.00'), Decimal('31.68')), ('d0d1d2d32o / fceshi058', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30t / fceshi019', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('jmj1j2j3j1 / jmj1j2j3j2', Decimal('6320.00'), Decimal('6220.50'), Decimal('0.00'), Decimal('-3196.52'), Decimal('0.00'), Decimal('-3196.52'), Decimal('1470.41'), Decimal('0.00'), Decimal('1470.41'), Decimal('639.32'), Decimal('0.00'), Decimal('639.32'), Decimal('319.66'), Decimal('0.00'), Decimal('319.66'), Decimal('319.66'), Decimal('0.00'), Decimal('319.66'), Decimal('447.47'), Decimal('0.00'), Decimal('447.47')), ('jnj1j2j3j1 / jnj1j2j3j2', Decimal('158400.00'), Decimal('107494.98'), Decimal('0.00'), Decimal('-68769.00'), Decimal('0.00'), Decimal('-68769.00'), Decimal('18567.60'), Decimal('0.00'), Decimal('18567.60'), Decimal('17192.24'), Decimal('0.00'), Decimal('17192.24'), Decimal('13753.81'), Decimal('0.00'), Decimal('13753.81'), Decimal('10315.35'), Decimal('0.00'), Decimal('10315.35'), Decimal('8940.00'), Decimal('0.00'), Decimal('8940.00')), ('a0b1b2b3a4 / y0', Decimal('4800.00'), Decimal('4424.00'), Decimal('0.00'), Decimal('-4424.00'), Decimal('0.00'), Decimal('-4424.00'), Decimal('1327.20'), Decimal('0.00'), Decimal('1327.20'), Decimal('442.40'), Decimal('0.00'), Decimal('442.40'), Decimal('884.80'), Decimal('0.00'), Decimal('884.80'), Decimal('884.80'), Decimal('0.00'), Decimal('884.80'), Decimal('884.80'), Decimal('0.00'), Decimal('884.80'))]</t>
+    <t>[('a0b1b2b3a3 / a3', Decimal('302.00'), Decimal('302.00'), Decimal('0.00'), Decimal('91.30'), Decimal('0.00'), Decimal('91.30'), Decimal('-27.39'), Decimal('0.00'), Decimal('-27.39'), Decimal('-9.13'), Decimal('0.00'), Decimal('-9.13'), Decimal('-18.26'), Decimal('0.00'), Decimal('-18.26'), Decimal('-18.26'), Decimal('0.00'), Decimal('-18.26'), Decimal('-18.26'), Decimal('0.00'), Decimal('-18.26')), ('shs1s2s348 / shan048', Decimal('1298.00'), Decimal('1298.00'), Decimal('0.00'), Decimal('-1298.00'), Decimal('0.00'), Decimal('-1298.00'), Decimal('389.40'), Decimal('0.00'), Decimal('389.40'), Decimal('259.60'), Decimal('0.00'), Decimal('259.60'), Decimal('259.60'), Decimal('0.00'), Decimal('259.60'), Decimal('259.60'), Decimal('0.00'), Decimal('259.60'), Decimal('129.80'), Decimal('0.00'), Decimal('129.80')), ('shs1s2s323 / shan023', Decimal('902.00'), Decimal('696.13'), Decimal('0.00'), Decimal('624.38'), Decimal('0.00'), Decimal('624.38'), Decimal('-112.34'), Decimal('0.00'), Decimal('-112.34'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-124.86'), Decimal('0.00'), Decimal('-124.86'), Decimal('-137.46'), Decimal('0.00'), Decimal('-137.46')), ('t0t1t2t3t4 / t4', Decimal('400.00'), Decimal('360.00'), Decimal('0.00'), Decimal('-360.00'), Decimal('0.00'), Decimal('-360.00'), Decimal('54.00'), Decimal('0.00'), Decimal('54.00'), Decimal('72.00'), Decimal('0.00'), Decimal('72.00'), Decimal('72.00'), Decimal('0.00'), Decimal('72.00'), Decimal('72.00'), Decimal('0.00'), Decimal('72.00'), Decimal('90.00'), Decimal('0.00'), Decimal('90.00')), ('shs1s2s315 / shan015', Decimal('2622.00'), Decimal('1549.80'), Decimal('0.00'), Decimal('-1402.06'), Decimal('0.00'), Decimal('-1402.06'), Decimal('420.61'), Decimal('0.00'), Decimal('420.61'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('280.42'), Decimal('0.00'), Decimal('280.42'), Decimal('140.19'), Decimal('0.00'), Decimal('140.19')), ('shs1s2s334 / shan034', Decimal('396.00'), Decimal('396.00'), Decimal('0.00'), Decimal('-396.00'), Decimal('0.00'), Decimal('-396.00'), Decimal('126.72'), Decimal('0.00'), Decimal('126.72'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('79.20'), Decimal('0.00'), Decimal('79.20'), Decimal('31.68'), Decimal('0.00'), Decimal('31.68')), ('d0d1d2d32m / fceshi056', Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('0.00'), Decimal('-20.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00'), Decimal('4.00'), Decimal('0.00'), Decimal('4.00')), ('d0d1d2d32o / fceshi058', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30q / fceshi016', Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('-30.00'), Decimal('0.00'), Decimal('-30.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00'), Decimal('6.00'), Decimal('0.00'), Decimal('6.00')), ('d0d1d2d32r / fceshi061', Decimal('100.00'), Decimal('70.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30u / fceshi020', Decimal('230.00'), Decimal('167.68'), Decimal('0.00'), Decimal('-92.32'), Decimal('0.00'), Decimal('-92.32'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.47'), Decimal('0.00'), Decimal('18.47'), Decimal('18.44'), Decimal('0.00'), Decimal('18.44')), ('d0d1d2d32f / fceshi049', Decimal('70.00'), Decimal('70.00'), Decimal('0.00'), Decimal('-70.00'), Decimal('0.00'), Decimal('-70.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00'), Decimal('14.00'), Decimal('0.00'), Decimal('14.00')), ('d0d1d2d30l / fceshi011', Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('0.00'), Decimal('-40.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('8.00')), ('d0d1d2d31p / fceshi041', Decimal('120.00'), Decimal('120.00'), Decimal('0.00'), Decimal('211.68'), Decimal('0.00'), Decimal('211.68'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.33'), Decimal('0.00'), Decimal('-42.33'), Decimal('-42.36'), Decimal('0.00'), Decimal('-42.36')), ('d0d1d2d32v / fceshi065', Decimal('100.00'), Decimal('100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('0.00'), Decimal('-100.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00'), Decimal('20.00'), Decimal('0.00'), Decimal('20.00')), ('d0d1d2d30g / fceshi06', Decimal('60.00'), Decimal('60.00'), Decimal('0.00'), Decimal('-60.00'), Decimal('0.00'), Decimal('-60.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00'), Decimal('12.00'), Decimal('0.00'), Decimal('12.00')), ('d0d1d2d32n / fceshi057', Decimal('260.00'), Decimal('87.02'), Decimal('0.00'), Decimal('-87.02'), Decimal('0.00'), Decimal('-87.02'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.40'), Decimal('0.00'), Decimal('17.40'), Decimal('17.42'), Decimal('0.00'), Decimal('17.42')), ('d0d1d2d30t / fceshi019', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d32i / fceshi052', Decimal('280.00'), Decimal('277.50'), Decimal('0.00'), Decimal('600.85'), Decimal('0.00'), Decimal('600.85'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17'), Decimal('-120.17'), Decimal('0.00'), Decimal('-120.17')), ('d0d1d2d30y / fceshi024', Decimal('200.00'), Decimal('5.54'), Decimal('0.00'), Decimal('5.54'), Decimal('0.00'), Decimal('5.54'), Decimal('-1.10'), Decimal('0.00'), Decimal('-1.10'), Decimal('-1.10'), Decimal('0.00'), Decimal('-1.10'), Decimal('-1.10'), Decimal('0.00'), Decimal('-1.10'), Decimal('-1.10'), Decimal('0.00'), Decimal('-1.10'), Decimal('-1.14'), Decimal('0.00'), Decimal('-1.14')), ('d0d1d2d32h / fceshi051', Decimal('150.00'), Decimal('150.00'), Decimal('0.00'), Decimal('694.90'), Decimal('0.00'), Decimal('694.90'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98'), Decimal('-138.98'), Decimal('0.00'), Decimal('-138.98')), ('d0d1d2d30o / fceshi014', Decimal('60.00'), Decimal('60.00'), Decimal('0.00'), Decimal('126.24'), Decimal('0.00'), Decimal('126.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.24'), Decimal('0.00'), Decimal('-25.24'), Decimal('-25.28'), Decimal('0.00'), Decimal('-25.28')), ('d0d1d2d31b / fceshi027', Decimal('570.00'), Decimal('570.00'), Decimal('0.00'), Decimal('-570.00'), Decimal('0.00'), Decimal('-570.00'), Decimal('114.00'), Decimal('0.00'), Decimal('114.00'), Decimal('114.00'), Decimal('0.00'), Decimal('114.00'), Decimal('114.00'), Decimal('0.00'), Decimal('114.00'), Decimal('114.00'), Decimal('0.00'), Decimal('114.00'), Decimal('114.00'), Decimal('0.00'), Decimal('114.00')), ('d0d1d2d31e / fceshi030', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('jmj1j2j3j1 / jmj1j2j3j2', Decimal('6320.00'), Decimal('6220.50'), Decimal('0.00'), Decimal('-3196.52'), Decimal('0.00'), Decimal('-3196.52'), Decimal('1470.41'), Decimal('0.00'), Decimal('1470.41'), Decimal('639.32'), Decimal('0.00'), Decimal('639.32'), Decimal('319.66'), Decimal('0.00'), Decimal('319.66'), Decimal('319.66'), Decimal('0.00'), Decimal('319.66'), Decimal('447.47'), Decimal('0.00'), Decimal('447.47')), ('jnj1j2j3j1 / jnj1j2j3j2', Decimal('158400.00'), Decimal('107494.98'), Decimal('0.00'), Decimal('-68769.00'), Decimal('0.00'), Decimal('-68769.00'), Decimal('18567.60'), Decimal('0.00'), Decimal('18567.60'), Decimal('17192.24'), Decimal('0.00'), Decimal('17192.24'), Decimal('13753.81'), Decimal('0.00'), Decimal('13753.81'), Decimal('10315.35'), Decimal('0.00'), Decimal('10315.35'), Decimal('8940.00'), Decimal('0.00'), Decimal('8940.00')), ('d0d1d2d31a / fceshi026', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('19.00'), Decimal('0.00'), Decimal('19.00'), Decimal('-3.80'), Decimal('0.00'), Decimal('-3.80'), Decimal('-3.80'), Decimal('0.00'), Decimal('-3.80'), Decimal('-3.80'), Decimal('0.00'), Decimal('-3.80'), Decimal('-3.80'), Decimal('0.00'), Decimal('-3.80'), Decimal('-3.80'), Decimal('0.00'), Decimal('-3.80')), ('d0d1d2d30z / fceshi025', Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('68.40'), Decimal('0.00'), Decimal('68.40'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68'), Decimal('-13.68'), Decimal('0.00'), Decimal('-13.68')), ('d0d1d2d30j / fceshi09', Decimal('40.00'), Decimal('40.00'), Decimal('0.00'), Decimal('1168.50'), Decimal('0.00'), Decimal('1168.50'), Decimal('-233.70'), Decimal('0.00'), Decimal('-233.70'), Decimal('-233.70'), Decimal('0.00'), Decimal('-233.70'), Decimal('-233.70'), Decimal('0.00'), Decimal('-233.70'), Decimal('-233.70'), Decimal('0.00'), Decimal('-233.70'), Decimal('-233.70'), Decimal('0.00'), Decimal('-233.70')), ('d0d1d2d32k / fceshi054', Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('0.00'), Decimal('-10.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('2.00')), ('d0d1d2d30d / fceshi03', Decimal('100.00'), Decimal('90.00'), Decimal('0.00'), Decimal('-90.00'), Decimal('0.00'), Decimal('-90.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00'), Decimal('18.00'), Decimal('0.00'), Decimal('18.00')), ('d0d1d2d31d / fceshi029', Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('-50.00'), Decimal('0.00'), Decimal('-50.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('10.00')), ('d0d1d2d32d / fceshi047', Decimal('260.00'), Decimal('250.00'), Decimal('0.00'), Decimal('-250.00'), Decimal('0.00'), Decimal('-250.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00'), Decimal('50.00'), Decimal('0.00'), Decimal('50.00')), ('a0b1b2b3a4 / y0', Decimal('4800.00'), Decimal('4424.00'), Decimal('0.00'), Decimal('-4424.00'), Decimal('0.00'), Decimal('-4424.00'), Decimal('1327.20'), Decimal('0.00'), Decimal('1327.20'), Decimal('442.40'), Decimal('0.00'), Decimal('442.40'), Decimal('884.80'), Decimal('0.00'), Decimal('884.80'), Decimal('884.80'), Decimal('0.00'), Decimal('884.80'), Decimal('884.80'), Decimal('0.00'), Decimal('884.80'))]</t>
   </si>
   <si>
     <t>测试通过 
-2022-06-29 13:47:27</t>
+2022-06-29 13:48:40</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询近7天已取消注单数据</t>
+  </si>
+  <si>
+    <t>查询已取消注单</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 总台-已取消注单</t>
+  </si>
+  <si>
+    <t>{"account":"","begin":"2022-06-23","end":"2022-06-29","page":1,"limit":200}</t>
+  </si>
+  <si>
+    <t>[['a0b1b2b3a4/y0', 'XHD4b5fwK42g', '2022-06-28 01:43:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHCYy37uKfFg', '2022-06-28 01:33:21', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHBZuFhz6zYj', '2022-06-27 22:52:11', ['阿根廷杯', '艾度思维 Vs 纽维尔旧生', '早盘', '让球', 'hcp=0.25', '纽维尔旧生 ', 1.83, '2022-06-29 17:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBYnHbgmnH3', '2022-06-27 22:48:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '小92.5', 0.77, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '乌拉圭 大/小', 'total=71.5', '大71.5', 0.79, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=153.5', '大153.5', 0.88, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '斯托克莫 大/小', 'total=73.5', '大73.5', 0.85, '2022-06-28 20:15:00', '香港盘'], ['新西兰全国篮球联赛', '马纳瓦喷射机 Vs 霍克湾雄鹰', '早盘', '霍克湾雄鹰 大/小', 'total=88.5', '大88.5', 0.79, '2022-06-28 03:30:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '大/小', 'total=155.5', '大155.5', 0.78, '2022-06-28 20:00:00', '香港盘']], 600.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBX3Evx9udN', '2022-06-27 22:45:02', [['玻利维亚Libobasquet', '波托西皮钦查 Vs Universitario de Sucre', '早盘', 'Universitario de Sucre 大/小', 'total=67.5', '大67.5', 0.81, '2022-06-28 19:00:00', '香港盘'], ['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '大/小', 'total=176.5', '大176.5', 0.84, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=152.5', '大152.5', 0.8, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '独赢', '', '萨亚戈体育', 1.6, '2022-06-28 20:15:00', '欧洲盘']], 500.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBWcd8LzVE7', '2022-06-27 22:42:33', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '独赢', '', '原生力啤酒', 1.22, '2022-06-29 06:00:00', '欧洲盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '独赢', '', '巴西', 1.22, '2022-06-30 19:10:00', '欧洲盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '独赢', '', '泰国通用设备', 1.1, '2022-06-28 23:00:00', '欧洲盘']], 400.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBUSinPWU86', '2022-06-27 22:38:41', [['波多黎各BSN', 'Grises de Humacao Vs Gigantes de Carolina', '早盘', 'Grises de Humacao 大/小', 'total=88.5', '小88.5', 0.86, '2022-06-28 18:00:00', '香港盘'], ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '圣日尔曼 大/小', 'total=85.5', '大85.5', 0.88, '2022-06-28 20:00:00', '香港盘</t>
+  </si>
+  <si>
+    <t>[['a0b1b2b3a4/y0', 'XHD4b5fwK42g', '2022-06-28 01:43:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHCYy37uKfFg', '2022-06-28 01:33:21', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHBZuFhz6zYj', '2022-06-27 22:52:11', ['阿根廷杯', '艾度思维 Vs 纽维尔旧生', '早盘', '让球', 'hcp=0.25', '纽维尔旧生 ', 1.83, '2022-06-29 17:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBYnHbgmnH3', '2022-06-27 22:48:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '小92.5', 0.77, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '乌拉圭 大/小', 'total=71.5', '大71.5', 0.79, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=153.5', '大153.5', 0.88, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '斯托克莫 大/小', 'total=73.5', '大73.5', 0.85, '2022-06-28 20:15:00', '香港盘'], ['新西兰全国篮球联赛', '马纳瓦喷射机 Vs 霍克湾雄鹰', '早盘', '霍克湾雄鹰 大/小', 'total=88.5', '大88.5', 0.79, '2022-06-28 03:30:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '大/小', 'total=155.5', '大155.5', 0.78, '2022-06-28 20:00:00', '香港盘']], 600.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBX3Evx9udN', '2022-06-27 22:45:02', [['玻利维亚Libobasquet', '波托西皮钦查 Vs Universitario de Sucre', '早盘', 'Universitario de Sucre 大/小', 'total=67.5', '大67.5', 0.81, '2022-06-28 19:00:00', '香港盘'], ['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '大/小', 'total=176.5', '大176.5', 0.84, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=152.5', '大152.5', 0.8, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '独赢', '', '萨亚戈体育', 1.6, '2022-06-28 20:15:00', '欧洲盘']], 500.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBWcd8LzVE7', '2022-06-27 22:42:33', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '独赢', '', '原生力啤酒', 1.22, '2022-06-29 06:00:00', '欧洲盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '独赢', '', '巴西', 1.22, '2022-06-30 19:10:00', '欧洲盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '独赢', '', '泰国通用设备', 1.1, '2022-06-28 23:00:00', '欧洲盘']], 400.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBUSinPWU86', '2022-06-27 22:38:41', [['波多黎各BSN', 'Grises de Humacao Vs Gigantes de Carolina', '早盘', 'Grises de Humacao 大/小', 'total=88.5', '小88.5', 0.86, '2022-06-28 18:00:00', '香港盘'], ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '圣日尔曼 大/小', 'total=85.5', '大85.5', 0.88, '2022-06-28 20:00:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '独赢', '', 'Club Leones de Potosi', 1.4, '2022-06-28 20:00:00', '欧洲盘']], 300.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['shs1s2s306/shan006', 'XHwJbt8XzLCH', '2022-06-27 08:27:51', ['国际俱乐部亚足联杯', '小象俱乐部 Vs 后港联足球会', '早盘', '后港联足球会 胜利退款', '', '和局', 1.55, '2022-06-27 10:00:00', '欧洲盘'], 13.0, '192.168.10.120 / 局域网'], ['shs1s2s306/shan006', 'XHwJb4DMqqRw', '2022-06-27 08:27:49', ['国际俱乐部亚足联杯', '小象俱乐部 Vs 后港联足球会', '早盘', '后港联足球会 胜利退款', '', '小象俱乐部', 2.19, '2022-06-27 10:00:00', '欧洲盘'], 16.0, '192.168.10.120 / 局域网'], ['shs1s2s328/shan028', 'XHwFZHAVGNX4', '2022-06-27 08:21:29', ['挪威丙级联赛第4组', '费德列斯达 2 Vs EIK通斯堡', '早盘', '费德列斯达 2 胜利退款', '', 'EIK通斯堡', 1.24, '2022-06-27 13:00:00', '欧洲盘'], 17.0, '192.168.10.120 / 局域网'], ['shs1s2s328/shan028', 'XHwFZjr87vaK', '2022-06-27 08:21:28', ['挪威丙级联赛第4组', '费德列斯达 2 Vs EIK通斯堡', '早盘', '费德列斯达 2 胜利退款', '', '和局', 3.35, '2022-06-27 13:00:00', '欧洲盘'], 15.0, '192.168.10.120 / 局域网'], ['t0t1t2t3t4/t4', 'XHwuNcKgsAyn', '2022-06-27 07:48:41', ['阿根廷足球甲级联赛', '科尔多瓦中央队 Vs 小阿根廷人', '早盘', '大/小', 'total=2.25', '小2/2.5', 1.77, '2022-07-01 18:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwumd29rJrT', '2022-06-27 07:47:23', ['阿根廷足球甲级联赛', '科尔多瓦中央队 Vs 小阿根廷人', '早盘', '让球', 'hcp=0', '科尔多瓦中央队 ', 1.95, '2022-07-01 18:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwqzu7srrML', '2022-06-27 07:36:19', ['美国职业棒球大联盟', '纽约扬基队 Vs 奥克兰运动家队', '早盘', '让球 (包括加时赛)', 'hcp=-2.5', '纽约扬基队 ', 2.08, '2022-06-27 19:05:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwpNc76ZABt', '2022-06-27 07:34:03', ['美国职业棒球大联盟', '多伦多蓝鸟队 Vs 波士顿红袜队', '早盘', '让球 (包括加时赛)', 'hcp=-1.5', '多伦多蓝鸟队 ', 2.08, '2022-06-27 19:07:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwp3MTxLERQ', '2022-06-27 07:31:50', ['国际Challenger Series', '霍达伊, 阿米尔·侯赛因 Vs 克莱恩, 丹尼斯', '滚球盘', '独赢', '', '霍达伊, 阿米尔·侯赛因', 1.09, '2022-06-27 07:10:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwnyH3MDZvp', '2022-06-27 07:30:25', ['国际Mediterranean Games', 'Serbia Mediterranean Team Vs Croatia Mediterranean Team', '滚球盘', '独赢', '', 'Serbia Mediterranean Team', 6.95, '2022-06-27 07:00:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwmZyribVTS', '2022-06-27 07:28:47', ['ITF男子ITF France F9, Men Singles', '鲁西卡, 亚历山大 Vs Debru, Mathis', '滚球盘', '让盘', 'hcp=-1.5', '鲁西卡, 亚历山大 ', 5.25, '2022-06-27 06:40:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwmtswViGby', '2022-06-27 07:27:13', ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '让球', 'hcp=-7.5', '圣日尔曼 ', 1.74, '2022-06-30 20:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwm736XtAE2', '2022-06-27 07:26:09', ['俄罗斯Liga Pro', '卡拉切夫, 维克多 Vs 泽连斯基, 罗曼', '早盘', '总分', 'total=73.5', '小73.5', 1.87, '2022-06-27 17:30:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkNeTw6nup', '2022-06-27 07:25:16', ['美国职业棒球大联盟', '圣路易红雀队 Vs 迈阿密马林鱼', '早盘', '大/小 (包括加时赛)', 'total=7.5', '小7.5', 1.94, '2022-06-27 19:45:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkxN8M7UK5', '2022-06-27 07:24:31', ['加拿大冰球联盟纪念杯', '沙威尼根洪水 Vs 汉密尔顿斗牛犬', '早盘', '大/小', 'total=6', '大6', 1.54, '2022-06-27 18:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkaSfuFSiv', '2022-06-27 07:23:25', ['阿根廷足球甲级联赛', '图库曼体育会 Vs 葛度尔古斯', '早盘', '上半场 - 大/小', 'total=0.75', '大0.5/1', 1.67, '2022-06-27 19:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwiVsjgQcaQ', '2022-06-27 07:19:47', ['阿根廷全国足球甲级联赛', '贝尔格拉诺</t>
+  </si>
+  <si>
+    <t>测试通过 
+2022-06-29 14:05:27</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1219,23 +1246,17 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
       <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <family val="2"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -1249,7 +1270,54 @@
     <font>
       <name val="宋体"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -1272,68 +1340,11 @@
     </font>
     <font>
       <name val="宋体"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1347,7 +1358,23 @@
       <name val="宋体"/>
       <family val="2"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -1367,19 +1394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,19 +1418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,79 +1472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,13 +1490,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,13 +1556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,6 +1579,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1600,22 +1636,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,20 +1665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,33 +1684,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fontId="0" fillId="0" xfId="0" numFmtId="0"/>
-    <xf borderId="0" fontId="1" fillId="2" xfId="0" numFmtId="0"/>
-    <xf borderId="0" fontId="2" fillId="0" xfId="0" numFmtId="0"/>
-    <xf borderId="0" fontId="3" fillId="0" xfId="0" numFmtId="0"/>
-    <xf borderId="0" fontId="4" fillId="2" xfId="0" numFmtId="0"/>
-    <xf borderId="0" fontId="5" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fontId="2" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fontId="6" fillId="0" xfId="0" numFmtId="0"/>
-    <xf borderId="0" fontId="6" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fontId="3" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fontId="7" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fontId="8" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fontId="7" fillId="0" xfId="0" numFmtId="0"/>
-    <xf borderId="0" fontId="5" fillId="0" xfId="0" numFmtId="0"/>
-    <xf borderId="0" quotePrefix="1" fontId="0" fillId="0" xfId="0" numFmtId="0"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1953,10 +1980,10 @@
   <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:XFD41"/>
+  <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
@@ -34924,6 +34951,16 @@
         <v>34</v>
       </c>
     </row>
+    <row r="43" spans="1:16384">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16384">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -34960,49 +34997,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -35012,40 +35049,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -35073,19 +35110,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -35099,10 +35136,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -35116,10 +35153,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -35133,10 +35170,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -35150,10 +35187,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -35167,10 +35204,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
         <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -35184,10 +35221,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -35201,10 +35238,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -35218,10 +35255,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
         <v>174</v>
-      </c>
-      <c r="E9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -35235,10 +35272,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -35274,49 +35311,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -35326,40 +35363,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -35389,25 +35426,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -35421,13 +35458,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -35444,13 +35481,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
         <v>186</v>
       </c>
-      <c r="E3" t="s">
-        <v>185</v>
-      </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -35467,13 +35504,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -35490,13 +35527,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -35513,13 +35550,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
         <v>190</v>
       </c>
-      <c r="E6" t="s">
-        <v>189</v>
-      </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -35536,13 +35573,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -35559,13 +35596,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -35582,13 +35619,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" t="s">
         <v>194</v>
       </c>
-      <c r="E9" t="s">
-        <v>193</v>
-      </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -35605,13 +35642,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -35628,13 +35665,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -35651,13 +35688,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" t="s">
         <v>198</v>
       </c>
-      <c r="E12" t="s">
-        <v>197</v>
-      </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -35674,13 +35711,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -35697,13 +35734,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -35720,13 +35757,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
         <v>202</v>
       </c>
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -35743,13 +35780,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -35766,13 +35803,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -35789,13 +35826,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
         <v>206</v>
       </c>
-      <c r="E18" t="s">
-        <v>205</v>
-      </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -35812,13 +35849,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -35835,13 +35872,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -35858,13 +35895,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
         <v>210</v>
       </c>
-      <c r="E21" t="s">
-        <v>209</v>
-      </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -35881,13 +35918,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -35904,13 +35941,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -35927,13 +35964,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" t="s">
         <v>214</v>
       </c>
-      <c r="E24" t="s">
-        <v>213</v>
-      </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -35950,13 +35987,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -35995,49 +36032,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -36047,34 +36084,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="n"/>
       <c r="K2" s="3" t="n"/>
       <c r="L2" s="9" t="n"/>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -36104,25 +36141,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -36136,13 +36173,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -36159,13 +36196,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -36182,13 +36219,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -36205,13 +36242,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -36228,13 +36265,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -36251,13 +36288,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -36274,13 +36311,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -36297,13 +36334,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -36320,13 +36357,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -36343,13 +36380,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -36366,13 +36403,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -36389,13 +36426,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -36412,13 +36449,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -36435,13 +36472,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -36458,13 +36495,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -36481,13 +36518,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -36504,13 +36541,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -36527,13 +36564,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -36550,13 +36587,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -36573,13 +36610,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -36596,13 +36633,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -36619,13 +36656,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -36642,13 +36679,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -36665,13 +36702,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -36688,13 +36725,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -36711,13 +36748,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -36734,13 +36771,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -36757,13 +36794,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -36780,13 +36817,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -36803,13 +36840,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -36826,13 +36863,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -36849,13 +36886,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -36872,13 +36909,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -36895,13 +36932,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -36918,13 +36955,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -36941,13 +36978,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -36964,13 +37001,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -36987,13 +37024,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -37010,13 +37047,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -37033,13 +37070,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -37056,13 +37093,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -37079,13 +37116,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -37102,13 +37139,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -37125,13 +37162,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -37148,13 +37185,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -37171,13 +37208,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -37194,13 +37231,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -37217,13 +37254,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -37262,49 +37299,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -37314,40 +37351,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -37377,25 +37414,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -37409,13 +37446,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -37432,13 +37469,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -37455,13 +37492,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -37478,13 +37515,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -37501,13 +37538,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -37524,13 +37561,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -37547,13 +37584,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -37570,13 +37607,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -37593,13 +37630,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -37616,13 +37653,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -37639,13 +37676,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -37662,13 +37699,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -37685,13 +37722,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -37708,13 +37745,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -37731,13 +37768,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -37754,13 +37791,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -37777,13 +37814,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -37800,13 +37837,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -37823,13 +37860,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -37846,13 +37883,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -37869,13 +37906,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -37892,13 +37929,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -37915,13 +37952,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -37938,13 +37975,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -37961,13 +37998,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -37984,13 +38021,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -38007,13 +38044,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -38030,13 +38067,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -38053,13 +38090,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -38076,13 +38113,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -38099,13 +38136,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -38122,13 +38159,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -38145,13 +38182,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -38168,13 +38205,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -38191,13 +38228,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -38214,13 +38251,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -38237,13 +38274,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -38260,13 +38297,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -38283,13 +38320,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -38306,13 +38343,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -38329,13 +38366,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -38352,13 +38389,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -38375,13 +38412,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -38398,13 +38435,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -38421,13 +38458,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -38444,13 +38481,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -38467,13 +38504,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -38490,13 +38527,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -38535,49 +38572,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -38587,40 +38624,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -38650,25 +38687,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -38682,13 +38719,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -38705,13 +38742,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
         <v>328</v>
-      </c>
-      <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" t="s">
-        <v>327</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -38728,13 +38765,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -38751,13 +38788,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -38774,13 +38811,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -38797,13 +38834,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -38842,49 +38879,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -38894,40 +38931,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -38935,34 +38972,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="n"/>
       <c r="L3" s="9" t="n"/>
       <c r="M3" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -38970,34 +39007,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="n"/>
       <c r="L4" s="9" t="n"/>
       <c r="M4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -39005,34 +39042,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
       <c r="L5" s="9" t="n"/>
       <c r="M5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -39040,34 +39077,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="3" t="n"/>
       <c r="K6" s="3" t="n"/>
       <c r="L6" s="9" t="n"/>
       <c r="M6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -39075,34 +39112,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="n"/>
       <c r="L7" s="9" t="n"/>
       <c r="M7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -39138,49 +39175,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -39190,40 +39227,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -39238,8 +39275,8 @@
   </s:sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
@@ -39256,34 +39293,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -39297,19 +39334,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -39323,19 +39360,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
         <v>342</v>
       </c>
-      <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" t="s">
-        <v>341</v>
-      </c>
       <c r="I3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -39349,19 +39386,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -39375,22 +39412,22 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -39404,22 +39441,22 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" t="s">
         <v>346</v>
       </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s">
-        <v>341</v>
-      </c>
-      <c r="I6" t="s">
-        <v>345</v>
-      </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -39433,22 +39470,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -39462,19 +39499,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -39491,19 +39528,19 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" t="s">
         <v>350</v>
       </c>
-      <c r="E9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" t="s">
-        <v>349</v>
-      </c>
       <c r="I9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -39520,19 +39557,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -39551,7 +39588,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
@@ -39571,49 +39608,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -39623,40 +39660,222 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
+  <cols>
+    <col width="39.375" customWidth="1" min="3" max="3"/>
+    <col width="13.25" customWidth="1" min="4" max="4"/>
+    <col width="23.875" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
+  <cols>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="21.75" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -39684,27 +39903,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -39740,49 +39959,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -39792,34 +40011,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="n"/>
       <c r="K2" s="3" t="n"/>
       <c r="L2" s="9" t="n"/>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -39855,49 +40074,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -39907,40 +40126,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -39948,40 +40167,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -39989,40 +40208,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40030,34 +40249,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
       <c r="L5" s="9" t="n"/>
       <c r="M5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40065,34 +40284,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="3" t="n"/>
       <c r="K6" s="3" t="n"/>
       <c r="L6" s="9" t="n"/>
       <c r="M6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40100,34 +40319,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="n"/>
       <c r="L7" s="9" t="n"/>
       <c r="M7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40135,34 +40354,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="n"/>
       <c r="L8" s="9" t="n"/>
       <c r="M8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40170,34 +40389,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="3" t="n"/>
       <c r="K9" s="3" t="n"/>
       <c r="L9" s="9" t="n"/>
       <c r="M9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -40225,33 +40444,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
         <v>-7</v>
@@ -40262,13 +40481,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="n">
         <v>-15</v>
@@ -40279,13 +40498,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
         <v>-30</v>
@@ -40327,49 +40546,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -40379,40 +40598,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -40448,49 +40667,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
@@ -40500,40 +40719,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40541,40 +40760,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40582,40 +40801,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40623,40 +40842,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40664,34 +40883,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="3" t="n"/>
       <c r="K6" s="3" t="n"/>
       <c r="L6" s="9" t="n"/>
       <c r="M6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40699,34 +40918,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="n"/>
       <c r="L7" s="9" t="n"/>
       <c r="M7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40734,34 +40953,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="n"/>
       <c r="L8" s="9" t="n"/>
       <c r="M8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
@@ -40769,34 +40988,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="3" t="n"/>
       <c r="K9" s="3" t="n"/>
       <c r="L9" s="9" t="n"/>
       <c r="M9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -40824,33 +41043,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
         <v>-7</v>
@@ -40861,13 +41080,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="n">
         <v>-15</v>
@@ -40878,13 +41097,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
         <v>-30</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -1143,14 +1143,11 @@
     <t>{"account":"","begin":"2022-06-23","end":"2022-06-29","page":1,"limit":200}</t>
   </si>
   <si>
-    <t>[['a0b1b2b3a4/y0', 'XHD4b5fwK42g', '2022-06-28 01:43:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHCYy37uKfFg', '2022-06-28 01:33:21', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHBZuFhz6zYj', '2022-06-27 22:52:11', ['阿根廷杯', '艾度思维 Vs 纽维尔旧生', '早盘', '让球', 'hcp=0.25', '纽维尔旧生 ', 1.83, '2022-06-29 17:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBYnHbgmnH3', '2022-06-27 22:48:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '小92.5', 0.77, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '乌拉圭 大/小', 'total=71.5', '大71.5', 0.79, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=153.5', '大153.5', 0.88, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '斯托克莫 大/小', 'total=73.5', '大73.5', 0.85, '2022-06-28 20:15:00', '香港盘'], ['新西兰全国篮球联赛', '马纳瓦喷射机 Vs 霍克湾雄鹰', '早盘', '霍克湾雄鹰 大/小', 'total=88.5', '大88.5', 0.79, '2022-06-28 03:30:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '大/小', 'total=155.5', '大155.5', 0.78, '2022-06-28 20:00:00', '香港盘']], 600.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBX3Evx9udN', '2022-06-27 22:45:02', [['玻利维亚Libobasquet', '波托西皮钦查 Vs Universitario de Sucre', '早盘', 'Universitario de Sucre 大/小', 'total=67.5', '大67.5', 0.81, '2022-06-28 19:00:00', '香港盘'], ['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '大/小', 'total=176.5', '大176.5', 0.84, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=152.5', '大152.5', 0.8, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '独赢', '', '萨亚戈体育', 1.6, '2022-06-28 20:15:00', '欧洲盘']], 500.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBWcd8LzVE7', '2022-06-27 22:42:33', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '独赢', '', '原生力啤酒', 1.22, '2022-06-29 06:00:00', '欧洲盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '独赢', '', '巴西', 1.22, '2022-06-30 19:10:00', '欧洲盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '独赢', '', '泰国通用设备', 1.1, '2022-06-28 23:00:00', '欧洲盘']], 400.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBUSinPWU86', '2022-06-27 22:38:41', [['波多黎各BSN', 'Grises de Humacao Vs Gigantes de Carolina', '早盘', 'Grises de Humacao 大/小', 'total=88.5', '小88.5', 0.86, '2022-06-28 18:00:00', '香港盘'], ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '圣日尔曼 大/小', 'total=85.5', '大85.5', 0.88, '2022-06-28 20:00:00', '香港盘</t>
-  </si>
-  <si>
-    <t>[['a0b1b2b3a4/y0', 'XHD4b5fwK42g', '2022-06-28 01:43:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHCYy37uKfFg', '2022-06-28 01:33:21', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHBZuFhz6zYj', '2022-06-27 22:52:11', ['阿根廷杯', '艾度思维 Vs 纽维尔旧生', '早盘', '让球', 'hcp=0.25', '纽维尔旧生 ', 1.83, '2022-06-29 17:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBYnHbgmnH3', '2022-06-27 22:48:57', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '小92.5', 0.77, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '乌拉圭 大/小', 'total=71.5', '大71.5', 0.79, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=153.5', '大153.5', 0.88, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '斯托克莫 大/小', 'total=73.5', '大73.5', 0.85, '2022-06-28 20:15:00', '香港盘'], ['新西兰全国篮球联赛', '马纳瓦喷射机 Vs 霍克湾雄鹰', '早盘', '霍克湾雄鹰 大/小', 'total=88.5', '大88.5', 0.79, '2022-06-28 03:30:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '大/小', 'total=155.5', '大155.5', 0.78, '2022-06-28 20:00:00', '香港盘']], 600.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBX3Evx9udN', '2022-06-27 22:45:02', [['玻利维亚Libobasquet', '波托西皮钦查 Vs Universitario de Sucre', '早盘', 'Universitario de Sucre 大/小', 'total=67.5', '大67.5', 0.81, '2022-06-28 19:00:00', '香港盘'], ['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '大/小', 'total=176.5', '大176.5', 0.84, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=152.5', '大152.5', 0.8, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '独赢', '', '萨亚戈体育', 1.6, '2022-06-28 20:15:00', '欧洲盘']], 500.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBWcd8LzVE7', '2022-06-27 22:42:33', [['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '独赢', '', '原生力啤酒', 1.22, '2022-06-29 06:00:00', '欧洲盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '独赢', '', '巴西', 1.22, '2022-06-30 19:10:00', '欧洲盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '独赢', '', '泰国通用设备', 1.1, '2022-06-28 23:00:00', '欧洲盘']], 400.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBUSinPWU86', '2022-06-27 22:38:41', [['波多黎各BSN', 'Grises de Humacao Vs Gigantes de Carolina', '早盘', 'Grises de Humacao 大/小', 'total=88.5', '小88.5', 0.86, '2022-06-28 18:00:00', '香港盘'], ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '圣日尔曼 大/小', 'total=85.5', '大85.5', 0.88, '2022-06-28 20:00:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '独赢', '', 'Club Leones de Potosi', 1.4, '2022-06-28 20:00:00', '欧洲盘']], 300.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['shs1s2s306/shan006', 'XHwJbt8XzLCH', '2022-06-27 08:27:51', ['国际俱乐部亚足联杯', '小象俱乐部 Vs 后港联足球会', '早盘', '后港联足球会 胜利退款', '', '和局', 1.55, '2022-06-27 10:00:00', '欧洲盘'], 13.0, '192.168.10.120 / 局域网'], ['shs1s2s306/shan006', 'XHwJb4DMqqRw', '2022-06-27 08:27:49', ['国际俱乐部亚足联杯', '小象俱乐部 Vs 后港联足球会', '早盘', '后港联足球会 胜利退款', '', '小象俱乐部', 2.19, '2022-06-27 10:00:00', '欧洲盘'], 16.0, '192.168.10.120 / 局域网'], ['shs1s2s328/shan028', 'XHwFZHAVGNX4', '2022-06-27 08:21:29', ['挪威丙级联赛第4组', '费德列斯达 2 Vs EIK通斯堡', '早盘', '费德列斯达 2 胜利退款', '', 'EIK通斯堡', 1.24, '2022-06-27 13:00:00', '欧洲盘'], 17.0, '192.168.10.120 / 局域网'], ['shs1s2s328/shan028', 'XHwFZjr87vaK', '2022-06-27 08:21:28', ['挪威丙级联赛第4组', '费德列斯达 2 Vs EIK通斯堡', '早盘', '费德列斯达 2 胜利退款', '', '和局', 3.35, '2022-06-27 13:00:00', '欧洲盘'], 15.0, '192.168.10.120 / 局域网'], ['t0t1t2t3t4/t4', 'XHwuNcKgsAyn', '2022-06-27 07:48:41', ['阿根廷足球甲级联赛', '科尔多瓦中央队 Vs 小阿根廷人', '早盘', '大/小', 'total=2.25', '小2/2.5', 1.77, '2022-07-01 18:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwumd29rJrT', '2022-06-27 07:47:23', ['阿根廷足球甲级联赛', '科尔多瓦中央队 Vs 小阿根廷人', '早盘', '让球', 'hcp=0', '科尔多瓦中央队 ', 1.95, '2022-07-01 18:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwqzu7srrML', '2022-06-27 07:36:19', ['美国职业棒球大联盟', '纽约扬基队 Vs 奥克兰运动家队', '早盘', '让球 (包括加时赛)', 'hcp=-2.5', '纽约扬基队 ', 2.08, '2022-06-27 19:05:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwpNc76ZABt', '2022-06-27 07:34:03', ['美国职业棒球大联盟', '多伦多蓝鸟队 Vs 波士顿红袜队', '早盘', '让球 (包括加时赛)', 'hcp=-1.5', '多伦多蓝鸟队 ', 2.08, '2022-06-27 19:07:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwp3MTxLERQ', '2022-06-27 07:31:50', ['国际Challenger Series', '霍达伊, 阿米尔·侯赛因 Vs 克莱恩, 丹尼斯', '滚球盘', '独赢', '', '霍达伊, 阿米尔·侯赛因', 1.09, '2022-06-27 07:10:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwnyH3MDZvp', '2022-06-27 07:30:25', ['国际Mediterranean Games', 'Serbia Mediterranean Team Vs Croatia Mediterranean Team', '滚球盘', '独赢', '', 'Serbia Mediterranean Team', 6.95, '2022-06-27 07:00:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwmZyribVTS', '2022-06-27 07:28:47', ['ITF男子ITF France F9, Men Singles', '鲁西卡, 亚历山大 Vs Debru, Mathis', '滚球盘', '让盘', 'hcp=-1.5', '鲁西卡, 亚历山大 ', 5.25, '2022-06-27 06:40:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwmtswViGby', '2022-06-27 07:27:13', ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '让球', 'hcp=-7.5', '圣日尔曼 ', 1.74, '2022-06-30 20:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwm736XtAE2', '2022-06-27 07:26:09', ['俄罗斯Liga Pro', '卡拉切夫, 维克多 Vs 泽连斯基, 罗曼', '早盘', '总分', 'total=73.5', '小73.5', 1.87, '2022-06-27 17:30:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkNeTw6nup', '2022-06-27 07:25:16', ['美国职业棒球大联盟', '圣路易红雀队 Vs 迈阿密马林鱼', '早盘', '大/小 (包括加时赛)', 'total=7.5', '小7.5', 1.94, '2022-06-27 19:45:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkxN8M7UK5', '2022-06-27 07:24:31', ['加拿大冰球联盟纪念杯', '沙威尼根洪水 Vs 汉密尔顿斗牛犬', '早盘', '大/小', 'total=6', '大6', 1.54, '2022-06-27 18:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkaSfuFSiv', '2022-06-27 07:23:25', ['阿根廷足球甲级联赛', '图库曼体育会 Vs 葛度尔古斯', '早盘', '上半场 - 大/小', 'total=0.75', '大0.5/1', 1.67, '2022-06-27 19:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwiVsjgQcaQ', '2022-06-27 07:19:47', ['阿根廷全国足球甲级联赛', '贝尔格拉诺</t>
+    <t>[['a0b1b2b3a4/y0', 'XHD4b5fwK42g', '2022-06-28 01:43:57', [[['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHCYy37uKfFg', '2022-06-28 01:33:21', [[['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '大92.5', 0.87, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], ['国际世界杯预选赛，美洲', '委内瑞拉 Vs 阿根廷', '早盘', '大/小', 'total=145.5', '大145.5', 0.78, '2022-06-30 19:10:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHBZuFhz6zYj', '2022-06-27 22:52:11', ['阿根廷杯', '艾度思维 Vs 纽维尔旧生', '早盘', '让球', 'hcp=0.25', '纽维尔旧生 ', 1.83, '2022-06-29 17:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBYnHbgmnH3', '2022-06-27 22:48:57', [[['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '原生力啤酒 大/小', 'total=92.5', '小92.5', 0.77, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '乌拉圭 大/小', 'total=71.5', '大71.5', 0.79, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=153.5', '大153.5', 0.88, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '斯托克莫 大/小', 'total=73.5', '大73.5', 0.85, '2022-06-28 20:15:00', '香港盘'], ['新西兰全国篮球联赛', '马纳瓦喷射机 Vs 霍克湾雄鹰', '早盘', '霍克湾雄鹰 大/小', 'total=88.5', '大88.5', 0.79, '2022-06-28 03:30:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '大/小', 'total=155.5', '大155.5', 0.78, '2022-06-28 20:00:00', '香港盘']], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '乌拉圭 大/小', 'total=71.5', '大71.5', 0.79, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=153.5', '大153.5', 0.88, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '斯托克莫 大/小', 'total=73.5', '大73.5', 0.85, '2022-06-28 20:15:00', '香港盘'], ['新西兰全国篮球联赛', '马纳瓦喷射机 Vs 霍克湾雄鹰', '早盘', '霍克湾雄鹰 大/小', 'total=88.5', '大88.5', 0.79, '2022-06-28 03:30:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '大/小', 'total=155.5', '大155.5', 0.78, '2022-06-28 20:00:00', '香港盘']], 600.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBX3Evx9udN', '2022-06-27 22:45:02', [[['玻利维亚Libobasquet', '波托西皮钦查 Vs Universitario de Sucre', '早盘', 'Universitario de Sucre 大/小', 'total=67.5', '大67.5', 0.81, '2022-06-28 19:00:00', '香港盘'], ['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '大/小', 'total=176.5', '大176.5', 0.84, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=152.5', '大152.5', 0.8, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '独赢', '', '萨亚戈体育', 1.6, '2022-06-28 20:15:00', '欧洲盘']], ['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '大/小', 'total=176.5', '大176.5', 0.84, '2022-06-29 06:00:00', '香港盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '大/小', 'total=151.5', '大151.5', 0.82, '2022-06-30 19:10:00', '香港盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '大/小', 'total=152.5', '大152.5', 0.8, '2022-06-28 23:00:00', '香港盘'], ['乌拉圭Metro联赛', '萨亚戈体育 Vs 斯托克莫', '早盘', '独赢', '', '萨亚戈体育', 1.6, '2022-06-28 20:15:00', '欧洲盘']], 500.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBWcd8LzVE7', '2022-06-27 22:42:33', [[['菲律宾篮球联盟，菲律宾杯', '原生力啤酒 Vs Rain or Shine Elasto Painters', '早盘', '独赢', '', '原生力啤酒', 1.22, '2022-06-29 06:00:00', '欧洲盘'], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '独赢', '', '巴西', 1.22, '2022-06-30 19:10:00', '欧洲盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '独赢', '', '泰国通用设备', 1.1, '2022-06-28 23:00:00', '欧洲盘']], ['国际世界杯预选赛，美洲', '乌拉圭 Vs 巴西', '早盘', '独赢', '', '巴西', 1.22, '2022-06-30 19:10:00', '欧洲盘'], ['泰国篮球联盟', 'Samut Prakan Shoot It Vs 泰国通用设备', '早盘', '独赢', '', '泰国通用设备', 1.1, '2022-06-28 23:00:00', '欧洲盘']], 400.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a4/y0', 'XHBUSinPWU86', '2022-06-27 22:38:41', [[['波多黎各BSN', 'Grises de Humacao Vs Gigantes de Carolina', '早盘', 'Grises de Humacao 大/小', 'total=88.5', '小88.5', 0.86, '2022-06-28 18:00:00', '香港盘'], ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '圣日尔曼 大/小', 'total=85.5', '大85.5', 0.88, '2022-06-28 20:00:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '独赢', '', 'Club Leones de Potosi', 1.4, '2022-06-28 20:00:00', '欧洲盘']], ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '圣日尔曼 大/小', 'total=85.5', '大85.5', 0.88, '2022-06-28 20:00:00', '香港盘'], ['玻利维亚Libobasquet', '市立圣西蒙大学 Vs Club Leones de Potosi', '早盘', '独赢', '', 'Club Leones de Potosi', 1.4, '2022-06-28 20:00:00', '欧洲盘']], 300.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['shs1s2s306/shan006', 'XHwJbt8XzLCH', '2022-06-27 08:27:51', ['国际俱乐部亚足联杯', '小象俱乐部 Vs 后港联足球会', '早盘', '后港联足球会 胜利退款', '', '和局', 1.55, '2022-06-27 10:00:00', '欧洲盘'], 13.0, '192.168.10.120 / 局域网'], ['shs1s2s306/shan006', 'XHwJb4DMqqRw', '2022-06-27 08:27:49', ['国际俱乐部亚足联杯', '小象俱乐部 Vs 后港联足球会', '早盘', '后港联足球会 胜利退款', '', '小象俱乐部', 2.19, '2022-06-27 10:00:00', '欧洲盘'], 16.0, '192.168.10.120 / 局域网'], ['shs1s2s328/shan028', 'XHwFZHAVGNX4', '2022-06-27 08:21:29', ['挪威丙级联赛第4组', '费德列斯达 2 Vs EIK通斯堡', '早盘', '费德列斯达 2 胜利退款', '', 'EIK通斯堡', 1.24, '2022-06-27 13:00:00', '欧洲盘'], 17.0, '192.168.10.120 / 局域网'], ['shs1s2s328/shan028', 'XHwFZjr87vaK', '2022-06-27 08:21:28', ['挪威丙级联赛第4组', '费德列斯达 2 Vs EIK通斯堡', '早盘', '费德列斯达 2 胜利退款', '', '和局', 3.35, '2022-06-27 13:00:00', '欧洲盘'], 15.0, '192.168.10.120 / 局域网'], ['t0t1t2t3t4/t4', 'XHwuNcKgsAyn', '2022-06-27 07:48:41', ['阿根廷足球甲级联赛', '科尔多瓦中央队 Vs 小阿根廷人', '早盘', '大/小', 'total=2.25', '小2/2.5', 1.77, '2022-07-01 18:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwumd29rJrT', '2022-06-27 07:47:23', ['阿根廷足球甲级联赛', '科尔多瓦中央队 Vs 小阿根廷人', '早盘', '让球', 'hcp=0', '科尔多瓦中央队 ', 1.95, '2022-07-01 18:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwqzu7srrML', '2022-06-27 07:36:19', ['美国职业棒球大联盟', '纽约扬基队 Vs 奥克兰运动家队', '早盘', '让球 (包括加时赛)', 'hcp=-2.5', '纽约扬基队 ', 2.08, '2022-06-27 19:05:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwpNc76ZABt', '2022-06-27 07:34:03', ['美国职业棒球大联盟', '多伦多蓝鸟队 Vs 波士顿红袜队', '早盘', '让球 (包括加时赛)', 'hcp=-1.5', '多伦多蓝鸟队 ', 2.08, '2022-06-27 19:07:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwp3MTxLERQ', '2022-06-27 07:31:50', ['国际Challenger Series', '霍达伊, 阿米尔·侯赛因 Vs 克莱恩, 丹尼斯', '滚球盘', '独赢', '', '霍达伊, 阿米尔·侯赛因', 1.09, '2022-06-27 07:10:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwnyH3MDZvp', '2022-06-27 07:30:25', ['国际Mediterranean Games', 'Serbia Mediterranean Team Vs Croatia Mediterranean Team', '滚球盘', '独赢', '', 'Serbia Mediterranean Team', 6.95, '2022-06-27 07:00:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwmZyribVTS', '2022-06-27 07:28:47', ['ITF男子ITF France F9, Men Singles', '鲁西卡, 亚历山大 Vs Debru, Mathis', '滚球盘', '让盘', 'hcp=-1.5', '鲁西卡, 亚历山大 ', 5.25, '2022-06-27 06:40:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwmtswViGby', '2022-06-27 07:27:13', ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '让球', 'hcp=-7.5', '圣日尔曼 ', 1.74, '2022-06-30 20:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwm736XtAE2', '2022-06-27 07:26:09', ['俄罗斯Liga Pro', '卡拉切夫, 维克多 Vs 泽连斯基, 罗曼', '早盘', '总分', 'total=73.5', '小73.5', 1.87, '2022-06-27 17:30:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkNeTw6nup', '2022-06-27 07:25:16', ['美国职业棒球大联盟', '圣路易红雀队 Vs 迈阿密马林鱼', '早盘', '大/小 (包括加时赛)', 'total=7.5', '小7.5', 1.94, '2022-06-27 19:45:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkxN8M7UK5', '2022-06-27 07:24:31', ['加拿大冰球联盟纪念杯', '沙威尼根洪水 Vs 汉密尔顿斗牛犬', '早盘', '大/小', 'total=6', '大6', 1.54, '2022-06-27 18:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwkaSfuFSiv', '2022-06-27 07:23:25', ['阿根廷足球甲级联赛', '图库曼体育会 Vs 葛度尔古斯', '早盘', '上半场 - 大/小', 'total=0.75', '大0.5/1', 1.67, '2022-06-27 19:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHwiVsjgQcaQ', '2022-06-27 07:19:47', ['阿根廷全国足球甲级联赛', '贝尔格拉诺体育 Vs 普勒南希亚米恩托', '早盘', '大/小', 'total=2.25', '大2/2.5', 2.32, '2022-06-27 19:30:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHw9UeW3wWV5', '2022-06-27 06:53:23', ['阿根廷足球甲级联赛', '帕特洛纳托 Vs 独立队', '早盘', '让球', 'hcp=0.25', '独立队 ', 2.07, '2022-06-27 14:30:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHw6sVtQiTFi', '2022-06-27 06:43:17', ['美国职业棒球大联盟', '纽约扬基队 Vs 奥克兰运动家队', '早盘', '让球 (包括加时赛)', 'hcp=-1.5', '纽约扬基队 ', 1.74, '2022-06-27 19:05:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHw5DebHnEdR', '2022-06-27 06:40:54', ['埃塞俄比亚超级联赛', '法西尔凯内马 Vs Ethiopian Coffee SC', '滚球盘', '上半场 - 独赢', '', '法西尔凯内马', 1.03, '2022-06-27 06:00:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHw4LmrdTHeJ', '2022-06-27 06:38:20', ['ATP温布尔登网球赛男子单打', '达维多维奇·福基纳, 亚历杭德罗 Vs 赫尔卡茨, 休伯特', '滚球盘', '独赢', '', '赫尔卡茨, 休伯特', 1.2, '2022-06-27 06:00:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHw4dnshDfHv', '2022-06-27 06:36:43', ['国际TT Cup', 'Vaher, Vootele Vs Joelaid, Margus', '滚球盘', '让分', 'hcp=3.5', 'Joelaid, Margus ', 1.8, '2022-06-27 06:15:00', '欧洲盘'], 10.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHw2SpUKDWKK', '2022-06-27 06:32:48', ['加拿大冰球联盟纪念杯', '沙威尼根洪水 Vs 汉密尔顿斗牛犬', '早盘', '大/小', 'total=7', '小7', 1.7, '2022-06-27 18:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['jnj1j2j3j1/jnj1j2j3j2', 'XHvV8GLCFrFe', '2022-06-27 06:15:59', ['美国职业棒球大联盟', '纽约扬基队 Vs 奥克兰运动家队', '早盘', '让球 (包括加时赛)', 'hcp=-1.5', '纽约扬基队 ', 1.74, '2022-06-27 19:05:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvrrbPKtnXP', '2022-06-27 04:54:54', ['加拿大冰球联盟纪念杯', '沙威尼根洪水 Vs 汉密尔顿斗牛犬', '早盘', '让球', 'hcp=0.5', '沙威尼根洪水 ', 1.86, '2022-06-27 18:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvnHUXhhNGS', '2022-06-27 04:46:59', ['国际Mediterranean Games', 'North Macedonia Mediterranean Team Vs Egypt Mediterranean Team', '滚球盘', '独赢', '', 'North Macedonia Mediterranean Team', 3.8, '2022-06-27 04:00:00', '欧洲盘'], 50.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvnEVJuzk6G', '2022-06-27 04:46:50', ['国际Mediterranean Games', 'North Macedonia Mediterranean Team Vs Egypt Mediterranean Team', '滚球盘', '总分', 'total=180.5', '小180.5', 1.8, '2022-06-27 04:00:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvmTwzzzWkw', '2022-06-27 04:44:34', ['国际Mediterranean Games', 'North Macedonia Mediterranean Team Vs Egypt Mediterranean Team', '滚球盘', '让分', 'hcp=7.5', 'North Macedonia Mediterranean Team ', 1.9, '2022-06-27 04:00:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvm88UQd9n2', '2022-06-27 04:42:18', ['俄罗斯Liga Pro', 'Chernov, Vjacheslav Vs 达欣, 弗拉迪米尔', '早盘', '让分', 'hcp=-7.5', '达欣, 弗拉迪米尔 ', 1.91, '2022-06-27 08:30:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvjENi5ZXFw', '2022-06-27 04:38:03', ['美国职业棒球大联盟', '纽约扬基队 Vs 奥克兰运动家队', '早盘', '让球 (包括加时赛)', 'hcp=-1.5', '纽约扬基队 ', 1.74, '2022-06-27 19:05:00', '欧洲盘'], 30.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHviryXESwvk', '2022-06-27 04:34:26', ['波多黎各BSN', '圣日尔曼 Vs 瓜亚马', '早盘', '让球', 'hcp=-8.5', '圣日尔曼 ', 1.88, '2022-06-30 20:00:00', '欧洲盘'], 20.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvhFiaWUchD', '2022-06-27 04:32:13', ['阿根廷足球甲级联赛', '葛度尔古斯 Vs 科隆竞技', '早盘', '让球', 'hcp=-0.5', '葛度尔古斯 ', 1.77, '2022-07-02 17:00:00', '欧洲盘'], 50.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHvfhkH6ynZM', '2022-06-27 04:25:13', ['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=2', '小2', 1.72, '2022-06-27 12:45:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['jnj1j2j3j4/jn4', 'XHuKsgDgRBvW', '2022-06-27 03:03:44', ['ITF女子ITF India 06A, Women Singles', '格雷瓦尔, 贾格米特·考尔 Vs Singh, Himaanshika', '滚球盘', '总局数：大/小', 'total=18.5', '小18.5', 1.95, '2022-06-27 02:30:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XHt6KU8yGeUD', '2022-06-26 22:32:27', [[['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '独赢', '', '北萨尔塔中央', 2.27, '2022-06-27 12:45:00', '欧洲盘'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '独赢', '', '萨米恩托', 1.97, '2022-06-27 14:00:00', '欧洲盘']], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '独赢', '', '萨米恩托', 1.97, '2022-06-27 14:00:00', '欧洲盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XHt6wdKMvBgx', '2022-06-26 22:31:44', [[['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '大/小', 'total=1.75', '大1.5/2', 0.77, '2022-06-27 12:45:00', '香港盘'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '大/小', 'total=2.25', '大2/2.5', 1.13, '2022-06-27 14:00:00', '香港盘']], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '大/小', 'total=2.25', '大2/2.5', 1.13, '2022-06-27 14:00:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XHt52sAjGRpE', '2022-06-26 22:27:21', [[['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '单/双', '', '单', 2.03, '2022-06-27 12:45:00', '欧洲盘'], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '大/小', 'total=2', '大2', 0.82, '2022-06-27 14:00:00', '香港盘']], ['阿根廷全国足球甲级联赛', '萨米恩托 Vs 圣马丁福尔摩萨', '早盘', '大/小', 'total=2', '大2', 0.82, '2022-06-27 14:00:00', '香港盘']], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['t0t1t2t3t4/t4', 'XHt3bYDvbM2J', '2022-06-26 22:22:00', ['阿根廷全国足球甲级联赛', '道格拉斯海格 Vs 北萨尔塔中央', '早盘', '独赢', '', '道格拉斯海格', 3.85, '2022-06-27 12:45:00', '欧洲盘'], 60.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b300/a2', 'XHt2QPTFyYwH', '2022-06-26 22:21:00', ['挪威甲级联赛', '斯吉德 Vs 格鲁德', '早盘', '大/小', 'total=2.5', '大2.5', 0.71, '2022-07-03 09:00:00', '香港盘'], 348.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b300/a2', 'XHt2HGWVEwM8', '2022-06-26 22:20:37', ['丹麦超级联赛', 'FC Copenhagen Vs AC Horsens', '早盘', '上半场 - 独赢', '', '和局', 2.41, '2022-07-17 10:00:00', '欧洲盘'], 390.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b300/a2', 'XHt2yemaRUtZ', '2022-06-26 22:20:08', ['国际TT Cup', 'Rodriguez, Jesus Vs Rosas, Jose E', '早盘', '独赢', '', 'Rosas, Jose E', 1.38, '2022-06-27 05:10:00', '欧洲盘'], 812.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b300/a2', 'XHt2qaXD4DM5', '2022-06-26 22:19:42', ['挪威丙级联赛第2组', '福尔德 Vs 莫尔德B队', '早盘', '独赢', '', '莫尔德B队', 2.37, '2022-06-27 11:30:00', '欧洲盘'], 592.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['jmj1j2j3j1/jmj1j2j3j2', 'XHcHnvMGgRut', '2022-06-25 07:15:09', ['ITF男子ITF Israel F4, Men Singles', '莱谢姆, 埃登 Vs 金希, 奥雷尔', '滚球盘', '让局', 'hcp=-5.5', '金希, 奥雷尔 ', 2.1, '2022-06-25 05:25:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XHby72tvjVaw', '2022-06-25 04:04:05', [[['澳大利亚Norzone Premier League', '希腊人竞技 Vs 达尔温哈尔茨', '滚球盘', '大/小', 'total=3.75', '大3.5/4', 0.81, '2022-06-25 02:30:00', '香港盘'], ['澳大利亚NSW League One', '圣乔治市 Vs 圣乔治 圣徒', '滚球盘', '让球', 'hcp=-1', '圣乔治市 ', 0.87, '2022-06-25 04:00:00', '香港盘'], ['澳大利亚全国超级联赛,塔斯马尼亚', '朗塞斯顿市 Vs 德文波特市', '滚球盘', '独赢', '', '德文波特市', 1.8, '2022-06-25 02:30:00', '欧洲盘']], ['澳大利亚NSW League One', '圣乔治市 Vs 圣乔治 圣徒', '滚球盘', '让球', 'hcp=-1', '圣乔治市 ', 0.87, '2022-06-25 04:00:00', '香港盘'], ['澳大利亚全国超级联赛,塔斯马尼亚', '朗塞斯顿市 Vs 德文波特市', '滚球盘', '独赢', '', '德文波特市', 1.8, '2022-06-25 02:30:00', '欧洲盘']], 400.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XHaGXbYAxZHN', '2022-06-25 01:46:07', [[['澳大利亚全国超级联赛,南澳大利亚', '阿德莱科梅兹 Vs 南阿德莱得黑豹', '滚球盘', '让球', 'hcp=-1.25', '阿德莱科梅兹 ', 2.0, '2022-06-25 01:30:00', '欧洲盘'], ['澳大利亚全国超级联赛,南澳大利亚', '坎伯兰联 Vs 白城伍德维尔', '滚球盘', '大/小', 'total=2.5', '大2.5', 1.95, '2022-06-25 01:30:00', '欧洲盘'], ['澳大利亚全国超级联赛,南澳大利亚', '斯图特狮子 Vs 阿德萊德奧林匹克', '滚球盘', '大/小', 'total=3', '大3', 1.88, '2022-06-25 01:30:00', '欧洲盘']], ['澳大利亚全国超级联赛,南澳大利亚', '坎伯兰联 Vs 白城伍德维尔', '滚球盘', '大/小', 'total=2.5', '大2.5', 1.95, '2022-06-25 01:30:00', '欧洲盘'], ['澳大利亚全国超级联赛,南澳大利亚', '斯图特狮子 Vs 阿德萊德奧林匹克', '滚球盘', '大/小', 'total=3', '大3', 1.88, '2022-06-25 01:30:00', '欧洲盘']], 400.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XHaGQqBXqSXA', '2022-06-25 01:45:45', ['澳大利亚全国超级联赛,南澳大利亚', '阿德莱科梅兹 Vs 南阿德莱得黑豹', '滚球盘', '大/小', 'total=3', '大3', 1.86, '2022-06-25 01:30:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XH9JEZrvrkVh', '2022-06-24 23:07:13', ['澳大利亚Northern Nsw Npl, Reserves', 'Edgeworth FC Reserve Vs Broadmeadow Magic FC Reserve', '滚球盘', '让球', 'hcp=-1.25', 'Edgeworth FC Reserve ', 1.85, '2022-06-24 22:00:00', '欧洲盘'], 100.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['d0d1d2d3en/fceshi0369', 'XH4yBrqLUrq9', '2022-06-24 08:58:13', ['智利杯', '尤尼昂 Vs 圣地亚哥早晨', '早盘', '上半场 - 平局退款', '', '圣地亚哥早晨', 3.35, '2022-06-26 17:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d37e/fceshi0178', 'XH4yz8zHh5gw', '2022-06-24 08:58:05', ['澳大利亚全国超级联赛,新南威尔士', '马柯尼 Vs 芒特德瑞特城流浪者', '早盘', '平局退款', '', '芒特德瑞特城流浪者', 4.35, '2022-06-25 05:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d34i/fceshi0104', 'XH4xZBSrakLD', '2022-06-24 08:56:27', ['冰岛足球丙级联赛', '韦斯特曼纳前锋时刻 Vs Kfg Gardabaer', '早盘', 'Kfg Gardabaer 胜利退款', '', '和局', 2.07, '2022-06-25 14:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d3cm/fceshi0316', 'XH4xUKJcYvmX', '2022-06-24 08:56:11', ['挪威丙级联赛第2组', '赖乌福斯二队 Vs 斯帕杰卡维克', '早盘', '平局退款', '', '斯帕杰卡维克', 1.2, '2022-06-25 07:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d30h/fceshi07', 'XH4xLNQAj5qM', '2022-06-24 08:55:47', ['国际俱乐部俱乐部友谊赛', '林茨 Vs MKS Cracovia Krakow', '早盘', '双重机会&amp;两队都进球', '', '林茨/和局 &amp; 是', 2.12, '2022-06-25 11:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d3ln/fceshi0551', 'XH4xignR9CFQ', '2022-06-24 08:54:23', ['挪威丙级联赛第6组', '森加 Vs 斯基腾', '早盘', '森加 胜利退款', '', '斯基腾', 1.2, '2022-06-25 10:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d3tn/fceshi0759', 'XH4wkMydB5Rk', '2022-06-24 08:51:36', ['国际俱乐部俱乐部友谊赛', '林茨 Vs MKS Cracovia Krakow', '早盘', '林茨 两个半场都进球', '', '是', 2.5, '2022-06-25 11:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d39f/fceshi0231', 'XH4w8FnCzN86', '2022-06-24 08:50:58', ['挪威丙级联赛第6组', '森加 Vs 斯基腾', '早盘', '总入球', 'variant=sr:goal_range:7+', '4-6', 2.19, '2022-06-25 10:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['d0d1d2d3nw/fceshi0612', 'XH4sHZb8pm9p', '2022-06-24 08:41:00', ['智利杯', '尤尼昂 Vs 圣地亚哥早晨', '早盘', '圣地亚哥早晨 胜利退款', '', '和局', 3.2, '2022-06-26 17:00:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['a0b1b2b3a3/a3', 'XGZKU3rbtWNe', '2022-06-24 01:19:33', ['ITF男子ITF Thailand F12, Men Singles', '孙, 法静 Vs 查罗恩邦，尤塔纳', '滚球盘', '总盘数', 'total=2.5', '小2.5', 1.75, '2022-06-24 00:30:00', '香港盘'], 185.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XGZKPkVrZ8p3', '2022-06-24 01:19:18', ['ITF男子ITF Thailand F12, Men Singles', '孙, 法静 Vs 查罗恩邦，尤塔纳', '滚球盘', '独赢', '', '孙, 法静', 1.65, '2022-06-24 00:30:00', '欧洲盘'], 213.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XGZKM5zC6Hqf', '2022-06-24 01:19:11', ['ITF男子ITF Thailand F12, Men Singles', '孙, 法静 Vs 查罗恩邦，尤塔纳', '滚球盘', '总盘数', 'total=2.5', '大2.5', 0.52, '2022-06-24 00:30:00', '香港盘'], 540.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['a0b1b2b3a3/a3', 'XGZKD62gm76Q', '2022-06-24 01:18:46', ['ITF男子ITF Thailand F12, Men Singles', '孙, 法静 Vs 查罗恩邦，尤塔纳', '滚球盘', '让盘', 'hcp=1.5', '查罗恩邦，尤塔纳 ', 1.65, '2022-06-24 00:30:00', '香港盘'], 672.0, 'mde.betf.io / 台湾省彰化县市谷歌'], ['shs1s2s304/shan004', 'XGRR3PHWFF9Z', '2022-06-23 03:43:20', ['加拿大魁北克青年曲棍球大联盟', '里穆斯基海洋 Vs 蒙克顿野猫', '早盘', '让球 (包括加时赛和犯规)', 'hcp=-1.5', '蒙克顿野猫 ', 1.72, '2022-06-23 20:30:00', '欧洲盘'], 17.0, '192.168.10.120 / 局域网'], ['shs1s2s304/shan004', 'XGRR3nZU2y6C', '2022-06-23 03:43:18', ['加拿大魁北克青年曲棍球大联盟', '里穆斯基海洋 Vs 蒙克顿野猫', '早盘', '让球 (包括加时赛和犯规)', 'hcp=-2.5', '蒙克顿野猫 ', 1.38, '2022-06-23 20:30:00', '欧洲盘'], 15.0, '192.168.10.120 / 局域网'], ['shs1s2s304/shan004', 'XGRR2YR3MAqY', '2022-06-23 03:43:17', ['加拿大魁北克青年曲棍球大联盟', '里穆斯基海洋 Vs 蒙克顿野猫', '早盘', '让球 (包括加时赛和犯规)', 'hcp=-1.5', '里穆斯基海洋 ', 2.09, '2022-06-23 20:30:00', '欧洲盘'], 10.0, '192.168.10.120 / 局域网'], ['shs1s2s334/shan034', 'XGRR32T5aqUx', '2022-06-23 03:43:17', ['加拿大魁北克青年曲棍球大联盟', '里穆斯基海洋 Vs 蒙克顿野猫', '早盘', '让球 (包</t>
   </si>
   <si>
     <t>测试通过 
-2022-06-29 14:05:27</t>
+2022-06-29 14:10:23</t>
   </si>
 </sst>
 </file>
@@ -1684,33 +1681,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="0" fontId="5" numFmtId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" borderId="0" fillId="0" fontId="2" numFmtId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="0" fontId="6" numFmtId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" borderId="0" fillId="0" fontId="3" numFmtId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" borderId="0" fillId="0" fontId="7" numFmtId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" borderId="0" fillId="0" fontId="8" numFmtId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="1"/>
+    <xf xfId="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf xfId="0" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39869,10 +39866,10 @@
         <v>363</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>62</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -1174,6 +1174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1209,6 +1215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT b.`</t>
     </r>
     <r>
@@ -1560,12 +1572,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,29 +1636,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,14 +1666,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1681,9 +1726,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1697,39 +1749,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1753,13 +1772,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,15 +1779,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1796,7 +1801,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,19 +1873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,25 +1897,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,25 +1957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1898,79 +1969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,15 +1980,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2004,6 +1994,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2026,17 +2034,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2084,152 +2083,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2245,10 +2244,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2593,7 +2588,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7"/>
@@ -2602,7 +2597,7 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2614,7 +2609,7 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -2622,7 +2617,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -2630,7 +2625,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -2638,7 +2633,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:16384">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -19024,7 +19019,7 @@
       <c r="XFD6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:16384">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -35482,7 +35477,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -35650,7 +35645,7 @@
       <c r="B2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -35662,13 +35657,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -35677,7 +35672,7 @@
       <c r="K2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>160</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -35959,10 +35954,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -35974,13 +35969,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -35989,7 +35984,7 @@
       <c r="K2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>182</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -36681,7 +36676,7 @@
       <c r="B2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -36693,18 +36688,18 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>62</v>
       </c>
@@ -37946,7 +37941,7 @@
       <c r="B2" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>269</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -37958,13 +37953,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -37973,7 +37968,7 @@
       <c r="K2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>272</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -39217,7 +39212,7 @@
       <c r="B2" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -39229,13 +39224,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -39244,7 +39239,7 @@
       <c r="K2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>325</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -39519,10 +39514,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -39534,13 +39529,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -39549,7 +39544,7 @@
       <c r="K2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>61</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -39560,10 +39555,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -39575,18 +39570,18 @@
       <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="11"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="7" t="s">
         <v>62</v>
       </c>
@@ -39598,7 +39593,7 @@
       <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -39610,18 +39605,18 @@
       <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="7" t="s">
         <v>62</v>
       </c>
@@ -39633,7 +39628,7 @@
       <c r="B5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -39645,18 +39640,18 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
         <v>62</v>
       </c>
@@ -39668,7 +39663,7 @@
       <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -39680,18 +39675,18 @@
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
         <v>62</v>
       </c>
@@ -39703,7 +39698,7 @@
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -39715,18 +39710,18 @@
       <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
         <v>62</v>
       </c>
@@ -39817,7 +39812,7 @@
       <c r="B2" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>334</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -39829,13 +39824,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>335</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -39844,7 +39839,7 @@
       <c r="K2" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>338</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -40248,7 +40243,7 @@
       <c r="B2" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>354</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40260,13 +40255,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>355</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -40275,7 +40270,7 @@
       <c r="K2" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>358</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -40465,7 +40460,7 @@
       <c r="B2" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>365</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40477,13 +40472,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>366</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -40492,7 +40487,7 @@
       <c r="K2" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>368</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -40511,7 +40506,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -40533,7 +40528,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>370</v>
@@ -40640,18 +40635,18 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>62</v>
       </c>
@@ -40693,7 +40688,7 @@
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
@@ -40789,7 +40784,7 @@
       <c r="B2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40801,18 +40796,18 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>62</v>
       </c>
@@ -40903,7 +40898,7 @@
       <c r="B2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40915,13 +40910,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -40930,7 +40925,7 @@
       <c r="K2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>96</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -40944,7 +40939,7 @@
       <c r="B3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -40956,13 +40951,13 @@
       <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -40971,7 +40966,7 @@
       <c r="K3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>102</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -40985,7 +40980,7 @@
       <c r="B4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -40997,13 +40992,13 @@
       <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -41012,7 +41007,7 @@
       <c r="K4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>106</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -41026,7 +41021,7 @@
       <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -41038,18 +41033,18 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
         <v>62</v>
       </c>
@@ -41061,7 +41056,7 @@
       <c r="B6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -41073,18 +41068,18 @@
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
         <v>62</v>
       </c>
@@ -41096,7 +41091,7 @@
       <c r="B7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -41108,18 +41103,18 @@
       <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
         <v>62</v>
       </c>
@@ -41131,7 +41126,7 @@
       <c r="B8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -41143,18 +41138,18 @@
       <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
         <v>62</v>
       </c>
@@ -41166,7 +41161,7 @@
       <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -41178,18 +41173,18 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>119</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
         <v>62</v>
       </c>
@@ -41237,7 +41232,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
@@ -41254,7 +41249,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
@@ -41271,7 +41266,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C4" t="s">
@@ -41373,7 +41368,7 @@
       <c r="B2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -41385,13 +41380,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -41400,7 +41395,7 @@
       <c r="K2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>132</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -41493,7 +41488,7 @@
       <c r="B2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -41505,13 +41500,13 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -41520,7 +41515,7 @@
       <c r="K2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>137</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -41534,7 +41529,7 @@
       <c r="B3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -41546,13 +41541,13 @@
       <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -41561,7 +41556,7 @@
       <c r="K3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>142</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -41575,7 +41570,7 @@
       <c r="B4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -41587,13 +41582,13 @@
       <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -41602,7 +41597,7 @@
       <c r="K4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>145</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -41616,7 +41611,7 @@
       <c r="B5" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -41628,13 +41623,13 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -41643,7 +41638,7 @@
       <c r="K5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>150</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -41657,7 +41652,7 @@
       <c r="B6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -41669,18 +41664,18 @@
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
         <v>62</v>
       </c>
@@ -41692,7 +41687,7 @@
       <c r="B7" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -41704,18 +41699,18 @@
       <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
         <v>62</v>
       </c>
@@ -41727,7 +41722,7 @@
       <c r="B8" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -41739,18 +41734,18 @@
       <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
         <v>62</v>
       </c>
@@ -41762,7 +41757,7 @@
       <c r="B9" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -41774,18 +41769,18 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>119</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
         <v>62</v>
       </c>
@@ -41833,7 +41828,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
@@ -41850,7 +41845,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
@@ -41867,7 +41862,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C4" t="s">

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="375">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -1638,14 +1638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1666,32 +1659,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1703,18 +1673,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1733,11 +1719,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1749,6 +1735,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1772,9 +1759,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,7 +1801,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +1843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,49 +1861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,25 +1879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,19 +1909,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,37 +1963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,6 +1980,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2007,15 +2018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2034,8 +2036,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2072,11 +2074,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2086,10 +2086,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2098,133 +2098,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -40503,37 +40503,49 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
         <v>369</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>370</v>
       </c>
-      <c r="C2" t="b">
+      <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="18" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,17 @@
     <sheet name="multitermReport" sheetId="22" r:id="rId22"/>
     <sheet name="cancelled_params" sheetId="23" r:id="rId23"/>
     <sheet name="cancelledOrder" sheetId="24" r:id="rId24"/>
-    <sheet name="bill_params" sheetId="26" r:id="rId25"/>
-    <sheet name="bill" sheetId="25" r:id="rId26"/>
+    <sheet name="bill_params" sheetId="25" r:id="rId25"/>
+    <sheet name="bill" sheetId="26" r:id="rId26"/>
+    <sheet name="billDetail_params" sheetId="28" r:id="rId27"/>
+    <sheet name="billOrderDetail" sheetId="27" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="386">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -147,6 +149,15 @@
   </si>
   <si>
     <t>f"SELECT CONCAT(d.account,'/',d.login_account) '账号/登入账号',a.order_no '注单号',a.create_time '投注时间',tournament_name '联赛名称',CONCAT( home_team_name, ' Vs ', away_team_name ) '赛事名称',IF(is_live=3,'早盘','滚球盘') '赛事类型',market_name  '盘口名称',specifier '亚盘口',outcome_name  '投注项名称',cast(credit_odds as char) '赔率',match_time '赛事时间',if(odds_type=1,'欧洲盘','香港盘') '盘口类型',bet_amount '投注金额',CONCAT(bet_ip,' / ',ip_address) 'IP地址' FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id) JOIN u_user d ON a.user_id=d.id WHERE a.`status`=3 AND DATE_FORMAT(award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' {account_Str} ORDER BY a.create_time DESC"</t>
+  </si>
+  <si>
+    <t>f"SELECT b.`日期`,`赢亏金额`,`赢亏现金余额`,`佣金金额`,`佣金现金余额` FROM (SELECT IFNULL(DATE_FORMAT(any_value(a.award_time),'%Y-%m-%d'),DATE_FORMAT(date_sub(CONVERT_TZ(NOW(),'+00:00','-04:00'), interval {date} day) ,'%Y-%m-%d') )'date' ,ifnull(SUM(company_win_or_lose-company_backwater_amount),0)'赢亏金额',ifnull(SUM(company_backwater_amount),0)'佣金金额' FROM o_account_order a  WHERE `status` = 2 and  DATE_FORMAT(a.award_time ,'%Y-%m-%d') = DATE_FORMAT(date_sub(CONVERT_TZ(NOW(),'+00:00','-04:00'), interval {date} day) ,'%Y-%m-%d') GROUP BY IFNULL(DATE_FORMAT(any_value(a.award_time),'%Y-%m-%d'),DATE_FORMAT(date_sub(CONVERT_TZ(NOW(),'+00:00','-04:00'), interval {date} day) ,'%Y-%m-%d'))) a JOIN (SELECT DATE_FORMAT(date_sub(CONVERT_TZ(NOW(),'+00:00','-04:00'),INTERVAL {date} DAY),'%Y-%m-%d') '日期',(`当日结账赢亏现金余额`+`截至当日未结账赢亏现金余额`) '赢亏现金余额',(`当日结账佣金现金余额`+`截至当日未账佣金现金余额`) '佣金现金余额' FROM (SELECT sum(IF (DATE_FORMAT(b.checkout_time,'%Y-%m-%d')=DATE_FORMAT(date_sub(CONVERT_TZ(NOW(),'+00:00','-04:00'),INTERVAL {date} DAY),'%Y-%m-%d'),(a.company_win_or_lose-a.company_backwater_amount),0)) '当日结账赢亏现金余额',sum(IF (b.payment_status=0,(a.company_win_or_lose-a.company_backwater_amount),0)) '截至当日未结账赢亏现金余额',sum(IF (DATE_FORMAT(b.checkout_time,'%Y-%m-%d')=DATE_FORMAT(date_sub(CONVERT_TZ(NOW(),'+00:00','-04:00'),INTERVAL {date} DAY),'%Y-%m-%d'),a.company_win_or_lose,0)) '当日结账佣金现金余额',sum(IF (b.payment_status=0,a.company_win_or_lose,0)) '截至当日未账佣金现金余额' FROM o_account_order a LEFT JOIN m_account_unsettlement_amount_record b ON a.order_no=b.order_no AND a.proxy0_id=b.account_id AND b.role_id=0 WHERE a.`status`=2 AND DATE_FORMAT(a.award_time,'%Y-%m-%d')&lt;=DATE_FORMAT(date_sub(CONVERT_TZ(NOW(),'+00:00','-04:00'),INTERVAL {date} DAY),'%Y-%m-%d')) a ) b ON a.date=b.`日期`"</t>
+  </si>
+  <si>
+    <t>账目-注单详情</t>
+  </si>
+  <si>
+    <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '账号/登入账号',d.`name` '名称',a.order_no as '注单号',a.create_time as '投注时间',(CASE WHEN a.sport_category_id= 1 then '足球' WHEN a.sport_category_id = 2 THEN '篮球' WHEN a.sport_category_id = 3 THEN '网球' WHEN a.sport_category_id = 4 THEN '排球' WHEN a.sport_category_id = 5 THEN '羽毛球' WHEN a.sport_category_id = 6 THEN '乒乓球' WHEN a.sport_category_id = 7 THEN '棒球' WHEN a.sport_category_id = 100 THEN '冰上曲棍球' END)as '球类',(case when a.bet_type=1 then '单关' when a.bet_type=2 then '串关' when a.bet_type=3 then '复式串关' end ) as '注单类型',CONCAT(tournament_name,' ',CONCAT( home_team_name, ' Vs ', away_team_name )) AS '赛事',CONCAT(IF(bet_score is NULL,'早盘','滚球盘'),' ',CONCAT(CONCAT(CONCAT(CONCAT(market_name, ' ', outcome_name),' @ ',credit_odds)),' ',IFNULL(bet_score,''),' ',if(odds_type=1,'欧洲盘','香港盘')),' ',match_time) as '选项',ifnull(award_time,'--') as '结算时间',bet_amount as '投注金额',(CASE WHEN a.settlement_result=1 then '赢' WHEN a.settlement_result=2 then '输' WHEN a.settlement_result=5 then '平局走水' WHEN a.settlement_result=1 then '注单取消' END) as '注单结果',handicap_win_or_lose '注单输赢',efficient_amount '有效金额',CONCAT(bet_ip, +' / ',+ ip_address) '下注IP地址',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2  AND a.award_time is not null AND DATE_FORMAT(a.award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' ORDER BY a.create_time DESC"</t>
   </si>
   <si>
     <t>用例编号</t>
@@ -1173,54 +1184,13 @@
     <t>查询账目</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账目</t>
-    </r>
+    <t xml:space="preserve"> 总台-账目</t>
   </si>
   <si>
     <t>{"type":"","begin":"2022-06-29","end":"2022-06-29","page":1,"limit":50}</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>f"SELECT b.`</t>
     </r>
     <r>
@@ -1566,18 +1536,704 @@
       <t>`"</t>
     </r>
   </si>
+  <si>
+    <t>['2022-06-28', 1547.23, 11283.4, -7.34, 11056.55]</t>
+  </si>
+  <si>
+    <t>('2022-06-28', Decimal('1547.23'), Decimal('11283.40'), Decimal('-7.34'), Decimal('11056.55'))</t>
+  </si>
+  <si>
+    <t>测试通过 
+2022-06-29 15:23:48</t>
+  </si>
+  <si>
+    <t>默认按照结算时间查询近1天账目数据-注单详情</t>
+  </si>
+  <si>
+    <t>查询账目-注单详情</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账目-注单详情</t>
+    </r>
+  </si>
+  <si>
+    <t>{"begin":"2022-06-29","end":"2022-06-29","page":1,"limit":50}</t>
+  </si>
+  <si>
+    <r>
+      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(tournament_name,' ',CONCAT( home_team_name, ' Vs ', away_team_name )) AS '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(IF(bet_score is NULL,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'),' ',CONCAT(CONCAT(CONCAT(CONCAT(market_name, ' ', outcome_name),' @ ',credit_odds)),' ',IFNULL(bet_score,''),' ',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>')),' ',match_time) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2  AND a.award_time is not null AND DATE_FORMAT(a.award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' ORDER BY a.create_time DESC"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1636,16 +2292,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1665,42 +2342,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1714,6 +2368,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,6 +2407,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1745,22 +2423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1780,7 +2443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1795,7 +2458,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,13 +2512,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,37 +2590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,73 +2620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,31 +2632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,11 +2654,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2009,11 +2676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2057,17 +2730,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2083,152 +2752,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2244,6 +2913,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2575,10 +3248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD44"/>
+  <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -2588,7 +3261,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7"/>
@@ -2597,7 +3270,7 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2609,7 +3282,7 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -2617,7 +3290,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -2625,7 +3298,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -2633,7 +3306,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:16384">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -19019,7 +19692,7 @@
       <c r="XFD6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:16384">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -35477,7 +36150,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -35554,6 +36227,26 @@
     <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -35591,49 +36284,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -35643,40 +36336,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>128</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+        <v>132</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -35703,19 +36396,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -35729,10 +36422,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -35746,10 +36439,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -35763,10 +36456,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -35780,10 +36473,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -35797,10 +36490,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -35814,10 +36507,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -35831,10 +36524,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -35848,10 +36541,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -35865,10 +36558,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -35903,49 +36596,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -35954,41 +36647,41 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>178</v>
+      <c r="B2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>179</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -36017,25 +36710,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -36049,13 +36742,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -36072,13 +36765,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -36095,13 +36788,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -36118,13 +36811,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -36141,13 +36834,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -36164,13 +36857,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -36187,13 +36880,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -36210,13 +36903,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -36233,13 +36926,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -36256,13 +36949,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -36279,13 +36972,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -36302,13 +36995,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -36325,13 +37018,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -36348,13 +37041,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -36371,13 +37064,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -36394,13 +37087,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -36417,13 +37110,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -36440,13 +37133,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -36463,13 +37156,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -36486,13 +37179,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -36509,13 +37202,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -36532,13 +37225,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -36555,13 +37248,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -36578,13 +37271,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -36622,49 +37315,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -36674,34 +37367,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>217</v>
+        <v>180</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -36730,25 +37423,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -36762,13 +37455,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -36785,13 +37478,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -36808,13 +37501,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -36831,13 +37524,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -36854,13 +37547,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -36877,13 +37570,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -36900,13 +37593,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -36923,13 +37616,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -36946,13 +37639,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -36969,13 +37662,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -36992,13 +37685,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -37015,13 +37708,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -37038,13 +37731,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -37061,13 +37754,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -37084,13 +37777,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -37107,13 +37800,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -37130,13 +37823,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -37153,13 +37846,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -37176,13 +37869,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -37199,13 +37892,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -37222,13 +37915,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -37245,13 +37938,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -37268,13 +37961,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -37291,13 +37984,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -37314,13 +38007,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -37337,13 +38030,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -37360,13 +38053,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -37383,13 +38076,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -37406,13 +38099,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -37429,13 +38122,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -37452,13 +38145,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -37475,13 +38168,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -37498,13 +38191,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -37521,13 +38214,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -37544,13 +38237,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -37567,13 +38260,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -37590,13 +38283,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -37613,13 +38306,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -37636,13 +38329,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -37659,13 +38352,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -37682,13 +38375,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -37705,13 +38398,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -37728,13 +38421,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -37751,13 +38444,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -37774,13 +38467,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -37797,13 +38490,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -37820,13 +38513,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -37843,13 +38536,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -37887,49 +38580,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -37939,40 +38632,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>218</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -38001,25 +38694,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -38033,13 +38726,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -38056,13 +38749,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -38079,13 +38772,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -38102,13 +38795,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -38125,13 +38818,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -38148,13 +38841,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -38171,13 +38864,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -38194,13 +38887,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -38217,13 +38910,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -38240,13 +38933,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -38263,13 +38956,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -38286,13 +38979,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -38309,13 +39002,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -38332,13 +39025,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -38355,13 +39048,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -38378,13 +39071,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -38401,13 +39094,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -38424,13 +39117,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -38447,13 +39140,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -38470,13 +39163,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -38493,13 +39186,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -38516,13 +39209,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -38539,13 +39232,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -38562,13 +39255,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -38585,13 +39278,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -38608,13 +39301,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -38631,13 +39324,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -38654,13 +39347,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -38677,13 +39370,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -38700,13 +39393,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -38723,13 +39416,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -38746,13 +39439,13 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -38769,13 +39462,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -38792,13 +39485,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -38815,13 +39508,13 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -38838,13 +39531,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -38861,13 +39554,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -38884,13 +39577,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -38907,13 +39600,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -38930,13 +39623,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -38953,13 +39646,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -38976,13 +39669,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -38999,13 +39692,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -39022,13 +39715,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -39045,13 +39738,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -39068,13 +39761,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -39091,13 +39784,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -39114,13 +39807,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -39158,49 +39851,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -39210,40 +39903,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>218</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -39272,25 +39965,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -39304,13 +39997,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -39327,13 +40020,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -39350,13 +40043,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -39373,13 +40066,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
         <v>331</v>
-      </c>
-      <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" t="s">
-        <v>328</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -39396,13 +40089,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -39419,13 +40112,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -39463,49 +40156,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -39514,76 +40207,76 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
+      <c r="B2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>52</v>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39591,34 +40284,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39626,34 +40319,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39661,34 +40354,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -39696,34 +40389,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -39758,49 +40451,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -39810,40 +40503,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>334</v>
+        <v>324</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>335</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -39875,34 +40568,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -39916,16 +40609,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -39942,16 +40635,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -39968,16 +40661,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -39994,19 +40687,19 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
         <v>345</v>
       </c>
-      <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>342</v>
-      </c>
       <c r="I5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -40023,19 +40716,19 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -40052,19 +40745,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -40081,19 +40774,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -40110,19 +40803,19 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -40139,19 +40832,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -40189,49 +40882,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -40241,40 +40934,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>355</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>358</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -40302,22 +40995,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -40328,10 +41021,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -40345,10 +41038,10 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -40362,13 +41055,13 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -40406,49 +41099,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -40458,40 +41151,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>366</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -40505,11 +41198,11 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
@@ -40517,19 +41210,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -40543,7 +41236,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -40561,7 +41254,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -40581,49 +41274,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -40633,34 +41326,203 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I2" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -40687,27 +41549,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="14" t="s">
-        <v>82</v>
+      <c r="B2" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -40742,49 +41604,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -40794,34 +41656,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -40856,49 +41718,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -40908,40 +41770,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>92</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+        <v>96</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -40949,40 +41811,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>58</v>
+        <v>102</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -40990,40 +41852,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>106</v>
+      <c r="L4" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41031,34 +41893,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41066,34 +41928,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>111</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>58</v>
+        <v>115</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41101,34 +41963,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>116</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>58</v>
+        <v>118</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41136,34 +41998,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>119</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>117</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>58</v>
+        <v>121</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41171,34 +42033,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>119</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>119</v>
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>58</v>
+        <v>123</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -41225,33 +42087,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="14" t="s">
-        <v>82</v>
+      <c r="B2" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>-7</v>
@@ -41261,14 +42123,14 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="14" t="s">
-        <v>82</v>
+      <c r="B3" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>-15</v>
@@ -41278,14 +42140,14 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="14" t="s">
-        <v>82</v>
+      <c r="B4" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>-30</v>
@@ -41326,49 +42188,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -41378,40 +42240,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>128</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+        <v>132</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -41446,49 +42308,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -41498,40 +42360,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>91</v>
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>92</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>58</v>
+        <v>137</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41539,40 +42401,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>91</v>
+        <v>141</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>58</v>
+        <v>142</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41580,40 +42442,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>91</v>
+        <v>146</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>104</v>
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>145</v>
+      <c r="L4" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41621,40 +42483,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>149</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>58</v>
+        <v>150</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41662,34 +42524,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>111</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>58</v>
+        <v>155</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41697,34 +42559,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>156</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>58</v>
+        <v>118</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41732,34 +42594,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>157</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>117</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>58</v>
+        <v>158</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
@@ -41767,34 +42629,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>157</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>119</v>
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>58</v>
+        <v>159</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -41821,33 +42683,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="14" t="s">
-        <v>82</v>
+      <c r="B2" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>-7</v>
@@ -41857,14 +42719,14 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="14" t="s">
-        <v>82</v>
+      <c r="B3" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>-15</v>
@@ -41874,14 +42736,14 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="14" t="s">
-        <v>82</v>
+      <c r="B4" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>-30</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -157,7 +157,7 @@
     <t>账目-注单详情</t>
   </si>
   <si>
-    <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '账号/登入账号',d.`name` '名称',a.order_no as '注单号',a.create_time as '投注时间',(CASE WHEN a.sport_category_id= 1 then '足球' WHEN a.sport_category_id = 2 THEN '篮球' WHEN a.sport_category_id = 3 THEN '网球' WHEN a.sport_category_id = 4 THEN '排球' WHEN a.sport_category_id = 5 THEN '羽毛球' WHEN a.sport_category_id = 6 THEN '乒乓球' WHEN a.sport_category_id = 7 THEN '棒球' WHEN a.sport_category_id = 100 THEN '冰上曲棍球' END)as '球类',(case when a.bet_type=1 then '单关' when a.bet_type=2 then '串关' when a.bet_type=3 then '复式串关' end ) as '注单类型',CONCAT(tournament_name,' ',CONCAT( home_team_name, ' Vs ', away_team_name )) AS '赛事',CONCAT(IF(bet_score is NULL,'早盘','滚球盘'),' ',CONCAT(CONCAT(CONCAT(CONCAT(market_name, ' ', outcome_name),' @ ',credit_odds)),' ',IFNULL(bet_score,''),' ',if(odds_type=1,'欧洲盘','香港盘')),' ',match_time) as '选项',ifnull(award_time,'--') as '结算时间',bet_amount as '投注金额',(CASE WHEN a.settlement_result=1 then '赢' WHEN a.settlement_result=2 then '输' WHEN a.settlement_result=5 then '平局走水' WHEN a.settlement_result=1 then '注单取消' END) as '注单结果',handicap_win_or_lose '注单输赢',efficient_amount '有效金额',CONCAT(bet_ip, +' / ',+ ip_address) '下注IP地址',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2  AND a.award_time is not null AND DATE_FORMAT(a.award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' ORDER BY a.create_time DESC"</t>
+    <t>SELECT CONCAT(d.account,'/',d.login_account) as '账号/登入账号',d.`name` '名称',a.order_no as '注单号',a.create_time as '投注时间',(CASE WHEN a.sport_category_id= 1 then '足球' WHEN a.sport_category_id = 2 THEN '篮球' WHEN a.sport_category_id = 3 THEN '网球' WHEN a.sport_category_id = 4 THEN '排球' WHEN a.sport_category_id = 5 THEN '羽毛球' WHEN a.sport_category_id = 6 THEN '乒乓球' WHEN a.sport_category_id = 7 THEN '棒球' WHEN a.sport_category_id = 100 THEN '冰上曲棍球' END)as '球类',(case when a.bet_type=1 then '单关' when a.bet_type=2 then '串关' when a.bet_type=3 then '复式串关' end ) as '注单类型',tournament_name '联赛名称',CONCAT( home_team_name, ' Vs ', away_team_name ) '赛事名称',IF(is_live=3,'早盘','滚球盘') '赛事类型',market_name '盘口名称',specifier '亚盘口',outcome_name '投注项名称',cast(credit_odds as char) '赔率',if(odds_type=1,'欧洲盘','香港盘') '盘口类型',match_time '赛事时间',ifnull(award_time,'--') as '结算时间',(CASE WHEN a.settlement_result=1 then '赢' WHEN a.settlement_result=2 then '输' WHEN a.settlement_result=5 then '平局走水' WHEN a.settlement_result=1 then '注单取消' END) as '注单结果',CONCAT(bet_ip, +' / ',+ ip_address) '下注IP地址',bet_amount as '投注金额',handicap_win_or_lose '注单输赢',efficient_amount '有效金额',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2  AND a.award_time is not null AND DATE_FORMAT(a.award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' ORDER BY a.create_time DESC</t>
   </si>
   <si>
     <t>用例编号</t>
@@ -1191,6 +1191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT b.`</t>
     </r>
     <r>
@@ -1554,6 +1560,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1913,7 +1925,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',CONCAT(tournament_name,' ',CONCAT( home_team_name, ' Vs ', away_team_name )) AS '</t>
+      <t>',tournament_name '</t>
     </r>
     <r>
       <rPr>
@@ -1922,7 +1934,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>赛事</t>
+      <t>联赛名称</t>
     </r>
     <r>
       <rPr>
@@ -1931,7 +1943,25 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',CONCAT(IF(bet_score is NULL,'</t>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
     </r>
     <r>
       <rPr>
@@ -1967,7 +1997,97 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>'),' ',CONCAT(CONCAT(CONCAT(CONCAT(market_name, ' ', outcome_name),' @ ',credit_odds)),' ',IFNULL(bet_score,''),' ',if(odds_type=1,'</t>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
     </r>
     <r>
       <rPr>
@@ -2003,7 +2123,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>')),' ',match_time) as '</t>
+      <t>') '</t>
     </r>
     <r>
       <rPr>
@@ -2012,7 +2132,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>选项</t>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
     </r>
     <r>
       <rPr>
@@ -2031,24 +2169,6 @@
         <charset val="134"/>
       </rPr>
       <t>结算时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',bet_amount as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投注金额</t>
     </r>
     <r>
       <rPr>
@@ -2147,6 +2267,60 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>',handicap_win_or_lose '</t>
     </r>
     <r>
@@ -2183,42 +2357,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2  AND a.award_time is not null AND DATE_FORMAT(a.award_time,'%Y-%m-%d') BETWEEN '{begin}' AND '{end}' ORDER BY a.create_time DESC"</t>
     </r>
   </si>
@@ -2228,12 +2366,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2293,7 +2431,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2307,36 +2466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2345,14 +2477,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2378,6 +2502,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2430,20 +2561,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2458,7 +2589,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2470,31 +2625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,7 +2637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,31 +2661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2560,19 +2685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,7 +2697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,7 +2709,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,37 +2745,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2649,15 +2774,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2709,8 +2825,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2740,164 +2874,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2913,10 +3038,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3250,8 +3371,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -3261,7 +3382,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7"/>
@@ -3270,7 +3391,7 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3282,7 +3403,7 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -3290,7 +3411,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -3298,7 +3419,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -3306,7 +3427,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:16384">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -19692,7 +19813,7 @@
       <c r="XFD6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:16384">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -36150,7 +36271,7 @@
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -36338,7 +36459,7 @@
       <c r="B2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -36350,13 +36471,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -36365,7 +36486,7 @@
       <c r="K2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>163</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -36647,10 +36768,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -36662,13 +36783,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>182</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -36677,7 +36798,7 @@
       <c r="K2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -37369,7 +37490,7 @@
       <c r="B2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -37381,18 +37502,18 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>65</v>
       </c>
@@ -38634,7 +38755,7 @@
       <c r="B2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>272</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -38646,13 +38767,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>221</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -38661,7 +38782,7 @@
       <c r="K2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>275</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -39905,7 +40026,7 @@
       <c r="B2" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -39917,13 +40038,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>221</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -39932,7 +40053,7 @@
       <c r="K2" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>328</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -40207,10 +40328,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40222,13 +40343,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -40237,7 +40358,7 @@
       <c r="K2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -40248,10 +40369,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -40263,18 +40384,18 @@
       <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="11"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="7" t="s">
         <v>65</v>
       </c>
@@ -40286,7 +40407,7 @@
       <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -40298,18 +40419,18 @@
       <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="7" t="s">
         <v>65</v>
       </c>
@@ -40321,7 +40442,7 @@
       <c r="B5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -40333,18 +40454,18 @@
       <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
         <v>65</v>
       </c>
@@ -40356,7 +40477,7 @@
       <c r="B6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -40368,18 +40489,18 @@
       <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
         <v>65</v>
       </c>
@@ -40391,7 +40512,7 @@
       <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -40403,18 +40524,18 @@
       <c r="F7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
         <v>65</v>
       </c>
@@ -40505,7 +40626,7 @@
       <c r="B2" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>337</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40517,13 +40638,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>338</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -40532,7 +40653,7 @@
       <c r="K2" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>341</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -40936,7 +41057,7 @@
       <c r="B2" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>357</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -40948,13 +41069,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>358</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -40963,7 +41084,7 @@
       <c r="K2" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>361</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -41153,7 +41274,7 @@
       <c r="B2" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>368</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -41165,13 +41286,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>369</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -41180,7 +41301,7 @@
       <c r="K2" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>371</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -41328,7 +41449,7 @@
       <c r="B2" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>375</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -41340,13 +41461,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -41355,7 +41476,7 @@
       <c r="K2" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>380</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -41374,7 +41495,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -41423,7 +41544,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -41509,18 +41630,18 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>65</v>
       </c>
@@ -41562,7 +41683,7 @@
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C2" t="s">
@@ -41658,7 +41779,7 @@
       <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -41670,18 +41791,18 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>65</v>
       </c>
@@ -41772,7 +41893,7 @@
       <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -41784,13 +41905,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -41799,7 +41920,7 @@
       <c r="K2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -41813,7 +41934,7 @@
       <c r="B3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -41825,13 +41946,13 @@
       <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -41840,7 +41961,7 @@
       <c r="K3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>105</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -41854,7 +41975,7 @@
       <c r="B4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -41866,13 +41987,13 @@
       <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -41881,7 +42002,7 @@
       <c r="K4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>109</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -41895,7 +42016,7 @@
       <c r="B5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -41907,18 +42028,18 @@
       <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="7" t="s">
         <v>65</v>
       </c>
@@ -41930,7 +42051,7 @@
       <c r="B6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -41942,18 +42063,18 @@
       <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
         <v>65</v>
       </c>
@@ -41965,7 +42086,7 @@
       <c r="B7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -41977,18 +42098,18 @@
       <c r="F7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
         <v>65</v>
       </c>
@@ -42000,7 +42121,7 @@
       <c r="B8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -42012,18 +42133,18 @@
       <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
         <v>65</v>
       </c>
@@ -42035,7 +42156,7 @@
       <c r="B9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -42047,18 +42168,18 @@
       <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
         <v>65</v>
       </c>
@@ -42106,7 +42227,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C2" t="s">
@@ -42123,7 +42244,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">
@@ -42140,7 +42261,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C4" t="s">
@@ -42242,7 +42363,7 @@
       <c r="B2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -42254,13 +42375,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -42269,7 +42390,7 @@
       <c r="K2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>135</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -42362,7 +42483,7 @@
       <c r="B2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -42374,13 +42495,13 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -42389,7 +42510,7 @@
       <c r="K2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>140</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -42403,7 +42524,7 @@
       <c r="B3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -42415,13 +42536,13 @@
       <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -42430,7 +42551,7 @@
       <c r="K3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>145</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -42444,7 +42565,7 @@
       <c r="B4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -42456,13 +42577,13 @@
       <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -42471,7 +42592,7 @@
       <c r="K4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>148</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -42485,7 +42606,7 @@
       <c r="B5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -42497,13 +42618,13 @@
       <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -42512,7 +42633,7 @@
       <c r="K5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>153</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -42526,7 +42647,7 @@
       <c r="B6" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -42538,18 +42659,18 @@
       <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
         <v>65</v>
       </c>
@@ -42561,7 +42682,7 @@
       <c r="B7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -42573,18 +42694,18 @@
       <c r="F7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
         <v>65</v>
       </c>
@@ -42596,7 +42717,7 @@
       <c r="B8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -42608,18 +42729,18 @@
       <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="7" t="s">
         <v>65</v>
       </c>
@@ -42631,7 +42752,7 @@
       <c r="B9" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -42643,18 +42764,18 @@
       <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="7" t="s">
         <v>65</v>
       </c>
@@ -42702,7 +42823,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C2" t="s">
@@ -42719,7 +42840,7 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">
@@ -42736,7 +42857,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C4" t="s">

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -1597,10 +1597,16 @@
     </r>
   </si>
   <si>
-    <t>{"begin":"2022-06-29","end":"2022-06-29","page":1,"limit":50}</t>
+    <t>{"begin":"2022-06-29","end":"2022-06-29","page":1,"limit":200}</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -2368,8 +2374,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2431,28 +2437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2466,6 +2451,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2474,17 +2503,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2505,31 +2541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2546,7 +2559,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2554,14 +2567,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2589,19 +2595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2613,19 +2625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2643,7 +2655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,7 +2673,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,61 +2727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2733,19 +2739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2757,13 +2763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,41 +2798,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2843,8 +2819,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2874,16 +2865,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2892,133 +2898,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3371,7 +3377,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -41102,7 +41108,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -41543,8 +41549,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="21" activeTab="27"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -1601,12 +1601,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -2372,10 +2366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2437,7 +2431,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2451,76 +2474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2541,8 +2497,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2559,7 +2531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2568,6 +2540,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2595,13 +2589,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2619,31 +2691,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,121 +2757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,11 +2792,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2819,23 +2819,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2855,17 +2840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2880,16 +2854,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2898,133 +2892,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -36823,7 +36817,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E25"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -37421,8 +37415,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -41206,7 +41200,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -41549,8 +41543,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -21,27 +21,29 @@
     <sheet name="sportReport" sheetId="12" r:id="rId12"/>
     <sheet name="s_market_params" sheetId="13" r:id="rId13"/>
     <sheet name="sportMarket" sheetId="14" r:id="rId14"/>
-    <sheet name="tournament_params" sheetId="15" r:id="rId15"/>
-    <sheet name="tournamentReport" sheetId="16" r:id="rId16"/>
-    <sheet name="match_params" sheetId="17" r:id="rId17"/>
-    <sheet name="matchReport" sheetId="18" r:id="rId18"/>
-    <sheet name="match_params_m" sheetId="19" r:id="rId19"/>
-    <sheet name="matchMarket" sheetId="20" r:id="rId20"/>
-    <sheet name="multiterm_params" sheetId="21" r:id="rId21"/>
-    <sheet name="multitermReport" sheetId="22" r:id="rId22"/>
-    <sheet name="cancelled_params" sheetId="23" r:id="rId23"/>
-    <sheet name="cancelledOrder" sheetId="24" r:id="rId24"/>
-    <sheet name="bill_params" sheetId="25" r:id="rId25"/>
-    <sheet name="bill" sheetId="26" r:id="rId26"/>
-    <sheet name="billDetail_params" sheetId="28" r:id="rId27"/>
-    <sheet name="billOrderDetail" sheetId="27" r:id="rId28"/>
+    <sheet name="sport_params_d" sheetId="30" r:id="rId15"/>
+    <sheet name="sportOrder_d" sheetId="29" r:id="rId16"/>
+    <sheet name="tournament_params" sheetId="15" r:id="rId17"/>
+    <sheet name="tournamentReport" sheetId="16" r:id="rId18"/>
+    <sheet name="match_params" sheetId="17" r:id="rId19"/>
+    <sheet name="matchReport" sheetId="18" r:id="rId20"/>
+    <sheet name="match_params_m" sheetId="19" r:id="rId21"/>
+    <sheet name="matchMarket" sheetId="20" r:id="rId22"/>
+    <sheet name="multiterm_params" sheetId="21" r:id="rId23"/>
+    <sheet name="multitermReport" sheetId="22" r:id="rId24"/>
+    <sheet name="cancelled_params" sheetId="23" r:id="rId25"/>
+    <sheet name="cancelledOrder" sheetId="24" r:id="rId26"/>
+    <sheet name="bill_params" sheetId="25" r:id="rId27"/>
+    <sheet name="bill" sheetId="26" r:id="rId28"/>
+    <sheet name="billDetail_params" sheetId="28" r:id="rId29"/>
+    <sheet name="billOrderDetail" sheetId="27" r:id="rId30"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="392">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -721,6 +723,1281 @@
   </si>
   <si>
     <t>f"SELECT mark_name,`总投注金额`,`总有效金额`,`总佣金`,`会员输赢`,`会员佣金`,`会员总计`,`三级代理输赢`,`三级代理佣金`,`三级代理总计`,`二级代理输赢`,`二级代理佣金`,`二级代理总计`,`一级代理输赢`,`一级代理佣金`,`一级代理总计`,`总代理输赢`,`总代理佣金`,`总代理总计`,`公司输赢`,`公司佣金`,`公司总计` FROM (SELECT market_id,a.sport_id,sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM o_account_order a JOIN o_account_order_match b ON a.order_no=b.order_no WHERE bet_type=1 AND `status`=2 AND a.award_time is not NULL AND a.sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}' GROUP BY market_id) a LEFT JOIN group_market_name b ON (a.market_id = b.mark_id AND a.sport_id = b.sport_id) UNION SELECT '串关'as '串关',sum(bet_amount) '总投注金额',sum(IFNULL(efficient_amount,0)) '总有效金额',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '总佣金',sum(handicap_final_win_or_lose-backwater_amount) '会员输赢',sum(IFNULL(backwater_amount,0)) '会员佣金',sum(handicap_final_win_or_lose) '会员总计',sum(level3_win_or_lose-level3_backwater_amount) '三级代理输赢',sum(IFNULL(level3_backwater_amount,0)) '三级代理佣金',sum(level3_win_or_lose) '三级代理总计',sum(level2_win_or_lose-level2_backwater_amount) '二级代理输赢',sum(IFNULL(level2_backwater_amount,0)) '二级代理佣金',sum(level2_win_or_lose) '二级代理总计',sum(level1_win_or_lose-level1_backwater_amount) '一级代理输赢',sum(IFNULL(level1_backwater_amount,0)) '一级代理佣金',sum(level1_win_or_lose) '一级代理总计',sum(level0_win_or_lose-level0_backwater_amount) '总代理输赢',sum(IFNULL(level0_backwater_amount,0)) '总代理佣金',sum(level0_win_or_lose) '总代理总计',sum(company_win_or_lose-company_backwater_amount) '公司输赢',sum(company_backwater_amount) '公司佣金',sum(company_win_or_lose) '公司总计' FROM `bfty_credit`.`o_account_order` a JOIN v_order_match b ON a.order_no=b.order_no WHERE bet_type&gt;1 AND `status`=2 AND award_time is not NULL AND sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}'"</t>
+  </si>
+  <si>
+    <t>dateType</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据盘口查看注单详情</t>
+    </r>
+  </si>
+  <si>
+    <t>{"begin":"2022-06-23","end":"2022-06-29","dateType":3,"page":1,"limit":200,"sportId":"sr:sport:1","marketId":"1","account":null,"queryDateType":3,"tournamentId":null,"matchId":null}</t>
+  </si>
+  <si>
+    <r>
+      <t>f"SELECT market_id FROM (SELECT market_id,a.sport_id FROM o_account_order a JOIN o_account_order_match b ON a.order_no=b.order_no WHERE bet_type=1 AND `status`=2 AND a.award_time is not NULL AND a.sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}' GROUP BY market_id) a LEFT JOIN group_market_name b ON (a.market_id = b.mark_id AND a.sport_id = b.sport_id) UNION SELECT '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' FROM `bfty_credit`.`o_account_order` a JOIN v_order_match b ON a.order_no=b.order_no WHERE bet_type&gt;1 AND `status`=2 AND award_time is not NULL AND sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}'"
+@
+f"SELECT mark_name,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`,`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>` FROM (SELECT market_id,a.sport_id,sum(bet_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(efficient_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(handicap_final_win_or_lose-backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(handicap_final_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level3_win_or_lose-level3_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level3_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level3_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level2_win_or_lose-level2_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level2_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level2_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level1_win_or_lose-level1_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level1_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level1_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level0_win_or_lose-level0_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level0_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level0_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_win_or_lose-company_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' FROM o_account_order a JOIN o_account_order_match b ON a.order_no=b.order_no WHERE bet_type=1 AND `status`=2 AND a.award_time is not NULL AND a.sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}' GROUP BY market_id) a LEFT JOIN group_market_name b ON (a.market_id = b.mark_id AND a.sport_id = b.sport_id) UNION SELECT '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(bet_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(efficient_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(handicap_final_win_or_lose-backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(handicap_final_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level3_win_or_lose-level3_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level3_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level3_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level2_win_or_lose-level2_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level2_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level2_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level1_win_or_lose-level1_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level1_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level1_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level0_win_or_lose-level0_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(IFNULL(level0_backwater_amount,0)) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(level0_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代理总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_win_or_lose-company_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_backwater_amount) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司佣金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',sum(company_win_or_lose) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司总计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' FROM `bfty_credit`.`o_account_order` a JOIN v_order_match b ON a.order_no=b.order_no WHERE bet_type&gt;1 AND `status`=2 AND award_time is not NULL AND sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}'"</t>
+    </r>
   </si>
   <si>
     <t>默认按照结算时间查询"足球"近7天联赛报表数据</t>
@@ -36817,7 +38094,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -37415,8 +38692,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -37527,6 +38804,195 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -37576,7 +39042,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -37599,7 +39065,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
@@ -37622,7 +39088,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
@@ -37645,7 +39111,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -37668,7 +39134,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -37691,7 +39157,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -37714,7 +39180,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -37737,7 +39203,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -37760,7 +39226,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -37783,7 +39249,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
@@ -37806,7 +39272,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
         <v>177</v>
@@ -37829,7 +39295,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
         <v>173</v>
@@ -37852,7 +39318,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -37875,7 +39341,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -37898,7 +39364,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -37921,7 +39387,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
@@ -37944,7 +39410,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
         <v>177</v>
@@ -37967,7 +39433,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
         <v>173</v>
@@ -37990,7 +39456,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
         <v>169</v>
@@ -38013,7 +39479,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
         <v>177</v>
@@ -38036,7 +39502,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
         <v>173</v>
@@ -38059,7 +39525,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
         <v>169</v>
@@ -38082,7 +39548,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
         <v>177</v>
@@ -38105,7 +39571,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
         <v>173</v>
@@ -38128,7 +39594,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E26" t="s">
         <v>169</v>
@@ -38151,7 +39617,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E27" t="s">
         <v>177</v>
@@ -38174,7 +39640,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E28" t="s">
         <v>173</v>
@@ -38197,7 +39663,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E29" t="s">
         <v>169</v>
@@ -38220,7 +39686,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E30" t="s">
         <v>177</v>
@@ -38243,7 +39709,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E31" t="s">
         <v>173</v>
@@ -38266,7 +39732,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
         <v>169</v>
@@ -38289,7 +39755,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E33" t="s">
         <v>177</v>
@@ -38312,7 +39778,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E34" t="s">
         <v>173</v>
@@ -38335,7 +39801,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
         <v>169</v>
@@ -38358,7 +39824,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
@@ -38381,7 +39847,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
         <v>173</v>
@@ -38404,7 +39870,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E38" t="s">
         <v>169</v>
@@ -38427,7 +39893,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -38450,7 +39916,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
         <v>173</v>
@@ -38473,7 +39939,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
@@ -38496,7 +39962,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E42" t="s">
         <v>177</v>
@@ -38519,7 +39985,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
         <v>173</v>
@@ -38542,7 +40008,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E44" t="s">
         <v>169</v>
@@ -38565,7 +40031,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
         <v>177</v>
@@ -38588,7 +40054,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
         <v>173</v>
@@ -38611,7 +40077,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
         <v>169</v>
@@ -38634,7 +40100,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
         <v>177</v>
@@ -38657,7 +40123,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
         <v>173</v>
@@ -38675,7 +40141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -38753,10 +40219,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -38777,13 +40243,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -38795,7 +40261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G49"/>
@@ -38847,7 +40313,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -38870,7 +40336,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
@@ -38893,7 +40359,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
@@ -38916,7 +40382,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -38939,7 +40405,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -38962,7 +40428,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -38985,7 +40451,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -39008,7 +40474,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -39031,7 +40497,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -39054,7 +40520,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
@@ -39077,7 +40543,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
         <v>177</v>
@@ -39100,7 +40566,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E13" t="s">
         <v>173</v>
@@ -39123,7 +40589,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -39146,7 +40612,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -39169,7 +40635,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -39192,7 +40658,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
@@ -39215,7 +40681,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E18" t="s">
         <v>177</v>
@@ -39238,7 +40704,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
         <v>173</v>
@@ -39261,7 +40727,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s">
         <v>169</v>
@@ -39284,7 +40750,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
         <v>177</v>
@@ -39307,7 +40773,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
         <v>173</v>
@@ -39330,7 +40796,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
         <v>169</v>
@@ -39353,7 +40819,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E24" t="s">
         <v>177</v>
@@ -39376,7 +40842,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E25" t="s">
         <v>173</v>
@@ -39399,7 +40865,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
         <v>169</v>
@@ -39422,7 +40888,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E27" t="s">
         <v>177</v>
@@ -39445,7 +40911,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E28" t="s">
         <v>173</v>
@@ -39468,7 +40934,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
         <v>169</v>
@@ -39491,7 +40957,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s">
         <v>177</v>
@@ -39514,7 +40980,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E31" t="s">
         <v>173</v>
@@ -39537,7 +41003,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s">
         <v>169</v>
@@ -39560,7 +41026,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E33" t="s">
         <v>177</v>
@@ -39583,7 +41049,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E34" t="s">
         <v>173</v>
@@ -39606,7 +41072,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E35" t="s">
         <v>169</v>
@@ -39629,7 +41095,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
@@ -39652,7 +41118,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E37" t="s">
         <v>173</v>
@@ -39675,7 +41141,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E38" t="s">
         <v>169</v>
@@ -39698,7 +41164,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -39721,7 +41187,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E40" t="s">
         <v>173</v>
@@ -39744,7 +41210,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
@@ -39767,7 +41233,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E42" t="s">
         <v>177</v>
@@ -39790,7 +41256,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E43" t="s">
         <v>173</v>
@@ -39813,7 +41279,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E44" t="s">
         <v>169</v>
@@ -39836,7 +41302,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E45" t="s">
         <v>177</v>
@@ -39859,7 +41325,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E46" t="s">
         <v>173</v>
@@ -39882,7 +41348,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E47" t="s">
         <v>169</v>
@@ -39905,7 +41371,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E48" t="s">
         <v>177</v>
@@ -39928,7 +41394,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E49" t="s">
         <v>173</v>
@@ -39937,311 +41403,6 @@
         <v>217</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
-  <cols>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="63.875" customWidth="1"/>
-    <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>-7</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>-7</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>-7</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>-30</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>-30</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>-30</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -40552,6 +41713,311 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>-30</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>-30</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>-30</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -40624,10 +42090,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -40639,7 +42105,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
@@ -40648,13 +42114,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -40666,7 +42132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
@@ -40707,10 +42173,10 @@
         <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I1" t="s">
         <v>84</v>
@@ -40730,16 +42196,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -40756,16 +42222,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -40782,16 +42248,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -40808,7 +42274,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -40817,10 +42283,10 @@
         <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -40837,7 +42303,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -40846,10 +42312,10 @@
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I6" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -40866,7 +42332,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -40875,10 +42341,10 @@
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -40895,7 +42361,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -40904,10 +42370,10 @@
         <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I8" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -40924,7 +42390,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -40933,10 +42399,10 @@
         <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -40953,7 +42419,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -40962,10 +42428,10 @@
         <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I10" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -40977,7 +42443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -41055,10 +42521,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -41070,7 +42536,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
@@ -41079,13 +42545,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -41097,7 +42563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -41142,10 +42608,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -41159,10 +42625,10 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -41176,13 +42642,13 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -41194,7 +42660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -41272,10 +42738,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -41287,7 +42753,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
@@ -41296,13 +42762,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -41314,7 +42780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -41337,7 +42803,7 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -41357,7 +42823,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -41369,7 +42835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -41447,10 +42913,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -41462,22 +42928,22 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -41489,7 +42955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -41526,7 +42992,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -41538,7 +43004,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -41616,10 +43129,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -41631,10 +43144,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
@@ -41644,53 +43157,6 @@
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="393">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -734,7 +734,16 @@
     <t>limit</t>
   </si>
   <si>
+    <t>根据盘口ID'{marketID}'查看注单详情</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -784,11 +793,281 @@
     </r>
   </si>
   <si>
-    <t>{"begin":"2022-06-23","end":"2022-06-29","dateType":3,"page":1,"limit":200,"sportId":"sr:sport:1","marketId":"1","account":null,"queryDateType":3,"tournamentId":null,"matchId":null}</t>
+    <t>{"begin":"2022-06-23","end":"2022-06-29","dateType":3,"page":1,"limit":200,"sportId":"sr:sport:1","marketId":"1","account":"","queryDateType":3,"tournamentId":"","matchId":""}</t>
   </si>
   <si>
     <r>
-      <t>f"SELECT market_id FROM (SELECT market_id,a.sport_id FROM o_account_order a JOIN o_account_order_match b ON a.order_no=b.order_no WHERE bet_type=1 AND `status`=2 AND a.award_time is not NULL AND a.sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}' GROUP BY market_id) a LEFT JOIN group_market_name b ON (a.market_id = b.mark_id AND a.sport_id = b.sport_id) UNION SELECT '</t>
+      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
     </r>
     <r>
       <rPr>
@@ -806,7 +1085,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>'as '</t>
+      <t>' when a.bet_type=3 then '</t>
     </r>
     <r>
       <rPr>
@@ -815,7 +1094,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>串关</t>
+      <t>复式串关</t>
     </r>
     <r>
       <rPr>
@@ -824,9 +1103,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>' FROM `bfty_credit`.`o_account_order` a JOIN v_order_match b ON a.order_no=b.order_no WHERE bet_type&gt;1 AND `status`=2 AND award_time is not NULL AND sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}'"
-@
-f"SELECT mark_name,`</t>
+      <t>' end ) as '</t>
     </r>
     <r>
       <rPr>
@@ -835,7 +1112,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总投注金额</t>
+      <t>注单类型</t>
     </r>
     <r>
       <rPr>
@@ -844,7 +1121,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',tournament_name '</t>
     </r>
     <r>
       <rPr>
@@ -853,7 +1130,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总有效金额</t>
+      <t>联赛名称</t>
     </r>
     <r>
       <rPr>
@@ -862,7 +1139,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
     </r>
     <r>
       <rPr>
@@ -871,7 +1148,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总佣金</t>
+      <t>赛事名称</t>
     </r>
     <r>
       <rPr>
@@ -880,7 +1157,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',IF(is_live=3,'</t>
     </r>
     <r>
       <rPr>
@@ -889,7 +1166,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>会员输赢</t>
+      <t>早盘</t>
     </r>
     <r>
       <rPr>
@@ -898,7 +1175,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>','</t>
     </r>
     <r>
       <rPr>
@@ -907,7 +1184,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>会员佣金</t>
+      <t>滚球盘</t>
     </r>
     <r>
       <rPr>
@@ -916,7 +1193,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>') '</t>
     </r>
     <r>
       <rPr>
@@ -925,7 +1202,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>会员总计</t>
+      <t>赛事类型</t>
     </r>
     <r>
       <rPr>
@@ -934,7 +1211,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',market_name  '</t>
     </r>
     <r>
       <rPr>
@@ -943,7 +1220,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>三级代理输赢</t>
+      <t>盘口名称</t>
     </r>
     <r>
       <rPr>
@@ -952,7 +1229,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',specifier '</t>
     </r>
     <r>
       <rPr>
@@ -961,7 +1238,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>三级代理佣金</t>
+      <t>亚盘口</t>
     </r>
     <r>
       <rPr>
@@ -970,7 +1247,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',outcome_name  '</t>
     </r>
     <r>
       <rPr>
@@ -979,7 +1256,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>三级代理总计</t>
+      <t>投注项名称</t>
     </r>
     <r>
       <rPr>
@@ -988,7 +1265,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',cast(credit_odds as char) '</t>
     </r>
     <r>
       <rPr>
@@ -997,7 +1274,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>二级代理输赢</t>
+      <t>赔率</t>
     </r>
     <r>
       <rPr>
@@ -1006,7 +1283,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',if(odds_type=1,'</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +1292,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>二级代理佣金</t>
+      <t>欧洲盘</t>
     </r>
     <r>
       <rPr>
@@ -1024,7 +1301,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>','</t>
     </r>
     <r>
       <rPr>
@@ -1033,7 +1310,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>二级代理总计</t>
+      <t>香港盘</t>
     </r>
     <r>
       <rPr>
@@ -1042,7 +1319,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>') '</t>
     </r>
     <r>
       <rPr>
@@ -1051,7 +1328,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一级代理输赢</t>
+      <t>盘口类型</t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1337,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',match_time '</t>
     </r>
     <r>
       <rPr>
@@ -1069,7 +1346,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一级代理佣金</t>
+      <t>赛事时间</t>
     </r>
     <r>
       <rPr>
@@ -1078,7 +1355,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',ifnull(award_time,'--') as '</t>
     </r>
     <r>
       <rPr>
@@ -1087,7 +1364,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一级代理总计</t>
+      <t>结算时间</t>
     </r>
     <r>
       <rPr>
@@ -1096,7 +1373,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
     </r>
     <r>
       <rPr>
@@ -1105,7 +1382,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总代理输赢</t>
+      <t>赢</t>
     </r>
     <r>
       <rPr>
@@ -1114,7 +1391,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>' WHEN a.settlement_result=2 then '</t>
     </r>
     <r>
       <rPr>
@@ -1123,7 +1400,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总代理佣金</t>
+      <t>输</t>
     </r>
     <r>
       <rPr>
@@ -1132,7 +1409,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>' WHEN a.settlement_result=5 then '</t>
     </r>
     <r>
       <rPr>
@@ -1141,7 +1418,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总代理总计</t>
+      <t>平局走水</t>
     </r>
     <r>
       <rPr>
@@ -1150,7 +1427,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>' WHEN a.settlement_result=1 then '</t>
     </r>
     <r>
       <rPr>
@@ -1159,7 +1436,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>公司输赢</t>
+      <t>注单取消</t>
     </r>
     <r>
       <rPr>
@@ -1168,7 +1445,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>' END) as '</t>
     </r>
     <r>
       <rPr>
@@ -1177,7 +1454,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>公司佣金</t>
+      <t>注单结果</t>
     </r>
     <r>
       <rPr>
@@ -1186,7 +1463,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,`</t>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
     </r>
     <r>
       <rPr>
@@ -1195,7 +1472,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>公司总计</t>
+      <t>下注</t>
     </r>
     <r>
       <rPr>
@@ -1204,7 +1481,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>` FROM (SELECT market_id,a.sport_id,sum(bet_amount) '</t>
+      <t>IP</t>
     </r>
     <r>
       <rPr>
@@ -1213,7 +1490,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总投注金额</t>
+      <t>地址</t>
     </r>
     <r>
       <rPr>
@@ -1222,7 +1499,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',sum(IFNULL(efficient_amount,0)) '</t>
+      <t>',bet_amount as '</t>
     </r>
     <r>
       <rPr>
@@ -1231,7 +1508,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总有效金额</t>
+      <t>投注金额</t>
     </r>
     <r>
       <rPr>
@@ -1240,7 +1517,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '</t>
+      <t>',handicap_win_or_lose '</t>
     </r>
     <r>
       <rPr>
@@ -1249,7 +1526,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总佣金</t>
+      <t>注单输赢</t>
     </r>
     <r>
       <rPr>
@@ -1258,7 +1535,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',sum(handicap_final_win_or_lose-backwater_amount) '</t>
+      <t>',efficient_amount '</t>
     </r>
     <r>
       <rPr>
@@ -1267,7 +1544,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>会员输赢</t>
+      <t>有效金额</t>
     </r>
     <r>
       <rPr>
@@ -1276,727 +1553,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',sum(IFNULL(backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会员佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(handicap_final_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会员总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level3_win_or_lose-level3_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level3_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level3_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level2_win_or_lose-level2_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level2_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level2_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level1_win_or_lose-level1_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level1_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level1_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level0_win_or_lose-level0_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level0_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level0_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(company_win_or_lose-company_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(company_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(company_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' FROM o_account_order a JOIN o_account_order_match b ON a.order_no=b.order_no WHERE bet_type=1 AND `status`=2 AND a.award_time is not NULL AND a.sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}' GROUP BY market_id) a LEFT JOIN group_market_name b ON (a.market_id = b.mark_id AND a.sport_id = b.sport_id) UNION SELECT '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(bet_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总投注金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(efficient_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总有效金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(company_backwater_amount+level0_backwater_amount+level1_backwater_amount+level2_backwater_amount+level3_backwater_amount+backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(handicap_final_win_or_lose-backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会员输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会员佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(handicap_final_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会员总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level3_win_or_lose-level3_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level3_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level3_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三级代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level2_win_or_lose-level2_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level2_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level2_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二级代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level1_win_or_lose-level1_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level1_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level1_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一级代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level0_win_or_lose-level0_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总代理输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(IFNULL(level0_backwater_amount,0)) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总代理佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(level0_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总代理总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(company_win_or_lose-company_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(company_backwater_amount) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司佣金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',sum(company_win_or_lose) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司总计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' FROM `bfty_credit`.`o_account_order` a JOIN v_order_match b ON a.order_no=b.order_no WHERE bet_type&gt;1 AND `status`=2 AND award_time is not NULL AND sport_id='{sportId}' {DateType} BETWEEN '{begin}' AND '{end}'"</t>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.market_id='{marketId}' ORDER BY a.create_time DESC"</t>
     </r>
   </si>
   <si>
@@ -2878,6 +2435,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -3643,9 +3206,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -3708,13 +3271,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3722,7 +3278,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3737,7 +3301,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3745,29 +3309,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3783,32 +3355,44 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3822,30 +3406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3866,7 +3429,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3884,85 +3579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3974,73 +3597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4051,21 +3614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4086,9 +3634,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4098,21 +3681,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4132,22 +3700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4157,10 +3720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4169,133 +3732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -38094,7 +37657,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -38804,21 +38367,23 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="35.875" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -38841,10 +38406,16 @@
         <v>225</v>
       </c>
       <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
         <v>187</v>
       </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>-7</v>
       </c>
@@ -38866,8 +38437,14 @@
       <c r="G2">
         <v>200</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -38882,7 +38459,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -38957,7 +38534,7 @@
         <v>180</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -38969,10 +38546,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
@@ -39042,7 +38619,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -39065,7 +38642,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
@@ -39088,7 +38665,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
@@ -39111,7 +38688,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -39134,7 +38711,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -39157,7 +38734,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -39180,7 +38757,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -39203,7 +38780,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -39226,7 +38803,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -39249,7 +38826,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
@@ -39272,7 +38849,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
         <v>177</v>
@@ -39295,7 +38872,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
         <v>173</v>
@@ -39318,7 +38895,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -39341,7 +38918,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -39364,7 +38941,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -39387,7 +38964,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
@@ -39410,7 +38987,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
         <v>177</v>
@@ -39433,7 +39010,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
         <v>173</v>
@@ -39456,7 +39033,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
         <v>169</v>
@@ -39479,7 +39056,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
         <v>177</v>
@@ -39502,7 +39079,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
         <v>173</v>
@@ -39525,7 +39102,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
         <v>169</v>
@@ -39548,7 +39125,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" t="s">
         <v>177</v>
@@ -39571,7 +39148,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E25" t="s">
         <v>173</v>
@@ -39594,7 +39171,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E26" t="s">
         <v>169</v>
@@ -39617,7 +39194,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
         <v>177</v>
@@ -39640,7 +39217,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
         <v>173</v>
@@ -39663,7 +39240,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
         <v>169</v>
@@ -39686,7 +39263,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
         <v>177</v>
@@ -39709,7 +39286,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
         <v>173</v>
@@ -39732,7 +39309,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
         <v>169</v>
@@ -39755,7 +39332,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E33" t="s">
         <v>177</v>
@@ -39778,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E34" t="s">
         <v>173</v>
@@ -39801,7 +39378,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
         <v>169</v>
@@ -39824,7 +39401,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
@@ -39847,7 +39424,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E37" t="s">
         <v>173</v>
@@ -39870,7 +39447,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E38" t="s">
         <v>169</v>
@@ -39893,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -39916,7 +39493,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E40" t="s">
         <v>173</v>
@@ -39939,7 +39516,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
@@ -39962,7 +39539,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E42" t="s">
         <v>177</v>
@@ -39985,7 +39562,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E43" t="s">
         <v>173</v>
@@ -40008,7 +39585,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
         <v>169</v>
@@ -40031,7 +39608,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
         <v>177</v>
@@ -40054,7 +39631,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E46" t="s">
         <v>173</v>
@@ -40077,7 +39654,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
         <v>169</v>
@@ -40100,7 +39677,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
         <v>177</v>
@@ -40123,7 +39700,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E49" t="s">
         <v>173</v>
@@ -40219,10 +39796,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -40243,13 +39820,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -40313,7 +39890,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -40336,7 +39913,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
@@ -40359,7 +39936,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
@@ -40382,7 +39959,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -40405,7 +39982,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -40428,7 +40005,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -40451,7 +40028,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -40474,7 +40051,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -40497,7 +40074,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -40520,7 +40097,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
@@ -40543,7 +40120,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E12" t="s">
         <v>177</v>
@@ -40566,7 +40143,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E13" t="s">
         <v>173</v>
@@ -40589,7 +40166,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -40612,7 +40189,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -40635,7 +40212,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -40658,7 +40235,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
@@ -40681,7 +40258,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E18" t="s">
         <v>177</v>
@@ -40704,7 +40281,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
         <v>173</v>
@@ -40727,7 +40304,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E20" t="s">
         <v>169</v>
@@ -40750,7 +40327,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E21" t="s">
         <v>177</v>
@@ -40773,7 +40350,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
         <v>173</v>
@@ -40796,7 +40373,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
         <v>169</v>
@@ -40819,7 +40396,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E24" t="s">
         <v>177</v>
@@ -40842,7 +40419,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E25" t="s">
         <v>173</v>
@@ -40865,7 +40442,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E26" t="s">
         <v>169</v>
@@ -40888,7 +40465,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
         <v>177</v>
@@ -40911,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E28" t="s">
         <v>173</v>
@@ -40934,7 +40511,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E29" t="s">
         <v>169</v>
@@ -40957,7 +40534,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E30" t="s">
         <v>177</v>
@@ -40980,7 +40557,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
         <v>173</v>
@@ -41003,7 +40580,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E32" t="s">
         <v>169</v>
@@ -41026,7 +40603,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E33" t="s">
         <v>177</v>
@@ -41049,7 +40626,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E34" t="s">
         <v>173</v>
@@ -41072,7 +40649,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
         <v>169</v>
@@ -41095,7 +40672,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
@@ -41118,7 +40695,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E37" t="s">
         <v>173</v>
@@ -41141,7 +40718,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E38" t="s">
         <v>169</v>
@@ -41164,7 +40741,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -41187,7 +40764,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E40" t="s">
         <v>173</v>
@@ -41210,7 +40787,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
@@ -41233,7 +40810,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E42" t="s">
         <v>177</v>
@@ -41256,7 +40833,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E43" t="s">
         <v>173</v>
@@ -41279,7 +40856,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E44" t="s">
         <v>169</v>
@@ -41302,7 +40879,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E45" t="s">
         <v>177</v>
@@ -41325,7 +40902,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
         <v>173</v>
@@ -41348,7 +40925,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E47" t="s">
         <v>169</v>
@@ -41371,7 +40948,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E48" t="s">
         <v>177</v>
@@ -41394,7 +40971,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E49" t="s">
         <v>173</v>
@@ -41785,10 +41362,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -41809,13 +41386,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -41862,7 +41439,7 @@
         <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
         <v>187</v>
@@ -41879,13 +41456,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -41902,13 +41479,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -41925,13 +41502,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -41948,13 +41525,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -41971,13 +41548,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -41994,13 +41571,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -42090,10 +41667,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42105,7 +41682,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
@@ -42114,13 +41691,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42173,10 +41750,10 @@
         <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I1" t="s">
         <v>84</v>
@@ -42196,16 +41773,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -42222,16 +41799,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -42248,16 +41825,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -42274,7 +41851,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -42283,10 +41860,10 @@
         <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -42303,7 +41880,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -42312,10 +41889,10 @@
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -42332,7 +41909,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -42341,10 +41918,10 @@
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -42361,7 +41938,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -42370,10 +41947,10 @@
         <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -42390,7 +41967,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -42399,10 +41976,10 @@
         <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -42419,7 +41996,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -42428,10 +42005,10 @@
         <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -42521,10 +42098,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42536,7 +42113,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
@@ -42545,13 +42122,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42608,10 +42185,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -42625,10 +42202,10 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -42642,13 +42219,13 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -42738,10 +42315,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42753,7 +42330,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
@@ -42762,13 +42339,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42803,7 +42380,7 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -42823,7 +42400,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -42913,10 +42490,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42928,22 +42505,22 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42992,7 +42569,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -43129,10 +42706,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -43144,10 +42721,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="11" activeTab="15"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="395">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -734,7 +734,13 @@
     <t>limit</t>
   </si>
   <si>
-    <t>根据盘口ID'{marketID}'查看注单详情</t>
+    <t>根据球类"足球"查看注单详情</t>
+  </si>
+  <si>
+    <t>根据球类"篮球"查看注单详情</t>
+  </si>
+  <si>
+    <t>根据球类"网球"查看注单详情</t>
   </si>
   <si>
     <r>
@@ -797,7 +803,770 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type&gt;1 ORDER BY a.create_time DESC"
+@f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
       <rPr>
@@ -3271,43 +4040,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3315,50 +4060,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3377,22 +4090,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3408,7 +4122,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3429,7 +4198,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3441,73 +4354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,91 +4366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3617,46 +4386,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3676,11 +4410,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3700,6 +4440,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3714,16 +4472,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3732,133 +4501,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -38367,13 +39136,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
@@ -38447,6 +39216,70 @@
         <v>169</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -38458,8 +39291,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -38534,7 +39367,7 @@
         <v>180</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -38546,10 +39379,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
@@ -38619,7 +39452,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -38642,7 +39475,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
@@ -38665,7 +39498,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
@@ -38688,7 +39521,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -38711,7 +39544,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -38734,7 +39567,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -38757,7 +39590,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -38780,7 +39613,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -38803,7 +39636,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -38826,7 +39659,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
@@ -38849,7 +39682,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
         <v>177</v>
@@ -38872,7 +39705,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
         <v>173</v>
@@ -38895,7 +39728,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -38918,7 +39751,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -38941,7 +39774,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -38964,7 +39797,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
@@ -38987,7 +39820,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
         <v>177</v>
@@ -39010,7 +39843,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
         <v>173</v>
@@ -39033,7 +39866,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
         <v>169</v>
@@ -39056,7 +39889,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
         <v>177</v>
@@ -39079,7 +39912,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
         <v>173</v>
@@ -39102,7 +39935,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
         <v>169</v>
@@ -39125,7 +39958,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E24" t="s">
         <v>177</v>
@@ -39148,7 +39981,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
         <v>173</v>
@@ -39171,7 +40004,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E26" t="s">
         <v>169</v>
@@ -39194,7 +40027,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
         <v>177</v>
@@ -39217,7 +40050,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
         <v>173</v>
@@ -39240,7 +40073,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E29" t="s">
         <v>169</v>
@@ -39263,7 +40096,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
         <v>177</v>
@@ -39286,7 +40119,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E31" t="s">
         <v>173</v>
@@ -39309,7 +40142,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E32" t="s">
         <v>169</v>
@@ -39332,7 +40165,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E33" t="s">
         <v>177</v>
@@ -39355,7 +40188,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E34" t="s">
         <v>173</v>
@@ -39378,7 +40211,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E35" t="s">
         <v>169</v>
@@ -39401,7 +40234,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
@@ -39424,7 +40257,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E37" t="s">
         <v>173</v>
@@ -39447,7 +40280,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E38" t="s">
         <v>169</v>
@@ -39470,7 +40303,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -39493,7 +40326,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s">
         <v>173</v>
@@ -39516,7 +40349,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
@@ -39539,7 +40372,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
         <v>177</v>
@@ -39562,7 +40395,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
         <v>173</v>
@@ -39585,7 +40418,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
         <v>169</v>
@@ -39608,7 +40441,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
         <v>177</v>
@@ -39631,7 +40464,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
         <v>173</v>
@@ -39654,7 +40487,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
         <v>169</v>
@@ -39677,7 +40510,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
         <v>177</v>
@@ -39700,7 +40533,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
         <v>173</v>
@@ -39796,10 +40629,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -39820,13 +40653,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -39890,7 +40723,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -39913,7 +40746,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
@@ -39936,7 +40769,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
@@ -39959,7 +40792,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -39982,7 +40815,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -40005,7 +40838,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -40028,7 +40861,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -40051,7 +40884,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -40074,7 +40907,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -40097,7 +40930,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
@@ -40120,7 +40953,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
         <v>177</v>
@@ -40143,7 +40976,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
         <v>173</v>
@@ -40166,7 +40999,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
         <v>169</v>
@@ -40189,7 +41022,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -40212,7 +41045,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E16" t="s">
         <v>173</v>
@@ -40235,7 +41068,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
@@ -40258,7 +41091,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
         <v>177</v>
@@ -40281,7 +41114,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E19" t="s">
         <v>173</v>
@@ -40304,7 +41137,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E20" t="s">
         <v>169</v>
@@ -40327,7 +41160,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E21" t="s">
         <v>177</v>
@@ -40350,7 +41183,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E22" t="s">
         <v>173</v>
@@ -40373,7 +41206,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E23" t="s">
         <v>169</v>
@@ -40396,7 +41229,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E24" t="s">
         <v>177</v>
@@ -40419,7 +41252,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E25" t="s">
         <v>173</v>
@@ -40442,7 +41275,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E26" t="s">
         <v>169</v>
@@ -40465,7 +41298,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E27" t="s">
         <v>177</v>
@@ -40488,7 +41321,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E28" t="s">
         <v>173</v>
@@ -40511,7 +41344,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E29" t="s">
         <v>169</v>
@@ -40534,7 +41367,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E30" t="s">
         <v>177</v>
@@ -40557,7 +41390,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E31" t="s">
         <v>173</v>
@@ -40580,7 +41413,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E32" t="s">
         <v>169</v>
@@ -40603,7 +41436,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E33" t="s">
         <v>177</v>
@@ -40626,7 +41459,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E34" t="s">
         <v>173</v>
@@ -40649,7 +41482,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E35" t="s">
         <v>169</v>
@@ -40672,7 +41505,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
@@ -40695,7 +41528,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E37" t="s">
         <v>173</v>
@@ -40718,7 +41551,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E38" t="s">
         <v>169</v>
@@ -40741,7 +41574,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -40764,7 +41597,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E40" t="s">
         <v>173</v>
@@ -40787,7 +41620,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
@@ -40810,7 +41643,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E42" t="s">
         <v>177</v>
@@ -40833,7 +41666,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E43" t="s">
         <v>173</v>
@@ -40856,7 +41689,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E44" t="s">
         <v>169</v>
@@ -40879,7 +41712,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E45" t="s">
         <v>177</v>
@@ -40902,7 +41735,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E46" t="s">
         <v>173</v>
@@ -40925,7 +41758,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E47" t="s">
         <v>169</v>
@@ -40948,7 +41781,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E48" t="s">
         <v>177</v>
@@ -40971,7 +41804,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E49" t="s">
         <v>173</v>
@@ -41362,10 +42195,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -41386,13 +42219,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -41439,7 +42272,7 @@
         <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G1" t="s">
         <v>187</v>
@@ -41456,13 +42289,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -41479,13 +42312,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -41502,13 +42335,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -41525,13 +42358,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -41548,13 +42381,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -41571,13 +42404,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -41667,10 +42500,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -41682,7 +42515,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
@@ -41691,13 +42524,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -41750,10 +42583,10 @@
         <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I1" t="s">
         <v>84</v>
@@ -41773,16 +42606,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -41799,16 +42632,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -41825,16 +42658,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -41851,7 +42684,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -41860,10 +42693,10 @@
         <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -41880,7 +42713,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -41889,10 +42722,10 @@
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -41909,7 +42742,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -41918,10 +42751,10 @@
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -41938,7 +42771,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -41947,10 +42780,10 @@
         <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -41967,7 +42800,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -41976,10 +42809,10 @@
         <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -41996,7 +42829,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -42005,10 +42838,10 @@
         <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -42098,10 +42931,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42113,7 +42946,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
@@ -42122,13 +42955,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42185,10 +43018,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -42202,10 +43035,10 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -42219,13 +43052,13 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -42315,10 +43148,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42330,7 +43163,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
@@ -42339,13 +43172,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42380,7 +43213,7 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -42400,7 +43233,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -42490,10 +43323,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42505,22 +43338,22 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42569,7 +43402,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -42706,10 +43539,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42721,10 +43554,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -3975,10 +3975,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -4040,36 +4040,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4083,16 +4054,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4114,17 +4093,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4152,9 +4130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4170,14 +4147,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4198,37 +4198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4246,25 +4228,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4282,25 +4276,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4312,43 +4348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4366,13 +4372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4383,15 +4383,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4425,21 +4416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4454,6 +4430,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4475,11 +4462,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4489,10 +4489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4501,133 +4501,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -39139,7 +39139,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="11" activeTab="14"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,27 @@
     <sheet name="sportOrder_d" sheetId="29" r:id="rId16"/>
     <sheet name="tournament_params" sheetId="15" r:id="rId17"/>
     <sheet name="tournamentReport" sheetId="16" r:id="rId18"/>
-    <sheet name="match_params" sheetId="17" r:id="rId19"/>
-    <sheet name="matchReport" sheetId="18" r:id="rId20"/>
-    <sheet name="match_params_m" sheetId="19" r:id="rId21"/>
-    <sheet name="matchMarket" sheetId="20" r:id="rId22"/>
-    <sheet name="multiterm_params" sheetId="21" r:id="rId23"/>
-    <sheet name="multitermReport" sheetId="22" r:id="rId24"/>
-    <sheet name="cancelled_params" sheetId="23" r:id="rId25"/>
-    <sheet name="cancelledOrder" sheetId="24" r:id="rId26"/>
-    <sheet name="bill_params" sheetId="25" r:id="rId27"/>
-    <sheet name="bill" sheetId="26" r:id="rId28"/>
-    <sheet name="billDetail_params" sheetId="28" r:id="rId29"/>
-    <sheet name="billOrderDetail" sheetId="27" r:id="rId30"/>
+    <sheet name="tournament_params_d" sheetId="32" r:id="rId19"/>
+    <sheet name="tournamentOrder_d" sheetId="31" r:id="rId20"/>
+    <sheet name="match_params" sheetId="17" r:id="rId21"/>
+    <sheet name="matchReport" sheetId="18" r:id="rId22"/>
+    <sheet name="match_params_m" sheetId="19" r:id="rId23"/>
+    <sheet name="matchMarket" sheetId="20" r:id="rId24"/>
+    <sheet name="multiterm_params" sheetId="21" r:id="rId25"/>
+    <sheet name="multitermReport" sheetId="22" r:id="rId26"/>
+    <sheet name="cancelled_params" sheetId="23" r:id="rId27"/>
+    <sheet name="cancelledOrder" sheetId="24" r:id="rId28"/>
+    <sheet name="bill_params" sheetId="25" r:id="rId29"/>
+    <sheet name="bill" sheetId="26" r:id="rId30"/>
+    <sheet name="billDetail_params" sheetId="28" r:id="rId31"/>
+    <sheet name="billOrderDetail" sheetId="27" r:id="rId32"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="398">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -2486,6 +2488,1577 @@
 2022-06-29 10:08:01</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据盘口查看注单详情</t>
+    </r>
+  </si>
+  <si>
+    <t>{"begin":"2022-06-24","end":"2022-06-30","dateType":3,"page":1,"limit":50,"sportId":"sr:sport:2","marketId":"","account":"","queryDateType":3,"tournamentId":"sr:tournament:30142","matchId":""}</t>
+  </si>
+  <si>
+    <r>
+      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type&gt;1 ORDER BY a.create_time DESC"
+@f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.market_id='{marketId}' ORDER BY a.create_time DESC"</t>
+    </r>
+  </si>
+  <si>
     <t>默认按照结算时间查询"足球"近7天赛事盈亏数据</t>
   </si>
   <si>
@@ -3975,10 +5548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -4060,18 +5633,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4093,6 +5666,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4103,6 +5684,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4139,14 +5728,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4162,15 +5743,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4198,19 +5771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4234,19 +5801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4258,7 +5813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4276,13 +5831,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4294,31 +5885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4330,31 +5897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4372,7 +5915,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4397,6 +5970,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4434,17 +6022,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4469,17 +6046,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4489,10 +6062,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4501,16 +6074,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4522,112 +6095,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -39138,8 +40711,8 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -39292,7 +40865,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -40674,22 +42247,23 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="47.25" customWidth="1"/>
-    <col min="5" max="5" width="44.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -40697,1123 +42271,60 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>-7</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>-7</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>-7</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>-30</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>-30</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>-30</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>-7</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>-7</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>-7</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>-30</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>-30</v>
-      </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>-30</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>-7</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>-7</v>
-      </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>-7</v>
-      </c>
-      <c r="B16">
-        <v>-1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>-30</v>
-      </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>-30</v>
-      </c>
-      <c r="B18">
-        <v>-1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>-30</v>
-      </c>
-      <c r="B19">
-        <v>-1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>-7</v>
-      </c>
-      <c r="B20">
-        <v>-1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>-7</v>
-      </c>
-      <c r="B21">
-        <v>-1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>-7</v>
-      </c>
-      <c r="B22">
-        <v>-1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" t="s">
-        <v>201</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>-30</v>
-      </c>
-      <c r="B23">
-        <v>-1</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>-30</v>
-      </c>
-      <c r="B24">
-        <v>-1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>-30</v>
-      </c>
-      <c r="B25">
-        <v>-1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>-7</v>
-      </c>
-      <c r="B26">
-        <v>-1</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>-7</v>
-      </c>
-      <c r="B27">
-        <v>-1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>310</v>
-      </c>
-      <c r="E27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>-7</v>
-      </c>
-      <c r="B28">
-        <v>-1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>-30</v>
-      </c>
-      <c r="B29">
-        <v>-1</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>312</v>
-      </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>-30</v>
-      </c>
-      <c r="B30">
-        <v>-1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>313</v>
-      </c>
-      <c r="E30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>-30</v>
-      </c>
-      <c r="B31">
-        <v>-1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>-7</v>
-      </c>
-      <c r="B32">
-        <v>-1</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>315</v>
-      </c>
-      <c r="E32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>-7</v>
-      </c>
-      <c r="B33">
-        <v>-1</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>316</v>
-      </c>
-      <c r="E33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>-7</v>
-      </c>
-      <c r="B34">
-        <v>-1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>-30</v>
-      </c>
-      <c r="B35">
-        <v>-1</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>318</v>
-      </c>
-      <c r="E35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>-30</v>
-      </c>
-      <c r="B36">
-        <v>-1</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>319</v>
-      </c>
-      <c r="E36" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>-30</v>
-      </c>
-      <c r="B37">
-        <v>-1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>320</v>
-      </c>
-      <c r="E37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>-7</v>
-      </c>
-      <c r="B38">
-        <v>-1</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>-7</v>
-      </c>
-      <c r="B39">
-        <v>-1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" t="s">
-        <v>213</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>-7</v>
-      </c>
-      <c r="B40">
-        <v>-1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>323</v>
-      </c>
-      <c r="E40" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" t="s">
-        <v>213</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>-30</v>
-      </c>
-      <c r="B41">
-        <v>-1</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>324</v>
-      </c>
-      <c r="E41" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>-30</v>
-      </c>
-      <c r="B42">
-        <v>-1</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>325</v>
-      </c>
-      <c r="E42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" t="s">
-        <v>213</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>-30</v>
-      </c>
-      <c r="B43">
-        <v>-1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" t="s">
-        <v>213</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>-7</v>
-      </c>
-      <c r="B44">
-        <v>-1</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>327</v>
-      </c>
-      <c r="E44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" t="s">
-        <v>217</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>-7</v>
-      </c>
-      <c r="B45">
-        <v>-1</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>328</v>
-      </c>
-      <c r="E45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>-7</v>
-      </c>
-      <c r="B46">
-        <v>-1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" t="s">
-        <v>217</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>-30</v>
-      </c>
-      <c r="B47">
-        <v>-1</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>330</v>
-      </c>
-      <c r="E47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>-30</v>
-      </c>
-      <c r="B48">
-        <v>-1</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>331</v>
-      </c>
-      <c r="E48" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>-30</v>
-      </c>
-      <c r="B49">
-        <v>-1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>332</v>
-      </c>
-      <c r="E49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -42122,6 +42633,1271 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>-30</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>-30</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>-30</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>-7</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>-30</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>-30</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>-30</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>-7</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>-7</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>-7</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>-30</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>-30</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>-30</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>-7</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>-7</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>-7</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>-30</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>-30</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>-30</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>-7</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>-7</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>-7</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>-30</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>-30</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>-30</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>-7</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>-7</v>
+      </c>
+      <c r="B33">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>319</v>
+      </c>
+      <c r="E33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>-7</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>-30</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>-30</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>-30</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>-7</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>-7</v>
+      </c>
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>-7</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>-30</v>
+      </c>
+      <c r="B41">
+        <v>-1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>-30</v>
+      </c>
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>328</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>-30</v>
+      </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>-7</v>
+      </c>
+      <c r="B44">
+        <v>-1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>330</v>
+      </c>
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>-7</v>
+      </c>
+      <c r="B45">
+        <v>-1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>331</v>
+      </c>
+      <c r="E45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>-7</v>
+      </c>
+      <c r="B46">
+        <v>-1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>-30</v>
+      </c>
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>333</v>
+      </c>
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>-30</v>
+      </c>
+      <c r="B48">
+        <v>-1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>334</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>-30</v>
+      </c>
+      <c r="B49">
+        <v>-1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
@@ -42195,10 +43971,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42219,13 +43995,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42237,7 +44013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G7"/>
@@ -42272,7 +44048,7 @@
         <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
         <v>187</v>
@@ -42289,13 +44065,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -42312,13 +44088,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -42335,13 +44111,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -42358,13 +44134,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -42381,13 +44157,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -42404,13 +44180,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -42422,7 +44198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -42500,10 +44276,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42515,7 +44291,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>33</v>
@@ -42524,13 +44300,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42542,7 +44318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
@@ -42583,10 +44359,10 @@
         <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I1" t="s">
         <v>84</v>
@@ -42606,16 +44382,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -42632,16 +44408,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -42658,16 +44434,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -42684,7 +44460,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -42693,10 +44469,10 @@
         <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -42713,7 +44489,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -42722,10 +44498,10 @@
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I6" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -42742,7 +44518,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -42751,10 +44527,10 @@
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -42771,7 +44547,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -42780,10 +44556,10 @@
         <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -42800,7 +44576,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -42809,10 +44585,10 @@
         <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -42829,7 +44605,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -42838,10 +44614,10 @@
         <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -42853,7 +44629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -42931,10 +44707,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42946,7 +44722,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
@@ -42955,13 +44731,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42973,7 +44749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -43018,10 +44794,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -43035,10 +44811,10 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -43052,13 +44828,13 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -43070,7 +44846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -43148,10 +44924,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -43163,7 +44939,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
@@ -43172,13 +44948,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -43190,7 +44966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -43213,7 +44989,7 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -43233,7 +45009,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -43245,7 +45021,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -43323,10 +45146,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -43338,22 +45161,22 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -43365,7 +45188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -43402,7 +45225,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -43414,54 +45237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -43539,10 +45315,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -43554,10 +45330,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -2489,6 +2489,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -4055,7 +4061,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.market_id='{marketId}' ORDER BY a.create_time DESC"</t>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.tournament_id='{tournamentId}' ORDER BY a.create_time DESC"</t>
     </r>
   </si>
   <si>
@@ -5549,9 +5555,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5627,7 +5633,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5635,14 +5656,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5666,24 +5687,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5712,15 +5718,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5728,14 +5727,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5750,7 +5742,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5771,7 +5777,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5783,79 +5933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5867,85 +5945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5974,17 +5980,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6000,15 +6000,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6037,11 +6028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6056,16 +6053,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6077,34 +6083,34 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6113,94 +6119,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -40865,7 +40871,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -42250,7 +42256,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -42303,7 +42309,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -42634,7 +42640,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -805,13 +805,25 @@
   </si>
   <si>
     <r>
+      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -820,6 +832,745 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type&gt;1 ORDER BY a.create_time DESC LIMIT 200"
+@f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>账号</t>
     </r>
     <r>
@@ -1567,764 +2318,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type&gt;1 ORDER BY a.create_time DESC"
-@f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登入账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',d.`name` '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',a.order_no as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注单号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',a.create_time as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投注时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>足球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 2 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>篮球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 3 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 4 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>排球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 5 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>羽毛球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 6 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乒乓球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 7 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>棒球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 100 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冰上曲棍球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' END)as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>球类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',(case when a.bet_type=1 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' when a.bet_type=2 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' when a.bet_type=3 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复式串关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' end ) as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注单类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',tournament_name '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联赛名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛事名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',IF(is_live=3,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>早盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滚球盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>') '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛事类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',market_name  '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘口名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',specifier '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亚盘口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',outcome_name  '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投注项名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',cast(credit_odds as char) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赔率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',if(odds_type=1,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欧洲盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>香港盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>') '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘口类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',match_time '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛事时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',ifnull(award_time,'--') as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结算时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',(CASE WHEN a.settlement_result=1 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.settlement_result=2 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.settlement_result=5 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平局走水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.settlement_result=1 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注单取消</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' END) as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注单结果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',bet_amount as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投注金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',handicap_win_or_lose '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注单输赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',efficient_amount '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.market_id='{marketId}' ORDER BY a.create_time DESC"</t>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.market_id='{marketId}' ORDER BY a.create_time DESC LIMIT 200"</t>
     </r>
   </si>
   <si>
@@ -2544,10 +2538,16 @@
     </r>
   </si>
   <si>
-    <t>{"begin":"2022-06-24","end":"2022-06-30","dateType":3,"page":1,"limit":50,"sportId":"sr:sport:2","marketId":"","account":"","queryDateType":3,"tournamentId":"sr:tournament:30142","matchId":""}</t>
+    <t>{"begin":"2022-06-24","end":"2022-06-30","dateType":3,"page":1,"limit":200,"sportId":"sr:sport:2","marketId":"","account":"","queryDateType":3,"tournamentId":"sr:tournament:30142","matchId":""}</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -3304,7 +3304,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type&gt;1 ORDER BY a.create_time DESC"
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type&gt;1 ORDER BY a.create_time DESC LIMIT 200"
 @f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -4061,7 +4061,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.tournament_id='{tournamentId}' ORDER BY a.create_time DESC"</t>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type=1 AND b.tournament_id='{tournamentId}' ORDER BY a.create_time DESC LIMIT 200"</t>
     </r>
   </si>
   <si>
@@ -5554,10 +5554,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5619,6 +5619,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5633,37 +5663,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5685,11 +5685,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5718,8 +5717,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5733,30 +5755,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5777,7 +5777,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5789,25 +5813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5819,19 +5843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5843,13 +5861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5867,37 +5885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5915,37 +5903,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5965,6 +5965,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5976,15 +5996,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6008,7 +6019,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6045,17 +6056,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -6068,10 +6068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6080,16 +6080,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6101,16 +6101,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6119,94 +6119,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -40871,7 +40871,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -42640,7 +42640,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="14" activeTab="19"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="23" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,23 @@
     <sheet name="matchReport" sheetId="18" r:id="rId22"/>
     <sheet name="match_params_m" sheetId="19" r:id="rId23"/>
     <sheet name="matchMarket" sheetId="20" r:id="rId24"/>
-    <sheet name="multiterm_params" sheetId="21" r:id="rId25"/>
-    <sheet name="multitermReport" sheetId="22" r:id="rId26"/>
-    <sheet name="cancelled_params" sheetId="23" r:id="rId27"/>
-    <sheet name="cancelledOrder" sheetId="24" r:id="rId28"/>
-    <sheet name="bill_params" sheetId="25" r:id="rId29"/>
-    <sheet name="bill" sheetId="26" r:id="rId30"/>
-    <sheet name="billDetail_params" sheetId="28" r:id="rId31"/>
-    <sheet name="billOrderDetail" sheetId="27" r:id="rId32"/>
+    <sheet name="match_params_d" sheetId="33" r:id="rId25"/>
+    <sheet name="matchOrder_d" sheetId="34" r:id="rId26"/>
+    <sheet name="multiterm_params" sheetId="21" r:id="rId27"/>
+    <sheet name="multitermReport" sheetId="22" r:id="rId28"/>
+    <sheet name="cancelled_params" sheetId="23" r:id="rId29"/>
+    <sheet name="cancelledOrder" sheetId="24" r:id="rId30"/>
+    <sheet name="bill_params" sheetId="25" r:id="rId31"/>
+    <sheet name="bill" sheetId="26" r:id="rId32"/>
+    <sheet name="billDetail_params" sheetId="28" r:id="rId33"/>
+    <sheet name="billOrderDetail" sheetId="27" r:id="rId34"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="401">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -805,6 +807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -4265,6 +4273,1583 @@
 2022-06-29 12:27:06</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事盈亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据盘口查看注单详情</t>
+    </r>
+  </si>
+  <si>
+    <t>{"begin":"2022-06-24","end":"2022-06-30","dateType":3,"page":1,"limit":200,"sportId":"sr:sport:1","marketId":"18","account":"","queryDateType":3,"tournamentId":"","matchId":"sr:match:32601055"}</t>
+  </si>
+  <si>
+    <r>
+      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND a.bet_type&gt;1 ORDER BY a.create_time DESC limit 200"
+@f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND a.sport_id='{sportId}' AND b.match_id='{matchId}' AND market_id='{marketId}' AND a.bet_type=1 ORDER BY a.create_time DESC limit 200"</t>
+    </r>
+  </si>
+  <si>
     <t>searchAccount</t>
   </si>
   <si>
@@ -5554,10 +7139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5619,7 +7204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5630,20 +7222,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5663,9 +7241,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5689,14 +7282,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5724,16 +7309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5756,7 +7341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5777,7 +7362,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5789,61 +7440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5855,49 +7458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5915,7 +7476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5927,7 +7506,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5943,18 +7540,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -5962,15 +7547,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5996,6 +7572,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6053,25 +7647,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6080,133 +7665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -40870,8 +42455,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -42256,7 +43841,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -42639,8 +44224,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -42753,7 +44338,7 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -44210,7 +45795,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -44325,6 +45910,209 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J10"/>
@@ -44365,10 +46153,10 @@
         <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I1" t="s">
         <v>84</v>
@@ -44388,16 +46176,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -44414,16 +46202,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -44440,16 +46228,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E4" t="s">
         <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -44466,7 +46254,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E5" t="s">
         <v>169</v>
@@ -44475,10 +46263,10 @@
         <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -44495,7 +46283,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
         <v>177</v>
@@ -44504,10 +46292,10 @@
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I6" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -44524,7 +46312,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
         <v>173</v>
@@ -44533,10 +46321,10 @@
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -44553,7 +46341,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
         <v>169</v>
@@ -44562,10 +46350,10 @@
         <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -44582,7 +46370,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
         <v>177</v>
@@ -44591,10 +46379,10 @@
         <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -44611,7 +46399,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
@@ -44620,10 +46408,10 @@
         <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -44635,7 +46423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -44713,10 +46501,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -44728,7 +46516,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>34</v>
@@ -44737,13 +46525,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -44755,7 +46543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
@@ -44800,10 +46588,10 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -44817,10 +46605,10 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -44834,13 +46622,13 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -44852,7 +46640,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -44930,10 +46765,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -44945,7 +46780,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
@@ -44954,13 +46789,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -44972,7 +46807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -44995,7 +46830,7 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -45015,7 +46850,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -45027,54 +46862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -45152,10 +46940,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -45167,22 +46955,22 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -45194,7 +46982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -45231,7 +47019,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -45243,7 +47031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -45321,10 +47109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -45336,10 +47124,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="23" activeTab="25"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -4333,6 +4333,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -7139,10 +7145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -7203,8 +7209,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7218,18 +7225,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7240,17 +7261,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7270,14 +7293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -7285,33 +7300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7326,7 +7317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7340,8 +7331,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7362,7 +7368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7374,67 +7380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7452,7 +7404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7464,13 +7434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7482,13 +7470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7500,31 +7506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7536,7 +7542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7552,11 +7558,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7576,48 +7595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7629,6 +7606,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7647,6 +7644,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7656,7 +7662,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7665,133 +7671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -45609,7 +45615,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -45914,8 +45920,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -45968,7 +45974,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -46003,8 +46009,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="22" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="24" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -35,19 +35,21 @@
     <sheet name="matchOrder_d" sheetId="34" r:id="rId26"/>
     <sheet name="multiterm_params" sheetId="21" r:id="rId27"/>
     <sheet name="multitermReport" sheetId="22" r:id="rId28"/>
-    <sheet name="cancelled_params" sheetId="23" r:id="rId29"/>
-    <sheet name="cancelledOrder" sheetId="24" r:id="rId30"/>
-    <sheet name="bill_params" sheetId="25" r:id="rId31"/>
-    <sheet name="bill" sheetId="26" r:id="rId32"/>
-    <sheet name="billDetail_params" sheetId="28" r:id="rId33"/>
-    <sheet name="billOrderDetail" sheetId="27" r:id="rId34"/>
+    <sheet name="multiterm_params_d" sheetId="35" r:id="rId29"/>
+    <sheet name="multitermOrder_d" sheetId="36" r:id="rId30"/>
+    <sheet name="cancelled_params" sheetId="23" r:id="rId31"/>
+    <sheet name="cancelledOrder" sheetId="24" r:id="rId32"/>
+    <sheet name="bill_params" sheetId="25" r:id="rId33"/>
+    <sheet name="bill" sheetId="26" r:id="rId34"/>
+    <sheet name="billDetail_params" sheetId="28" r:id="rId35"/>
+    <sheet name="billOrderDetail" sheetId="27" r:id="rId36"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="404">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -5917,6 +5919,840 @@
 2022-06-29 13:48:40</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混合串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据盘口查看注单详情</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"begin":"2022-06-26","end":"2022-07-02","dateType":3,"page":1,"limit":200,"sportId":"","marketId":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","account":"fceshi027","queryDateType":3,"tournamentId":"","matchId":""}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',d.`name` '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',ifnull(award_time,'--') as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=5 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平局走水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.settlement_result=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',handicap_win_or_lose '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单输赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',efficient_amount '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' {account_Str} {sportId_Str} AND a.bet_type&gt;1 ORDER BY a.create_time DESC limit 200"</t>
+    </r>
+  </si>
+  <si>
     <t>默认按照结算时间查询近7天已取消注单数据</t>
   </si>
   <si>
@@ -7145,10 +7981,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -7209,36 +8045,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -7246,24 +8052,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7277,24 +8075,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7315,6 +8104,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -7325,7 +8153,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7339,8 +8174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7368,7 +8204,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7380,25 +8234,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7416,43 +8288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7470,25 +8306,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7500,7 +8354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7512,37 +8378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7560,22 +8396,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7596,16 +8417,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7621,11 +8451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7659,10 +8495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7671,133 +8507,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -45920,8 +46756,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -46010,7 +46846,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -46435,7 +47271,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -46552,21 +47388,24 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="48.375" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="3" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="41.625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -46574,19 +47413,37 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>-7</v>
       </c>
@@ -46594,49 +47451,30 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="s">
         <v>360</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>-15</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="J2" t="s">
         <v>360</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>-7</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="K2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -46698,6 +47536,217 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>-15</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -46771,10 +47820,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -46786,7 +47835,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
@@ -46795,13 +47844,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -46813,7 +47862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -46836,7 +47885,7 @@
         <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
@@ -46856,7 +47905,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -46868,7 +47917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -46946,10 +47995,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -46961,22 +48010,22 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -46988,7 +48037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -47025,7 +48074,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -47037,7 +48086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -47115,10 +48164,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -47130,10 +48179,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="24" activeTab="29"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="24" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="404">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -5920,6 +5920,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -5970,6 +5976,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"begin":"2022-06-26","end":"2022-07-02","dateType":3,"page":1,"limit":200,"sportId":"","marketId":"</t>
     </r>
     <r>
@@ -6749,7 +6761,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' {account_Str} {sportId_Str} AND a.bet_type&gt;1 ORDER BY a.create_time DESC limit 200"</t>
+      <t>',company_actual_percentage,company_win_or_lose-company_backwater_amount 'company_winlose',0  as 'company_retreat',company_backwater_amount,company_win_or_lose,level0_actual_percentage,level0_win_or_lose-level0_backwater_amount 'level0_winlose',company_retreat_proportion 'level0_retreat',level0_backwater_amount,level0_win_or_lose,level1_actual_percentage,level1_win_or_lose-level1_backwater_amount 'level1_winlose',level0_retreat_proportion 'level1_retreat',level1_backwater_amount,level1_win_or_lose,level2_actual_percentage,level2_win_or_lose-level2_backwater_amount 'level2_winlose',level1_retreat_proportion 'level2_retreat',level2_backwater_amount,level2_win_or_lose,level3_actual_percentage,level3_win_or_lose-level3_backwater_amount 'level3_winlose',level2_retreat_proportion 'level3_retreat',level3_backwater_amount,level3_win_or_lose,handicap_final_win_or_lose-backwater_amount 'user_winlose',level3_retreat_proportion 'user_retreat',backwater_amount,handicap_final_win_or_lose FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`=2 AND a.award_time is not NULL {DateType} BETWEEN '{begin}' AND '{end}' AND d.account='{account}' {sportId_Str} AND a.bet_type&gt;1 ORDER BY a.create_time DESC"</t>
     </r>
   </si>
   <si>
@@ -7981,10 +7993,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -8046,6 +8058,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -8060,8 +8093,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8072,35 +8106,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8145,22 +8150,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8188,6 +8178,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -8199,30 +8211,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8240,31 +8228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8282,13 +8252,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8300,7 +8324,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8312,73 +8378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8389,15 +8401,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8442,11 +8445,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8489,16 +8490,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8507,34 +8519,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8543,97 +8558,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -47390,16 +47402,15 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="8" max="8" width="30.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="3" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="9" max="9" width="30.375" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="11" width="41.625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
@@ -47419,19 +47430,19 @@
         <v>357</v>
       </c>
       <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
       </c>
       <c r="J1" t="s">
         <v>358</v>
@@ -47450,23 +47461,21 @@
       <c r="B2">
         <v>-1</v>
       </c>
-      <c r="C2" t="s">
-        <v>201</v>
-      </c>
+      <c r="C2"/>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>200</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>226</v>
-      </c>
-      <c r="I2" t="s">
-        <v>360</v>
       </c>
       <c r="J2" t="s">
         <v>360</v>
@@ -47536,8 +47545,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="24" activeTab="28"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="24" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="404">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -47402,8 +47402,8 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -47461,7 +47461,9 @@
       <c r="B2">
         <v>-1</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -47545,8 +47547,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="24" activeTab="29"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="29" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,18 @@
     <sheet name="multitermOrder_d" sheetId="36" r:id="rId30"/>
     <sheet name="cancelled_params" sheetId="23" r:id="rId31"/>
     <sheet name="cancelledOrder" sheetId="24" r:id="rId32"/>
-    <sheet name="bill_params" sheetId="25" r:id="rId33"/>
-    <sheet name="bill" sheetId="26" r:id="rId34"/>
-    <sheet name="billDetail_params" sheetId="28" r:id="rId35"/>
-    <sheet name="billOrderDetail" sheetId="27" r:id="rId36"/>
+    <sheet name="cancelledOdds" sheetId="37" r:id="rId33"/>
+    <sheet name="bill_params" sheetId="25" r:id="rId34"/>
+    <sheet name="bill" sheetId="26" r:id="rId35"/>
+    <sheet name="billDetail_params" sheetId="28" r:id="rId36"/>
+    <sheet name="billOrderDetail" sheetId="27" r:id="rId37"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="406">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -6005,6 +6006,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -6794,6 +6801,32 @@
   <si>
     <t>测试不通过 
 2022-06-29 14:53:02</t>
+  </si>
+  <si>
+    <t>{"account":"","begin":"2022-07-02","end":"2022-07-08","page":1,"limit":200}</t>
+  </si>
+  <si>
+    <r>
+      <t>f"SELECT a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' FROM o_account_order a WHERE a.`status`=3 AND DATE_FORMAT(award_time,'%Y-%m-%d') BETWEEN date_sub(DATE_FORMAT(CONVERT_TZ(NOW(),'+00:00','-04:00'),'%Y-%m-%d'), interval 7 day) AND date_sub(DATE_FORMAT(CONVERT_TZ(NOW(),'+00:00','-04:00'),'%Y-%m-%d'), interval 1 day) ORDER BY a.create_time DESC LIMIT 200"</t>
+    </r>
   </si>
   <si>
     <t>date</t>
@@ -47547,7 +47580,7 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -47661,8 +47694,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -47754,6 +47787,464 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -47831,369 +48322,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="3" max="3" width="41.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>

--- a/test_data/代理报表-测试用例.xlsx
+++ b/test_data/代理报表-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="29" activeTab="32"/>
+    <workbookView windowWidth="28125" windowHeight="12420" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -14,43 +14,44 @@
     <sheet name="winLoseDetail" sheetId="5" r:id="rId5"/>
     <sheet name="winLoseDetail_params" sheetId="6" r:id="rId6"/>
     <sheet name="winLoseOrderDetail" sheetId="7" r:id="rId7"/>
-    <sheet name="winLoseSimple" sheetId="8" r:id="rId8"/>
-    <sheet name="winLoseSimple_params" sheetId="9" r:id="rId9"/>
-    <sheet name="winLoseOrderSimple" sheetId="10" r:id="rId10"/>
-    <sheet name="sport_params" sheetId="11" r:id="rId11"/>
-    <sheet name="sportReport" sheetId="12" r:id="rId12"/>
-    <sheet name="s_market_params" sheetId="13" r:id="rId13"/>
-    <sheet name="sportMarket" sheetId="14" r:id="rId14"/>
-    <sheet name="sport_params_d" sheetId="30" r:id="rId15"/>
-    <sheet name="sportOrder_d" sheetId="29" r:id="rId16"/>
-    <sheet name="tournament_params" sheetId="15" r:id="rId17"/>
-    <sheet name="tournamentReport" sheetId="16" r:id="rId18"/>
-    <sheet name="tournament_params_d" sheetId="32" r:id="rId19"/>
-    <sheet name="tournamentOrder_d" sheetId="31" r:id="rId20"/>
-    <sheet name="match_params" sheetId="17" r:id="rId21"/>
-    <sheet name="matchReport" sheetId="18" r:id="rId22"/>
-    <sheet name="match_params_m" sheetId="19" r:id="rId23"/>
-    <sheet name="matchMarket" sheetId="20" r:id="rId24"/>
-    <sheet name="match_params_d" sheetId="33" r:id="rId25"/>
-    <sheet name="matchOrder_d" sheetId="34" r:id="rId26"/>
-    <sheet name="multiterm_params" sheetId="21" r:id="rId27"/>
-    <sheet name="multitermReport" sheetId="22" r:id="rId28"/>
-    <sheet name="multiterm_params_d" sheetId="35" r:id="rId29"/>
-    <sheet name="multitermOrder_d" sheetId="36" r:id="rId30"/>
-    <sheet name="cancelled_params" sheetId="23" r:id="rId31"/>
-    <sheet name="cancelledOrder" sheetId="24" r:id="rId32"/>
-    <sheet name="cancelledOdds" sheetId="37" r:id="rId33"/>
-    <sheet name="bill_params" sheetId="25" r:id="rId34"/>
-    <sheet name="bill" sheetId="26" r:id="rId35"/>
-    <sheet name="billDetail_params" sheetId="28" r:id="rId36"/>
-    <sheet name="billOrderDetail" sheetId="27" r:id="rId37"/>
+    <sheet name="eventEntered" sheetId="38" r:id="rId8"/>
+    <sheet name="winLoseSimple" sheetId="8" r:id="rId9"/>
+    <sheet name="winLoseSimple_params" sheetId="9" r:id="rId10"/>
+    <sheet name="winLoseOrderSimple" sheetId="10" r:id="rId11"/>
+    <sheet name="sport_params" sheetId="11" r:id="rId12"/>
+    <sheet name="sportReport" sheetId="12" r:id="rId13"/>
+    <sheet name="s_market_params" sheetId="13" r:id="rId14"/>
+    <sheet name="sportMarket" sheetId="14" r:id="rId15"/>
+    <sheet name="sport_params_d" sheetId="30" r:id="rId16"/>
+    <sheet name="sportOrder_d" sheetId="29" r:id="rId17"/>
+    <sheet name="tournament_params" sheetId="15" r:id="rId18"/>
+    <sheet name="tournamentReport" sheetId="16" r:id="rId19"/>
+    <sheet name="tournament_params_d" sheetId="32" r:id="rId20"/>
+    <sheet name="tournamentOrder_d" sheetId="31" r:id="rId21"/>
+    <sheet name="match_params" sheetId="17" r:id="rId22"/>
+    <sheet name="matchReport" sheetId="18" r:id="rId23"/>
+    <sheet name="match_params_m" sheetId="19" r:id="rId24"/>
+    <sheet name="matchMarket" sheetId="20" r:id="rId25"/>
+    <sheet name="match_params_d" sheetId="33" r:id="rId26"/>
+    <sheet name="matchOrder_d" sheetId="34" r:id="rId27"/>
+    <sheet name="multiterm_params" sheetId="21" r:id="rId28"/>
+    <sheet name="multitermReport" sheetId="22" r:id="rId29"/>
+    <sheet name="multiterm_params_d" sheetId="35" r:id="rId30"/>
+    <sheet name="multitermOrder_d" sheetId="36" r:id="rId31"/>
+    <sheet name="cancelled_params" sheetId="23" r:id="rId32"/>
+    <sheet name="cancelledOrder" sheetId="24" r:id="rId33"/>
+    <sheet name="cancelledOdds" sheetId="37" r:id="rId34"/>
+    <sheet name="bill_params" sheetId="25" r:id="rId35"/>
+    <sheet name="bill" sheetId="26" r:id="rId36"/>
+    <sheet name="billDetail_params" sheetId="28" r:id="rId37"/>
+    <sheet name="billOrderDetail" sheetId="27" r:id="rId38"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="413">
   <si>
     <t>总台-代理报表</t>
   </si>
@@ -465,6 +466,74 @@
 2022-06-28 18:11:20</t>
   </si>
   <si>
+    <t>查询总代盈亏(简易)-赛事</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总代盈亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>WITH a AS ( SELECT match_date,sport_id,entered,COUNT(*) AS count FROM r_match_entered WHERE match_date&gt;=date_sub(CONVERT_TZ(curdate(),'+00:00','-04:00'),INTERVAL 1 DAY) AND match_date&lt; date_add(CONVERT_TZ(curdate(),'+00:00','-04:00'),INTERVAL 1 DAY) AND entered=0 GROUP BY sport_id,entered,match_date),b AS (SELECT match_date,sport_id,entered,COUNT(*) AS count FROM r_match_entered WHERE match_date&gt;=date_sub(CONVERT_TZ(curdate(),'+00:00','-04:00'),INTERVAL 1 DAY) AND match_date&lt; date_add(CONVERT_TZ(curdate(),'+00:00','-04:00'),INTERVAL 1 DAY) AND entered=1 GROUP BY sport_id,entered,match_date) SELECT a.match_date AS date,a.sport_id,IFNULL(b.count,0) AS event_entered,IFNULL(a.count,0) AS event_not_entered FROM a LEFT JOIN b ON a.match_date=b.match_date AND a.sport_id=b.sport_id ORDER BY date DESC</t>
+  </si>
+  <si>
     <t>查询总台盈亏(简易)-默认查询近7天</t>
   </si>
   <si>
@@ -741,13 +810,13 @@
     <t>limit</t>
   </si>
   <si>
-    <t>根据球类"足球"查看注单详情</t>
+    <t>默认按照结算时间根据球类"足球"查询近7日的注单详情</t>
   </si>
   <si>
-    <t>根据球类"篮球"查看注单详情</t>
+    <t>默认按照结算时间根据球类"篮球"查询近7日的注单详情</t>
   </si>
   <si>
-    <t>根据球类"网球"查看注单详情</t>
+    <t>默认按照结算时间根据球类"网球"查询近7日的注单详情</t>
   </si>
   <si>
     <r>
@@ -2491,6 +2560,9 @@
   <si>
     <t>测试通过 
 2022-06-29 10:08:01</t>
+  </si>
+  <si>
+    <t>根据结算时间默认查询"足球"近7天注单详情</t>
   </si>
   <si>
     <r>
@@ -4276,6 +4348,9 @@
 2022-06-29 12:27:06</t>
   </si>
   <si>
+    <t>根据球类"足球"查看注单详情</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -5920,6 +5995,9 @@
 2022-06-29 13:48:40</t>
   </si>
   <si>
+    <t>按照结算时间默认查询近7天注单详情</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -6807,6 +6885,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT a.order_no as '</t>
     </r>
     <r>
@@ -42042,6 +42126,99 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>-7</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>-15</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>-30</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42117,10 +42294,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42144,10 +42321,10 @@
         <v>133</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42159,7 +42336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
@@ -42177,19 +42354,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -42203,10 +42380,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -42220,10 +42397,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -42237,10 +42414,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -42254,10 +42431,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -42271,10 +42448,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -42288,10 +42465,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -42305,10 +42482,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -42322,10 +42499,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -42339,10 +42516,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -42351,7 +42528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -42429,10 +42606,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -42444,7 +42621,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
@@ -42453,13 +42630,13 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>65</v>
@@ -42471,13 +42648,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -42491,25 +42668,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -42523,13 +42700,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -42546,13 +42723,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -42569,13 +42746,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -42592,13 +42769,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -42615,13 +42792,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -42638,13 +42815,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -42661,13 +42838,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -42684,13 +42861,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -42707,13 +42884,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -42730,13 +42907,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -42753,13 +42930,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -42776,13 +42953,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -42799,13 +42976,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -42822,13 +42999,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -42845,13 +43022,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -42868,13 +43045,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -42891,13 +43068,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -42914,13 +43091,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -42937,13 +43114,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -42960,13 +43137,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -42983,13 +43160,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -43006,13 +43183,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -43029,13 +43206,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -43052,13 +43229,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -43070,7 +43247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
@@ -43148,10 +43325,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -43163,10 +43340,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
@@ -43176,159 +43353,6 @@
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="35.875" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="42" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>-7</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>-7</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>-7</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="H4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -43340,10 +43364,163 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="49.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -43415,10 +43592,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>56</v>
@@ -43430,10 +43607,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>61</v>
@@ -43451,13 +43628,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -43471,25 +43648,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -43503,16 +43680,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -43526,16 +43703,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -43549,16 +43726,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -43572,16 +43749,16 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -43595,16 +43772,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -43618,16 +43795,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -43641,16 +43818,16 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -43664,16 +43841,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -43687,16 +43864,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -43710,16 +43887,16 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -43733,16 +43910,16 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -43756,16 +43933,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -43779,16 +43956,16 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -43802,16 +43979,16 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -43825,16 +44002,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -43848,16 +44025,16 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -43871,16 +44048,16 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -43894,16 +44071,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -43917,16 +44094,16 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -43940,16 +44117,16 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -43963,16 +44140,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -43986,16 +44163,16 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -44009,16 +44186,16 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -44032,16 +44209,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -44055,16 +44232,16 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -44078,16 +44255,16 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -44101,16 +44278,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -44124,16 +44301,16 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -44147,16 +44324,16 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -44170,16 +44347,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -44193,16 +44370,16 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -44216,16 +44393,16 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -44239,16 +44416,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -44262,16 +44439,16 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -44285,16 +44462,16 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -44308,16 +44485,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -44331,16 +44508,16 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F38" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -44354,16 +44531,16 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -44377,16 +44554,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -44400,16 +44577,16 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -44423,16 +44600,16 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -44446,16 +446